--- a/input/NuevaDefDefunciones/Fallecidos Min Ciencias acumulado.xlsx
+++ b/input/NuevaDefDefunciones/Fallecidos Min Ciencias acumulado.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darancibia/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26EEF9D-0CE6-F34B-9F5E-B2F30BD7C287}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CDF7664-B5EC-884E-8726-A0C84F8AB2F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="12340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25120" windowHeight="12340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -97,11 +97,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -114,6 +127,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -394,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J84"/>
+  <dimension ref="A1:L86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="E92" sqref="E92"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="E99" sqref="E99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -405,7 +420,7 @@
     <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -445,8 +460,16 @@
         <f>SUM(J3:J84)</f>
         <v>3362</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1">
+        <f>SUM(K3:K85)</f>
+        <v>3383</v>
+      </c>
+      <c r="L1">
+        <f>SUM(L3:L86)</f>
+        <v>3615</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -474,11 +497,17 @@
       <c r="I2" s="6">
         <v>43996</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="8">
         <v>43997</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K2" s="6">
+        <v>43998</v>
+      </c>
+      <c r="L2" s="6">
+        <v>43999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>43910</v>
       </c>
@@ -506,11 +535,17 @@
       <c r="I3" s="1">
         <v>1</v>
       </c>
-      <c r="J3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J3" s="9">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>43915</v>
       </c>
@@ -538,11 +573,17 @@
       <c r="I4" s="1">
         <v>1</v>
       </c>
-      <c r="J4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J4" s="9">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>43916</v>
       </c>
@@ -570,11 +611,17 @@
       <c r="I5" s="1">
         <v>1</v>
       </c>
-      <c r="J5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J5" s="9">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>43917</v>
       </c>
@@ -602,11 +649,17 @@
       <c r="I6" s="1">
         <v>1</v>
       </c>
-      <c r="J6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J6" s="9">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>43918</v>
       </c>
@@ -634,11 +687,17 @@
       <c r="I7" s="1">
         <v>1</v>
       </c>
-      <c r="J7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J7" s="9">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>43919</v>
       </c>
@@ -666,11 +725,17 @@
       <c r="I8" s="1">
         <v>1</v>
       </c>
-      <c r="J8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J8" s="9">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>43920</v>
       </c>
@@ -698,11 +763,17 @@
       <c r="I9" s="1">
         <v>3</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="9">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K9" s="1">
+        <v>3</v>
+      </c>
+      <c r="L9" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>43921</v>
       </c>
@@ -730,11 +801,17 @@
       <c r="I10" s="1">
         <v>4</v>
       </c>
-      <c r="J10" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J10" s="9">
+        <v>4</v>
+      </c>
+      <c r="K10" s="1">
+        <v>4</v>
+      </c>
+      <c r="L10" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>43922</v>
       </c>
@@ -762,11 +839,17 @@
       <c r="I11" s="1">
         <v>1</v>
       </c>
-      <c r="J11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J11" s="9">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>43923</v>
       </c>
@@ -794,11 +877,17 @@
       <c r="I12" s="1">
         <v>4</v>
       </c>
-      <c r="J12" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J12" s="9">
+        <v>4</v>
+      </c>
+      <c r="K12" s="1">
+        <v>4</v>
+      </c>
+      <c r="L12" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>43924</v>
       </c>
@@ -826,11 +915,17 @@
       <c r="I13" s="1">
         <v>6</v>
       </c>
-      <c r="J13" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J13" s="9">
+        <v>6</v>
+      </c>
+      <c r="K13" s="1">
+        <v>6</v>
+      </c>
+      <c r="L13" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>43925</v>
       </c>
@@ -858,11 +953,17 @@
       <c r="I14" s="1">
         <v>8</v>
       </c>
-      <c r="J14" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J14" s="9">
+        <v>8</v>
+      </c>
+      <c r="K14" s="1">
+        <v>8</v>
+      </c>
+      <c r="L14" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>43926</v>
       </c>
@@ -890,11 +991,17 @@
       <c r="I15" s="1">
         <v>1</v>
       </c>
-      <c r="J15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J15" s="9">
+        <v>1</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>43927</v>
       </c>
@@ -922,11 +1029,17 @@
       <c r="I16" s="1">
         <v>5</v>
       </c>
-      <c r="J16" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J16" s="9">
+        <v>5</v>
+      </c>
+      <c r="K16" s="1">
+        <v>5</v>
+      </c>
+      <c r="L16" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>43928</v>
       </c>
@@ -954,11 +1067,17 @@
       <c r="I17" s="1">
         <v>4</v>
       </c>
-      <c r="J17" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J17" s="9">
+        <v>4</v>
+      </c>
+      <c r="K17" s="1">
+        <v>4</v>
+      </c>
+      <c r="L17" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>43929</v>
       </c>
@@ -986,11 +1105,17 @@
       <c r="I18" s="1">
         <v>10</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="9">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K18" s="1">
+        <v>10</v>
+      </c>
+      <c r="L18" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>43930</v>
       </c>
@@ -1018,11 +1143,17 @@
       <c r="I19" s="1">
         <v>9</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19" s="9">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K19" s="1">
+        <v>9</v>
+      </c>
+      <c r="L19" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>43931</v>
       </c>
@@ -1050,11 +1181,17 @@
       <c r="I20" s="1">
         <v>6</v>
       </c>
-      <c r="J20" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J20" s="9">
+        <v>6</v>
+      </c>
+      <c r="K20" s="1">
+        <v>6</v>
+      </c>
+      <c r="L20" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>43932</v>
       </c>
@@ -1082,11 +1219,17 @@
       <c r="I21" s="1">
         <v>7</v>
       </c>
-      <c r="J21" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J21" s="9">
+        <v>7</v>
+      </c>
+      <c r="K21" s="1">
+        <v>7</v>
+      </c>
+      <c r="L21" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>43933</v>
       </c>
@@ -1114,11 +1257,17 @@
       <c r="I22" s="1">
         <v>3</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22" s="9">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K22" s="1">
+        <v>3</v>
+      </c>
+      <c r="L22" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>43934</v>
       </c>
@@ -1146,11 +1295,17 @@
       <c r="I23" s="1">
         <v>9</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23" s="9">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K23" s="1">
+        <v>9</v>
+      </c>
+      <c r="L23" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>43935</v>
       </c>
@@ -1178,11 +1333,17 @@
       <c r="I24" s="1">
         <v>4</v>
       </c>
-      <c r="J24" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J24" s="9">
+        <v>4</v>
+      </c>
+      <c r="K24" s="1">
+        <v>4</v>
+      </c>
+      <c r="L24" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>43936</v>
       </c>
@@ -1210,11 +1371,17 @@
       <c r="I25" s="1">
         <v>8</v>
       </c>
-      <c r="J25" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J25" s="9">
+        <v>8</v>
+      </c>
+      <c r="K25" s="1">
+        <v>8</v>
+      </c>
+      <c r="L25" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>43937</v>
       </c>
@@ -1242,11 +1409,17 @@
       <c r="I26" s="1">
         <v>6</v>
       </c>
-      <c r="J26" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J26" s="9">
+        <v>6</v>
+      </c>
+      <c r="K26" s="1">
+        <v>6</v>
+      </c>
+      <c r="L26" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>43938</v>
       </c>
@@ -1274,11 +1447,17 @@
       <c r="I27" s="1">
         <v>5</v>
       </c>
-      <c r="J27" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J27" s="9">
+        <v>5</v>
+      </c>
+      <c r="K27" s="1">
+        <v>5</v>
+      </c>
+      <c r="L27" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>43939</v>
       </c>
@@ -1306,11 +1485,17 @@
       <c r="I28" s="1">
         <v>6</v>
       </c>
-      <c r="J28" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J28" s="9">
+        <v>6</v>
+      </c>
+      <c r="K28" s="1">
+        <v>6</v>
+      </c>
+      <c r="L28" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>43940</v>
       </c>
@@ -1338,11 +1523,17 @@
       <c r="I29" s="1">
         <v>5</v>
       </c>
-      <c r="J29" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J29" s="9">
+        <v>5</v>
+      </c>
+      <c r="K29" s="1">
+        <v>5</v>
+      </c>
+      <c r="L29" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>43941</v>
       </c>
@@ -1370,11 +1561,17 @@
       <c r="I30" s="1">
         <v>10</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J30" s="9">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K30" s="1">
+        <v>10</v>
+      </c>
+      <c r="L30" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>43942</v>
       </c>
@@ -1402,11 +1599,17 @@
       <c r="I31" s="1">
         <v>8</v>
       </c>
-      <c r="J31" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J31" s="9">
+        <v>8</v>
+      </c>
+      <c r="K31" s="1">
+        <v>8</v>
+      </c>
+      <c r="L31" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>43943</v>
       </c>
@@ -1434,11 +1637,17 @@
       <c r="I32" s="1">
         <v>5</v>
       </c>
-      <c r="J32" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J32" s="9">
+        <v>5</v>
+      </c>
+      <c r="K32" s="1">
+        <v>5</v>
+      </c>
+      <c r="L32" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>43944</v>
       </c>
@@ -1466,11 +1675,17 @@
       <c r="I33" s="1">
         <v>7</v>
       </c>
-      <c r="J33" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J33" s="9">
+        <v>7</v>
+      </c>
+      <c r="K33" s="1">
+        <v>7</v>
+      </c>
+      <c r="L33" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>43945</v>
       </c>
@@ -1498,11 +1713,17 @@
       <c r="I34" s="1">
         <v>6</v>
       </c>
-      <c r="J34" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J34" s="9">
+        <v>6</v>
+      </c>
+      <c r="K34" s="1">
+        <v>6</v>
+      </c>
+      <c r="L34" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>43946</v>
       </c>
@@ -1530,11 +1751,17 @@
       <c r="I35" s="1">
         <v>7</v>
       </c>
-      <c r="J35" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J35" s="9">
+        <v>7</v>
+      </c>
+      <c r="K35" s="1">
+        <v>7</v>
+      </c>
+      <c r="L35" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>43947</v>
       </c>
@@ -1562,11 +1789,17 @@
       <c r="I36" s="1">
         <v>9</v>
       </c>
-      <c r="J36" s="1">
+      <c r="J36" s="9">
         <v>9</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K36" s="1">
+        <v>9</v>
+      </c>
+      <c r="L36" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>43948</v>
       </c>
@@ -1594,11 +1827,17 @@
       <c r="I37" s="1">
         <v>11</v>
       </c>
-      <c r="J37" s="1">
+      <c r="J37" s="9">
         <v>11</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K37" s="1">
+        <v>11</v>
+      </c>
+      <c r="L37" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>43949</v>
       </c>
@@ -1626,11 +1865,17 @@
       <c r="I38" s="1">
         <v>7</v>
       </c>
-      <c r="J38" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J38" s="9">
+        <v>7</v>
+      </c>
+      <c r="K38" s="1">
+        <v>7</v>
+      </c>
+      <c r="L38" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>43950</v>
       </c>
@@ -1658,11 +1903,17 @@
       <c r="I39" s="1">
         <v>6</v>
       </c>
-      <c r="J39" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J39" s="9">
+        <v>6</v>
+      </c>
+      <c r="K39" s="1">
+        <v>6</v>
+      </c>
+      <c r="L39" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>43951</v>
       </c>
@@ -1690,11 +1941,17 @@
       <c r="I40" s="1">
         <v>8</v>
       </c>
-      <c r="J40" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J40" s="9">
+        <v>8</v>
+      </c>
+      <c r="K40" s="1">
+        <v>8</v>
+      </c>
+      <c r="L40" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>43952</v>
       </c>
@@ -1722,11 +1979,17 @@
       <c r="I41" s="1">
         <v>10</v>
       </c>
-      <c r="J41" s="1">
+      <c r="J41" s="9">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K41" s="1">
+        <v>10</v>
+      </c>
+      <c r="L41" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>43953</v>
       </c>
@@ -1754,11 +2017,17 @@
       <c r="I42" s="1">
         <v>7</v>
       </c>
-      <c r="J42" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J42" s="9">
+        <v>7</v>
+      </c>
+      <c r="K42" s="1">
+        <v>7</v>
+      </c>
+      <c r="L42" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>43954</v>
       </c>
@@ -1786,11 +2055,17 @@
       <c r="I43" s="1">
         <v>19</v>
       </c>
-      <c r="J43" s="1">
+      <c r="J43" s="9">
         <v>19</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K43" s="1">
+        <v>19</v>
+      </c>
+      <c r="L43" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>43955</v>
       </c>
@@ -1818,11 +2093,17 @@
       <c r="I44" s="1">
         <v>12</v>
       </c>
-      <c r="J44" s="1">
+      <c r="J44" s="9">
         <v>12</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K44" s="1">
+        <v>12</v>
+      </c>
+      <c r="L44" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>43956</v>
       </c>
@@ -1850,11 +2131,17 @@
       <c r="I45" s="1">
         <v>11</v>
       </c>
-      <c r="J45" s="1">
+      <c r="J45" s="9">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K45" s="1">
+        <v>11</v>
+      </c>
+      <c r="L45" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>43957</v>
       </c>
@@ -1882,11 +2169,17 @@
       <c r="I46" s="1">
         <v>14</v>
       </c>
-      <c r="J46" s="1">
+      <c r="J46" s="9">
         <v>14</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K46" s="1">
+        <v>14</v>
+      </c>
+      <c r="L46" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>43958</v>
       </c>
@@ -1914,11 +2207,17 @@
       <c r="I47" s="1">
         <v>29</v>
       </c>
-      <c r="J47" s="1">
+      <c r="J47" s="9">
         <v>29</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K47" s="1">
+        <v>29</v>
+      </c>
+      <c r="L47" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>43959</v>
       </c>
@@ -1946,11 +2245,17 @@
       <c r="I48" s="1">
         <v>16</v>
       </c>
-      <c r="J48" s="1">
+      <c r="J48" s="9">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K48" s="1">
+        <v>16</v>
+      </c>
+      <c r="L48" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>43960</v>
       </c>
@@ -1978,11 +2283,17 @@
       <c r="I49" s="1">
         <v>22</v>
       </c>
-      <c r="J49" s="1">
+      <c r="J49" s="9">
         <v>22</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K49" s="1">
+        <v>22</v>
+      </c>
+      <c r="L49" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>43961</v>
       </c>
@@ -2010,11 +2321,17 @@
       <c r="I50" s="1">
         <v>30</v>
       </c>
-      <c r="J50" s="1">
+      <c r="J50" s="9">
         <v>30</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K50" s="1">
+        <v>30</v>
+      </c>
+      <c r="L50" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>43962</v>
       </c>
@@ -2042,11 +2359,17 @@
       <c r="I51" s="1">
         <v>19</v>
       </c>
-      <c r="J51" s="1">
+      <c r="J51" s="9">
         <v>19</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K51" s="1">
+        <v>19</v>
+      </c>
+      <c r="L51" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>43963</v>
       </c>
@@ -2074,11 +2397,17 @@
       <c r="I52" s="1">
         <v>25</v>
       </c>
-      <c r="J52" s="1">
+      <c r="J52" s="9">
         <v>25</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K52" s="1">
+        <v>26</v>
+      </c>
+      <c r="L52" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>43964</v>
       </c>
@@ -2106,11 +2435,17 @@
       <c r="I53" s="1">
         <v>38</v>
       </c>
-      <c r="J53" s="1">
+      <c r="J53" s="9">
         <v>38</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K53" s="1">
+        <v>38</v>
+      </c>
+      <c r="L53" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>43965</v>
       </c>
@@ -2138,11 +2473,17 @@
       <c r="I54" s="1">
         <v>35</v>
       </c>
-      <c r="J54" s="1">
+      <c r="J54" s="9">
         <v>35</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K54" s="1">
+        <v>35</v>
+      </c>
+      <c r="L54" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <v>43966</v>
       </c>
@@ -2170,11 +2511,17 @@
       <c r="I55" s="1">
         <v>32</v>
       </c>
-      <c r="J55" s="1">
+      <c r="J55" s="9">
         <v>32</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K55" s="1">
+        <v>32</v>
+      </c>
+      <c r="L55" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>43967</v>
       </c>
@@ -2202,11 +2549,17 @@
       <c r="I56" s="1">
         <v>49</v>
       </c>
-      <c r="J56" s="1">
+      <c r="J56" s="9">
         <v>49</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K56" s="1">
+        <v>49</v>
+      </c>
+      <c r="L56" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>43968</v>
       </c>
@@ -2234,11 +2587,17 @@
       <c r="I57" s="1">
         <v>45</v>
       </c>
-      <c r="J57" s="1">
+      <c r="J57" s="9">
         <v>45</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K57" s="1">
+        <v>45</v>
+      </c>
+      <c r="L57" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>43969</v>
       </c>
@@ -2266,11 +2625,17 @@
       <c r="I58" s="1">
         <v>60</v>
       </c>
-      <c r="J58" s="1">
+      <c r="J58" s="9">
         <v>60</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K58" s="1">
+        <v>61</v>
+      </c>
+      <c r="L58" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>43970</v>
       </c>
@@ -2298,11 +2663,17 @@
       <c r="I59" s="1">
         <v>60</v>
       </c>
-      <c r="J59" s="1">
+      <c r="J59" s="9">
         <v>60</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K59" s="1">
+        <v>60</v>
+      </c>
+      <c r="L59" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>43971</v>
       </c>
@@ -2330,11 +2701,17 @@
       <c r="I60" s="1">
         <v>65</v>
       </c>
-      <c r="J60" s="1">
+      <c r="J60" s="9">
         <v>65</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K60" s="1">
+        <v>65</v>
+      </c>
+      <c r="L60" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>43972</v>
       </c>
@@ -2362,11 +2739,17 @@
       <c r="I61" s="1">
         <v>60</v>
       </c>
-      <c r="J61" s="1">
+      <c r="J61" s="9">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K61" s="1">
+        <v>60</v>
+      </c>
+      <c r="L61" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>43973</v>
       </c>
@@ -2394,11 +2777,17 @@
       <c r="I62" s="1">
         <v>69</v>
       </c>
-      <c r="J62" s="1">
+      <c r="J62" s="9">
         <v>69</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K62" s="1">
+        <v>69</v>
+      </c>
+      <c r="L62" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>43974</v>
       </c>
@@ -2426,11 +2815,17 @@
       <c r="I63" s="1">
         <v>85</v>
       </c>
-      <c r="J63" s="1">
+      <c r="J63" s="9">
         <v>85</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K63" s="1">
+        <v>85</v>
+      </c>
+      <c r="L63" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>43975</v>
       </c>
@@ -2458,11 +2853,17 @@
       <c r="I64" s="1">
         <v>95</v>
       </c>
-      <c r="J64" s="1">
+      <c r="J64" s="9">
         <v>95</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K64" s="1">
+        <v>95</v>
+      </c>
+      <c r="L64" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>43976</v>
       </c>
@@ -2490,11 +2891,17 @@
       <c r="I65" s="1">
         <v>86</v>
       </c>
-      <c r="J65" s="1">
+      <c r="J65" s="9">
         <v>86</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K65" s="1">
+        <v>86</v>
+      </c>
+      <c r="L65" s="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>43977</v>
       </c>
@@ -2522,11 +2929,17 @@
       <c r="I66" s="1">
         <v>103</v>
       </c>
-      <c r="J66" s="1">
+      <c r="J66" s="9">
         <v>103</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K66" s="1">
+        <v>103</v>
+      </c>
+      <c r="L66" s="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>43978</v>
       </c>
@@ -2554,11 +2967,17 @@
       <c r="I67" s="1">
         <v>115</v>
       </c>
-      <c r="J67" s="1">
+      <c r="J67" s="9">
         <v>115</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K67" s="1">
+        <v>115</v>
+      </c>
+      <c r="L67" s="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>43979</v>
       </c>
@@ -2586,11 +3005,17 @@
       <c r="I68" s="1">
         <v>111</v>
       </c>
-      <c r="J68" s="1">
+      <c r="J68" s="9">
         <v>111</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K68" s="1">
+        <v>111</v>
+      </c>
+      <c r="L68" s="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>43980</v>
       </c>
@@ -2618,11 +3043,17 @@
       <c r="I69" s="1">
         <v>120</v>
       </c>
-      <c r="J69" s="1">
+      <c r="J69" s="9">
         <v>120</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K69" s="1">
+        <v>121</v>
+      </c>
+      <c r="L69" s="1">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>43981</v>
       </c>
@@ -2650,11 +3081,17 @@
       <c r="I70" s="1">
         <v>121</v>
       </c>
-      <c r="J70" s="1">
+      <c r="J70" s="9">
         <v>121</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K70" s="1">
+        <v>121</v>
+      </c>
+      <c r="L70" s="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
         <v>43982</v>
       </c>
@@ -2682,11 +3119,17 @@
       <c r="I71" s="1">
         <v>108</v>
       </c>
-      <c r="J71" s="1">
+      <c r="J71" s="9">
         <v>108</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K71" s="1">
+        <v>108</v>
+      </c>
+      <c r="L71" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <v>43983</v>
       </c>
@@ -2714,11 +3157,17 @@
       <c r="I72" s="1">
         <v>136</v>
       </c>
-      <c r="J72" s="1">
+      <c r="J72" s="9">
         <v>136</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K72" s="1">
+        <v>137</v>
+      </c>
+      <c r="L72" s="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <v>43984</v>
       </c>
@@ -2746,11 +3195,17 @@
       <c r="I73" s="1">
         <v>129</v>
       </c>
-      <c r="J73" s="1">
+      <c r="J73" s="9">
         <v>129</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K73" s="1">
+        <v>129</v>
+      </c>
+      <c r="L73" s="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
         <v>43985</v>
       </c>
@@ -2778,11 +3233,17 @@
       <c r="I74" s="1">
         <v>140</v>
       </c>
-      <c r="J74" s="1">
+      <c r="J74" s="9">
         <v>141</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K74" s="1">
+        <v>141</v>
+      </c>
+      <c r="L74" s="1">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
         <v>43986</v>
       </c>
@@ -2810,11 +3271,17 @@
       <c r="I75" s="1">
         <v>134</v>
       </c>
-      <c r="J75" s="1">
+      <c r="J75" s="9">
         <v>138</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K75" s="1">
+        <v>138</v>
+      </c>
+      <c r="L75" s="1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <v>43987</v>
       </c>
@@ -2842,11 +3309,17 @@
       <c r="I76" s="1">
         <v>120</v>
       </c>
-      <c r="J76" s="1">
+      <c r="J76" s="9">
         <v>129</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K76" s="1">
+        <v>129</v>
+      </c>
+      <c r="L76" s="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
         <v>43988</v>
       </c>
@@ -2872,11 +3345,17 @@
       <c r="I77" s="1">
         <v>136</v>
       </c>
-      <c r="J77" s="1">
+      <c r="J77" s="9">
         <v>140</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K77" s="1">
+        <v>143</v>
+      </c>
+      <c r="L77" s="1">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="5">
         <v>43989</v>
       </c>
@@ -2900,11 +3379,17 @@
       <c r="I78" s="1">
         <v>131</v>
       </c>
-      <c r="J78" s="1">
+      <c r="J78" s="9">
         <v>132</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K78" s="1">
+        <v>132</v>
+      </c>
+      <c r="L78" s="1">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="5">
         <v>43990</v>
       </c>
@@ -2926,11 +3411,17 @@
       <c r="I79" s="1">
         <v>125</v>
       </c>
-      <c r="J79" s="1">
+      <c r="J79" s="9">
         <v>125</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K79" s="1">
+        <v>125</v>
+      </c>
+      <c r="L79" s="1">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
         <v>43991</v>
       </c>
@@ -2950,11 +3441,17 @@
       <c r="I80" s="1">
         <v>140</v>
       </c>
-      <c r="J80" s="1">
+      <c r="J80" s="9">
         <v>141</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K80" s="1">
+        <v>143</v>
+      </c>
+      <c r="L80" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
         <v>43992</v>
       </c>
@@ -2972,11 +3469,17 @@
       <c r="I81" s="1">
         <v>123</v>
       </c>
-      <c r="J81" s="1">
+      <c r="J81" s="9">
         <v>125</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K81" s="1">
+        <v>125</v>
+      </c>
+      <c r="L81" s="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
         <v>43993</v>
       </c>
@@ -2992,11 +3495,17 @@
       <c r="I82" s="1">
         <v>110</v>
       </c>
-      <c r="J82" s="1">
+      <c r="J82" s="9">
         <v>113</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K82" s="1">
+        <v>113</v>
+      </c>
+      <c r="L82" s="1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" s="5">
         <v>43994</v>
       </c>
@@ -3010,11 +3519,17 @@
       <c r="I83" s="1">
         <v>24</v>
       </c>
-      <c r="J83" s="1">
+      <c r="J83" s="9">
         <v>37</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K83" s="1">
+        <v>39</v>
+      </c>
+      <c r="L83" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
         <v>43995</v>
       </c>
@@ -3026,8 +3541,34 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
-      <c r="J84" s="1">
-        <v>1</v>
+      <c r="J84" s="9">
+        <v>1</v>
+      </c>
+      <c r="K84" s="1">
+        <v>9</v>
+      </c>
+      <c r="L84" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A85" s="5">
+        <v>43996</v>
+      </c>
+      <c r="K85" s="1">
+        <v>2</v>
+      </c>
+      <c r="L85" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A86" s="5">
+        <v>43997</v>
+      </c>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/input/NuevaDefDefunciones/Fallecidos Min Ciencias acumulado.xlsx
+++ b/input/NuevaDefDefunciones/Fallecidos Min Ciencias acumulado.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10614"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darancibia/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CDF7664-B5EC-884E-8726-A0C84F8AB2F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AB87B47-57CE-654E-BBF0-807D467DD8A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25120" windowHeight="12340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="12340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -114,7 +114,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -129,6 +129,7 @@
     </xf>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L86"/>
+  <dimension ref="A1:M87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="E99" sqref="E99"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="G91" sqref="G91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -420,7 +421,7 @@
     <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -468,8 +469,12 @@
         <f>SUM(L3:L86)</f>
         <v>3615</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1">
+        <f>SUM(M3:M87)</f>
+        <v>3841</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -506,8 +511,11 @@
       <c r="L2" s="6">
         <v>43999</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M2" s="10">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>43910</v>
       </c>
@@ -544,8 +552,11 @@
       <c r="L3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>43915</v>
       </c>
@@ -582,8 +593,11 @@
       <c r="L4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>43916</v>
       </c>
@@ -620,8 +634,11 @@
       <c r="L5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>43917</v>
       </c>
@@ -658,8 +675,11 @@
       <c r="L6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>43918</v>
       </c>
@@ -696,8 +716,11 @@
       <c r="L7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>43919</v>
       </c>
@@ -734,8 +757,11 @@
       <c r="L8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>43920</v>
       </c>
@@ -772,8 +798,11 @@
       <c r="L9" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>43921</v>
       </c>
@@ -810,8 +839,11 @@
       <c r="L10" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>43922</v>
       </c>
@@ -848,8 +880,11 @@
       <c r="L11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>43923</v>
       </c>
@@ -886,8 +921,11 @@
       <c r="L12" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>43924</v>
       </c>
@@ -924,8 +962,11 @@
       <c r="L13" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>43925</v>
       </c>
@@ -962,8 +1003,11 @@
       <c r="L14" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>43926</v>
       </c>
@@ -1000,8 +1044,11 @@
       <c r="L15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>43927</v>
       </c>
@@ -1038,8 +1085,11 @@
       <c r="L16" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>43928</v>
       </c>
@@ -1076,8 +1126,11 @@
       <c r="L17" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>43929</v>
       </c>
@@ -1114,8 +1167,11 @@
       <c r="L18" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>43930</v>
       </c>
@@ -1152,8 +1208,11 @@
       <c r="L19" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>43931</v>
       </c>
@@ -1190,8 +1249,11 @@
       <c r="L20" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>43932</v>
       </c>
@@ -1228,8 +1290,11 @@
       <c r="L21" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>43933</v>
       </c>
@@ -1266,8 +1331,11 @@
       <c r="L22" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>43934</v>
       </c>
@@ -1304,8 +1372,11 @@
       <c r="L23" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>43935</v>
       </c>
@@ -1342,8 +1413,11 @@
       <c r="L24" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>43936</v>
       </c>
@@ -1380,8 +1454,11 @@
       <c r="L25" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>43937</v>
       </c>
@@ -1418,8 +1495,11 @@
       <c r="L26" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>43938</v>
       </c>
@@ -1456,8 +1536,11 @@
       <c r="L27" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>43939</v>
       </c>
@@ -1494,8 +1577,11 @@
       <c r="L28" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>43940</v>
       </c>
@@ -1532,8 +1618,11 @@
       <c r="L29" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>43941</v>
       </c>
@@ -1570,8 +1659,11 @@
       <c r="L30" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>43942</v>
       </c>
@@ -1608,8 +1700,11 @@
       <c r="L31" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>43943</v>
       </c>
@@ -1646,8 +1741,11 @@
       <c r="L32" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>43944</v>
       </c>
@@ -1684,8 +1782,11 @@
       <c r="L33" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>43945</v>
       </c>
@@ -1722,8 +1823,11 @@
       <c r="L34" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>43946</v>
       </c>
@@ -1760,8 +1864,11 @@
       <c r="L35" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>43947</v>
       </c>
@@ -1798,8 +1905,11 @@
       <c r="L36" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M36">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>43948</v>
       </c>
@@ -1836,8 +1946,11 @@
       <c r="L37" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M37">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>43949</v>
       </c>
@@ -1874,8 +1987,11 @@
       <c r="L38" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>43950</v>
       </c>
@@ -1912,8 +2028,11 @@
       <c r="L39" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>43951</v>
       </c>
@@ -1950,8 +2069,11 @@
       <c r="L40" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M40">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>43952</v>
       </c>
@@ -1988,8 +2110,11 @@
       <c r="L41" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>43953</v>
       </c>
@@ -2026,8 +2151,11 @@
       <c r="L42" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M42">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>43954</v>
       </c>
@@ -2064,8 +2192,11 @@
       <c r="L43" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M43">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>43955</v>
       </c>
@@ -2102,8 +2233,11 @@
       <c r="L44" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M44">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>43956</v>
       </c>
@@ -2140,8 +2274,11 @@
       <c r="L45" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M45">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>43957</v>
       </c>
@@ -2178,8 +2315,11 @@
       <c r="L46" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M46">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>43958</v>
       </c>
@@ -2216,8 +2356,11 @@
       <c r="L47" s="1">
         <v>29</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M47">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>43959</v>
       </c>
@@ -2254,8 +2397,11 @@
       <c r="L48" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M48">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>43960</v>
       </c>
@@ -2292,8 +2438,11 @@
       <c r="L49" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M49">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>43961</v>
       </c>
@@ -2330,8 +2479,11 @@
       <c r="L50" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M50">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>43962</v>
       </c>
@@ -2368,8 +2520,11 @@
       <c r="L51" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M51">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>43963</v>
       </c>
@@ -2406,8 +2561,11 @@
       <c r="L52" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M52">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>43964</v>
       </c>
@@ -2444,8 +2602,11 @@
       <c r="L53" s="1">
         <v>38</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M53">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>43965</v>
       </c>
@@ -2482,8 +2643,11 @@
       <c r="L54" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M54">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <v>43966</v>
       </c>
@@ -2520,8 +2684,11 @@
       <c r="L55" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M55">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>43967</v>
       </c>
@@ -2558,8 +2725,11 @@
       <c r="L56" s="1">
         <v>49</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M56">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>43968</v>
       </c>
@@ -2596,8 +2766,11 @@
       <c r="L57" s="1">
         <v>46</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M57">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>43969</v>
       </c>
@@ -2634,8 +2807,11 @@
       <c r="L58" s="1">
         <v>61</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M58">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>43970</v>
       </c>
@@ -2672,8 +2848,11 @@
       <c r="L59" s="1">
         <v>61</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M59">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>43971</v>
       </c>
@@ -2710,8 +2889,11 @@
       <c r="L60" s="1">
         <v>65</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M60">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>43972</v>
       </c>
@@ -2748,8 +2930,11 @@
       <c r="L61" s="1">
         <v>62</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M61">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>43973</v>
       </c>
@@ -2786,8 +2971,11 @@
       <c r="L62" s="1">
         <v>69</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M62">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>43974</v>
       </c>
@@ -2824,8 +3012,11 @@
       <c r="L63" s="1">
         <v>85</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M63">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>43975</v>
       </c>
@@ -2862,8 +3053,11 @@
       <c r="L64" s="1">
         <v>95</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M64">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>43976</v>
       </c>
@@ -2900,8 +3094,11 @@
       <c r="L65" s="1">
         <v>86</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M65">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>43977</v>
       </c>
@@ -2938,8 +3135,11 @@
       <c r="L66" s="1">
         <v>104</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M66">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>43978</v>
       </c>
@@ -2976,8 +3176,11 @@
       <c r="L67" s="1">
         <v>116</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M67">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>43979</v>
       </c>
@@ -3014,8 +3217,11 @@
       <c r="L68" s="1">
         <v>111</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M68">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>43980</v>
       </c>
@@ -3052,8 +3258,11 @@
       <c r="L69" s="1">
         <v>121</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M69">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>43981</v>
       </c>
@@ -3090,8 +3299,11 @@
       <c r="L70" s="1">
         <v>122</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M70">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
         <v>43982</v>
       </c>
@@ -3128,8 +3340,11 @@
       <c r="L71" s="1">
         <v>110</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M71">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <v>43983</v>
       </c>
@@ -3166,8 +3381,11 @@
       <c r="L72" s="1">
         <v>138</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M72">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <v>43984</v>
       </c>
@@ -3204,8 +3422,11 @@
       <c r="L73" s="1">
         <v>132</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M73">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
         <v>43985</v>
       </c>
@@ -3242,8 +3463,11 @@
       <c r="L74" s="1">
         <v>142</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M74">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
         <v>43986</v>
       </c>
@@ -3280,8 +3504,11 @@
       <c r="L75" s="1">
         <v>141</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M75">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <v>43987</v>
       </c>
@@ -3318,8 +3545,11 @@
       <c r="L76" s="1">
         <v>137</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M76">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
         <v>43988</v>
       </c>
@@ -3354,8 +3584,11 @@
       <c r="L77" s="1">
         <v>146</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M77">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" s="5">
         <v>43989</v>
       </c>
@@ -3388,8 +3621,11 @@
       <c r="L78" s="1">
         <v>139</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M78">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" s="5">
         <v>43990</v>
       </c>
@@ -3420,8 +3656,11 @@
       <c r="L79" s="1">
         <v>126</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M79">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
         <v>43991</v>
       </c>
@@ -3450,8 +3689,11 @@
       <c r="L80" s="1">
         <v>150</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M80">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
         <v>43992</v>
       </c>
@@ -3478,8 +3720,11 @@
       <c r="L81" s="1">
         <v>131</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M81">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
         <v>43993</v>
       </c>
@@ -3504,8 +3749,11 @@
       <c r="L82" s="1">
         <v>118</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M82">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" s="5">
         <v>43994</v>
       </c>
@@ -3528,8 +3776,11 @@
       <c r="L83" s="1">
         <v>64</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M83">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
         <v>43995</v>
       </c>
@@ -3550,8 +3801,11 @@
       <c r="L84" s="1">
         <v>66</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M84">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" s="5">
         <v>43996</v>
       </c>
@@ -3561,14 +3815,28 @@
       <c r="L85" s="1">
         <v>80</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M85">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" s="5">
         <v>43997</v>
       </c>
       <c r="K86" s="1"/>
       <c r="L86" s="1">
         <v>18</v>
+      </c>
+      <c r="M86">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A87" s="5">
+        <v>43998</v>
+      </c>
+      <c r="M87">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/input/NuevaDefDefunciones/Fallecidos Min Ciencias acumulado.xlsx
+++ b/input/NuevaDefDefunciones/Fallecidos Min Ciencias acumulado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darancibia/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AB87B47-57CE-654E-BBF0-807D467DD8A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{751A55C4-E3B0-0E4C-B410-CDE58E9565AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="12340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -114,7 +114,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -130,6 +130,7 @@
     <xf numFmtId="16" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M87"/>
+  <dimension ref="A1:N88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="G91" sqref="G91"/>
+    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="F97" sqref="F97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -421,7 +422,7 @@
     <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -473,8 +474,12 @@
         <f>SUM(M3:M87)</f>
         <v>3841</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N1">
+        <f>SUM(N3:N88)</f>
+        <v>4093</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -514,8 +519,11 @@
       <c r="M2" s="10">
         <v>44000</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N2" s="10">
+        <v>44001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>43910</v>
       </c>
@@ -555,8 +563,11 @@
       <c r="M3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N3" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>43915</v>
       </c>
@@ -596,8 +607,11 @@
       <c r="M4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N4" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>43916</v>
       </c>
@@ -637,8 +651,11 @@
       <c r="M5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N5" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>43917</v>
       </c>
@@ -678,8 +695,11 @@
       <c r="M6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N6" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>43918</v>
       </c>
@@ -719,8 +739,11 @@
       <c r="M7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>43919</v>
       </c>
@@ -760,8 +783,11 @@
       <c r="M8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>43920</v>
       </c>
@@ -801,8 +827,11 @@
       <c r="M9">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>43921</v>
       </c>
@@ -842,8 +871,11 @@
       <c r="M10">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>43922</v>
       </c>
@@ -883,8 +915,11 @@
       <c r="M11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>43923</v>
       </c>
@@ -924,8 +959,11 @@
       <c r="M12">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>43924</v>
       </c>
@@ -965,8 +1003,11 @@
       <c r="M13">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>43925</v>
       </c>
@@ -1006,8 +1047,11 @@
       <c r="M14">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>43926</v>
       </c>
@@ -1047,8 +1091,11 @@
       <c r="M15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>43927</v>
       </c>
@@ -1088,8 +1135,11 @@
       <c r="M16">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>43928</v>
       </c>
@@ -1129,8 +1179,11 @@
       <c r="M17">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>43929</v>
       </c>
@@ -1170,8 +1223,11 @@
       <c r="M18">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>43930</v>
       </c>
@@ -1211,8 +1267,11 @@
       <c r="M19">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>43931</v>
       </c>
@@ -1252,8 +1311,11 @@
       <c r="M20">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>43932</v>
       </c>
@@ -1293,8 +1355,11 @@
       <c r="M21">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>43933</v>
       </c>
@@ -1334,8 +1399,11 @@
       <c r="M22">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>43934</v>
       </c>
@@ -1375,8 +1443,11 @@
       <c r="M23">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>43935</v>
       </c>
@@ -1416,8 +1487,11 @@
       <c r="M24">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>43936</v>
       </c>
@@ -1457,8 +1531,11 @@
       <c r="M25">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>43937</v>
       </c>
@@ -1498,8 +1575,11 @@
       <c r="M26">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>43938</v>
       </c>
@@ -1539,8 +1619,11 @@
       <c r="M27">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>43939</v>
       </c>
@@ -1580,8 +1663,11 @@
       <c r="M28">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>43940</v>
       </c>
@@ -1621,8 +1707,11 @@
       <c r="M29">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>43941</v>
       </c>
@@ -1662,8 +1751,11 @@
       <c r="M30">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>43942</v>
       </c>
@@ -1703,8 +1795,11 @@
       <c r="M31">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>43943</v>
       </c>
@@ -1744,8 +1839,11 @@
       <c r="M32">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>43944</v>
       </c>
@@ -1785,8 +1883,11 @@
       <c r="M33">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>43945</v>
       </c>
@@ -1826,8 +1927,11 @@
       <c r="M34">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>43946</v>
       </c>
@@ -1867,8 +1971,11 @@
       <c r="M35">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>43947</v>
       </c>
@@ -1908,8 +2015,11 @@
       <c r="M36">
         <v>9</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N36" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>43948</v>
       </c>
@@ -1949,8 +2059,11 @@
       <c r="M37">
         <v>11</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N37" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>43949</v>
       </c>
@@ -1990,8 +2103,11 @@
       <c r="M38">
         <v>7</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>43950</v>
       </c>
@@ -2031,8 +2147,11 @@
       <c r="M39">
         <v>6</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>43951</v>
       </c>
@@ -2072,8 +2191,11 @@
       <c r="M40">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>43952</v>
       </c>
@@ -2113,8 +2235,11 @@
       <c r="M41">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>43953</v>
       </c>
@@ -2154,8 +2279,11 @@
       <c r="M42">
         <v>7</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>43954</v>
       </c>
@@ -2195,8 +2323,11 @@
       <c r="M43">
         <v>19</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="11">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>43955</v>
       </c>
@@ -2236,8 +2367,11 @@
       <c r="M44">
         <v>12</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>43956</v>
       </c>
@@ -2277,8 +2411,11 @@
       <c r="M45">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>43957</v>
       </c>
@@ -2318,8 +2455,11 @@
       <c r="M46">
         <v>14</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>43958</v>
       </c>
@@ -2359,8 +2499,11 @@
       <c r="M47">
         <v>29</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="11">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>43959</v>
       </c>
@@ -2400,8 +2543,11 @@
       <c r="M48">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>43960</v>
       </c>
@@ -2441,8 +2587,11 @@
       <c r="M49">
         <v>22</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>43961</v>
       </c>
@@ -2482,8 +2631,11 @@
       <c r="M50">
         <v>30</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>43962</v>
       </c>
@@ -2523,8 +2675,11 @@
       <c r="M51">
         <v>19</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="11">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>43963</v>
       </c>
@@ -2564,8 +2719,11 @@
       <c r="M52">
         <v>26</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="11">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>43964</v>
       </c>
@@ -2605,8 +2763,11 @@
       <c r="M53">
         <v>38</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="11">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>43965</v>
       </c>
@@ -2646,8 +2807,11 @@
       <c r="M54">
         <v>35</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <v>43966</v>
       </c>
@@ -2687,8 +2851,11 @@
       <c r="M55">
         <v>32</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="11">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>43967</v>
       </c>
@@ -2728,8 +2895,11 @@
       <c r="M56">
         <v>49</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="11">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>43968</v>
       </c>
@@ -2769,8 +2939,11 @@
       <c r="M57">
         <v>46</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="11">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>43969</v>
       </c>
@@ -2810,8 +2983,11 @@
       <c r="M58">
         <v>61</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="11">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>43970</v>
       </c>
@@ -2851,8 +3027,11 @@
       <c r="M59">
         <v>61</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="11">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>43971</v>
       </c>
@@ -2892,8 +3071,11 @@
       <c r="M60">
         <v>65</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="11">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>43972</v>
       </c>
@@ -2933,8 +3115,11 @@
       <c r="M61">
         <v>62</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="11">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>43973</v>
       </c>
@@ -2974,8 +3159,11 @@
       <c r="M62">
         <v>69</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>43974</v>
       </c>
@@ -3015,8 +3203,11 @@
       <c r="M63">
         <v>85</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="11">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>43975</v>
       </c>
@@ -3056,8 +3247,11 @@
       <c r="M64">
         <v>95</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="11">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>43976</v>
       </c>
@@ -3097,8 +3291,11 @@
       <c r="M65">
         <v>86</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="11">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>43977</v>
       </c>
@@ -3138,8 +3335,11 @@
       <c r="M66">
         <v>105</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="11">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>43978</v>
       </c>
@@ -3179,8 +3379,11 @@
       <c r="M67">
         <v>116</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="11">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>43979</v>
       </c>
@@ -3220,8 +3423,11 @@
       <c r="M68">
         <v>111</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="11">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>43980</v>
       </c>
@@ -3261,8 +3467,11 @@
       <c r="M69">
         <v>121</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="11">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>43981</v>
       </c>
@@ -3302,8 +3511,11 @@
       <c r="M70">
         <v>122</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="11">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
         <v>43982</v>
       </c>
@@ -3343,8 +3555,11 @@
       <c r="M71">
         <v>111</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="11">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <v>43983</v>
       </c>
@@ -3384,8 +3599,11 @@
       <c r="M72">
         <v>139</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="11">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <v>43984</v>
       </c>
@@ -3425,8 +3643,11 @@
       <c r="M73">
         <v>133</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="11">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
         <v>43985</v>
       </c>
@@ -3466,8 +3687,11 @@
       <c r="M74">
         <v>146</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="11">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
         <v>43986</v>
       </c>
@@ -3507,8 +3731,11 @@
       <c r="M75">
         <v>142</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="11">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <v>43987</v>
       </c>
@@ -3548,8 +3775,11 @@
       <c r="M76">
         <v>139</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="11">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
         <v>43988</v>
       </c>
@@ -3587,8 +3817,11 @@
       <c r="M77">
         <v>148</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="11">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="5">
         <v>43989</v>
       </c>
@@ -3624,8 +3857,11 @@
       <c r="M78">
         <v>139</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N78" s="11">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="5">
         <v>43990</v>
       </c>
@@ -3659,8 +3895,11 @@
       <c r="M79">
         <v>129</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N79" s="11">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
         <v>43991</v>
       </c>
@@ -3692,8 +3931,11 @@
       <c r="M80">
         <v>158</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="11">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
         <v>43992</v>
       </c>
@@ -3723,8 +3965,11 @@
       <c r="M81">
         <v>144</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="11">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
         <v>43993</v>
       </c>
@@ -3752,8 +3997,11 @@
       <c r="M82">
         <v>136</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="11">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="5">
         <v>43994</v>
       </c>
@@ -3779,8 +4027,11 @@
       <c r="M83">
         <v>87</v>
       </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="11">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
         <v>43995</v>
       </c>
@@ -3804,8 +4055,11 @@
       <c r="M84">
         <v>97</v>
       </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="11">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="5">
         <v>43996</v>
       </c>
@@ -3818,8 +4072,11 @@
       <c r="M85">
         <v>106</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="11">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="5">
         <v>43997</v>
       </c>
@@ -3830,13 +4087,27 @@
       <c r="M86">
         <v>87</v>
       </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="11">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="5">
         <v>43998</v>
       </c>
       <c r="M87">
         <v>22</v>
+      </c>
+      <c r="N87" s="11">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A88" s="5">
+        <v>43999</v>
+      </c>
+      <c r="N88" s="11">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/input/NuevaDefDefunciones/Fallecidos Min Ciencias acumulado.xlsx
+++ b/input/NuevaDefDefunciones/Fallecidos Min Ciencias acumulado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darancibia/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{751A55C4-E3B0-0E4C-B410-CDE58E9565AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE1DEF9E-BF14-ED4B-940E-1A16C6C14742}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="12340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,13 +45,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -114,7 +120,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -131,6 +137,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N88"/>
+  <dimension ref="A1:O89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="F97" sqref="F97"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -422,7 +429,7 @@
     <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -478,8 +485,12 @@
         <f>SUM(N3:N88)</f>
         <v>4093</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O1" s="11">
+        <f>SUM(O3:O88)</f>
+        <v>4282</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -522,8 +533,11 @@
       <c r="N2" s="10">
         <v>44001</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O2" s="10">
+        <v>44002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>43910</v>
       </c>
@@ -566,8 +580,11 @@
       <c r="N3" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O3" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>43915</v>
       </c>
@@ -610,8 +627,11 @@
       <c r="N4" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O4" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>43916</v>
       </c>
@@ -654,8 +674,11 @@
       <c r="N5" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O5" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>43917</v>
       </c>
@@ -698,8 +721,11 @@
       <c r="N6" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O6" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>43918</v>
       </c>
@@ -742,8 +768,11 @@
       <c r="N7" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>43919</v>
       </c>
@@ -786,8 +815,11 @@
       <c r="N8" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>43920</v>
       </c>
@@ -830,8 +862,11 @@
       <c r="N9" s="11">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>43921</v>
       </c>
@@ -874,8 +909,11 @@
       <c r="N10" s="11">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>43922</v>
       </c>
@@ -918,8 +956,11 @@
       <c r="N11" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>43923</v>
       </c>
@@ -962,8 +1003,11 @@
       <c r="N12" s="11">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>43924</v>
       </c>
@@ -1006,8 +1050,11 @@
       <c r="N13" s="11">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>43925</v>
       </c>
@@ -1050,8 +1097,11 @@
       <c r="N14" s="11">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>43926</v>
       </c>
@@ -1094,8 +1144,11 @@
       <c r="N15" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>43927</v>
       </c>
@@ -1138,8 +1191,11 @@
       <c r="N16" s="11">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>43928</v>
       </c>
@@ -1182,8 +1238,11 @@
       <c r="N17" s="11">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>43929</v>
       </c>
@@ -1226,8 +1285,11 @@
       <c r="N18" s="11">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>43930</v>
       </c>
@@ -1270,8 +1332,11 @@
       <c r="N19" s="11">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>43931</v>
       </c>
@@ -1314,8 +1379,11 @@
       <c r="N20" s="11">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>43932</v>
       </c>
@@ -1358,8 +1426,11 @@
       <c r="N21" s="11">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>43933</v>
       </c>
@@ -1402,8 +1473,11 @@
       <c r="N22" s="11">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>43934</v>
       </c>
@@ -1446,8 +1520,11 @@
       <c r="N23" s="11">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>43935</v>
       </c>
@@ -1490,8 +1567,11 @@
       <c r="N24" s="11">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>43936</v>
       </c>
@@ -1534,8 +1614,11 @@
       <c r="N25" s="11">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>43937</v>
       </c>
@@ -1578,8 +1661,11 @@
       <c r="N26" s="11">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>43938</v>
       </c>
@@ -1622,8 +1708,11 @@
       <c r="N27" s="11">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>43939</v>
       </c>
@@ -1666,8 +1755,11 @@
       <c r="N28" s="11">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>43940</v>
       </c>
@@ -1710,8 +1802,11 @@
       <c r="N29" s="11">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>43941</v>
       </c>
@@ -1754,8 +1849,11 @@
       <c r="N30" s="11">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>43942</v>
       </c>
@@ -1798,8 +1896,11 @@
       <c r="N31" s="11">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>43943</v>
       </c>
@@ -1842,8 +1943,11 @@
       <c r="N32" s="11">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>43944</v>
       </c>
@@ -1886,8 +1990,11 @@
       <c r="N33" s="11">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>43945</v>
       </c>
@@ -1930,8 +2037,11 @@
       <c r="N34" s="11">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>43946</v>
       </c>
@@ -1974,8 +2084,11 @@
       <c r="N35" s="11">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>43947</v>
       </c>
@@ -2018,8 +2131,11 @@
       <c r="N36" s="11">
         <v>9</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O36" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>43948</v>
       </c>
@@ -2062,8 +2178,11 @@
       <c r="N37" s="11">
         <v>11</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O37" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>43949</v>
       </c>
@@ -2106,8 +2225,11 @@
       <c r="N38" s="11">
         <v>7</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>43950</v>
       </c>
@@ -2150,8 +2272,11 @@
       <c r="N39" s="11">
         <v>6</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>43951</v>
       </c>
@@ -2194,8 +2319,11 @@
       <c r="N40" s="11">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>43952</v>
       </c>
@@ -2238,8 +2366,11 @@
       <c r="N41" s="11">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>43953</v>
       </c>
@@ -2282,8 +2413,11 @@
       <c r="N42" s="11">
         <v>7</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>43954</v>
       </c>
@@ -2326,8 +2460,11 @@
       <c r="N43" s="11">
         <v>19</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>43955</v>
       </c>
@@ -2370,8 +2507,11 @@
       <c r="N44" s="11">
         <v>12</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>43956</v>
       </c>
@@ -2414,8 +2554,11 @@
       <c r="N45" s="11">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>43957</v>
       </c>
@@ -2458,8 +2601,11 @@
       <c r="N46" s="11">
         <v>14</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>43958</v>
       </c>
@@ -2502,8 +2648,11 @@
       <c r="N47" s="11">
         <v>29</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>43959</v>
       </c>
@@ -2546,8 +2695,11 @@
       <c r="N48" s="11">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>43960</v>
       </c>
@@ -2590,8 +2742,11 @@
       <c r="N49" s="11">
         <v>22</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>43961</v>
       </c>
@@ -2634,8 +2789,11 @@
       <c r="N50" s="11">
         <v>30</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>43962</v>
       </c>
@@ -2678,8 +2836,11 @@
       <c r="N51" s="11">
         <v>19</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>43963</v>
       </c>
@@ -2722,8 +2883,11 @@
       <c r="N52" s="11">
         <v>26</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>43964</v>
       </c>
@@ -2766,8 +2930,11 @@
       <c r="N53" s="11">
         <v>38</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="12">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>43965</v>
       </c>
@@ -2810,8 +2977,11 @@
       <c r="N54" s="11">
         <v>35</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <v>43966</v>
       </c>
@@ -2854,8 +3024,11 @@
       <c r="N55" s="11">
         <v>32</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>43967</v>
       </c>
@@ -2898,8 +3071,11 @@
       <c r="N56" s="11">
         <v>49</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="12">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>43968</v>
       </c>
@@ -2942,8 +3118,11 @@
       <c r="N57" s="11">
         <v>46</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="12">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>43969</v>
       </c>
@@ -2986,8 +3165,11 @@
       <c r="N58" s="11">
         <v>61</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="12">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>43970</v>
       </c>
@@ -3030,8 +3212,11 @@
       <c r="N59" s="11">
         <v>61</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="12">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>43971</v>
       </c>
@@ -3074,8 +3259,11 @@
       <c r="N60" s="11">
         <v>65</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="12">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>43972</v>
       </c>
@@ -3118,8 +3306,11 @@
       <c r="N61" s="11">
         <v>62</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="12">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>43973</v>
       </c>
@@ -3162,8 +3353,11 @@
       <c r="N62" s="11">
         <v>70</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>43974</v>
       </c>
@@ -3206,8 +3400,11 @@
       <c r="N63" s="11">
         <v>86</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="12">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>43975</v>
       </c>
@@ -3250,8 +3447,11 @@
       <c r="N64" s="11">
         <v>95</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="12">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>43976</v>
       </c>
@@ -3294,8 +3494,11 @@
       <c r="N65" s="11">
         <v>86</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="12">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>43977</v>
       </c>
@@ -3338,8 +3541,11 @@
       <c r="N66" s="11">
         <v>106</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="12">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>43978</v>
       </c>
@@ -3382,8 +3588,11 @@
       <c r="N67" s="11">
         <v>118</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="12">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>43979</v>
       </c>
@@ -3426,8 +3635,11 @@
       <c r="N68" s="11">
         <v>112</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="12">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>43980</v>
       </c>
@@ -3470,8 +3682,11 @@
       <c r="N69" s="11">
         <v>121</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="12">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>43981</v>
       </c>
@@ -3514,8 +3729,11 @@
       <c r="N70" s="11">
         <v>126</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="12">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
         <v>43982</v>
       </c>
@@ -3558,8 +3776,11 @@
       <c r="N71" s="11">
         <v>113</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="12">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <v>43983</v>
       </c>
@@ -3602,8 +3823,11 @@
       <c r="N72" s="11">
         <v>140</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="12">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <v>43984</v>
       </c>
@@ -3646,8 +3870,11 @@
       <c r="N73" s="11">
         <v>133</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="12">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
         <v>43985</v>
       </c>
@@ -3690,8 +3917,11 @@
       <c r="N74" s="11">
         <v>147</v>
       </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="12">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
         <v>43986</v>
       </c>
@@ -3734,8 +3964,11 @@
       <c r="N75" s="11">
         <v>143</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="12">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <v>43987</v>
       </c>
@@ -3778,8 +4011,11 @@
       <c r="N76" s="11">
         <v>144</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="12">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
         <v>43988</v>
       </c>
@@ -3820,8 +4056,11 @@
       <c r="N77" s="11">
         <v>154</v>
       </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="12">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="5">
         <v>43989</v>
       </c>
@@ -3860,8 +4099,11 @@
       <c r="N78" s="11">
         <v>143</v>
       </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O78" s="12">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="5">
         <v>43990</v>
       </c>
@@ -3898,8 +4140,11 @@
       <c r="N79" s="11">
         <v>132</v>
       </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O79" s="12">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
         <v>43991</v>
       </c>
@@ -3934,8 +4179,11 @@
       <c r="N80" s="11">
         <v>160</v>
       </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="12">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
         <v>43992</v>
       </c>
@@ -3968,8 +4216,11 @@
       <c r="N81" s="11">
         <v>150</v>
       </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="12">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
         <v>43993</v>
       </c>
@@ -4000,8 +4251,11 @@
       <c r="N82" s="11">
         <v>144</v>
       </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="12">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="5">
         <v>43994</v>
       </c>
@@ -4030,8 +4284,11 @@
       <c r="N83" s="11">
         <v>117</v>
       </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="12">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
         <v>43995</v>
       </c>
@@ -4058,8 +4315,11 @@
       <c r="N84" s="11">
         <v>112</v>
       </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="12">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="5">
         <v>43996</v>
       </c>
@@ -4075,8 +4335,11 @@
       <c r="N85" s="11">
         <v>119</v>
       </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="12">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="5">
         <v>43997</v>
       </c>
@@ -4090,8 +4353,11 @@
       <c r="N86" s="11">
         <v>108</v>
       </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="12">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="5">
         <v>43998</v>
       </c>
@@ -4101,13 +4367,27 @@
       <c r="N87" s="11">
         <v>116</v>
       </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="12">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="5">
         <v>43999</v>
       </c>
       <c r="N88" s="11">
         <v>30</v>
+      </c>
+      <c r="O88" s="12">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A89" s="5">
+        <v>44000</v>
+      </c>
+      <c r="O89" s="12">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/input/NuevaDefDefunciones/Fallecidos Min Ciencias acumulado.xlsx
+++ b/input/NuevaDefDefunciones/Fallecidos Min Ciencias acumulado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darancibia/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE1DEF9E-BF14-ED4B-940E-1A16C6C14742}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648AD28B-F66B-734F-889A-48FAD40FC1EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="12340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -418,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O89"/>
+  <dimension ref="A1:P90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="S87" sqref="S87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -429,7 +429,7 @@
     <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -489,8 +489,12 @@
         <f>SUM(O3:O88)</f>
         <v>4282</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P1" s="11">
+        <f>SUM(P3:P88)</f>
+        <v>4386</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -536,8 +540,11 @@
       <c r="O2" s="10">
         <v>44002</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P2" s="10">
+        <v>44003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>43910</v>
       </c>
@@ -583,8 +590,11 @@
       <c r="O3" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P3" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>43915</v>
       </c>
@@ -630,8 +640,11 @@
       <c r="O4" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P4" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>43916</v>
       </c>
@@ -677,8 +690,11 @@
       <c r="O5" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P5" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>43917</v>
       </c>
@@ -724,8 +740,11 @@
       <c r="O6" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P6" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>43918</v>
       </c>
@@ -771,8 +790,11 @@
       <c r="O7" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>43919</v>
       </c>
@@ -818,8 +840,11 @@
       <c r="O8" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>43920</v>
       </c>
@@ -865,8 +890,11 @@
       <c r="O9" s="12">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>43921</v>
       </c>
@@ -912,8 +940,11 @@
       <c r="O10" s="12">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>43922</v>
       </c>
@@ -959,8 +990,11 @@
       <c r="O11" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>43923</v>
       </c>
@@ -1006,8 +1040,11 @@
       <c r="O12" s="12">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>43924</v>
       </c>
@@ -1053,8 +1090,11 @@
       <c r="O13" s="12">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>43925</v>
       </c>
@@ -1100,8 +1140,11 @@
       <c r="O14" s="12">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>43926</v>
       </c>
@@ -1147,8 +1190,11 @@
       <c r="O15" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>43927</v>
       </c>
@@ -1194,8 +1240,11 @@
       <c r="O16" s="12">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>43928</v>
       </c>
@@ -1241,8 +1290,11 @@
       <c r="O17" s="12">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>43929</v>
       </c>
@@ -1288,8 +1340,11 @@
       <c r="O18" s="12">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>43930</v>
       </c>
@@ -1335,8 +1390,11 @@
       <c r="O19" s="12">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>43931</v>
       </c>
@@ -1382,8 +1440,11 @@
       <c r="O20" s="12">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>43932</v>
       </c>
@@ -1429,8 +1490,11 @@
       <c r="O21" s="12">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>43933</v>
       </c>
@@ -1476,8 +1540,11 @@
       <c r="O22" s="12">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>43934</v>
       </c>
@@ -1523,8 +1590,11 @@
       <c r="O23" s="12">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>43935</v>
       </c>
@@ -1570,8 +1640,11 @@
       <c r="O24" s="12">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>43936</v>
       </c>
@@ -1617,8 +1690,11 @@
       <c r="O25" s="12">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>43937</v>
       </c>
@@ -1664,8 +1740,11 @@
       <c r="O26" s="12">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>43938</v>
       </c>
@@ -1711,8 +1790,11 @@
       <c r="O27" s="12">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>43939</v>
       </c>
@@ -1758,8 +1840,11 @@
       <c r="O28" s="12">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>43940</v>
       </c>
@@ -1805,8 +1890,11 @@
       <c r="O29" s="12">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>43941</v>
       </c>
@@ -1852,8 +1940,11 @@
       <c r="O30" s="12">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>43942</v>
       </c>
@@ -1899,8 +1990,11 @@
       <c r="O31" s="12">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>43943</v>
       </c>
@@ -1946,8 +2040,11 @@
       <c r="O32" s="12">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>43944</v>
       </c>
@@ -1993,8 +2090,11 @@
       <c r="O33" s="12">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>43945</v>
       </c>
@@ -2040,8 +2140,11 @@
       <c r="O34" s="12">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>43946</v>
       </c>
@@ -2087,8 +2190,11 @@
       <c r="O35" s="12">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>43947</v>
       </c>
@@ -2134,8 +2240,11 @@
       <c r="O36" s="12">
         <v>9</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P36" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>43948</v>
       </c>
@@ -2181,8 +2290,11 @@
       <c r="O37" s="12">
         <v>11</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P37" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>43949</v>
       </c>
@@ -2228,8 +2340,11 @@
       <c r="O38" s="12">
         <v>7</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>43950</v>
       </c>
@@ -2275,8 +2390,11 @@
       <c r="O39" s="12">
         <v>6</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>43951</v>
       </c>
@@ -2322,8 +2440,11 @@
       <c r="O40" s="12">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>43952</v>
       </c>
@@ -2369,8 +2490,11 @@
       <c r="O41" s="12">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>43953</v>
       </c>
@@ -2416,8 +2540,11 @@
       <c r="O42" s="12">
         <v>7</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>43954</v>
       </c>
@@ -2463,8 +2590,11 @@
       <c r="O43" s="12">
         <v>19</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>43955</v>
       </c>
@@ -2510,8 +2640,11 @@
       <c r="O44" s="12">
         <v>12</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>43956</v>
       </c>
@@ -2557,8 +2690,11 @@
       <c r="O45" s="12">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>43957</v>
       </c>
@@ -2604,8 +2740,11 @@
       <c r="O46" s="12">
         <v>14</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>43958</v>
       </c>
@@ -2651,8 +2790,11 @@
       <c r="O47" s="12">
         <v>29</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>43959</v>
       </c>
@@ -2698,8 +2840,11 @@
       <c r="O48" s="12">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>43960</v>
       </c>
@@ -2745,8 +2890,11 @@
       <c r="O49" s="12">
         <v>22</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>43961</v>
       </c>
@@ -2792,8 +2940,11 @@
       <c r="O50" s="12">
         <v>30</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>43962</v>
       </c>
@@ -2839,8 +2990,11 @@
       <c r="O51" s="12">
         <v>19</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>43963</v>
       </c>
@@ -2886,8 +3040,11 @@
       <c r="O52" s="12">
         <v>26</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>43964</v>
       </c>
@@ -2933,8 +3090,11 @@
       <c r="O53" s="12">
         <v>38</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="12">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>43965</v>
       </c>
@@ -2980,8 +3140,11 @@
       <c r="O54" s="12">
         <v>35</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <v>43966</v>
       </c>
@@ -3027,8 +3190,11 @@
       <c r="O55" s="12">
         <v>32</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>43967</v>
       </c>
@@ -3074,8 +3240,11 @@
       <c r="O56" s="12">
         <v>49</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="12">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>43968</v>
       </c>
@@ -3121,8 +3290,11 @@
       <c r="O57" s="12">
         <v>46</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="12">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>43969</v>
       </c>
@@ -3168,8 +3340,11 @@
       <c r="O58" s="12">
         <v>61</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="12">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>43970</v>
       </c>
@@ -3215,8 +3390,11 @@
       <c r="O59" s="12">
         <v>61</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="12">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>43971</v>
       </c>
@@ -3262,8 +3440,11 @@
       <c r="O60" s="12">
         <v>65</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="12">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>43972</v>
       </c>
@@ -3309,8 +3490,11 @@
       <c r="O61" s="12">
         <v>62</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="12">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>43973</v>
       </c>
@@ -3356,8 +3540,11 @@
       <c r="O62" s="12">
         <v>70</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>43974</v>
       </c>
@@ -3403,8 +3590,11 @@
       <c r="O63" s="12">
         <v>86</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="12">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>43975</v>
       </c>
@@ -3450,8 +3640,11 @@
       <c r="O64" s="12">
         <v>95</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="12">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>43976</v>
       </c>
@@ -3497,8 +3690,11 @@
       <c r="O65" s="12">
         <v>86</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="12">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>43977</v>
       </c>
@@ -3544,8 +3740,11 @@
       <c r="O66" s="12">
         <v>106</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="12">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>43978</v>
       </c>
@@ -3591,8 +3790,11 @@
       <c r="O67" s="12">
         <v>118</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="12">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>43979</v>
       </c>
@@ -3638,8 +3840,11 @@
       <c r="O68" s="12">
         <v>113</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="12">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>43980</v>
       </c>
@@ -3685,8 +3890,11 @@
       <c r="O69" s="12">
         <v>121</v>
       </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="12">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>43981</v>
       </c>
@@ -3732,8 +3940,11 @@
       <c r="O70" s="12">
         <v>126</v>
       </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="12">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
         <v>43982</v>
       </c>
@@ -3779,8 +3990,11 @@
       <c r="O71" s="12">
         <v>113</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="12">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <v>43983</v>
       </c>
@@ -3826,8 +4040,11 @@
       <c r="O72" s="12">
         <v>141</v>
       </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="12">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <v>43984</v>
       </c>
@@ -3873,8 +4090,11 @@
       <c r="O73" s="12">
         <v>133</v>
       </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="12">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
         <v>43985</v>
       </c>
@@ -3920,8 +4140,11 @@
       <c r="O74" s="12">
         <v>149</v>
       </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="12">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
         <v>43986</v>
       </c>
@@ -3967,8 +4190,11 @@
       <c r="O75" s="12">
         <v>144</v>
       </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="12">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <v>43987</v>
       </c>
@@ -4014,8 +4240,11 @@
       <c r="O76" s="12">
         <v>146</v>
       </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="12">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
         <v>43988</v>
       </c>
@@ -4059,8 +4288,11 @@
       <c r="O77" s="12">
         <v>154</v>
       </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="12">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" s="5">
         <v>43989</v>
       </c>
@@ -4102,8 +4334,11 @@
       <c r="O78" s="12">
         <v>144</v>
       </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P78" s="12">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" s="5">
         <v>43990</v>
       </c>
@@ -4143,8 +4378,11 @@
       <c r="O79" s="12">
         <v>134</v>
       </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P79" s="12">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
         <v>43991</v>
       </c>
@@ -4182,8 +4420,11 @@
       <c r="O80" s="12">
         <v>166</v>
       </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="12">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
         <v>43992</v>
       </c>
@@ -4219,8 +4460,11 @@
       <c r="O81" s="12">
         <v>152</v>
       </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="12">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
         <v>43993</v>
       </c>
@@ -4254,8 +4498,11 @@
       <c r="O82" s="12">
         <v>150</v>
       </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="12">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" s="5">
         <v>43994</v>
       </c>
@@ -4287,8 +4534,11 @@
       <c r="O83" s="12">
         <v>138</v>
       </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="12">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
         <v>43995</v>
       </c>
@@ -4318,8 +4568,11 @@
       <c r="O84" s="12">
         <v>129</v>
       </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="12">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" s="5">
         <v>43996</v>
       </c>
@@ -4338,8 +4591,11 @@
       <c r="O85" s="12">
         <v>130</v>
       </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="12">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" s="5">
         <v>43997</v>
       </c>
@@ -4356,8 +4612,11 @@
       <c r="O86" s="12">
         <v>123</v>
       </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="12">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" s="5">
         <v>43998</v>
       </c>
@@ -4370,8 +4629,11 @@
       <c r="O87" s="12">
         <v>144</v>
       </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="12">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" s="5">
         <v>43999</v>
       </c>
@@ -4381,13 +4643,27 @@
       <c r="O88" s="12">
         <v>103</v>
       </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="12">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" s="5">
         <v>44000</v>
       </c>
       <c r="O89" s="12">
         <v>13</v>
+      </c>
+      <c r="P89" s="12">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A90" s="5">
+        <v>44001</v>
+      </c>
+      <c r="P90" s="12">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/input/NuevaDefDefunciones/Fallecidos Min Ciencias acumulado.xlsx
+++ b/input/NuevaDefDefunciones/Fallecidos Min Ciencias acumulado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darancibia/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648AD28B-F66B-734F-889A-48FAD40FC1EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F30951-4F73-2F48-ACA3-308CF5F5A9D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="12340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -418,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P90"/>
+  <dimension ref="A1:Q91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="S87" sqref="S87"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -429,7 +429,7 @@
     <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -486,15 +486,19 @@
         <v>4093</v>
       </c>
       <c r="O1" s="11">
-        <f>SUM(O3:O88)</f>
-        <v>4282</v>
+        <f>SUM(O3:O999)</f>
+        <v>4295</v>
       </c>
       <c r="P1" s="11">
-        <f>SUM(P3:P88)</f>
-        <v>4386</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+        <f t="shared" ref="P1:Q1" si="0">SUM(P3:P999)</f>
+        <v>4479</v>
+      </c>
+      <c r="Q1" s="11">
+        <f t="shared" si="0"/>
+        <v>4502</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -543,8 +547,11 @@
       <c r="P2" s="10">
         <v>44003</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q2" s="10">
+        <v>44004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>43910</v>
       </c>
@@ -593,8 +600,11 @@
       <c r="P3" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q3" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>43915</v>
       </c>
@@ -643,8 +653,11 @@
       <c r="P4" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q4" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>43916</v>
       </c>
@@ -693,8 +706,11 @@
       <c r="P5" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q5" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>43917</v>
       </c>
@@ -743,8 +759,11 @@
       <c r="P6" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q6" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>43918</v>
       </c>
@@ -793,8 +812,11 @@
       <c r="P7" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>43919</v>
       </c>
@@ -843,8 +865,11 @@
       <c r="P8" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>43920</v>
       </c>
@@ -893,8 +918,11 @@
       <c r="P9" s="12">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>43921</v>
       </c>
@@ -943,8 +971,11 @@
       <c r="P10" s="12">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>43922</v>
       </c>
@@ -993,8 +1024,11 @@
       <c r="P11" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>43923</v>
       </c>
@@ -1043,8 +1077,11 @@
       <c r="P12" s="12">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>43924</v>
       </c>
@@ -1093,8 +1130,11 @@
       <c r="P13" s="12">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>43925</v>
       </c>
@@ -1143,8 +1183,11 @@
       <c r="P14" s="12">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>43926</v>
       </c>
@@ -1193,8 +1236,11 @@
       <c r="P15" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>43927</v>
       </c>
@@ -1243,8 +1289,11 @@
       <c r="P16" s="12">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>43928</v>
       </c>
@@ -1293,8 +1342,11 @@
       <c r="P17" s="12">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>43929</v>
       </c>
@@ -1343,8 +1395,11 @@
       <c r="P18" s="12">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>43930</v>
       </c>
@@ -1393,8 +1448,11 @@
       <c r="P19" s="12">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>43931</v>
       </c>
@@ -1443,8 +1501,11 @@
       <c r="P20" s="12">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>43932</v>
       </c>
@@ -1493,8 +1554,11 @@
       <c r="P21" s="12">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>43933</v>
       </c>
@@ -1543,8 +1607,11 @@
       <c r="P22" s="12">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>43934</v>
       </c>
@@ -1593,8 +1660,11 @@
       <c r="P23" s="12">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>43935</v>
       </c>
@@ -1643,8 +1713,11 @@
       <c r="P24" s="12">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>43936</v>
       </c>
@@ -1693,8 +1766,11 @@
       <c r="P25" s="12">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>43937</v>
       </c>
@@ -1743,8 +1819,11 @@
       <c r="P26" s="12">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>43938</v>
       </c>
@@ -1793,8 +1872,11 @@
       <c r="P27" s="12">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>43939</v>
       </c>
@@ -1843,8 +1925,11 @@
       <c r="P28" s="12">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>43940</v>
       </c>
@@ -1893,8 +1978,11 @@
       <c r="P29" s="12">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>43941</v>
       </c>
@@ -1943,8 +2031,11 @@
       <c r="P30" s="12">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>43942</v>
       </c>
@@ -1993,8 +2084,11 @@
       <c r="P31" s="12">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>43943</v>
       </c>
@@ -2043,8 +2137,11 @@
       <c r="P32" s="12">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>43944</v>
       </c>
@@ -2093,8 +2190,11 @@
       <c r="P33" s="12">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>43945</v>
       </c>
@@ -2143,8 +2243,11 @@
       <c r="P34" s="12">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>43946</v>
       </c>
@@ -2193,8 +2296,11 @@
       <c r="P35" s="12">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>43947</v>
       </c>
@@ -2243,8 +2349,11 @@
       <c r="P36" s="12">
         <v>9</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q36" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>43948</v>
       </c>
@@ -2293,8 +2402,11 @@
       <c r="P37" s="12">
         <v>11</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q37" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>43949</v>
       </c>
@@ -2343,8 +2455,11 @@
       <c r="P38" s="12">
         <v>7</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>43950</v>
       </c>
@@ -2393,8 +2508,11 @@
       <c r="P39" s="12">
         <v>6</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>43951</v>
       </c>
@@ -2443,8 +2561,11 @@
       <c r="P40" s="12">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>43952</v>
       </c>
@@ -2493,8 +2614,11 @@
       <c r="P41" s="12">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>43953</v>
       </c>
@@ -2543,8 +2667,11 @@
       <c r="P42" s="12">
         <v>7</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>43954</v>
       </c>
@@ -2593,8 +2720,11 @@
       <c r="P43" s="12">
         <v>19</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>43955</v>
       </c>
@@ -2643,8 +2773,11 @@
       <c r="P44" s="12">
         <v>12</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>43956</v>
       </c>
@@ -2693,8 +2826,11 @@
       <c r="P45" s="12">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>43957</v>
       </c>
@@ -2743,8 +2879,11 @@
       <c r="P46" s="12">
         <v>14</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>43958</v>
       </c>
@@ -2793,8 +2932,11 @@
       <c r="P47" s="12">
         <v>29</v>
       </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>43959</v>
       </c>
@@ -2843,8 +2985,11 @@
       <c r="P48" s="12">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>43960</v>
       </c>
@@ -2893,8 +3038,11 @@
       <c r="P49" s="12">
         <v>22</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>43961</v>
       </c>
@@ -2943,8 +3091,11 @@
       <c r="P50" s="12">
         <v>30</v>
       </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>43962</v>
       </c>
@@ -2993,8 +3144,11 @@
       <c r="P51" s="12">
         <v>19</v>
       </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>43963</v>
       </c>
@@ -3043,8 +3197,11 @@
       <c r="P52" s="12">
         <v>26</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>43964</v>
       </c>
@@ -3093,8 +3250,11 @@
       <c r="P53" s="12">
         <v>38</v>
       </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="12">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>43965</v>
       </c>
@@ -3143,8 +3303,11 @@
       <c r="P54" s="12">
         <v>35</v>
       </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <v>43966</v>
       </c>
@@ -3193,8 +3356,11 @@
       <c r="P55" s="12">
         <v>32</v>
       </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>43967</v>
       </c>
@@ -3243,8 +3409,11 @@
       <c r="P56" s="12">
         <v>49</v>
       </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="12">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>43968</v>
       </c>
@@ -3293,8 +3462,11 @@
       <c r="P57" s="12">
         <v>46</v>
       </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="12">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>43969</v>
       </c>
@@ -3343,8 +3515,11 @@
       <c r="P58" s="12">
         <v>62</v>
       </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="12">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>43970</v>
       </c>
@@ -3393,8 +3568,11 @@
       <c r="P59" s="12">
         <v>61</v>
       </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="12">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>43971</v>
       </c>
@@ -3443,8 +3621,11 @@
       <c r="P60" s="12">
         <v>65</v>
       </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="12">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>43972</v>
       </c>
@@ -3493,8 +3674,11 @@
       <c r="P61" s="12">
         <v>62</v>
       </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="12">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>43973</v>
       </c>
@@ -3543,8 +3727,11 @@
       <c r="P62" s="12">
         <v>70</v>
       </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>43974</v>
       </c>
@@ -3593,8 +3780,11 @@
       <c r="P63" s="12">
         <v>86</v>
       </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="12">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>43975</v>
       </c>
@@ -3643,8 +3833,11 @@
       <c r="P64" s="12">
         <v>95</v>
       </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="12">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>43976</v>
       </c>
@@ -3693,8 +3886,11 @@
       <c r="P65" s="12">
         <v>86</v>
       </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="12">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>43977</v>
       </c>
@@ -3743,8 +3939,11 @@
       <c r="P66" s="12">
         <v>106</v>
       </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="12">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>43978</v>
       </c>
@@ -3793,8 +3992,11 @@
       <c r="P67" s="12">
         <v>118</v>
       </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="12">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>43979</v>
       </c>
@@ -3843,8 +4045,11 @@
       <c r="P68" s="12">
         <v>113</v>
       </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="12">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>43980</v>
       </c>
@@ -3893,8 +4098,11 @@
       <c r="P69" s="12">
         <v>121</v>
       </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="12">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>43981</v>
       </c>
@@ -3943,8 +4151,11 @@
       <c r="P70" s="12">
         <v>126</v>
       </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="12">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
         <v>43982</v>
       </c>
@@ -3993,8 +4204,11 @@
       <c r="P71" s="12">
         <v>113</v>
       </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="12">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <v>43983</v>
       </c>
@@ -4043,8 +4257,11 @@
       <c r="P72" s="12">
         <v>142</v>
       </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="12">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <v>43984</v>
       </c>
@@ -4093,8 +4310,11 @@
       <c r="P73" s="12">
         <v>133</v>
       </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="12">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
         <v>43985</v>
       </c>
@@ -4143,8 +4363,11 @@
       <c r="P74" s="12">
         <v>149</v>
       </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="12">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
         <v>43986</v>
       </c>
@@ -4193,8 +4416,11 @@
       <c r="P75" s="12">
         <v>144</v>
       </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="12">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <v>43987</v>
       </c>
@@ -4243,8 +4469,11 @@
       <c r="P76" s="12">
         <v>148</v>
       </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="12">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
         <v>43988</v>
       </c>
@@ -4291,8 +4520,11 @@
       <c r="P77" s="12">
         <v>154</v>
       </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="12">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" s="5">
         <v>43989</v>
       </c>
@@ -4337,8 +4569,11 @@
       <c r="P78" s="12">
         <v>144</v>
       </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q78" s="12">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" s="5">
         <v>43990</v>
       </c>
@@ -4381,8 +4616,11 @@
       <c r="P79" s="12">
         <v>135</v>
       </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q79" s="12">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
         <v>43991</v>
       </c>
@@ -4423,8 +4661,11 @@
       <c r="P80" s="12">
         <v>167</v>
       </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="12">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
         <v>43992</v>
       </c>
@@ -4463,8 +4704,11 @@
       <c r="P81" s="12">
         <v>153</v>
       </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="12">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
         <v>43993</v>
       </c>
@@ -4501,8 +4745,11 @@
       <c r="P82" s="12">
         <v>158</v>
       </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="12">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A83" s="5">
         <v>43994</v>
       </c>
@@ -4537,8 +4784,11 @@
       <c r="P83" s="12">
         <v>149</v>
       </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="12">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
         <v>43995</v>
       </c>
@@ -4571,8 +4821,11 @@
       <c r="P84" s="12">
         <v>147</v>
       </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="12">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A85" s="5">
         <v>43996</v>
       </c>
@@ -4594,8 +4847,11 @@
       <c r="P85" s="12">
         <v>146</v>
       </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="12">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A86" s="5">
         <v>43997</v>
       </c>
@@ -4615,8 +4871,11 @@
       <c r="P86" s="12">
         <v>134</v>
       </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="12">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A87" s="5">
         <v>43998</v>
       </c>
@@ -4632,8 +4891,11 @@
       <c r="P87" s="12">
         <v>152</v>
       </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="12">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A88" s="5">
         <v>43999</v>
       </c>
@@ -4646,8 +4908,11 @@
       <c r="P88" s="12">
         <v>128</v>
       </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="12">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A89" s="5">
         <v>44000</v>
       </c>
@@ -4657,13 +4922,27 @@
       <c r="P89" s="12">
         <v>75</v>
       </c>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A90" s="5">
         <v>44001</v>
       </c>
       <c r="P90" s="12">
         <v>18</v>
+      </c>
+      <c r="Q90" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A91" s="5">
+        <v>44002</v>
+      </c>
+      <c r="Q91" s="12">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/input/NuevaDefDefunciones/Fallecidos Min Ciencias acumulado.xlsx
+++ b/input/NuevaDefDefunciones/Fallecidos Min Ciencias acumulado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darancibia/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F30951-4F73-2F48-ACA3-308CF5F5A9D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A80881-BD69-0145-B65F-E6F5EEC8F7CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="12340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -418,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q91"/>
+  <dimension ref="A1:R92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="A90" sqref="A90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -429,7 +429,7 @@
     <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -497,8 +497,12 @@
         <f t="shared" si="0"/>
         <v>4502</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R1" s="11">
+        <f t="shared" ref="R1" si="1">SUM(R3:R999)</f>
+        <v>4505</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -550,8 +554,11 @@
       <c r="Q2" s="10">
         <v>44004</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R2" s="10">
+        <v>44005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>43910</v>
       </c>
@@ -603,8 +610,11 @@
       <c r="Q3" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R3" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>43915</v>
       </c>
@@ -656,8 +666,11 @@
       <c r="Q4" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R4" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>43916</v>
       </c>
@@ -709,8 +722,11 @@
       <c r="Q5" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R5" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>43917</v>
       </c>
@@ -762,8 +778,11 @@
       <c r="Q6" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R6" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>43918</v>
       </c>
@@ -815,8 +834,11 @@
       <c r="Q7" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>43919</v>
       </c>
@@ -868,8 +890,11 @@
       <c r="Q8" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>43920</v>
       </c>
@@ -921,8 +946,11 @@
       <c r="Q9" s="12">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>43921</v>
       </c>
@@ -974,8 +1002,11 @@
       <c r="Q10" s="12">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>43922</v>
       </c>
@@ -1027,8 +1058,11 @@
       <c r="Q11" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>43923</v>
       </c>
@@ -1080,8 +1114,11 @@
       <c r="Q12" s="12">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>43924</v>
       </c>
@@ -1133,8 +1170,11 @@
       <c r="Q13" s="12">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>43925</v>
       </c>
@@ -1186,8 +1226,11 @@
       <c r="Q14" s="12">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>43926</v>
       </c>
@@ -1239,8 +1282,11 @@
       <c r="Q15" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>43927</v>
       </c>
@@ -1292,8 +1338,11 @@
       <c r="Q16" s="12">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>43928</v>
       </c>
@@ -1345,8 +1394,11 @@
       <c r="Q17" s="12">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>43929</v>
       </c>
@@ -1398,8 +1450,11 @@
       <c r="Q18" s="12">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>43930</v>
       </c>
@@ -1451,8 +1506,11 @@
       <c r="Q19" s="12">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>43931</v>
       </c>
@@ -1504,8 +1562,11 @@
       <c r="Q20" s="12">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>43932</v>
       </c>
@@ -1557,8 +1618,11 @@
       <c r="Q21" s="12">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>43933</v>
       </c>
@@ -1610,8 +1674,11 @@
       <c r="Q22" s="12">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>43934</v>
       </c>
@@ -1663,8 +1730,11 @@
       <c r="Q23" s="12">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>43935</v>
       </c>
@@ -1716,8 +1786,11 @@
       <c r="Q24" s="12">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>43936</v>
       </c>
@@ -1769,8 +1842,11 @@
       <c r="Q25" s="12">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>43937</v>
       </c>
@@ -1822,8 +1898,11 @@
       <c r="Q26" s="12">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>43938</v>
       </c>
@@ -1875,8 +1954,11 @@
       <c r="Q27" s="12">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>43939</v>
       </c>
@@ -1928,8 +2010,11 @@
       <c r="Q28" s="12">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>43940</v>
       </c>
@@ -1981,8 +2066,11 @@
       <c r="Q29" s="12">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>43941</v>
       </c>
@@ -2034,8 +2122,11 @@
       <c r="Q30" s="12">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>43942</v>
       </c>
@@ -2087,8 +2178,11 @@
       <c r="Q31" s="12">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>43943</v>
       </c>
@@ -2140,8 +2234,11 @@
       <c r="Q32" s="12">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>43944</v>
       </c>
@@ -2193,8 +2290,11 @@
       <c r="Q33" s="12">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>43945</v>
       </c>
@@ -2246,8 +2346,11 @@
       <c r="Q34" s="12">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>43946</v>
       </c>
@@ -2299,8 +2402,11 @@
       <c r="Q35" s="12">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>43947</v>
       </c>
@@ -2352,8 +2458,11 @@
       <c r="Q36" s="12">
         <v>9</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R36" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>43948</v>
       </c>
@@ -2405,8 +2514,11 @@
       <c r="Q37" s="12">
         <v>11</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R37" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>43949</v>
       </c>
@@ -2458,8 +2570,11 @@
       <c r="Q38" s="12">
         <v>7</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>43950</v>
       </c>
@@ -2511,8 +2626,11 @@
       <c r="Q39" s="12">
         <v>6</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>43951</v>
       </c>
@@ -2564,8 +2682,11 @@
       <c r="Q40" s="12">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>43952</v>
       </c>
@@ -2617,8 +2738,11 @@
       <c r="Q41" s="12">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>43953</v>
       </c>
@@ -2670,8 +2794,11 @@
       <c r="Q42" s="12">
         <v>7</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>43954</v>
       </c>
@@ -2723,8 +2850,11 @@
       <c r="Q43" s="12">
         <v>19</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>43955</v>
       </c>
@@ -2776,8 +2906,11 @@
       <c r="Q44" s="12">
         <v>12</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>43956</v>
       </c>
@@ -2829,8 +2962,11 @@
       <c r="Q45" s="12">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>43957</v>
       </c>
@@ -2882,8 +3018,11 @@
       <c r="Q46" s="12">
         <v>14</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>43958</v>
       </c>
@@ -2935,8 +3074,11 @@
       <c r="Q47" s="12">
         <v>30</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>43959</v>
       </c>
@@ -2988,8 +3130,11 @@
       <c r="Q48" s="12">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>43960</v>
       </c>
@@ -3041,8 +3186,11 @@
       <c r="Q49" s="12">
         <v>22</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>43961</v>
       </c>
@@ -3094,8 +3242,11 @@
       <c r="Q50" s="12">
         <v>30</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>43962</v>
       </c>
@@ -3147,8 +3298,11 @@
       <c r="Q51" s="12">
         <v>19</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>43963</v>
       </c>
@@ -3200,8 +3354,11 @@
       <c r="Q52" s="12">
         <v>26</v>
       </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>43964</v>
       </c>
@@ -3253,8 +3410,11 @@
       <c r="Q53" s="12">
         <v>38</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="12">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>43965</v>
       </c>
@@ -3306,8 +3466,11 @@
       <c r="Q54" s="12">
         <v>35</v>
       </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <v>43966</v>
       </c>
@@ -3359,8 +3522,11 @@
       <c r="Q55" s="12">
         <v>32</v>
       </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>43967</v>
       </c>
@@ -3412,8 +3578,11 @@
       <c r="Q56" s="12">
         <v>49</v>
       </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="12">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>43968</v>
       </c>
@@ -3465,8 +3634,11 @@
       <c r="Q57" s="12">
         <v>46</v>
       </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="12">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>43969</v>
       </c>
@@ -3518,8 +3690,11 @@
       <c r="Q58" s="12">
         <v>63</v>
       </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="12">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>43970</v>
       </c>
@@ -3571,8 +3746,11 @@
       <c r="Q59" s="12">
         <v>61</v>
       </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="12">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>43971</v>
       </c>
@@ -3624,8 +3802,11 @@
       <c r="Q60" s="12">
         <v>65</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="12">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>43972</v>
       </c>
@@ -3677,8 +3858,11 @@
       <c r="Q61" s="12">
         <v>62</v>
       </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="12">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>43973</v>
       </c>
@@ -3730,8 +3914,11 @@
       <c r="Q62" s="12">
         <v>70</v>
       </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>43974</v>
       </c>
@@ -3783,8 +3970,11 @@
       <c r="Q63" s="12">
         <v>86</v>
       </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="12">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>43975</v>
       </c>
@@ -3836,8 +4026,11 @@
       <c r="Q64" s="12">
         <v>95</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="12">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>43976</v>
       </c>
@@ -3889,8 +4082,11 @@
       <c r="Q65" s="12">
         <v>86</v>
       </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="12">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>43977</v>
       </c>
@@ -3942,8 +4138,11 @@
       <c r="Q66" s="12">
         <v>106</v>
       </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="12">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>43978</v>
       </c>
@@ -3995,8 +4194,11 @@
       <c r="Q67" s="12">
         <v>118</v>
       </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="12">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>43979</v>
       </c>
@@ -4048,8 +4250,11 @@
       <c r="Q68" s="12">
         <v>113</v>
       </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="12">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>43980</v>
       </c>
@@ -4101,8 +4306,11 @@
       <c r="Q69" s="12">
         <v>121</v>
       </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="12">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>43981</v>
       </c>
@@ -4154,8 +4362,11 @@
       <c r="Q70" s="12">
         <v>126</v>
       </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="12">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
         <v>43982</v>
       </c>
@@ -4207,8 +4418,11 @@
       <c r="Q71" s="12">
         <v>113</v>
       </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="12">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <v>43983</v>
       </c>
@@ -4260,8 +4474,11 @@
       <c r="Q72" s="12">
         <v>142</v>
       </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="12">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <v>43984</v>
       </c>
@@ -4313,8 +4530,11 @@
       <c r="Q73" s="12">
         <v>133</v>
       </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="12">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
         <v>43985</v>
       </c>
@@ -4366,8 +4586,11 @@
       <c r="Q74" s="12">
         <v>149</v>
       </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="12">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
         <v>43986</v>
       </c>
@@ -4419,8 +4642,11 @@
       <c r="Q75" s="12">
         <v>144</v>
       </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="12">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <v>43987</v>
       </c>
@@ -4472,8 +4698,11 @@
       <c r="Q76" s="12">
         <v>148</v>
       </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="12">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
         <v>43988</v>
       </c>
@@ -4523,8 +4752,11 @@
       <c r="Q77" s="12">
         <v>155</v>
       </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="12">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A78" s="5">
         <v>43989</v>
       </c>
@@ -4572,8 +4804,11 @@
       <c r="Q78" s="12">
         <v>144</v>
       </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R78" s="12">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A79" s="5">
         <v>43990</v>
       </c>
@@ -4619,8 +4854,11 @@
       <c r="Q79" s="12">
         <v>135</v>
       </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R79" s="12">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
         <v>43991</v>
       </c>
@@ -4664,8 +4902,11 @@
       <c r="Q80" s="12">
         <v>168</v>
       </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="12">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
         <v>43992</v>
       </c>
@@ -4707,8 +4948,11 @@
       <c r="Q81" s="12">
         <v>153</v>
       </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="12">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
         <v>43993</v>
       </c>
@@ -4748,8 +4992,11 @@
       <c r="Q82" s="12">
         <v>158</v>
       </c>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="12">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83" s="5">
         <v>43994</v>
       </c>
@@ -4787,8 +5034,11 @@
       <c r="Q83" s="12">
         <v>152</v>
       </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="12">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
         <v>43995</v>
       </c>
@@ -4824,8 +5074,11 @@
       <c r="Q84" s="12">
         <v>153</v>
       </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="12">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85" s="5">
         <v>43996</v>
       </c>
@@ -4850,8 +5103,11 @@
       <c r="Q85" s="12">
         <v>147</v>
       </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="12">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" s="5">
         <v>43997</v>
       </c>
@@ -4874,8 +5130,11 @@
       <c r="Q86" s="12">
         <v>134</v>
       </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="12">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" s="5">
         <v>43998</v>
       </c>
@@ -4894,8 +5153,11 @@
       <c r="Q87" s="12">
         <v>153</v>
       </c>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="12">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" s="5">
         <v>43999</v>
       </c>
@@ -4911,8 +5173,11 @@
       <c r="Q88" s="12">
         <v>128</v>
       </c>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="12">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" s="5">
         <v>44000</v>
       </c>
@@ -4925,8 +5190,11 @@
       <c r="Q89" s="12">
         <v>80</v>
       </c>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A90" s="5">
         <v>44001</v>
       </c>
@@ -4936,12 +5204,26 @@
       <c r="Q90" s="12">
         <v>20</v>
       </c>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A91" s="5">
         <v>44002</v>
       </c>
       <c r="Q91" s="12">
+        <v>1</v>
+      </c>
+      <c r="R91" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A92" s="5">
+        <v>44003</v>
+      </c>
+      <c r="R92" s="12">
         <v>1</v>
       </c>
     </row>

--- a/input/NuevaDefDefunciones/Fallecidos Min Ciencias acumulado.xlsx
+++ b/input/NuevaDefDefunciones/Fallecidos Min Ciencias acumulado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darancibia/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A80881-BD69-0145-B65F-E6F5EEC8F7CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A623E41C-27CE-C14D-81C2-3C5CDBB76913}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="12340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -418,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R92"/>
+  <dimension ref="A1:S93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="A90" sqref="A90"/>
+    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -429,7 +429,7 @@
     <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -498,11 +498,15 @@
         <v>4502</v>
       </c>
       <c r="R1" s="11">
-        <f t="shared" ref="R1" si="1">SUM(R3:R999)</f>
+        <f t="shared" ref="R1:S1" si="1">SUM(R3:R999)</f>
         <v>4505</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S1" s="11">
+        <f t="shared" si="1"/>
+        <v>4731</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -557,8 +561,11 @@
       <c r="R2" s="10">
         <v>44005</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S2" s="10">
+        <v>44006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>43910</v>
       </c>
@@ -613,8 +620,11 @@
       <c r="R3" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S3" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>43915</v>
       </c>
@@ -669,8 +679,11 @@
       <c r="R4" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S4" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>43916</v>
       </c>
@@ -725,8 +738,11 @@
       <c r="R5" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S5" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>43917</v>
       </c>
@@ -781,8 +797,11 @@
       <c r="R6" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S6" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>43918</v>
       </c>
@@ -837,8 +856,11 @@
       <c r="R7" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>43919</v>
       </c>
@@ -893,8 +915,11 @@
       <c r="R8" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>43920</v>
       </c>
@@ -949,8 +974,11 @@
       <c r="R9" s="12">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>43921</v>
       </c>
@@ -1005,8 +1033,11 @@
       <c r="R10" s="12">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>43922</v>
       </c>
@@ -1061,8 +1092,11 @@
       <c r="R11" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>43923</v>
       </c>
@@ -1117,8 +1151,11 @@
       <c r="R12" s="12">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>43924</v>
       </c>
@@ -1173,8 +1210,11 @@
       <c r="R13" s="12">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>43925</v>
       </c>
@@ -1229,8 +1269,11 @@
       <c r="R14" s="12">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>43926</v>
       </c>
@@ -1285,8 +1328,11 @@
       <c r="R15" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>43927</v>
       </c>
@@ -1341,8 +1387,11 @@
       <c r="R16" s="12">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>43928</v>
       </c>
@@ -1397,8 +1446,11 @@
       <c r="R17" s="12">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>43929</v>
       </c>
@@ -1453,8 +1505,11 @@
       <c r="R18" s="12">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>43930</v>
       </c>
@@ -1509,8 +1564,11 @@
       <c r="R19" s="12">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>43931</v>
       </c>
@@ -1565,8 +1623,11 @@
       <c r="R20" s="12">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>43932</v>
       </c>
@@ -1621,8 +1682,11 @@
       <c r="R21" s="12">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>43933</v>
       </c>
@@ -1677,8 +1741,11 @@
       <c r="R22" s="12">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>43934</v>
       </c>
@@ -1733,8 +1800,11 @@
       <c r="R23" s="12">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>43935</v>
       </c>
@@ -1789,8 +1859,11 @@
       <c r="R24" s="12">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>43936</v>
       </c>
@@ -1845,8 +1918,11 @@
       <c r="R25" s="12">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>43937</v>
       </c>
@@ -1901,8 +1977,11 @@
       <c r="R26" s="12">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>43938</v>
       </c>
@@ -1957,8 +2036,11 @@
       <c r="R27" s="12">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>43939</v>
       </c>
@@ -2013,8 +2095,11 @@
       <c r="R28" s="12">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>43940</v>
       </c>
@@ -2069,8 +2154,11 @@
       <c r="R29" s="12">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>43941</v>
       </c>
@@ -2125,8 +2213,11 @@
       <c r="R30" s="12">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>43942</v>
       </c>
@@ -2181,8 +2272,11 @@
       <c r="R31" s="12">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>43943</v>
       </c>
@@ -2237,8 +2331,11 @@
       <c r="R32" s="12">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>43944</v>
       </c>
@@ -2293,8 +2390,11 @@
       <c r="R33" s="12">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>43945</v>
       </c>
@@ -2349,8 +2449,11 @@
       <c r="R34" s="12">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>43946</v>
       </c>
@@ -2405,8 +2508,11 @@
       <c r="R35" s="12">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>43947</v>
       </c>
@@ -2461,8 +2567,11 @@
       <c r="R36" s="12">
         <v>9</v>
       </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S36" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>43948</v>
       </c>
@@ -2517,8 +2626,11 @@
       <c r="R37" s="12">
         <v>11</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S37" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>43949</v>
       </c>
@@ -2573,8 +2685,11 @@
       <c r="R38" s="12">
         <v>7</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>43950</v>
       </c>
@@ -2629,8 +2744,11 @@
       <c r="R39" s="12">
         <v>6</v>
       </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>43951</v>
       </c>
@@ -2685,8 +2803,11 @@
       <c r="R40" s="12">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>43952</v>
       </c>
@@ -2741,8 +2862,11 @@
       <c r="R41" s="12">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>43953</v>
       </c>
@@ -2797,8 +2921,11 @@
       <c r="R42" s="12">
         <v>7</v>
       </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>43954</v>
       </c>
@@ -2853,8 +2980,11 @@
       <c r="R43" s="12">
         <v>19</v>
       </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>43955</v>
       </c>
@@ -2909,8 +3039,11 @@
       <c r="R44" s="12">
         <v>12</v>
       </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>43956</v>
       </c>
@@ -2965,8 +3098,11 @@
       <c r="R45" s="12">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>43957</v>
       </c>
@@ -3021,8 +3157,11 @@
       <c r="R46" s="12">
         <v>14</v>
       </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>43958</v>
       </c>
@@ -3077,8 +3216,11 @@
       <c r="R47" s="12">
         <v>30</v>
       </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>43959</v>
       </c>
@@ -3133,8 +3275,11 @@
       <c r="R48" s="12">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>43960</v>
       </c>
@@ -3189,8 +3334,11 @@
       <c r="R49" s="12">
         <v>22</v>
       </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>43961</v>
       </c>
@@ -3245,8 +3393,11 @@
       <c r="R50" s="12">
         <v>30</v>
       </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>43962</v>
       </c>
@@ -3301,8 +3452,11 @@
       <c r="R51" s="12">
         <v>19</v>
       </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>43963</v>
       </c>
@@ -3357,8 +3511,11 @@
       <c r="R52" s="12">
         <v>26</v>
       </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>43964</v>
       </c>
@@ -3413,8 +3570,11 @@
       <c r="R53" s="12">
         <v>38</v>
       </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="12">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>43965</v>
       </c>
@@ -3469,8 +3629,11 @@
       <c r="R54" s="12">
         <v>35</v>
       </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <v>43966</v>
       </c>
@@ -3525,8 +3688,11 @@
       <c r="R55" s="12">
         <v>32</v>
       </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>43967</v>
       </c>
@@ -3581,8 +3747,11 @@
       <c r="R56" s="12">
         <v>49</v>
       </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="12">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>43968</v>
       </c>
@@ -3637,8 +3806,11 @@
       <c r="R57" s="12">
         <v>46</v>
       </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="12">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>43969</v>
       </c>
@@ -3693,8 +3865,11 @@
       <c r="R58" s="12">
         <v>63</v>
       </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="12">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>43970</v>
       </c>
@@ -3749,8 +3924,11 @@
       <c r="R59" s="12">
         <v>61</v>
       </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="12">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>43971</v>
       </c>
@@ -3805,8 +3983,11 @@
       <c r="R60" s="12">
         <v>65</v>
       </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="12">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>43972</v>
       </c>
@@ -3861,8 +4042,11 @@
       <c r="R61" s="12">
         <v>62</v>
       </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="12">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>43973</v>
       </c>
@@ -3917,8 +4101,11 @@
       <c r="R62" s="12">
         <v>70</v>
       </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>43974</v>
       </c>
@@ -3973,8 +4160,11 @@
       <c r="R63" s="12">
         <v>86</v>
       </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="12">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>43975</v>
       </c>
@@ -4029,8 +4219,11 @@
       <c r="R64" s="12">
         <v>95</v>
       </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="12">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>43976</v>
       </c>
@@ -4085,8 +4278,11 @@
       <c r="R65" s="12">
         <v>86</v>
       </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="12">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>43977</v>
       </c>
@@ -4141,8 +4337,11 @@
       <c r="R66" s="12">
         <v>106</v>
       </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="12">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>43978</v>
       </c>
@@ -4197,8 +4396,11 @@
       <c r="R67" s="12">
         <v>118</v>
       </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="12">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>43979</v>
       </c>
@@ -4253,8 +4455,11 @@
       <c r="R68" s="12">
         <v>113</v>
       </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="12">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>43980</v>
       </c>
@@ -4309,8 +4514,11 @@
       <c r="R69" s="12">
         <v>121</v>
       </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="12">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>43981</v>
       </c>
@@ -4365,8 +4573,11 @@
       <c r="R70" s="12">
         <v>126</v>
       </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="12">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
         <v>43982</v>
       </c>
@@ -4421,8 +4632,11 @@
       <c r="R71" s="12">
         <v>113</v>
       </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="12">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <v>43983</v>
       </c>
@@ -4477,8 +4691,11 @@
       <c r="R72" s="12">
         <v>142</v>
       </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="12">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <v>43984</v>
       </c>
@@ -4533,8 +4750,11 @@
       <c r="R73" s="12">
         <v>133</v>
       </c>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="12">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
         <v>43985</v>
       </c>
@@ -4589,8 +4809,11 @@
       <c r="R74" s="12">
         <v>149</v>
       </c>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="12">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
         <v>43986</v>
       </c>
@@ -4645,8 +4868,11 @@
       <c r="R75" s="12">
         <v>144</v>
       </c>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="12">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <v>43987</v>
       </c>
@@ -4701,8 +4927,11 @@
       <c r="R76" s="12">
         <v>148</v>
       </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="12">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
         <v>43988</v>
       </c>
@@ -4755,8 +4984,11 @@
       <c r="R77" s="12">
         <v>155</v>
       </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="12">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A78" s="5">
         <v>43989</v>
       </c>
@@ -4807,8 +5039,11 @@
       <c r="R78" s="12">
         <v>144</v>
       </c>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S78" s="12">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A79" s="5">
         <v>43990</v>
       </c>
@@ -4857,8 +5092,11 @@
       <c r="R79" s="12">
         <v>135</v>
       </c>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S79" s="12">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
         <v>43991</v>
       </c>
@@ -4905,8 +5143,11 @@
       <c r="R80" s="12">
         <v>168</v>
       </c>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="12">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
         <v>43992</v>
       </c>
@@ -4951,8 +5192,11 @@
       <c r="R81" s="12">
         <v>153</v>
       </c>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="12">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
         <v>43993</v>
       </c>
@@ -4995,8 +5239,11 @@
       <c r="R82" s="12">
         <v>158</v>
       </c>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="12">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A83" s="5">
         <v>43994</v>
       </c>
@@ -5037,8 +5284,11 @@
       <c r="R83" s="12">
         <v>152</v>
       </c>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="12">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
         <v>43995</v>
       </c>
@@ -5077,8 +5327,11 @@
       <c r="R84" s="12">
         <v>153</v>
       </c>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="12">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A85" s="5">
         <v>43996</v>
       </c>
@@ -5106,8 +5359,11 @@
       <c r="R85" s="12">
         <v>147</v>
       </c>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="12">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A86" s="5">
         <v>43997</v>
       </c>
@@ -5133,8 +5389,11 @@
       <c r="R86" s="12">
         <v>134</v>
       </c>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="12">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A87" s="5">
         <v>43998</v>
       </c>
@@ -5156,8 +5415,11 @@
       <c r="R87" s="12">
         <v>153</v>
       </c>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="12">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A88" s="5">
         <v>43999</v>
       </c>
@@ -5176,8 +5438,11 @@
       <c r="R88" s="12">
         <v>128</v>
       </c>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="12">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A89" s="5">
         <v>44000</v>
       </c>
@@ -5193,8 +5458,11 @@
       <c r="R89" s="12">
         <v>80</v>
       </c>
-    </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="12">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A90" s="5">
         <v>44001</v>
       </c>
@@ -5207,8 +5475,11 @@
       <c r="R90" s="12">
         <v>20</v>
       </c>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A91" s="5">
         <v>44002</v>
       </c>
@@ -5218,13 +5489,27 @@
       <c r="R91" s="12">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="12">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A92" s="5">
         <v>44003</v>
       </c>
       <c r="R92" s="12">
         <v>1</v>
+      </c>
+      <c r="S92" s="12">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A93" s="5">
+        <v>44004</v>
+      </c>
+      <c r="S93" s="12">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/input/NuevaDefDefunciones/Fallecidos Min Ciencias acumulado.xlsx
+++ b/input/NuevaDefDefunciones/Fallecidos Min Ciencias acumulado.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darancibia/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A623E41C-27CE-C14D-81C2-3C5CDBB76913}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8170AC0C-95C1-B849-8A97-1B693B506DF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="12340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -418,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S93"/>
+  <dimension ref="A1:T94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+      <selection activeCell="E102" sqref="E102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -429,7 +429,7 @@
     <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -505,8 +505,12 @@
         <f t="shared" si="1"/>
         <v>4731</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T1" s="11">
+        <f t="shared" ref="T1" si="2">SUM(T3:T999)</f>
+        <v>4903</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -564,8 +568,11 @@
       <c r="S2" s="10">
         <v>44006</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T2" s="10">
+        <v>44007</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>43910</v>
       </c>
@@ -623,8 +630,11 @@
       <c r="S3" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T3" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>43915</v>
       </c>
@@ -682,8 +692,11 @@
       <c r="S4" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T4" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>43916</v>
       </c>
@@ -741,8 +754,11 @@
       <c r="S5" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T5" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>43917</v>
       </c>
@@ -800,8 +816,11 @@
       <c r="S6" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T6" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>43918</v>
       </c>
@@ -859,8 +878,11 @@
       <c r="S7" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>43919</v>
       </c>
@@ -918,8 +940,11 @@
       <c r="S8" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>43920</v>
       </c>
@@ -977,8 +1002,11 @@
       <c r="S9" s="12">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>43921</v>
       </c>
@@ -1036,8 +1064,11 @@
       <c r="S10" s="12">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>43922</v>
       </c>
@@ -1095,8 +1126,11 @@
       <c r="S11" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>43923</v>
       </c>
@@ -1154,8 +1188,11 @@
       <c r="S12" s="12">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>43924</v>
       </c>
@@ -1213,8 +1250,11 @@
       <c r="S13" s="12">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>43925</v>
       </c>
@@ -1272,8 +1312,11 @@
       <c r="S14" s="12">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>43926</v>
       </c>
@@ -1331,8 +1374,11 @@
       <c r="S15" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>43927</v>
       </c>
@@ -1390,8 +1436,11 @@
       <c r="S16" s="12">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>43928</v>
       </c>
@@ -1449,8 +1498,11 @@
       <c r="S17" s="12">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>43929</v>
       </c>
@@ -1508,8 +1560,11 @@
       <c r="S18" s="12">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>43930</v>
       </c>
@@ -1567,8 +1622,11 @@
       <c r="S19" s="12">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>43931</v>
       </c>
@@ -1626,8 +1684,11 @@
       <c r="S20" s="12">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>43932</v>
       </c>
@@ -1685,8 +1746,11 @@
       <c r="S21" s="12">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>43933</v>
       </c>
@@ -1744,8 +1808,11 @@
       <c r="S22" s="12">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>43934</v>
       </c>
@@ -1803,8 +1870,11 @@
       <c r="S23" s="12">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>43935</v>
       </c>
@@ -1862,8 +1932,11 @@
       <c r="S24" s="12">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>43936</v>
       </c>
@@ -1921,8 +1994,11 @@
       <c r="S25" s="12">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>43937</v>
       </c>
@@ -1980,8 +2056,11 @@
       <c r="S26" s="12">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>43938</v>
       </c>
@@ -2039,8 +2118,11 @@
       <c r="S27" s="12">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>43939</v>
       </c>
@@ -2098,8 +2180,11 @@
       <c r="S28" s="12">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>43940</v>
       </c>
@@ -2157,8 +2242,11 @@
       <c r="S29" s="12">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>43941</v>
       </c>
@@ -2216,8 +2304,11 @@
       <c r="S30" s="12">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>43942</v>
       </c>
@@ -2275,8 +2366,11 @@
       <c r="S31" s="12">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>43943</v>
       </c>
@@ -2334,8 +2428,11 @@
       <c r="S32" s="12">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>43944</v>
       </c>
@@ -2393,8 +2490,11 @@
       <c r="S33" s="12">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>43945</v>
       </c>
@@ -2452,8 +2552,11 @@
       <c r="S34" s="12">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>43946</v>
       </c>
@@ -2511,8 +2614,11 @@
       <c r="S35" s="12">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>43947</v>
       </c>
@@ -2570,8 +2676,11 @@
       <c r="S36" s="12">
         <v>9</v>
       </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T36" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>43948</v>
       </c>
@@ -2629,8 +2738,11 @@
       <c r="S37" s="12">
         <v>11</v>
       </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T37" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>43949</v>
       </c>
@@ -2688,8 +2800,11 @@
       <c r="S38" s="12">
         <v>7</v>
       </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>43950</v>
       </c>
@@ -2747,8 +2862,11 @@
       <c r="S39" s="12">
         <v>6</v>
       </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>43951</v>
       </c>
@@ -2806,8 +2924,11 @@
       <c r="S40" s="12">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>43952</v>
       </c>
@@ -2865,8 +2986,11 @@
       <c r="S41" s="12">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>43953</v>
       </c>
@@ -2924,8 +3048,11 @@
       <c r="S42" s="12">
         <v>7</v>
       </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>43954</v>
       </c>
@@ -2983,8 +3110,11 @@
       <c r="S43" s="12">
         <v>19</v>
       </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>43955</v>
       </c>
@@ -3042,8 +3172,11 @@
       <c r="S44" s="12">
         <v>12</v>
       </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>43956</v>
       </c>
@@ -3101,8 +3234,11 @@
       <c r="S45" s="12">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>43957</v>
       </c>
@@ -3160,8 +3296,11 @@
       <c r="S46" s="12">
         <v>14</v>
       </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>43958</v>
       </c>
@@ -3219,8 +3358,11 @@
       <c r="S47" s="12">
         <v>30</v>
       </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>43959</v>
       </c>
@@ -3278,8 +3420,11 @@
       <c r="S48" s="12">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>43960</v>
       </c>
@@ -3337,8 +3482,11 @@
       <c r="S49" s="12">
         <v>22</v>
       </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>43961</v>
       </c>
@@ -3396,8 +3544,11 @@
       <c r="S50" s="12">
         <v>30</v>
       </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>43962</v>
       </c>
@@ -3455,8 +3606,11 @@
       <c r="S51" s="12">
         <v>19</v>
       </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>43963</v>
       </c>
@@ -3514,8 +3668,11 @@
       <c r="S52" s="12">
         <v>26</v>
       </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>43964</v>
       </c>
@@ -3573,8 +3730,11 @@
       <c r="S53" s="12">
         <v>38</v>
       </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="12">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>43965</v>
       </c>
@@ -3632,8 +3792,11 @@
       <c r="S54" s="12">
         <v>35</v>
       </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <v>43966</v>
       </c>
@@ -3691,8 +3854,11 @@
       <c r="S55" s="12">
         <v>32</v>
       </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>43967</v>
       </c>
@@ -3750,8 +3916,11 @@
       <c r="S56" s="12">
         <v>49</v>
       </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="12">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>43968</v>
       </c>
@@ -3809,8 +3978,11 @@
       <c r="S57" s="12">
         <v>46</v>
       </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="12">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>43969</v>
       </c>
@@ -3868,8 +4040,11 @@
       <c r="S58" s="12">
         <v>63</v>
       </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="12">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>43970</v>
       </c>
@@ -3927,8 +4102,11 @@
       <c r="S59" s="12">
         <v>61</v>
       </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="12">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>43971</v>
       </c>
@@ -3986,8 +4164,11 @@
       <c r="S60" s="12">
         <v>65</v>
       </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="12">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>43972</v>
       </c>
@@ -4045,8 +4226,11 @@
       <c r="S61" s="12">
         <v>62</v>
       </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="12">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>43973</v>
       </c>
@@ -4104,8 +4288,11 @@
       <c r="S62" s="12">
         <v>70</v>
       </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>43974</v>
       </c>
@@ -4163,8 +4350,11 @@
       <c r="S63" s="12">
         <v>86</v>
       </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="12">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>43975</v>
       </c>
@@ -4222,8 +4412,11 @@
       <c r="S64" s="12">
         <v>95</v>
       </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="12">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>43976</v>
       </c>
@@ -4281,8 +4474,11 @@
       <c r="S65" s="12">
         <v>86</v>
       </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="12">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>43977</v>
       </c>
@@ -4340,8 +4536,11 @@
       <c r="S66" s="12">
         <v>106</v>
       </c>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="12">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>43978</v>
       </c>
@@ -4399,8 +4598,11 @@
       <c r="S67" s="12">
         <v>118</v>
       </c>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="12">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>43979</v>
       </c>
@@ -4458,8 +4660,11 @@
       <c r="S68" s="12">
         <v>113</v>
       </c>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="12">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>43980</v>
       </c>
@@ -4517,8 +4722,11 @@
       <c r="S69" s="12">
         <v>122</v>
       </c>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="12">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>43981</v>
       </c>
@@ -4576,8 +4784,11 @@
       <c r="S70" s="12">
         <v>126</v>
       </c>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="12">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
         <v>43982</v>
       </c>
@@ -4635,8 +4846,11 @@
       <c r="S71" s="12">
         <v>113</v>
       </c>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="12">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <v>43983</v>
       </c>
@@ -4694,8 +4908,11 @@
       <c r="S72" s="12">
         <v>142</v>
       </c>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="12">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <v>43984</v>
       </c>
@@ -4753,8 +4970,11 @@
       <c r="S73" s="12">
         <v>133</v>
       </c>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="12">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
         <v>43985</v>
       </c>
@@ -4812,8 +5032,11 @@
       <c r="S74" s="12">
         <v>149</v>
       </c>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="12">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
         <v>43986</v>
       </c>
@@ -4871,8 +5094,11 @@
       <c r="S75" s="12">
         <v>144</v>
       </c>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="12">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <v>43987</v>
       </c>
@@ -4930,8 +5156,11 @@
       <c r="S76" s="12">
         <v>148</v>
       </c>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="12">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
         <v>43988</v>
       </c>
@@ -4987,8 +5216,11 @@
       <c r="S77" s="12">
         <v>155</v>
       </c>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="12">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A78" s="5">
         <v>43989</v>
       </c>
@@ -5042,8 +5274,11 @@
       <c r="S78" s="12">
         <v>144</v>
       </c>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T78" s="12">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A79" s="5">
         <v>43990</v>
       </c>
@@ -5095,8 +5330,11 @@
       <c r="S79" s="12">
         <v>135</v>
       </c>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T79" s="12">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
         <v>43991</v>
       </c>
@@ -5146,8 +5384,11 @@
       <c r="S80" s="12">
         <v>168</v>
       </c>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="12">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
         <v>43992</v>
       </c>
@@ -5195,8 +5436,11 @@
       <c r="S81" s="12">
         <v>154</v>
       </c>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="12">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
         <v>43993</v>
       </c>
@@ -5242,8 +5486,11 @@
       <c r="S82" s="12">
         <v>159</v>
       </c>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="12">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A83" s="5">
         <v>43994</v>
       </c>
@@ -5287,8 +5534,11 @@
       <c r="S83" s="12">
         <v>156</v>
       </c>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="12">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
         <v>43995</v>
       </c>
@@ -5330,8 +5580,11 @@
       <c r="S84" s="12">
         <v>164</v>
       </c>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="12">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A85" s="5">
         <v>43996</v>
       </c>
@@ -5362,8 +5615,11 @@
       <c r="S85" s="12">
         <v>150</v>
       </c>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="12">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A86" s="5">
         <v>43997</v>
       </c>
@@ -5392,8 +5648,11 @@
       <c r="S86" s="12">
         <v>143</v>
       </c>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="12">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A87" s="5">
         <v>43998</v>
       </c>
@@ -5418,8 +5677,11 @@
       <c r="S87" s="12">
         <v>159</v>
       </c>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="12">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A88" s="5">
         <v>43999</v>
       </c>
@@ -5441,8 +5703,11 @@
       <c r="S88" s="12">
         <v>143</v>
       </c>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="12">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A89" s="5">
         <v>44000</v>
       </c>
@@ -5461,8 +5726,11 @@
       <c r="S89" s="12">
         <v>82</v>
       </c>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="12">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A90" s="5">
         <v>44001</v>
       </c>
@@ -5478,8 +5746,11 @@
       <c r="S90" s="12">
         <v>40</v>
       </c>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="12">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A91" s="5">
         <v>44002</v>
       </c>
@@ -5492,8 +5763,11 @@
       <c r="S91" s="12">
         <v>62</v>
       </c>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="12">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A92" s="5">
         <v>44003</v>
       </c>
@@ -5503,13 +5777,27 @@
       <c r="S92" s="12">
         <v>78</v>
       </c>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="12">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A93" s="5">
         <v>44004</v>
       </c>
       <c r="S93" s="12">
         <v>17</v>
+      </c>
+      <c r="T93" s="12">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A94" s="5">
+        <v>44005</v>
+      </c>
+      <c r="T94" s="12">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/input/NuevaDefDefunciones/Fallecidos Min Ciencias acumulado.xlsx
+++ b/input/NuevaDefDefunciones/Fallecidos Min Ciencias acumulado.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darancibia/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/faviola/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8170AC0C-95C1-B849-8A97-1B693B506DF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A179BBE0-1DF6-644D-8680-24E249B154A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="720" yWindow="460" windowWidth="28080" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,6 +57,12 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -120,7 +126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -138,6 +144,7 @@
     <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T94"/>
+  <dimension ref="A1:U95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="E102" sqref="E102"/>
+      <selection activeCell="U95" sqref="U95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -429,7 +436,7 @@
     <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -506,11 +513,15 @@
         <v>4731</v>
       </c>
       <c r="T1" s="11">
-        <f t="shared" ref="T1" si="2">SUM(T3:T999)</f>
+        <f>SUM(T3:T999)</f>
         <v>4903</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U1" s="11">
+        <f>SUM(U3:U999)</f>
+        <v>5068</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -571,8 +582,11 @@
       <c r="T2" s="10">
         <v>44007</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U2" s="10">
+        <v>44008</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>43910</v>
       </c>
@@ -633,8 +647,11 @@
       <c r="T3" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U3" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>43915</v>
       </c>
@@ -695,8 +712,11 @@
       <c r="T4" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U4" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>43916</v>
       </c>
@@ -757,8 +777,11 @@
       <c r="T5" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U5" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>43917</v>
       </c>
@@ -819,8 +842,11 @@
       <c r="T6" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U6" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>43918</v>
       </c>
@@ -881,8 +907,11 @@
       <c r="T7" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>43919</v>
       </c>
@@ -943,8 +972,11 @@
       <c r="T8" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>43920</v>
       </c>
@@ -1005,8 +1037,11 @@
       <c r="T9" s="12">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>43921</v>
       </c>
@@ -1067,8 +1102,11 @@
       <c r="T10" s="12">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>43922</v>
       </c>
@@ -1129,8 +1167,11 @@
       <c r="T11" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>43923</v>
       </c>
@@ -1191,8 +1232,11 @@
       <c r="T12" s="12">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>43924</v>
       </c>
@@ -1253,8 +1297,11 @@
       <c r="T13" s="12">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>43925</v>
       </c>
@@ -1315,8 +1362,11 @@
       <c r="T14" s="12">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>43926</v>
       </c>
@@ -1377,8 +1427,11 @@
       <c r="T15" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>43927</v>
       </c>
@@ -1439,8 +1492,11 @@
       <c r="T16" s="12">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>43928</v>
       </c>
@@ -1501,8 +1557,11 @@
       <c r="T17" s="12">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>43929</v>
       </c>
@@ -1563,8 +1622,11 @@
       <c r="T18" s="12">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>43930</v>
       </c>
@@ -1625,8 +1687,11 @@
       <c r="T19" s="12">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>43931</v>
       </c>
@@ -1687,8 +1752,11 @@
       <c r="T20" s="12">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>43932</v>
       </c>
@@ -1749,8 +1817,11 @@
       <c r="T21" s="12">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>43933</v>
       </c>
@@ -1811,8 +1882,11 @@
       <c r="T22" s="12">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>43934</v>
       </c>
@@ -1873,8 +1947,11 @@
       <c r="T23" s="12">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>43935</v>
       </c>
@@ -1935,8 +2012,11 @@
       <c r="T24" s="12">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>43936</v>
       </c>
@@ -1997,8 +2077,11 @@
       <c r="T25" s="12">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>43937</v>
       </c>
@@ -2059,8 +2142,11 @@
       <c r="T26" s="12">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>43938</v>
       </c>
@@ -2121,8 +2207,11 @@
       <c r="T27" s="12">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>43939</v>
       </c>
@@ -2183,8 +2272,11 @@
       <c r="T28" s="12">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>43940</v>
       </c>
@@ -2245,8 +2337,11 @@
       <c r="T29" s="12">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>43941</v>
       </c>
@@ -2307,8 +2402,11 @@
       <c r="T30" s="12">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>43942</v>
       </c>
@@ -2369,8 +2467,11 @@
       <c r="T31" s="12">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>43943</v>
       </c>
@@ -2431,8 +2532,11 @@
       <c r="T32" s="12">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>43944</v>
       </c>
@@ -2493,8 +2597,11 @@
       <c r="T33" s="12">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>43945</v>
       </c>
@@ -2555,8 +2662,11 @@
       <c r="T34" s="12">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>43946</v>
       </c>
@@ -2617,8 +2727,11 @@
       <c r="T35" s="12">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>43947</v>
       </c>
@@ -2679,8 +2792,11 @@
       <c r="T36" s="12">
         <v>9</v>
       </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U36" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>43948</v>
       </c>
@@ -2741,8 +2857,11 @@
       <c r="T37" s="12">
         <v>11</v>
       </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U37" s="13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>43949</v>
       </c>
@@ -2803,8 +2922,11 @@
       <c r="T38" s="12">
         <v>7</v>
       </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>43950</v>
       </c>
@@ -2865,8 +2987,11 @@
       <c r="T39" s="12">
         <v>6</v>
       </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>43951</v>
       </c>
@@ -2927,8 +3052,11 @@
       <c r="T40" s="12">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>43952</v>
       </c>
@@ -2989,8 +3117,11 @@
       <c r="T41" s="12">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>43953</v>
       </c>
@@ -3051,8 +3182,11 @@
       <c r="T42" s="12">
         <v>7</v>
       </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>43954</v>
       </c>
@@ -3113,8 +3247,11 @@
       <c r="T43" s="12">
         <v>19</v>
       </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="13">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>43955</v>
       </c>
@@ -3175,8 +3312,11 @@
       <c r="T44" s="12">
         <v>12</v>
       </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>43956</v>
       </c>
@@ -3237,8 +3377,11 @@
       <c r="T45" s="12">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>43957</v>
       </c>
@@ -3299,8 +3442,11 @@
       <c r="T46" s="12">
         <v>14</v>
       </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>43958</v>
       </c>
@@ -3361,8 +3507,11 @@
       <c r="T47" s="12">
         <v>30</v>
       </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>43959</v>
       </c>
@@ -3423,8 +3572,11 @@
       <c r="T48" s="12">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>43960</v>
       </c>
@@ -3485,8 +3637,11 @@
       <c r="T49" s="12">
         <v>22</v>
       </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="13">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>43961</v>
       </c>
@@ -3547,8 +3702,11 @@
       <c r="T50" s="12">
         <v>30</v>
       </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>43962</v>
       </c>
@@ -3609,8 +3767,11 @@
       <c r="T51" s="12">
         <v>19</v>
       </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="13">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>43963</v>
       </c>
@@ -3671,8 +3832,11 @@
       <c r="T52" s="12">
         <v>26</v>
       </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="13">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>43964</v>
       </c>
@@ -3733,8 +3897,11 @@
       <c r="T53" s="12">
         <v>38</v>
       </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="13">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>43965</v>
       </c>
@@ -3795,8 +3962,11 @@
       <c r="T54" s="12">
         <v>35</v>
       </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="13">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <v>43966</v>
       </c>
@@ -3857,8 +4027,11 @@
       <c r="T55" s="12">
         <v>32</v>
       </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="13">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>43967</v>
       </c>
@@ -3919,8 +4092,11 @@
       <c r="T56" s="12">
         <v>49</v>
       </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="13">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>43968</v>
       </c>
@@ -3981,8 +4157,11 @@
       <c r="T57" s="12">
         <v>46</v>
       </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="13">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>43969</v>
       </c>
@@ -4043,8 +4222,11 @@
       <c r="T58" s="12">
         <v>63</v>
       </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="13">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>43970</v>
       </c>
@@ -4105,8 +4287,11 @@
       <c r="T59" s="12">
         <v>61</v>
       </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="13">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>43971</v>
       </c>
@@ -4167,8 +4352,11 @@
       <c r="T60" s="12">
         <v>65</v>
       </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="13">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>43972</v>
       </c>
@@ -4229,8 +4417,11 @@
       <c r="T61" s="12">
         <v>62</v>
       </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="13">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>43973</v>
       </c>
@@ -4291,8 +4482,11 @@
       <c r="T62" s="12">
         <v>70</v>
       </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="13">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>43974</v>
       </c>
@@ -4353,8 +4547,11 @@
       <c r="T63" s="12">
         <v>86</v>
       </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="13">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>43975</v>
       </c>
@@ -4415,8 +4612,11 @@
       <c r="T64" s="12">
         <v>95</v>
       </c>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="13">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>43976</v>
       </c>
@@ -4477,8 +4677,11 @@
       <c r="T65" s="12">
         <v>86</v>
       </c>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="13">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>43977</v>
       </c>
@@ -4539,8 +4742,11 @@
       <c r="T66" s="12">
         <v>106</v>
       </c>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="13">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>43978</v>
       </c>
@@ -4601,8 +4807,11 @@
       <c r="T67" s="12">
         <v>119</v>
       </c>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="13">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>43979</v>
       </c>
@@ -4663,8 +4872,11 @@
       <c r="T68" s="12">
         <v>113</v>
       </c>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="13">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>43980</v>
       </c>
@@ -4725,8 +4937,11 @@
       <c r="T69" s="12">
         <v>122</v>
       </c>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="13">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>43981</v>
       </c>
@@ -4787,8 +5002,11 @@
       <c r="T70" s="12">
         <v>126</v>
       </c>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="13">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
         <v>43982</v>
       </c>
@@ -4849,8 +5067,11 @@
       <c r="T71" s="12">
         <v>115</v>
       </c>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="13">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <v>43983</v>
       </c>
@@ -4911,8 +5132,11 @@
       <c r="T72" s="12">
         <v>142</v>
       </c>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="13">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <v>43984</v>
       </c>
@@ -4973,8 +5197,11 @@
       <c r="T73" s="12">
         <v>133</v>
       </c>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="13">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
         <v>43985</v>
       </c>
@@ -5035,8 +5262,11 @@
       <c r="T74" s="12">
         <v>149</v>
       </c>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="13">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
         <v>43986</v>
       </c>
@@ -5097,8 +5327,11 @@
       <c r="T75" s="12">
         <v>145</v>
       </c>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="13">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <v>43987</v>
       </c>
@@ -5159,8 +5392,11 @@
       <c r="T76" s="12">
         <v>148</v>
       </c>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="13">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
         <v>43988</v>
       </c>
@@ -5219,8 +5455,11 @@
       <c r="T77" s="12">
         <v>155</v>
       </c>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="13">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A78" s="5">
         <v>43989</v>
       </c>
@@ -5277,8 +5516,11 @@
       <c r="T78" s="12">
         <v>145</v>
       </c>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U78" s="13">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A79" s="5">
         <v>43990</v>
       </c>
@@ -5333,8 +5575,11 @@
       <c r="T79" s="12">
         <v>135</v>
       </c>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U79" s="13">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
         <v>43991</v>
       </c>
@@ -5387,8 +5632,11 @@
       <c r="T80" s="12">
         <v>169</v>
       </c>
-    </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="13">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
         <v>43992</v>
       </c>
@@ -5439,8 +5687,11 @@
       <c r="T81" s="12">
         <v>154</v>
       </c>
-    </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="13">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
         <v>43993</v>
       </c>
@@ -5489,8 +5740,11 @@
       <c r="T82" s="12">
         <v>159</v>
       </c>
-    </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="13">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A83" s="5">
         <v>43994</v>
       </c>
@@ -5537,8 +5791,11 @@
       <c r="T83" s="12">
         <v>157</v>
       </c>
-    </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="13">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
         <v>43995</v>
       </c>
@@ -5583,8 +5840,11 @@
       <c r="T84" s="12">
         <v>163</v>
       </c>
-    </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="13">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A85" s="5">
         <v>43996</v>
       </c>
@@ -5618,8 +5878,11 @@
       <c r="T85" s="12">
         <v>150</v>
       </c>
-    </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="13">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A86" s="5">
         <v>43997</v>
       </c>
@@ -5651,8 +5914,11 @@
       <c r="T86" s="12">
         <v>143</v>
       </c>
-    </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="13">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A87" s="5">
         <v>43998</v>
       </c>
@@ -5680,8 +5946,11 @@
       <c r="T87" s="12">
         <v>161</v>
       </c>
-    </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="13">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A88" s="5">
         <v>43999</v>
       </c>
@@ -5706,8 +5975,11 @@
       <c r="T88" s="12">
         <v>152</v>
       </c>
-    </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="13">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A89" s="5">
         <v>44000</v>
       </c>
@@ -5729,8 +6001,11 @@
       <c r="T89" s="12">
         <v>98</v>
       </c>
-    </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="13">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A90" s="5">
         <v>44001</v>
       </c>
@@ -5749,8 +6024,11 @@
       <c r="T90" s="12">
         <v>62</v>
       </c>
-    </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="13">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A91" s="5">
         <v>44002</v>
       </c>
@@ -5766,8 +6044,11 @@
       <c r="T91" s="12">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="13">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A92" s="5">
         <v>44003</v>
       </c>
@@ -5780,8 +6061,11 @@
       <c r="T92" s="12">
         <v>90</v>
       </c>
-    </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="13">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A93" s="5">
         <v>44004</v>
       </c>
@@ -5791,12 +6075,26 @@
       <c r="T93" s="12">
         <v>79</v>
       </c>
-    </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A94" s="5">
         <v>44005</v>
       </c>
       <c r="T94" s="12">
+        <v>15</v>
+      </c>
+      <c r="U94" s="13">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A95" s="5">
+        <v>44006</v>
+      </c>
+      <c r="U95" s="13">
         <v>15</v>
       </c>
     </row>

--- a/input/NuevaDefDefunciones/Fallecidos Min Ciencias acumulado.xlsx
+++ b/input/NuevaDefDefunciones/Fallecidos Min Ciencias acumulado.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/faviola/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/faviola/covid-19/REPORTEDIARIO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A179BBE0-1DF6-644D-8680-24E249B154A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8798D011-A625-6E45-837D-B398D52460AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="720" yWindow="460" windowWidth="28080" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -425,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U95"/>
+  <dimension ref="A1:V96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="U95" sqref="U95"/>
+      <selection activeCell="X93" sqref="X93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -436,7 +436,7 @@
     <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -520,8 +520,12 @@
         <f>SUM(U3:U999)</f>
         <v>5068</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V1" s="11">
+        <f>SUM(V3:V999)</f>
+        <v>5347</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -585,8 +589,11 @@
       <c r="U2" s="10">
         <v>44008</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V2" s="10">
+        <v>44009</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>43910</v>
       </c>
@@ -650,8 +657,11 @@
       <c r="U3" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V3" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>43915</v>
       </c>
@@ -715,8 +725,11 @@
       <c r="U4" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V4" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>43916</v>
       </c>
@@ -780,8 +793,11 @@
       <c r="U5" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V5" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>43917</v>
       </c>
@@ -845,8 +861,11 @@
       <c r="U6" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V6" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>43918</v>
       </c>
@@ -910,8 +929,11 @@
       <c r="U7" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>43919</v>
       </c>
@@ -975,8 +997,11 @@
       <c r="U8" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>43920</v>
       </c>
@@ -1040,8 +1065,11 @@
       <c r="U9" s="13">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>43921</v>
       </c>
@@ -1105,8 +1133,11 @@
       <c r="U10" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>43922</v>
       </c>
@@ -1170,8 +1201,11 @@
       <c r="U11" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>43923</v>
       </c>
@@ -1235,8 +1269,11 @@
       <c r="U12" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>43924</v>
       </c>
@@ -1300,8 +1337,11 @@
       <c r="U13" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>43925</v>
       </c>
@@ -1365,8 +1405,11 @@
       <c r="U14" s="13">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>43926</v>
       </c>
@@ -1430,8 +1473,11 @@
       <c r="U15" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>43927</v>
       </c>
@@ -1495,8 +1541,11 @@
       <c r="U16" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>43928</v>
       </c>
@@ -1560,8 +1609,11 @@
       <c r="U17" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>43929</v>
       </c>
@@ -1625,8 +1677,11 @@
       <c r="U18" s="13">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>43930</v>
       </c>
@@ -1690,8 +1745,11 @@
       <c r="U19" s="13">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>43931</v>
       </c>
@@ -1755,8 +1813,11 @@
       <c r="U20" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>43932</v>
       </c>
@@ -1820,8 +1881,11 @@
       <c r="U21" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>43933</v>
       </c>
@@ -1885,8 +1949,11 @@
       <c r="U22" s="13">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>43934</v>
       </c>
@@ -1950,8 +2017,11 @@
       <c r="U23" s="13">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>43935</v>
       </c>
@@ -2015,8 +2085,11 @@
       <c r="U24" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>43936</v>
       </c>
@@ -2080,8 +2153,11 @@
       <c r="U25" s="13">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>43937</v>
       </c>
@@ -2145,8 +2221,11 @@
       <c r="U26" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>43938</v>
       </c>
@@ -2210,8 +2289,11 @@
       <c r="U27" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>43939</v>
       </c>
@@ -2275,8 +2357,11 @@
       <c r="U28" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>43940</v>
       </c>
@@ -2340,8 +2425,11 @@
       <c r="U29" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>43941</v>
       </c>
@@ -2405,8 +2493,11 @@
       <c r="U30" s="13">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>43942</v>
       </c>
@@ -2470,8 +2561,11 @@
       <c r="U31" s="13">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>43943</v>
       </c>
@@ -2535,8 +2629,11 @@
       <c r="U32" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>43944</v>
       </c>
@@ -2600,8 +2697,11 @@
       <c r="U33" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>43945</v>
       </c>
@@ -2665,8 +2765,11 @@
       <c r="U34" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>43946</v>
       </c>
@@ -2730,8 +2833,11 @@
       <c r="U35" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>43947</v>
       </c>
@@ -2795,8 +2901,11 @@
       <c r="U36" s="13">
         <v>9</v>
       </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V36" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>43948</v>
       </c>
@@ -2860,8 +2969,11 @@
       <c r="U37" s="13">
         <v>11</v>
       </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V37" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>43949</v>
       </c>
@@ -2925,8 +3037,11 @@
       <c r="U38" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>43950</v>
       </c>
@@ -2990,8 +3105,11 @@
       <c r="U39" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>43951</v>
       </c>
@@ -3055,8 +3173,11 @@
       <c r="U40" s="13">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>43952</v>
       </c>
@@ -3120,8 +3241,11 @@
       <c r="U41" s="13">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>43953</v>
       </c>
@@ -3185,8 +3309,11 @@
       <c r="U42" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>43954</v>
       </c>
@@ -3250,8 +3377,11 @@
       <c r="U43" s="13">
         <v>19</v>
       </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="13">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>43955</v>
       </c>
@@ -3315,8 +3445,11 @@
       <c r="U44" s="13">
         <v>12</v>
       </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>43956</v>
       </c>
@@ -3380,8 +3513,11 @@
       <c r="U45" s="13">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>43957</v>
       </c>
@@ -3445,8 +3581,11 @@
       <c r="U46" s="13">
         <v>14</v>
       </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>43958</v>
       </c>
@@ -3510,8 +3649,11 @@
       <c r="U47" s="13">
         <v>30</v>
       </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>43959</v>
       </c>
@@ -3575,8 +3717,11 @@
       <c r="U48" s="13">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>43960</v>
       </c>
@@ -3640,8 +3785,11 @@
       <c r="U49" s="13">
         <v>22</v>
       </c>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="13">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>43961</v>
       </c>
@@ -3705,8 +3853,11 @@
       <c r="U50" s="13">
         <v>30</v>
       </c>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="13">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>43962</v>
       </c>
@@ -3770,8 +3921,11 @@
       <c r="U51" s="13">
         <v>19</v>
       </c>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>43963</v>
       </c>
@@ -3835,8 +3989,11 @@
       <c r="U52" s="13">
         <v>26</v>
       </c>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="13">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>43964</v>
       </c>
@@ -3900,8 +4057,11 @@
       <c r="U53" s="13">
         <v>38</v>
       </c>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="13">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>43965</v>
       </c>
@@ -3965,8 +4125,11 @@
       <c r="U54" s="13">
         <v>35</v>
       </c>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="13">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <v>43966</v>
       </c>
@@ -4030,8 +4193,11 @@
       <c r="U55" s="13">
         <v>32</v>
       </c>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="13">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>43967</v>
       </c>
@@ -4095,8 +4261,11 @@
       <c r="U56" s="13">
         <v>49</v>
       </c>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="13">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>43968</v>
       </c>
@@ -4160,8 +4329,11 @@
       <c r="U57" s="13">
         <v>46</v>
       </c>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="13">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>43969</v>
       </c>
@@ -4225,8 +4397,11 @@
       <c r="U58" s="13">
         <v>63</v>
       </c>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="13">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>43970</v>
       </c>
@@ -4290,8 +4465,11 @@
       <c r="U59" s="13">
         <v>61</v>
       </c>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="13">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>43971</v>
       </c>
@@ -4355,8 +4533,11 @@
       <c r="U60" s="13">
         <v>65</v>
       </c>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="13">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>43972</v>
       </c>
@@ -4420,8 +4601,11 @@
       <c r="U61" s="13">
         <v>62</v>
       </c>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="13">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>43973</v>
       </c>
@@ -4485,8 +4669,11 @@
       <c r="U62" s="13">
         <v>70</v>
       </c>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="13">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>43974</v>
       </c>
@@ -4550,8 +4737,11 @@
       <c r="U63" s="13">
         <v>86</v>
       </c>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="13">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>43975</v>
       </c>
@@ -4615,8 +4805,11 @@
       <c r="U64" s="13">
         <v>95</v>
       </c>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="13">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>43976</v>
       </c>
@@ -4680,8 +4873,11 @@
       <c r="U65" s="13">
         <v>86</v>
       </c>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="13">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>43977</v>
       </c>
@@ -4745,8 +4941,11 @@
       <c r="U66" s="13">
         <v>106</v>
       </c>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="13">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>43978</v>
       </c>
@@ -4810,8 +5009,11 @@
       <c r="U67" s="13">
         <v>120</v>
       </c>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="13">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>43979</v>
       </c>
@@ -4875,8 +5077,11 @@
       <c r="U68" s="13">
         <v>113</v>
       </c>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="13">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>43980</v>
       </c>
@@ -4940,8 +5145,11 @@
       <c r="U69" s="13">
         <v>122</v>
       </c>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="13">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>43981</v>
       </c>
@@ -5005,8 +5213,11 @@
       <c r="U70" s="13">
         <v>127</v>
       </c>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="13">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
         <v>43982</v>
       </c>
@@ -5070,8 +5281,11 @@
       <c r="U71" s="13">
         <v>115</v>
       </c>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="13">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <v>43983</v>
       </c>
@@ -5135,8 +5349,11 @@
       <c r="U72" s="13">
         <v>142</v>
       </c>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="13">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <v>43984</v>
       </c>
@@ -5200,8 +5417,11 @@
       <c r="U73" s="13">
         <v>133</v>
       </c>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="13">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
         <v>43985</v>
       </c>
@@ -5265,8 +5485,11 @@
       <c r="U74" s="13">
         <v>149</v>
       </c>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="13">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
         <v>43986</v>
       </c>
@@ -5330,8 +5553,11 @@
       <c r="U75" s="13">
         <v>146</v>
       </c>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="13">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <v>43987</v>
       </c>
@@ -5395,8 +5621,11 @@
       <c r="U76" s="13">
         <v>150</v>
       </c>
-    </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="13">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
         <v>43988</v>
       </c>
@@ -5458,8 +5687,11 @@
       <c r="U77" s="13">
         <v>156</v>
       </c>
-    </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="13">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A78" s="5">
         <v>43989</v>
       </c>
@@ -5519,8 +5751,11 @@
       <c r="U78" s="13">
         <v>145</v>
       </c>
-    </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V78" s="13">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" s="5">
         <v>43990</v>
       </c>
@@ -5578,8 +5813,11 @@
       <c r="U79" s="13">
         <v>135</v>
       </c>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V79" s="13">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
         <v>43991</v>
       </c>
@@ -5635,8 +5873,11 @@
       <c r="U80" s="13">
         <v>169</v>
       </c>
-    </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="13">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
         <v>43992</v>
       </c>
@@ -5690,8 +5931,11 @@
       <c r="U81" s="13">
         <v>154</v>
       </c>
-    </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="13">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
         <v>43993</v>
       </c>
@@ -5743,8 +5987,11 @@
       <c r="U82" s="13">
         <v>159</v>
       </c>
-    </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="13">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A83" s="5">
         <v>43994</v>
       </c>
@@ -5794,8 +6041,11 @@
       <c r="U83" s="13">
         <v>158</v>
       </c>
-    </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="13">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
         <v>43995</v>
       </c>
@@ -5843,8 +6093,11 @@
       <c r="U84" s="13">
         <v>164</v>
       </c>
-    </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="13">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A85" s="5">
         <v>43996</v>
       </c>
@@ -5881,8 +6134,11 @@
       <c r="U85" s="13">
         <v>150</v>
       </c>
-    </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="13">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A86" s="5">
         <v>43997</v>
       </c>
@@ -5917,8 +6173,11 @@
       <c r="U86" s="13">
         <v>142</v>
       </c>
-    </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="13">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A87" s="5">
         <v>43998</v>
       </c>
@@ -5949,8 +6208,11 @@
       <c r="U87" s="13">
         <v>161</v>
       </c>
-    </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="13">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A88" s="5">
         <v>43999</v>
       </c>
@@ -5978,8 +6240,11 @@
       <c r="U88" s="13">
         <v>162</v>
       </c>
-    </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="13">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A89" s="5">
         <v>44000</v>
       </c>
@@ -6004,8 +6269,11 @@
       <c r="U89" s="13">
         <v>108</v>
       </c>
-    </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="13">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A90" s="5">
         <v>44001</v>
       </c>
@@ -6027,8 +6295,11 @@
       <c r="U90" s="13">
         <v>73</v>
       </c>
-    </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="13">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A91" s="5">
         <v>44002</v>
       </c>
@@ -6047,8 +6318,11 @@
       <c r="U91" s="13">
         <v>97</v>
       </c>
-    </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="13">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A92" s="5">
         <v>44003</v>
       </c>
@@ -6064,8 +6338,11 @@
       <c r="U92" s="13">
         <v>105</v>
       </c>
-    </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="13">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A93" s="5">
         <v>44004</v>
       </c>
@@ -6078,8 +6355,11 @@
       <c r="U93" s="13">
         <v>100</v>
       </c>
-    </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="13">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A94" s="5">
         <v>44005</v>
       </c>
@@ -6089,13 +6369,27 @@
       <c r="U94" s="13">
         <v>84</v>
       </c>
-    </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="13">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A95" s="5">
         <v>44006</v>
       </c>
       <c r="U95" s="13">
         <v>15</v>
+      </c>
+      <c r="V95" s="13">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A96" s="5">
+        <v>44007</v>
+      </c>
+      <c r="V96" s="13">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/input/NuevaDefDefunciones/Fallecidos Min Ciencias acumulado.xlsx
+++ b/input/NuevaDefDefunciones/Fallecidos Min Ciencias acumulado.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/faviola/covid-19/REPORTEDIARIO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8798D011-A625-6E45-837D-B398D52460AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914B8439-0F70-8343-9348-C4ACB8AB809F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="460" windowWidth="28080" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="740" yWindow="460" windowWidth="28060" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -425,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V96"/>
+  <dimension ref="A1:W98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="X93" sqref="X93"/>
+      <selection activeCell="W98" sqref="W98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -436,7 +436,7 @@
     <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -524,8 +524,12 @@
         <f>SUM(V3:V999)</f>
         <v>5347</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W1" s="11">
+        <f>SUM(W3:W999)</f>
+        <v>5575</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -592,8 +596,11 @@
       <c r="V2" s="10">
         <v>44009</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W2" s="10">
+        <v>44010</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>43910</v>
       </c>
@@ -660,8 +667,11 @@
       <c r="V3" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W3" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>43915</v>
       </c>
@@ -728,8 +738,11 @@
       <c r="V4" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W4" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>43916</v>
       </c>
@@ -796,8 +809,11 @@
       <c r="V5" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W5" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>43917</v>
       </c>
@@ -864,8 +880,11 @@
       <c r="V6" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W6" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>43918</v>
       </c>
@@ -932,8 +951,11 @@
       <c r="V7" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>43919</v>
       </c>
@@ -1000,8 +1022,11 @@
       <c r="V8" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>43920</v>
       </c>
@@ -1068,8 +1093,11 @@
       <c r="V9" s="13">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>43921</v>
       </c>
@@ -1136,8 +1164,11 @@
       <c r="V10" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>43922</v>
       </c>
@@ -1204,8 +1235,11 @@
       <c r="V11" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>43923</v>
       </c>
@@ -1272,8 +1306,11 @@
       <c r="V12" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>43924</v>
       </c>
@@ -1340,8 +1377,11 @@
       <c r="V13" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>43925</v>
       </c>
@@ -1408,8 +1448,11 @@
       <c r="V14" s="13">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>43926</v>
       </c>
@@ -1476,8 +1519,11 @@
       <c r="V15" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>43927</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="V16" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>43928</v>
       </c>
@@ -1612,8 +1661,11 @@
       <c r="V17" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>43929</v>
       </c>
@@ -1680,8 +1732,11 @@
       <c r="V18" s="13">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>43930</v>
       </c>
@@ -1748,8 +1803,11 @@
       <c r="V19" s="13">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>43931</v>
       </c>
@@ -1816,8 +1874,11 @@
       <c r="V20" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>43932</v>
       </c>
@@ -1884,8 +1945,11 @@
       <c r="V21" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>43933</v>
       </c>
@@ -1952,8 +2016,11 @@
       <c r="V22" s="13">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>43934</v>
       </c>
@@ -2020,8 +2087,11 @@
       <c r="V23" s="13">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>43935</v>
       </c>
@@ -2088,8 +2158,11 @@
       <c r="V24" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>43936</v>
       </c>
@@ -2156,8 +2229,11 @@
       <c r="V25" s="13">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>43937</v>
       </c>
@@ -2224,8 +2300,11 @@
       <c r="V26" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>43938</v>
       </c>
@@ -2292,8 +2371,11 @@
       <c r="V27" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>43939</v>
       </c>
@@ -2360,8 +2442,11 @@
       <c r="V28" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>43940</v>
       </c>
@@ -2428,8 +2513,11 @@
       <c r="V29" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>43941</v>
       </c>
@@ -2496,8 +2584,11 @@
       <c r="V30" s="13">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>43942</v>
       </c>
@@ -2564,8 +2655,11 @@
       <c r="V31" s="13">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>43943</v>
       </c>
@@ -2632,8 +2726,11 @@
       <c r="V32" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>43944</v>
       </c>
@@ -2700,8 +2797,11 @@
       <c r="V33" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>43945</v>
       </c>
@@ -2768,8 +2868,11 @@
       <c r="V34" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>43946</v>
       </c>
@@ -2836,8 +2939,11 @@
       <c r="V35" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>43947</v>
       </c>
@@ -2904,8 +3010,11 @@
       <c r="V36" s="13">
         <v>9</v>
       </c>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W36" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>43948</v>
       </c>
@@ -2972,8 +3081,11 @@
       <c r="V37" s="13">
         <v>12</v>
       </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W37" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>43949</v>
       </c>
@@ -3040,8 +3152,11 @@
       <c r="V38" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W38" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>43950</v>
       </c>
@@ -3108,8 +3223,11 @@
       <c r="V39" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>43951</v>
       </c>
@@ -3176,8 +3294,11 @@
       <c r="V40" s="13">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>43952</v>
       </c>
@@ -3244,8 +3365,11 @@
       <c r="V41" s="13">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>43953</v>
       </c>
@@ -3312,8 +3436,11 @@
       <c r="V42" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>43954</v>
       </c>
@@ -3380,8 +3507,11 @@
       <c r="V43" s="13">
         <v>19</v>
       </c>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="13">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>43955</v>
       </c>
@@ -3448,8 +3578,11 @@
       <c r="V44" s="13">
         <v>13</v>
       </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>43956</v>
       </c>
@@ -3516,8 +3649,11 @@
       <c r="V45" s="13">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>43957</v>
       </c>
@@ -3584,8 +3720,11 @@
       <c r="V46" s="13">
         <v>15</v>
       </c>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>43958</v>
       </c>
@@ -3652,8 +3791,11 @@
       <c r="V47" s="13">
         <v>30</v>
       </c>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>43959</v>
       </c>
@@ -3720,8 +3862,11 @@
       <c r="V48" s="13">
         <v>15</v>
       </c>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>43960</v>
       </c>
@@ -3788,8 +3933,11 @@
       <c r="V49" s="13">
         <v>23</v>
       </c>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="13">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>43961</v>
       </c>
@@ -3856,8 +4004,11 @@
       <c r="V50" s="13">
         <v>31</v>
       </c>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="13">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>43962</v>
       </c>
@@ -3924,8 +4075,11 @@
       <c r="V51" s="13">
         <v>20</v>
       </c>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>43963</v>
       </c>
@@ -3992,8 +4146,11 @@
       <c r="V52" s="13">
         <v>26</v>
       </c>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="13">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>43964</v>
       </c>
@@ -4060,8 +4217,11 @@
       <c r="V53" s="13">
         <v>38</v>
       </c>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="13">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>43965</v>
       </c>
@@ -4128,8 +4288,11 @@
       <c r="V54" s="13">
         <v>35</v>
       </c>
-    </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="13">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <v>43966</v>
       </c>
@@ -4196,8 +4359,11 @@
       <c r="V55" s="13">
         <v>33</v>
       </c>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="13">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>43967</v>
       </c>
@@ -4264,8 +4430,11 @@
       <c r="V56" s="13">
         <v>49</v>
       </c>
-    </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="13">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>43968</v>
       </c>
@@ -4332,8 +4501,11 @@
       <c r="V57" s="13">
         <v>46</v>
       </c>
-    </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="13">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>43969</v>
       </c>
@@ -4400,8 +4572,11 @@
       <c r="V58" s="13">
         <v>63</v>
       </c>
-    </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="13">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>43970</v>
       </c>
@@ -4468,8 +4643,11 @@
       <c r="V59" s="13">
         <v>64</v>
       </c>
-    </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="13">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>43971</v>
       </c>
@@ -4536,8 +4714,11 @@
       <c r="V60" s="13">
         <v>65</v>
       </c>
-    </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="13">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>43972</v>
       </c>
@@ -4604,8 +4785,11 @@
       <c r="V61" s="13">
         <v>63</v>
       </c>
-    </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="13">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>43973</v>
       </c>
@@ -4672,8 +4856,11 @@
       <c r="V62" s="13">
         <v>72</v>
       </c>
-    </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="13">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>43974</v>
       </c>
@@ -4740,8 +4927,11 @@
       <c r="V63" s="13">
         <v>86</v>
       </c>
-    </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="13">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>43975</v>
       </c>
@@ -4808,8 +4998,11 @@
       <c r="V64" s="13">
         <v>97</v>
       </c>
-    </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="13">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>43976</v>
       </c>
@@ -4876,8 +5069,11 @@
       <c r="V65" s="13">
         <v>86</v>
       </c>
-    </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="13">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>43977</v>
       </c>
@@ -4944,8 +5140,11 @@
       <c r="V66" s="13">
         <v>106</v>
       </c>
-    </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="13">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>43978</v>
       </c>
@@ -5012,8 +5211,11 @@
       <c r="V67" s="13">
         <v>121</v>
       </c>
-    </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="13">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>43979</v>
       </c>
@@ -5080,8 +5282,11 @@
       <c r="V68" s="13">
         <v>115</v>
       </c>
-    </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="13">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>43980</v>
       </c>
@@ -5148,8 +5353,11 @@
       <c r="V69" s="13">
         <v>124</v>
       </c>
-    </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="13">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>43981</v>
       </c>
@@ -5216,8 +5424,11 @@
       <c r="V70" s="13">
         <v>134</v>
       </c>
-    </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="13">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
         <v>43982</v>
       </c>
@@ -5284,8 +5495,11 @@
       <c r="V71" s="13">
         <v>114</v>
       </c>
-    </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="13">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <v>43983</v>
       </c>
@@ -5352,8 +5566,11 @@
       <c r="V72" s="13">
         <v>143</v>
       </c>
-    </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="13">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <v>43984</v>
       </c>
@@ -5420,8 +5637,11 @@
       <c r="V73" s="13">
         <v>137</v>
       </c>
-    </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="13">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
         <v>43985</v>
       </c>
@@ -5488,8 +5708,11 @@
       <c r="V74" s="13">
         <v>150</v>
       </c>
-    </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="13">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
         <v>43986</v>
       </c>
@@ -5556,8 +5779,11 @@
       <c r="V75" s="13">
         <v>148</v>
       </c>
-    </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="13">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <v>43987</v>
       </c>
@@ -5624,8 +5850,11 @@
       <c r="V76" s="13">
         <v>155</v>
       </c>
-    </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="13">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
         <v>43988</v>
       </c>
@@ -5690,8 +5919,11 @@
       <c r="V77" s="13">
         <v>158</v>
       </c>
-    </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="13">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A78" s="5">
         <v>43989</v>
       </c>
@@ -5754,8 +5986,11 @@
       <c r="V78" s="13">
         <v>147</v>
       </c>
-    </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W78" s="13">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A79" s="5">
         <v>43990</v>
       </c>
@@ -5816,8 +6051,11 @@
       <c r="V79" s="13">
         <v>137</v>
       </c>
-    </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W79" s="13">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
         <v>43991</v>
       </c>
@@ -5876,8 +6114,11 @@
       <c r="V80" s="13">
         <v>171</v>
       </c>
-    </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W80" s="13">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
         <v>43992</v>
       </c>
@@ -5934,8 +6175,11 @@
       <c r="V81" s="13">
         <v>156</v>
       </c>
-    </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="13">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
         <v>43993</v>
       </c>
@@ -5990,8 +6234,11 @@
       <c r="V82" s="13">
         <v>159</v>
       </c>
-    </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="13">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A83" s="5">
         <v>43994</v>
       </c>
@@ -6044,8 +6291,11 @@
       <c r="V83" s="13">
         <v>160</v>
       </c>
-    </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="13">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
         <v>43995</v>
       </c>
@@ -6096,8 +6346,11 @@
       <c r="V84" s="13">
         <v>169</v>
       </c>
-    </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="13">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A85" s="5">
         <v>43996</v>
       </c>
@@ -6137,8 +6390,11 @@
       <c r="V85" s="13">
         <v>150</v>
       </c>
-    </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="13">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A86" s="5">
         <v>43997</v>
       </c>
@@ -6176,8 +6432,11 @@
       <c r="V86" s="13">
         <v>144</v>
       </c>
-    </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="13">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A87" s="5">
         <v>43998</v>
       </c>
@@ -6211,8 +6470,11 @@
       <c r="V87" s="13">
         <v>165</v>
       </c>
-    </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="13">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A88" s="5">
         <v>43999</v>
       </c>
@@ -6243,8 +6505,11 @@
       <c r="V88" s="13">
         <v>165</v>
       </c>
-    </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="13">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A89" s="5">
         <v>44000</v>
       </c>
@@ -6272,8 +6537,11 @@
       <c r="V89" s="13">
         <v>113</v>
       </c>
-    </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="13">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A90" s="5">
         <v>44001</v>
       </c>
@@ -6298,8 +6566,11 @@
       <c r="V90" s="13">
         <v>121</v>
       </c>
-    </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="13">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A91" s="5">
         <v>44002</v>
       </c>
@@ -6321,8 +6592,11 @@
       <c r="V91" s="13">
         <v>120</v>
       </c>
-    </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="13">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A92" s="5">
         <v>44003</v>
       </c>
@@ -6341,8 +6615,11 @@
       <c r="V92" s="13">
         <v>121</v>
       </c>
-    </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="13">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A93" s="5">
         <v>44004</v>
       </c>
@@ -6358,8 +6635,11 @@
       <c r="V93" s="13">
         <v>112</v>
       </c>
-    </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="13">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A94" s="5">
         <v>44005</v>
       </c>
@@ -6372,8 +6652,11 @@
       <c r="V94" s="13">
         <v>103</v>
       </c>
-    </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="13">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A95" s="5">
         <v>44006</v>
       </c>
@@ -6383,13 +6666,35 @@
       <c r="V95" s="13">
         <v>84</v>
       </c>
-    </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="13">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A96" s="5">
         <v>44007</v>
       </c>
       <c r="V96" s="13">
         <v>18</v>
+      </c>
+      <c r="W96" s="13">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A97" s="5">
+        <v>44008</v>
+      </c>
+      <c r="W97" s="13">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A98" s="5">
+        <v>44009</v>
+      </c>
+      <c r="W98" s="13">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/input/NuevaDefDefunciones/Fallecidos Min Ciencias acumulado.xlsx
+++ b/input/NuevaDefDefunciones/Fallecidos Min Ciencias acumulado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/faviola/covid-19/REPORTEDIARIO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914B8439-0F70-8343-9348-C4ACB8AB809F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235958E5-BFDE-6746-99FE-D78BB99F477E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="740" yWindow="460" windowWidth="28060" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -425,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W98"/>
+  <dimension ref="A1:X99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="W98" sqref="W98"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="X99" sqref="X99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -436,7 +436,7 @@
     <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -528,8 +528,12 @@
         <f>SUM(W3:W999)</f>
         <v>5575</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X1" s="11">
+        <f>SUM(X3:X999)</f>
+        <v>5688</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -599,8 +603,11 @@
       <c r="W2" s="10">
         <v>44010</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X2" s="10">
+        <v>44011</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>43910</v>
       </c>
@@ -670,8 +677,11 @@
       <c r="W3" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X3" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>43915</v>
       </c>
@@ -741,8 +751,11 @@
       <c r="W4" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X4" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>43916</v>
       </c>
@@ -812,8 +825,11 @@
       <c r="W5" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X5" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>43917</v>
       </c>
@@ -883,8 +899,11 @@
       <c r="W6" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X6" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>43918</v>
       </c>
@@ -954,8 +973,11 @@
       <c r="W7" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X7" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>43919</v>
       </c>
@@ -1025,8 +1047,11 @@
       <c r="W8" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>43920</v>
       </c>
@@ -1096,8 +1121,11 @@
       <c r="W9" s="13">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>43921</v>
       </c>
@@ -1167,8 +1195,11 @@
       <c r="W10" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>43922</v>
       </c>
@@ -1238,8 +1269,11 @@
       <c r="W11" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>43923</v>
       </c>
@@ -1309,8 +1343,11 @@
       <c r="W12" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>43924</v>
       </c>
@@ -1380,8 +1417,11 @@
       <c r="W13" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>43925</v>
       </c>
@@ -1451,8 +1491,11 @@
       <c r="W14" s="13">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>43926</v>
       </c>
@@ -1522,8 +1565,11 @@
       <c r="W15" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>43927</v>
       </c>
@@ -1593,8 +1639,11 @@
       <c r="W16" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>43928</v>
       </c>
@@ -1664,8 +1713,11 @@
       <c r="W17" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>43929</v>
       </c>
@@ -1735,8 +1787,11 @@
       <c r="W18" s="13">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>43930</v>
       </c>
@@ -1806,8 +1861,11 @@
       <c r="W19" s="13">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>43931</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="W20" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>43932</v>
       </c>
@@ -1948,8 +2009,11 @@
       <c r="W21" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>43933</v>
       </c>
@@ -2019,8 +2083,11 @@
       <c r="W22" s="13">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>43934</v>
       </c>
@@ -2090,8 +2157,11 @@
       <c r="W23" s="13">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>43935</v>
       </c>
@@ -2161,8 +2231,11 @@
       <c r="W24" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>43936</v>
       </c>
@@ -2232,8 +2305,11 @@
       <c r="W25" s="13">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>43937</v>
       </c>
@@ -2303,8 +2379,11 @@
       <c r="W26" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>43938</v>
       </c>
@@ -2374,8 +2453,11 @@
       <c r="W27" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>43939</v>
       </c>
@@ -2445,8 +2527,11 @@
       <c r="W28" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>43940</v>
       </c>
@@ -2516,8 +2601,11 @@
       <c r="W29" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>43941</v>
       </c>
@@ -2587,8 +2675,11 @@
       <c r="W30" s="13">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>43942</v>
       </c>
@@ -2658,8 +2749,11 @@
       <c r="W31" s="13">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>43943</v>
       </c>
@@ -2729,8 +2823,11 @@
       <c r="W32" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>43944</v>
       </c>
@@ -2800,8 +2897,11 @@
       <c r="W33" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>43945</v>
       </c>
@@ -2871,8 +2971,11 @@
       <c r="W34" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>43946</v>
       </c>
@@ -2942,8 +3045,11 @@
       <c r="W35" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>43947</v>
       </c>
@@ -3013,8 +3119,11 @@
       <c r="W36" s="13">
         <v>9</v>
       </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X36" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>43948</v>
       </c>
@@ -3084,8 +3193,11 @@
       <c r="W37" s="13">
         <v>12</v>
       </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X37" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>43949</v>
       </c>
@@ -3155,8 +3267,11 @@
       <c r="W38" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X38" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>43950</v>
       </c>
@@ -3226,8 +3341,11 @@
       <c r="W39" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>43951</v>
       </c>
@@ -3297,8 +3415,11 @@
       <c r="W40" s="13">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>43952</v>
       </c>
@@ -3368,8 +3489,11 @@
       <c r="W41" s="13">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>43953</v>
       </c>
@@ -3439,8 +3563,11 @@
       <c r="W42" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>43954</v>
       </c>
@@ -3510,8 +3637,11 @@
       <c r="W43" s="13">
         <v>19</v>
       </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="13">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>43955</v>
       </c>
@@ -3581,8 +3711,11 @@
       <c r="W44" s="13">
         <v>13</v>
       </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>43956</v>
       </c>
@@ -3652,8 +3785,11 @@
       <c r="W45" s="13">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>43957</v>
       </c>
@@ -3723,8 +3859,11 @@
       <c r="W46" s="13">
         <v>15</v>
       </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>43958</v>
       </c>
@@ -3794,8 +3933,11 @@
       <c r="W47" s="13">
         <v>30</v>
       </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>43959</v>
       </c>
@@ -3865,8 +4007,11 @@
       <c r="W48" s="13">
         <v>15</v>
       </c>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>43960</v>
       </c>
@@ -3936,8 +4081,11 @@
       <c r="W49" s="13">
         <v>23</v>
       </c>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="13">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>43961</v>
       </c>
@@ -4007,8 +4155,11 @@
       <c r="W50" s="13">
         <v>31</v>
       </c>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="13">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>43962</v>
       </c>
@@ -4078,8 +4229,11 @@
       <c r="W51" s="13">
         <v>20</v>
       </c>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>43963</v>
       </c>
@@ -4149,8 +4303,11 @@
       <c r="W52" s="13">
         <v>26</v>
       </c>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="13">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>43964</v>
       </c>
@@ -4220,8 +4377,11 @@
       <c r="W53" s="13">
         <v>38</v>
       </c>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="13">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>43965</v>
       </c>
@@ -4291,8 +4451,11 @@
       <c r="W54" s="13">
         <v>35</v>
       </c>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="13">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <v>43966</v>
       </c>
@@ -4362,8 +4525,11 @@
       <c r="W55" s="13">
         <v>33</v>
       </c>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="13">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>43967</v>
       </c>
@@ -4433,8 +4599,11 @@
       <c r="W56" s="13">
         <v>49</v>
       </c>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="13">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>43968</v>
       </c>
@@ -4504,8 +4673,11 @@
       <c r="W57" s="13">
         <v>46</v>
       </c>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="13">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>43969</v>
       </c>
@@ -4575,8 +4747,11 @@
       <c r="W58" s="13">
         <v>62</v>
       </c>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="13">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>43970</v>
       </c>
@@ -4646,8 +4821,11 @@
       <c r="W59" s="13">
         <v>64</v>
       </c>
-    </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="13">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>43971</v>
       </c>
@@ -4717,8 +4895,11 @@
       <c r="W60" s="13">
         <v>65</v>
       </c>
-    </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="13">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>43972</v>
       </c>
@@ -4788,8 +4969,11 @@
       <c r="W61" s="13">
         <v>63</v>
       </c>
-    </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="13">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>43973</v>
       </c>
@@ -4859,8 +5043,11 @@
       <c r="W62" s="13">
         <v>72</v>
       </c>
-    </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="13">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>43974</v>
       </c>
@@ -4930,8 +5117,11 @@
       <c r="W63" s="13">
         <v>86</v>
       </c>
-    </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="13">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>43975</v>
       </c>
@@ -5001,8 +5191,11 @@
       <c r="W64" s="13">
         <v>97</v>
       </c>
-    </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="13">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>43976</v>
       </c>
@@ -5072,8 +5265,11 @@
       <c r="W65" s="13">
         <v>86</v>
       </c>
-    </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="13">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>43977</v>
       </c>
@@ -5143,8 +5339,11 @@
       <c r="W66" s="13">
         <v>106</v>
       </c>
-    </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="13">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>43978</v>
       </c>
@@ -5214,8 +5413,11 @@
       <c r="W67" s="13">
         <v>121</v>
       </c>
-    </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="13">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>43979</v>
       </c>
@@ -5285,8 +5487,11 @@
       <c r="W68" s="13">
         <v>115</v>
       </c>
-    </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="13">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>43980</v>
       </c>
@@ -5356,8 +5561,11 @@
       <c r="W69" s="13">
         <v>124</v>
       </c>
-    </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="13">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>43981</v>
       </c>
@@ -5427,8 +5635,11 @@
       <c r="W70" s="13">
         <v>134</v>
       </c>
-    </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="13">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
         <v>43982</v>
       </c>
@@ -5498,8 +5709,11 @@
       <c r="W71" s="13">
         <v>114</v>
       </c>
-    </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="13">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <v>43983</v>
       </c>
@@ -5569,8 +5783,11 @@
       <c r="W72" s="13">
         <v>143</v>
       </c>
-    </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="13">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <v>43984</v>
       </c>
@@ -5640,8 +5857,11 @@
       <c r="W73" s="13">
         <v>137</v>
       </c>
-    </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="13">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
         <v>43985</v>
       </c>
@@ -5711,8 +5931,11 @@
       <c r="W74" s="13">
         <v>150</v>
       </c>
-    </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="13">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
         <v>43986</v>
       </c>
@@ -5782,8 +6005,11 @@
       <c r="W75" s="13">
         <v>148</v>
       </c>
-    </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="13">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <v>43987</v>
       </c>
@@ -5853,8 +6079,11 @@
       <c r="W76" s="13">
         <v>155</v>
       </c>
-    </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="13">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
         <v>43988</v>
       </c>
@@ -5922,8 +6151,11 @@
       <c r="W77" s="13">
         <v>158</v>
       </c>
-    </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="13">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A78" s="5">
         <v>43989</v>
       </c>
@@ -5989,8 +6221,11 @@
       <c r="W78" s="13">
         <v>147</v>
       </c>
-    </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X78" s="13">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A79" s="5">
         <v>43990</v>
       </c>
@@ -6054,8 +6289,11 @@
       <c r="W79" s="13">
         <v>138</v>
       </c>
-    </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X79" s="13">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
         <v>43991</v>
       </c>
@@ -6117,8 +6355,11 @@
       <c r="W80" s="13">
         <v>171</v>
       </c>
-    </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X80" s="13">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
         <v>43992</v>
       </c>
@@ -6178,8 +6419,11 @@
       <c r="W81" s="13">
         <v>156</v>
       </c>
-    </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="13">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
         <v>43993</v>
       </c>
@@ -6237,8 +6481,11 @@
       <c r="W82" s="13">
         <v>159</v>
       </c>
-    </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="13">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A83" s="5">
         <v>43994</v>
       </c>
@@ -6294,8 +6541,11 @@
       <c r="W83" s="13">
         <v>160</v>
       </c>
-    </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="13">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
         <v>43995</v>
       </c>
@@ -6349,8 +6599,11 @@
       <c r="W84" s="13">
         <v>169</v>
       </c>
-    </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="13">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A85" s="5">
         <v>43996</v>
       </c>
@@ -6393,8 +6646,11 @@
       <c r="W85" s="13">
         <v>150</v>
       </c>
-    </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="13">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A86" s="5">
         <v>43997</v>
       </c>
@@ -6435,8 +6691,11 @@
       <c r="W86" s="13">
         <v>146</v>
       </c>
-    </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="13">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A87" s="5">
         <v>43998</v>
       </c>
@@ -6473,8 +6732,11 @@
       <c r="W87" s="13">
         <v>166</v>
       </c>
-    </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="13">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A88" s="5">
         <v>43999</v>
       </c>
@@ -6508,8 +6770,11 @@
       <c r="W88" s="13">
         <v>165</v>
       </c>
-    </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="13">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A89" s="5">
         <v>44000</v>
       </c>
@@ -6540,8 +6805,11 @@
       <c r="W89" s="13">
         <v>120</v>
       </c>
-    </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="13">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A90" s="5">
         <v>44001</v>
       </c>
@@ -6569,8 +6837,11 @@
       <c r="W90" s="13">
         <v>135</v>
       </c>
-    </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="13">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A91" s="5">
         <v>44002</v>
       </c>
@@ -6595,8 +6866,11 @@
       <c r="W91" s="13">
         <v>130</v>
       </c>
-    </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="13">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A92" s="5">
         <v>44003</v>
       </c>
@@ -6618,8 +6892,11 @@
       <c r="W92" s="13">
         <v>124</v>
       </c>
-    </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="13">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A93" s="5">
         <v>44004</v>
       </c>
@@ -6638,8 +6915,11 @@
       <c r="W93" s="13">
         <v>121</v>
       </c>
-    </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="13">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A94" s="5">
         <v>44005</v>
       </c>
@@ -6655,8 +6935,11 @@
       <c r="W94" s="13">
         <v>113</v>
       </c>
-    </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="13">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A95" s="5">
         <v>44006</v>
       </c>
@@ -6669,8 +6952,11 @@
       <c r="W95" s="13">
         <v>105</v>
       </c>
-    </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="13">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A96" s="5">
         <v>44007</v>
       </c>
@@ -6680,21 +6966,38 @@
       <c r="W96" s="13">
         <v>97</v>
       </c>
-    </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="13">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="97" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A97" s="5">
         <v>44008</v>
       </c>
       <c r="W97" s="13">
         <v>65</v>
       </c>
-    </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="13">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="98" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A98" s="5">
         <v>44009</v>
       </c>
       <c r="W98" s="13">
         <v>7</v>
+      </c>
+      <c r="X98" s="13">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="99" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A99" s="5">
+        <v>44010</v>
+      </c>
+      <c r="X99" s="13">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/input/NuevaDefDefunciones/Fallecidos Min Ciencias acumulado.xlsx
+++ b/input/NuevaDefDefunciones/Fallecidos Min Ciencias acumulado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/faviola/covid-19/REPORTEDIARIO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235958E5-BFDE-6746-99FE-D78BB99F477E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B997326-DDEF-9B42-B0B0-1A7476811CB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="740" yWindow="460" windowWidth="28060" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -425,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X99"/>
+  <dimension ref="A1:Y100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="X99" sqref="X99"/>
+    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99:A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -436,7 +436,7 @@
     <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -532,8 +532,12 @@
         <f>SUM(X3:X999)</f>
         <v>5688</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y1" s="11">
+        <f>SUM(Y3:Y999)</f>
+        <v>5753</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -606,8 +610,11 @@
       <c r="X2" s="10">
         <v>44011</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y2" s="10">
+        <v>44012</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>43910</v>
       </c>
@@ -680,8 +687,11 @@
       <c r="X3" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y3" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>43915</v>
       </c>
@@ -754,8 +764,11 @@
       <c r="X4" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y4" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>43916</v>
       </c>
@@ -828,8 +841,11 @@
       <c r="X5" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y5" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>43917</v>
       </c>
@@ -902,8 +918,11 @@
       <c r="X6" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y6" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>43918</v>
       </c>
@@ -976,8 +995,11 @@
       <c r="X7" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y7" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>43919</v>
       </c>
@@ -1050,8 +1072,11 @@
       <c r="X8" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>43920</v>
       </c>
@@ -1124,8 +1149,11 @@
       <c r="X9" s="13">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>43921</v>
       </c>
@@ -1198,8 +1226,11 @@
       <c r="X10" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>43922</v>
       </c>
@@ -1272,8 +1303,11 @@
       <c r="X11" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>43923</v>
       </c>
@@ -1346,8 +1380,11 @@
       <c r="X12" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>43924</v>
       </c>
@@ -1420,8 +1457,11 @@
       <c r="X13" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>43925</v>
       </c>
@@ -1494,8 +1534,11 @@
       <c r="X14" s="13">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>43926</v>
       </c>
@@ -1568,8 +1611,11 @@
       <c r="X15" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>43927</v>
       </c>
@@ -1642,8 +1688,11 @@
       <c r="X16" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>43928</v>
       </c>
@@ -1716,8 +1765,11 @@
       <c r="X17" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>43929</v>
       </c>
@@ -1790,8 +1842,11 @@
       <c r="X18" s="13">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>43930</v>
       </c>
@@ -1864,8 +1919,11 @@
       <c r="X19" s="13">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>43931</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="X20" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>43932</v>
       </c>
@@ -2012,8 +2073,11 @@
       <c r="X21" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>43933</v>
       </c>
@@ -2086,8 +2150,11 @@
       <c r="X22" s="13">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>43934</v>
       </c>
@@ -2160,8 +2227,11 @@
       <c r="X23" s="13">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>43935</v>
       </c>
@@ -2234,8 +2304,11 @@
       <c r="X24" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>43936</v>
       </c>
@@ -2308,8 +2381,11 @@
       <c r="X25" s="13">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>43937</v>
       </c>
@@ -2382,8 +2458,11 @@
       <c r="X26" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>43938</v>
       </c>
@@ -2456,8 +2535,11 @@
       <c r="X27" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>43939</v>
       </c>
@@ -2530,8 +2612,11 @@
       <c r="X28" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>43940</v>
       </c>
@@ -2604,8 +2689,11 @@
       <c r="X29" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>43941</v>
       </c>
@@ -2678,8 +2766,11 @@
       <c r="X30" s="13">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>43942</v>
       </c>
@@ -2752,8 +2843,11 @@
       <c r="X31" s="13">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>43943</v>
       </c>
@@ -2826,8 +2920,11 @@
       <c r="X32" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>43944</v>
       </c>
@@ -2900,8 +2997,11 @@
       <c r="X33" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>43945</v>
       </c>
@@ -2974,8 +3074,11 @@
       <c r="X34" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>43946</v>
       </c>
@@ -3048,8 +3151,11 @@
       <c r="X35" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>43947</v>
       </c>
@@ -3122,8 +3228,11 @@
       <c r="X36" s="13">
         <v>9</v>
       </c>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y36" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>43948</v>
       </c>
@@ -3196,8 +3305,11 @@
       <c r="X37" s="13">
         <v>12</v>
       </c>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y37" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>43949</v>
       </c>
@@ -3270,8 +3382,11 @@
       <c r="X38" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y38" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>43950</v>
       </c>
@@ -3344,8 +3459,11 @@
       <c r="X39" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>43951</v>
       </c>
@@ -3418,8 +3536,11 @@
       <c r="X40" s="13">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>43952</v>
       </c>
@@ -3492,8 +3613,11 @@
       <c r="X41" s="13">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>43953</v>
       </c>
@@ -3566,8 +3690,11 @@
       <c r="X42" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>43954</v>
       </c>
@@ -3640,8 +3767,11 @@
       <c r="X43" s="13">
         <v>19</v>
       </c>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="13">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>43955</v>
       </c>
@@ -3714,8 +3844,11 @@
       <c r="X44" s="13">
         <v>13</v>
       </c>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>43956</v>
       </c>
@@ -3788,8 +3921,11 @@
       <c r="X45" s="13">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>43957</v>
       </c>
@@ -3862,8 +3998,11 @@
       <c r="X46" s="13">
         <v>15</v>
       </c>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>43958</v>
       </c>
@@ -3936,8 +4075,11 @@
       <c r="X47" s="13">
         <v>30</v>
       </c>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>43959</v>
       </c>
@@ -4010,8 +4152,11 @@
       <c r="X48" s="13">
         <v>15</v>
       </c>
-    </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>43960</v>
       </c>
@@ -4084,8 +4229,11 @@
       <c r="X49" s="13">
         <v>23</v>
       </c>
-    </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="13">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>43961</v>
       </c>
@@ -4158,8 +4306,11 @@
       <c r="X50" s="13">
         <v>31</v>
       </c>
-    </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="13">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>43962</v>
       </c>
@@ -4232,8 +4383,11 @@
       <c r="X51" s="13">
         <v>20</v>
       </c>
-    </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>43963</v>
       </c>
@@ -4306,8 +4460,11 @@
       <c r="X52" s="13">
         <v>26</v>
       </c>
-    </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="13">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>43964</v>
       </c>
@@ -4380,8 +4537,11 @@
       <c r="X53" s="13">
         <v>38</v>
       </c>
-    </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="13">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>43965</v>
       </c>
@@ -4454,8 +4614,11 @@
       <c r="X54" s="13">
         <v>35</v>
       </c>
-    </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="13">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <v>43966</v>
       </c>
@@ -4528,8 +4691,11 @@
       <c r="X55" s="13">
         <v>33</v>
       </c>
-    </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="13">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>43967</v>
       </c>
@@ -4602,8 +4768,11 @@
       <c r="X56" s="13">
         <v>49</v>
       </c>
-    </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="13">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>43968</v>
       </c>
@@ -4676,8 +4845,11 @@
       <c r="X57" s="13">
         <v>46</v>
       </c>
-    </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="13">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>43969</v>
       </c>
@@ -4750,8 +4922,11 @@
       <c r="X58" s="13">
         <v>62</v>
       </c>
-    </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="13">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>43970</v>
       </c>
@@ -4824,8 +4999,11 @@
       <c r="X59" s="13">
         <v>64</v>
       </c>
-    </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="13">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>43971</v>
       </c>
@@ -4898,8 +5076,11 @@
       <c r="X60" s="13">
         <v>65</v>
       </c>
-    </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="13">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>43972</v>
       </c>
@@ -4972,8 +5153,11 @@
       <c r="X61" s="13">
         <v>63</v>
       </c>
-    </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="13">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>43973</v>
       </c>
@@ -5046,8 +5230,11 @@
       <c r="X62" s="13">
         <v>72</v>
       </c>
-    </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="13">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>43974</v>
       </c>
@@ -5120,8 +5307,11 @@
       <c r="X63" s="13">
         <v>86</v>
       </c>
-    </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="13">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>43975</v>
       </c>
@@ -5194,8 +5384,11 @@
       <c r="X64" s="13">
         <v>97</v>
       </c>
-    </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="13">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>43976</v>
       </c>
@@ -5268,8 +5461,11 @@
       <c r="X65" s="13">
         <v>86</v>
       </c>
-    </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="13">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>43977</v>
       </c>
@@ -5342,8 +5538,11 @@
       <c r="X66" s="13">
         <v>106</v>
       </c>
-    </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="13">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>43978</v>
       </c>
@@ -5416,8 +5615,11 @@
       <c r="X67" s="13">
         <v>121</v>
       </c>
-    </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="13">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>43979</v>
       </c>
@@ -5490,8 +5692,11 @@
       <c r="X68" s="13">
         <v>115</v>
       </c>
-    </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="13">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>43980</v>
       </c>
@@ -5564,8 +5769,11 @@
       <c r="X69" s="13">
         <v>124</v>
       </c>
-    </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="13">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>43981</v>
       </c>
@@ -5638,8 +5846,11 @@
       <c r="X70" s="13">
         <v>134</v>
       </c>
-    </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="13">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
         <v>43982</v>
       </c>
@@ -5712,8 +5923,11 @@
       <c r="X71" s="13">
         <v>114</v>
       </c>
-    </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="13">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <v>43983</v>
       </c>
@@ -5786,8 +6000,11 @@
       <c r="X72" s="13">
         <v>143</v>
       </c>
-    </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="13">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <v>43984</v>
       </c>
@@ -5860,8 +6077,11 @@
       <c r="X73" s="13">
         <v>137</v>
       </c>
-    </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="13">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
         <v>43985</v>
       </c>
@@ -5934,8 +6154,11 @@
       <c r="X74" s="13">
         <v>150</v>
       </c>
-    </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="13">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
         <v>43986</v>
       </c>
@@ -6008,8 +6231,11 @@
       <c r="X75" s="13">
         <v>148</v>
       </c>
-    </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="13">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <v>43987</v>
       </c>
@@ -6082,8 +6308,11 @@
       <c r="X76" s="13">
         <v>155</v>
       </c>
-    </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="13">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
         <v>43988</v>
       </c>
@@ -6154,8 +6383,11 @@
       <c r="X77" s="13">
         <v>158</v>
       </c>
-    </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="13">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A78" s="5">
         <v>43989</v>
       </c>
@@ -6224,8 +6456,11 @@
       <c r="X78" s="13">
         <v>148</v>
       </c>
-    </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y78" s="13">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A79" s="5">
         <v>43990</v>
       </c>
@@ -6292,8 +6527,11 @@
       <c r="X79" s="13">
         <v>138</v>
       </c>
-    </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y79" s="13">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
         <v>43991</v>
       </c>
@@ -6358,8 +6596,11 @@
       <c r="X80" s="13">
         <v>171</v>
       </c>
-    </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y80" s="13">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="81" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
         <v>43992</v>
       </c>
@@ -6422,8 +6663,11 @@
       <c r="X81" s="13">
         <v>157</v>
       </c>
-    </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="13">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="82" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
         <v>43993</v>
       </c>
@@ -6484,8 +6728,11 @@
       <c r="X82" s="13">
         <v>161</v>
       </c>
-    </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="13">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="83" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A83" s="5">
         <v>43994</v>
       </c>
@@ -6544,8 +6791,11 @@
       <c r="X83" s="13">
         <v>160</v>
       </c>
-    </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="13">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="84" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
         <v>43995</v>
       </c>
@@ -6602,8 +6852,11 @@
       <c r="X84" s="13">
         <v>169</v>
       </c>
-    </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="13">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="85" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A85" s="5">
         <v>43996</v>
       </c>
@@ -6649,8 +6902,11 @@
       <c r="X85" s="13">
         <v>151</v>
       </c>
-    </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="13">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="86" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A86" s="5">
         <v>43997</v>
       </c>
@@ -6694,8 +6950,11 @@
       <c r="X86" s="13">
         <v>146</v>
       </c>
-    </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="13">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="87" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A87" s="5">
         <v>43998</v>
       </c>
@@ -6735,8 +6994,11 @@
       <c r="X87" s="13">
         <v>167</v>
       </c>
-    </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="13">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="88" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A88" s="5">
         <v>43999</v>
       </c>
@@ -6773,8 +7035,11 @@
       <c r="X88" s="13">
         <v>165</v>
       </c>
-    </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="13">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="89" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A89" s="5">
         <v>44000</v>
       </c>
@@ -6808,8 +7073,11 @@
       <c r="X89" s="13">
         <v>121</v>
       </c>
-    </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="13">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="90" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A90" s="5">
         <v>44001</v>
       </c>
@@ -6840,8 +7108,11 @@
       <c r="X90" s="13">
         <v>138</v>
       </c>
-    </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="13">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="91" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A91" s="5">
         <v>44002</v>
       </c>
@@ -6869,8 +7140,11 @@
       <c r="X91" s="13">
         <v>130</v>
       </c>
-    </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="13">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="92" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A92" s="5">
         <v>44003</v>
       </c>
@@ -6895,8 +7169,11 @@
       <c r="X92" s="13">
         <v>124</v>
       </c>
-    </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="13">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="93" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A93" s="5">
         <v>44004</v>
       </c>
@@ -6918,8 +7195,11 @@
       <c r="X93" s="13">
         <v>121</v>
       </c>
-    </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="13">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="94" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A94" s="5">
         <v>44005</v>
       </c>
@@ -6938,8 +7218,11 @@
       <c r="X94" s="13">
         <v>113</v>
       </c>
-    </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="13">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="95" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A95" s="5">
         <v>44006</v>
       </c>
@@ -6955,8 +7238,11 @@
       <c r="X95" s="13">
         <v>105</v>
       </c>
-    </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="13">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="96" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A96" s="5">
         <v>44007</v>
       </c>
@@ -6969,8 +7255,11 @@
       <c r="X96" s="13">
         <v>102</v>
       </c>
-    </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="13">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="97" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A97" s="5">
         <v>44008</v>
       </c>
@@ -6980,8 +7269,11 @@
       <c r="X97" s="13">
         <v>91</v>
       </c>
-    </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="13">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="98" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A98" s="5">
         <v>44009</v>
       </c>
@@ -6991,13 +7283,27 @@
       <c r="X98" s="13">
         <v>66</v>
       </c>
-    </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="13">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="99" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A99" s="5">
         <v>44010</v>
       </c>
       <c r="X99" s="13">
         <v>13</v>
+      </c>
+      <c r="Y99" s="13">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="100" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A100" s="5">
+        <v>44011</v>
+      </c>
+      <c r="Y100" s="13">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/input/NuevaDefDefunciones/Fallecidos Min Ciencias acumulado.xlsx
+++ b/input/NuevaDefDefunciones/Fallecidos Min Ciencias acumulado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/faviola/covid-19/REPORTEDIARIO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B997326-DDEF-9B42-B0B0-1A7476811CB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6828F2-50AA-0944-911C-D93EC08D88CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="740" yWindow="460" windowWidth="28060" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -425,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y100"/>
+  <dimension ref="A1:Z101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="A99" sqref="A99:A100"/>
+      <selection activeCell="AA10" sqref="AA10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -436,7 +436,7 @@
     <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -513,31 +513,35 @@
         <v>4731</v>
       </c>
       <c r="T1" s="11">
-        <f>SUM(T3:T999)</f>
+        <f t="shared" ref="T1:Z1" si="2">SUM(T3:T999)</f>
         <v>4903</v>
       </c>
       <c r="U1" s="11">
-        <f>SUM(U3:U999)</f>
+        <f t="shared" si="2"/>
         <v>5068</v>
       </c>
       <c r="V1" s="11">
-        <f>SUM(V3:V999)</f>
+        <f t="shared" si="2"/>
         <v>5347</v>
       </c>
       <c r="W1" s="11">
-        <f>SUM(W3:W999)</f>
+        <f t="shared" si="2"/>
         <v>5575</v>
       </c>
       <c r="X1" s="11">
-        <f>SUM(X3:X999)</f>
+        <f t="shared" si="2"/>
         <v>5688</v>
       </c>
       <c r="Y1" s="11">
-        <f>SUM(Y3:Y999)</f>
+        <f t="shared" si="2"/>
         <v>5753</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z1" s="11">
+        <f t="shared" si="2"/>
+        <v>5920</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -613,8 +617,11 @@
       <c r="Y2" s="10">
         <v>44012</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z2" s="10">
+        <v>44013</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>43910</v>
       </c>
@@ -690,8 +697,11 @@
       <c r="Y3" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z3" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>43915</v>
       </c>
@@ -767,8 +777,11 @@
       <c r="Y4" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z4" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>43916</v>
       </c>
@@ -844,8 +857,11 @@
       <c r="Y5" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z5" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>43917</v>
       </c>
@@ -921,8 +937,11 @@
       <c r="Y6" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z6" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>43918</v>
       </c>
@@ -998,8 +1017,11 @@
       <c r="Y7" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z7" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>43919</v>
       </c>
@@ -1075,8 +1097,11 @@
       <c r="Y8" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>43920</v>
       </c>
@@ -1152,8 +1177,11 @@
       <c r="Y9" s="13">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>43921</v>
       </c>
@@ -1229,8 +1257,11 @@
       <c r="Y10" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>43922</v>
       </c>
@@ -1306,8 +1337,11 @@
       <c r="Y11" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>43923</v>
       </c>
@@ -1383,8 +1417,11 @@
       <c r="Y12" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>43924</v>
       </c>
@@ -1460,8 +1497,11 @@
       <c r="Y13" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>43925</v>
       </c>
@@ -1537,8 +1577,11 @@
       <c r="Y14" s="13">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>43926</v>
       </c>
@@ -1614,8 +1657,11 @@
       <c r="Y15" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>43927</v>
       </c>
@@ -1691,8 +1737,11 @@
       <c r="Y16" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>43928</v>
       </c>
@@ -1768,8 +1817,11 @@
       <c r="Y17" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>43929</v>
       </c>
@@ -1845,8 +1897,11 @@
       <c r="Y18" s="13">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>43930</v>
       </c>
@@ -1922,8 +1977,11 @@
       <c r="Y19" s="13">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>43931</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="Y20" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>43932</v>
       </c>
@@ -2076,8 +2137,11 @@
       <c r="Y21" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>43933</v>
       </c>
@@ -2153,8 +2217,11 @@
       <c r="Y22" s="13">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>43934</v>
       </c>
@@ -2230,8 +2297,11 @@
       <c r="Y23" s="13">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>43935</v>
       </c>
@@ -2307,8 +2377,11 @@
       <c r="Y24" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>43936</v>
       </c>
@@ -2384,8 +2457,11 @@
       <c r="Y25" s="13">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>43937</v>
       </c>
@@ -2461,8 +2537,11 @@
       <c r="Y26" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>43938</v>
       </c>
@@ -2538,8 +2617,11 @@
       <c r="Y27" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>43939</v>
       </c>
@@ -2615,8 +2697,11 @@
       <c r="Y28" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>43940</v>
       </c>
@@ -2692,8 +2777,11 @@
       <c r="Y29" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>43941</v>
       </c>
@@ -2769,8 +2857,11 @@
       <c r="Y30" s="13">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>43942</v>
       </c>
@@ -2846,8 +2937,11 @@
       <c r="Y31" s="13">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>43943</v>
       </c>
@@ -2923,8 +3017,11 @@
       <c r="Y32" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>43944</v>
       </c>
@@ -3000,8 +3097,11 @@
       <c r="Y33" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>43945</v>
       </c>
@@ -3077,8 +3177,11 @@
       <c r="Y34" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>43946</v>
       </c>
@@ -3154,8 +3257,11 @@
       <c r="Y35" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>43947</v>
       </c>
@@ -3231,8 +3337,11 @@
       <c r="Y36" s="13">
         <v>9</v>
       </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z36" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>43948</v>
       </c>
@@ -3308,8 +3417,11 @@
       <c r="Y37" s="13">
         <v>12</v>
       </c>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z37" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>43949</v>
       </c>
@@ -3385,8 +3497,11 @@
       <c r="Y38" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z38" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>43950</v>
       </c>
@@ -3462,8 +3577,11 @@
       <c r="Y39" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>43951</v>
       </c>
@@ -3539,8 +3657,11 @@
       <c r="Y40" s="13">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>43952</v>
       </c>
@@ -3616,8 +3737,11 @@
       <c r="Y41" s="13">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>43953</v>
       </c>
@@ -3693,8 +3817,11 @@
       <c r="Y42" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>43954</v>
       </c>
@@ -3770,8 +3897,11 @@
       <c r="Y43" s="13">
         <v>19</v>
       </c>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="13">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>43955</v>
       </c>
@@ -3847,8 +3977,11 @@
       <c r="Y44" s="13">
         <v>13</v>
       </c>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>43956</v>
       </c>
@@ -3924,8 +4057,11 @@
       <c r="Y45" s="13">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>43957</v>
       </c>
@@ -4001,8 +4137,11 @@
       <c r="Y46" s="13">
         <v>15</v>
       </c>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>43958</v>
       </c>
@@ -4078,8 +4217,11 @@
       <c r="Y47" s="13">
         <v>30</v>
       </c>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>43959</v>
       </c>
@@ -4155,8 +4297,11 @@
       <c r="Y48" s="13">
         <v>15</v>
       </c>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>43960</v>
       </c>
@@ -4232,8 +4377,11 @@
       <c r="Y49" s="13">
         <v>23</v>
       </c>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="13">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>43961</v>
       </c>
@@ -4309,8 +4457,11 @@
       <c r="Y50" s="13">
         <v>31</v>
       </c>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="13">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>43962</v>
       </c>
@@ -4386,8 +4537,11 @@
       <c r="Y51" s="13">
         <v>20</v>
       </c>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>43963</v>
       </c>
@@ -4463,8 +4617,11 @@
       <c r="Y52" s="13">
         <v>26</v>
       </c>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="13">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>43964</v>
       </c>
@@ -4540,8 +4697,11 @@
       <c r="Y53" s="13">
         <v>38</v>
       </c>
-    </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="13">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>43965</v>
       </c>
@@ -4617,8 +4777,11 @@
       <c r="Y54" s="13">
         <v>35</v>
       </c>
-    </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="13">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <v>43966</v>
       </c>
@@ -4694,8 +4857,11 @@
       <c r="Y55" s="13">
         <v>33</v>
       </c>
-    </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="13">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>43967</v>
       </c>
@@ -4771,8 +4937,11 @@
       <c r="Y56" s="13">
         <v>49</v>
       </c>
-    </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="13">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>43968</v>
       </c>
@@ -4848,8 +5017,11 @@
       <c r="Y57" s="13">
         <v>46</v>
       </c>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="13">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>43969</v>
       </c>
@@ -4925,8 +5097,11 @@
       <c r="Y58" s="13">
         <v>62</v>
       </c>
-    </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="13">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>43970</v>
       </c>
@@ -5002,8 +5177,11 @@
       <c r="Y59" s="13">
         <v>64</v>
       </c>
-    </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="13">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>43971</v>
       </c>
@@ -5079,8 +5257,11 @@
       <c r="Y60" s="13">
         <v>65</v>
       </c>
-    </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="13">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>43972</v>
       </c>
@@ -5156,8 +5337,11 @@
       <c r="Y61" s="13">
         <v>63</v>
       </c>
-    </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="13">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>43973</v>
       </c>
@@ -5233,8 +5417,11 @@
       <c r="Y62" s="13">
         <v>72</v>
       </c>
-    </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="13">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>43974</v>
       </c>
@@ -5310,8 +5497,11 @@
       <c r="Y63" s="13">
         <v>86</v>
       </c>
-    </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="13">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>43975</v>
       </c>
@@ -5387,8 +5577,11 @@
       <c r="Y64" s="13">
         <v>97</v>
       </c>
-    </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="13">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>43976</v>
       </c>
@@ -5464,8 +5657,11 @@
       <c r="Y65" s="13">
         <v>86</v>
       </c>
-    </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="13">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>43977</v>
       </c>
@@ -5541,8 +5737,11 @@
       <c r="Y66" s="13">
         <v>106</v>
       </c>
-    </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="13">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>43978</v>
       </c>
@@ -5618,8 +5817,11 @@
       <c r="Y67" s="13">
         <v>121</v>
       </c>
-    </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="13">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>43979</v>
       </c>
@@ -5695,8 +5897,11 @@
       <c r="Y68" s="13">
         <v>115</v>
       </c>
-    </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="13">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>43980</v>
       </c>
@@ -5772,8 +5977,11 @@
       <c r="Y69" s="13">
         <v>124</v>
       </c>
-    </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="13">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>43981</v>
       </c>
@@ -5849,8 +6057,11 @@
       <c r="Y70" s="13">
         <v>134</v>
       </c>
-    </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="13">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
         <v>43982</v>
       </c>
@@ -5926,8 +6137,11 @@
       <c r="Y71" s="13">
         <v>114</v>
       </c>
-    </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="13">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <v>43983</v>
       </c>
@@ -6003,8 +6217,11 @@
       <c r="Y72" s="13">
         <v>143</v>
       </c>
-    </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="13">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <v>43984</v>
       </c>
@@ -6080,8 +6297,11 @@
       <c r="Y73" s="13">
         <v>137</v>
       </c>
-    </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="13">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
         <v>43985</v>
       </c>
@@ -6157,8 +6377,11 @@
       <c r="Y74" s="13">
         <v>150</v>
       </c>
-    </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="13">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
         <v>43986</v>
       </c>
@@ -6234,8 +6457,11 @@
       <c r="Y75" s="13">
         <v>148</v>
       </c>
-    </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="13">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <v>43987</v>
       </c>
@@ -6311,8 +6537,11 @@
       <c r="Y76" s="13">
         <v>155</v>
       </c>
-    </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="13">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
         <v>43988</v>
       </c>
@@ -6386,8 +6615,11 @@
       <c r="Y77" s="13">
         <v>158</v>
       </c>
-    </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="13">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A78" s="5">
         <v>43989</v>
       </c>
@@ -6459,8 +6691,11 @@
       <c r="Y78" s="13">
         <v>148</v>
       </c>
-    </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z78" s="13">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A79" s="5">
         <v>43990</v>
       </c>
@@ -6530,8 +6765,11 @@
       <c r="Y79" s="13">
         <v>138</v>
       </c>
-    </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z79" s="13">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
         <v>43991</v>
       </c>
@@ -6599,8 +6837,11 @@
       <c r="Y80" s="13">
         <v>171</v>
       </c>
-    </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z80" s="13">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
         <v>43992</v>
       </c>
@@ -6666,8 +6907,11 @@
       <c r="Y81" s="13">
         <v>157</v>
       </c>
-    </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="13">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
         <v>43993</v>
       </c>
@@ -6731,8 +6975,11 @@
       <c r="Y82" s="13">
         <v>161</v>
       </c>
-    </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="13">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A83" s="5">
         <v>43994</v>
       </c>
@@ -6794,8 +7041,11 @@
       <c r="Y83" s="13">
         <v>160</v>
       </c>
-    </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="13">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
         <v>43995</v>
       </c>
@@ -6855,8 +7105,11 @@
       <c r="Y84" s="13">
         <v>169</v>
       </c>
-    </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="13">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A85" s="5">
         <v>43996</v>
       </c>
@@ -6905,8 +7158,11 @@
       <c r="Y85" s="13">
         <v>151</v>
       </c>
-    </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="13">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A86" s="5">
         <v>43997</v>
       </c>
@@ -6953,8 +7209,11 @@
       <c r="Y86" s="13">
         <v>146</v>
       </c>
-    </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="13">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A87" s="5">
         <v>43998</v>
       </c>
@@ -6997,8 +7256,11 @@
       <c r="Y87" s="13">
         <v>167</v>
       </c>
-    </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="13">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A88" s="5">
         <v>43999</v>
       </c>
@@ -7038,8 +7300,11 @@
       <c r="Y88" s="13">
         <v>165</v>
       </c>
-    </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="13">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A89" s="5">
         <v>44000</v>
       </c>
@@ -7076,8 +7341,11 @@
       <c r="Y89" s="13">
         <v>121</v>
       </c>
-    </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="13">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="90" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A90" s="5">
         <v>44001</v>
       </c>
@@ -7111,8 +7379,11 @@
       <c r="Y90" s="13">
         <v>138</v>
       </c>
-    </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="13">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="91" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A91" s="5">
         <v>44002</v>
       </c>
@@ -7143,8 +7414,11 @@
       <c r="Y91" s="13">
         <v>130</v>
       </c>
-    </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="13">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="92" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A92" s="5">
         <v>44003</v>
       </c>
@@ -7172,8 +7446,11 @@
       <c r="Y92" s="13">
         <v>124</v>
       </c>
-    </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="13">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="93" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A93" s="5">
         <v>44004</v>
       </c>
@@ -7198,8 +7475,11 @@
       <c r="Y93" s="13">
         <v>121</v>
       </c>
-    </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="13">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="94" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A94" s="5">
         <v>44005</v>
       </c>
@@ -7221,8 +7501,11 @@
       <c r="Y94" s="13">
         <v>113</v>
       </c>
-    </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="13">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A95" s="5">
         <v>44006</v>
       </c>
@@ -7241,8 +7524,11 @@
       <c r="Y95" s="13">
         <v>105</v>
       </c>
-    </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="13">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A96" s="5">
         <v>44007</v>
       </c>
@@ -7258,8 +7544,11 @@
       <c r="Y96" s="13">
         <v>102</v>
       </c>
-    </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="13">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="97" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A97" s="5">
         <v>44008</v>
       </c>
@@ -7272,8 +7561,11 @@
       <c r="Y97" s="13">
         <v>91</v>
       </c>
-    </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="13">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="98" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A98" s="5">
         <v>44009</v>
       </c>
@@ -7286,8 +7578,11 @@
       <c r="Y98" s="13">
         <v>79</v>
       </c>
-    </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="13">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="99" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A99" s="5">
         <v>44010</v>
       </c>
@@ -7297,13 +7592,27 @@
       <c r="Y99" s="13">
         <v>58</v>
       </c>
-    </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="13">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A100" s="5">
         <v>44011</v>
       </c>
       <c r="Y100" s="13">
         <v>7</v>
+      </c>
+      <c r="Z100" s="13">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="101" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A101" s="5">
+        <v>44012</v>
+      </c>
+      <c r="Z101" s="13">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/input/NuevaDefDefunciones/Fallecidos Min Ciencias acumulado.xlsx
+++ b/input/NuevaDefDefunciones/Fallecidos Min Ciencias acumulado.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/faviola/covid-19/REPORTEDIARIO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6828F2-50AA-0944-911C-D93EC08D88CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0486D8F5-4826-D848-A325-015F08760C9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="460" windowWidth="28060" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="740" yWindow="760" windowWidth="28060" windowHeight="17240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -425,18 +425,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z101"/>
+  <dimension ref="A1:AA101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="AA10" sqref="AA10"/>
+      <selection activeCell="AB8" sqref="AB8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.83203125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -513,7 +514,7 @@
         <v>4731</v>
       </c>
       <c r="T1" s="11">
-        <f t="shared" ref="T1:Z1" si="2">SUM(T3:T999)</f>
+        <f t="shared" ref="T1:AA1" si="2">SUM(T3:T999)</f>
         <v>4903</v>
       </c>
       <c r="U1" s="11">
@@ -526,22 +527,26 @@
       </c>
       <c r="W1" s="11">
         <f t="shared" si="2"/>
-        <v>5575</v>
+        <v>5509</v>
       </c>
       <c r="X1" s="11">
         <f t="shared" si="2"/>
-        <v>5688</v>
+        <v>5575</v>
       </c>
       <c r="Y1" s="11">
         <f t="shared" si="2"/>
-        <v>5753</v>
+        <v>5688</v>
       </c>
       <c r="Z1" s="11">
         <f t="shared" si="2"/>
+        <v>5753</v>
+      </c>
+      <c r="AA1" s="11">
+        <f t="shared" si="2"/>
         <v>5920</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -620,8 +625,11 @@
       <c r="Z2" s="10">
         <v>44013</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA2" s="10">
+        <v>44014</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>43910</v>
       </c>
@@ -700,8 +708,11 @@
       <c r="Z3" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA3" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>43915</v>
       </c>
@@ -780,8 +791,11 @@
       <c r="Z4" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA4" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>43916</v>
       </c>
@@ -860,8 +874,11 @@
       <c r="Z5" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA5" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>43917</v>
       </c>
@@ -940,8 +957,11 @@
       <c r="Z6" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA6" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>43918</v>
       </c>
@@ -1020,8 +1040,11 @@
       <c r="Z7" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA7" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>43919</v>
       </c>
@@ -1100,8 +1123,11 @@
       <c r="Z8" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>43920</v>
       </c>
@@ -1180,8 +1206,11 @@
       <c r="Z9" s="13">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>43921</v>
       </c>
@@ -1260,8 +1289,11 @@
       <c r="Z10" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>43922</v>
       </c>
@@ -1340,8 +1372,11 @@
       <c r="Z11" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>43923</v>
       </c>
@@ -1420,8 +1455,11 @@
       <c r="Z12" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>43924</v>
       </c>
@@ -1500,8 +1538,11 @@
       <c r="Z13" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>43925</v>
       </c>
@@ -1580,8 +1621,11 @@
       <c r="Z14" s="13">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>43926</v>
       </c>
@@ -1660,8 +1704,11 @@
       <c r="Z15" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>43927</v>
       </c>
@@ -1740,8 +1787,11 @@
       <c r="Z16" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>43928</v>
       </c>
@@ -1820,8 +1870,11 @@
       <c r="Z17" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>43929</v>
       </c>
@@ -1900,8 +1953,11 @@
       <c r="Z18" s="13">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>43930</v>
       </c>
@@ -1980,8 +2036,11 @@
       <c r="Z19" s="13">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>43931</v>
       </c>
@@ -2060,8 +2119,11 @@
       <c r="Z20" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>43932</v>
       </c>
@@ -2140,8 +2202,11 @@
       <c r="Z21" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>43933</v>
       </c>
@@ -2220,8 +2285,11 @@
       <c r="Z22" s="13">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>43934</v>
       </c>
@@ -2300,8 +2368,11 @@
       <c r="Z23" s="13">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA23" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>43935</v>
       </c>
@@ -2380,8 +2451,11 @@
       <c r="Z24" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>43936</v>
       </c>
@@ -2460,8 +2534,11 @@
       <c r="Z25" s="13">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>43937</v>
       </c>
@@ -2540,8 +2617,11 @@
       <c r="Z26" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA26" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>43938</v>
       </c>
@@ -2620,8 +2700,11 @@
       <c r="Z27" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA27" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>43939</v>
       </c>
@@ -2700,8 +2783,11 @@
       <c r="Z28" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>43940</v>
       </c>
@@ -2780,8 +2866,11 @@
       <c r="Z29" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>43941</v>
       </c>
@@ -2860,8 +2949,11 @@
       <c r="Z30" s="13">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>43942</v>
       </c>
@@ -2940,8 +3032,11 @@
       <c r="Z31" s="13">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>43943</v>
       </c>
@@ -3020,8 +3115,11 @@
       <c r="Z32" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>43944</v>
       </c>
@@ -3100,8 +3198,11 @@
       <c r="Z33" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA33" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>43945</v>
       </c>
@@ -3180,8 +3281,11 @@
       <c r="Z34" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>43946</v>
       </c>
@@ -3260,8 +3364,11 @@
       <c r="Z35" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>43947</v>
       </c>
@@ -3340,8 +3447,11 @@
       <c r="Z36" s="13">
         <v>9</v>
       </c>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA36" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>43948</v>
       </c>
@@ -3420,8 +3530,11 @@
       <c r="Z37" s="13">
         <v>12</v>
       </c>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA37" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>43949</v>
       </c>
@@ -3500,8 +3613,11 @@
       <c r="Z38" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA38" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>43950</v>
       </c>
@@ -3580,8 +3696,11 @@
       <c r="Z39" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>43951</v>
       </c>
@@ -3660,8 +3779,11 @@
       <c r="Z40" s="13">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>43952</v>
       </c>
@@ -3740,8 +3862,11 @@
       <c r="Z41" s="13">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>43953</v>
       </c>
@@ -3820,8 +3945,11 @@
       <c r="Z42" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>43954</v>
       </c>
@@ -3900,8 +4028,11 @@
       <c r="Z43" s="13">
         <v>19</v>
       </c>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="13">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>43955</v>
       </c>
@@ -3980,8 +4111,11 @@
       <c r="Z44" s="13">
         <v>13</v>
       </c>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>43956</v>
       </c>
@@ -4060,8 +4194,11 @@
       <c r="Z45" s="13">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>43957</v>
       </c>
@@ -4140,8 +4277,11 @@
       <c r="Z46" s="13">
         <v>15</v>
       </c>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>43958</v>
       </c>
@@ -4220,8 +4360,11 @@
       <c r="Z47" s="13">
         <v>30</v>
       </c>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>43959</v>
       </c>
@@ -4300,8 +4443,11 @@
       <c r="Z48" s="13">
         <v>15</v>
       </c>
-    </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>43960</v>
       </c>
@@ -4380,8 +4526,11 @@
       <c r="Z49" s="13">
         <v>23</v>
       </c>
-    </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="13">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>43961</v>
       </c>
@@ -4460,8 +4609,11 @@
       <c r="Z50" s="13">
         <v>31</v>
       </c>
-    </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="13">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>43962</v>
       </c>
@@ -4540,8 +4692,11 @@
       <c r="Z51" s="13">
         <v>20</v>
       </c>
-    </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>43963</v>
       </c>
@@ -4620,8 +4775,11 @@
       <c r="Z52" s="13">
         <v>26</v>
       </c>
-    </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="13">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>43964</v>
       </c>
@@ -4700,8 +4858,11 @@
       <c r="Z53" s="13">
         <v>38</v>
       </c>
-    </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="13">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>43965</v>
       </c>
@@ -4780,8 +4941,11 @@
       <c r="Z54" s="13">
         <v>35</v>
       </c>
-    </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="13">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <v>43966</v>
       </c>
@@ -4860,8 +5024,11 @@
       <c r="Z55" s="13">
         <v>33</v>
       </c>
-    </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="13">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>43967</v>
       </c>
@@ -4940,8 +5107,11 @@
       <c r="Z56" s="13">
         <v>49</v>
       </c>
-    </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="13">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>43968</v>
       </c>
@@ -5020,8 +5190,11 @@
       <c r="Z57" s="13">
         <v>46</v>
       </c>
-    </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="13">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>43969</v>
       </c>
@@ -5100,8 +5273,11 @@
       <c r="Z58" s="13">
         <v>62</v>
       </c>
-    </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="13">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>43970</v>
       </c>
@@ -5180,8 +5356,11 @@
       <c r="Z59" s="13">
         <v>64</v>
       </c>
-    </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="13">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>43971</v>
       </c>
@@ -5260,8 +5439,11 @@
       <c r="Z60" s="13">
         <v>65</v>
       </c>
-    </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="13">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>43972</v>
       </c>
@@ -5340,8 +5522,11 @@
       <c r="Z61" s="13">
         <v>63</v>
       </c>
-    </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="13">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>43973</v>
       </c>
@@ -5420,8 +5605,11 @@
       <c r="Z62" s="13">
         <v>72</v>
       </c>
-    </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="13">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>43974</v>
       </c>
@@ -5500,8 +5688,11 @@
       <c r="Z63" s="13">
         <v>86</v>
       </c>
-    </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="13">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>43975</v>
       </c>
@@ -5580,8 +5771,11 @@
       <c r="Z64" s="13">
         <v>97</v>
       </c>
-    </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="13">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>43976</v>
       </c>
@@ -5660,8 +5854,11 @@
       <c r="Z65" s="13">
         <v>86</v>
       </c>
-    </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="13">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>43977</v>
       </c>
@@ -5740,8 +5937,11 @@
       <c r="Z66" s="13">
         <v>106</v>
       </c>
-    </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="13">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>43978</v>
       </c>
@@ -5820,8 +6020,11 @@
       <c r="Z67" s="13">
         <v>121</v>
       </c>
-    </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="13">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>43979</v>
       </c>
@@ -5900,8 +6103,11 @@
       <c r="Z68" s="13">
         <v>115</v>
       </c>
-    </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="13">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>43980</v>
       </c>
@@ -5980,8 +6186,11 @@
       <c r="Z69" s="13">
         <v>124</v>
       </c>
-    </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="13">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>43981</v>
       </c>
@@ -6058,10 +6267,13 @@
         <v>134</v>
       </c>
       <c r="Z70" s="13">
+        <v>134</v>
+      </c>
+      <c r="AA70" s="13">
         <v>135</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
         <v>43982</v>
       </c>
@@ -6140,8 +6352,11 @@
       <c r="Z71" s="13">
         <v>114</v>
       </c>
-    </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="13">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <v>43983</v>
       </c>
@@ -6220,8 +6435,11 @@
       <c r="Z72" s="13">
         <v>143</v>
       </c>
-    </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="13">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <v>43984</v>
       </c>
@@ -6300,8 +6518,11 @@
       <c r="Z73" s="13">
         <v>137</v>
       </c>
-    </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="13">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
         <v>43985</v>
       </c>
@@ -6380,8 +6601,11 @@
       <c r="Z74" s="13">
         <v>150</v>
       </c>
-    </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="13">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
         <v>43986</v>
       </c>
@@ -6460,8 +6684,11 @@
       <c r="Z75" s="13">
         <v>148</v>
       </c>
-    </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="13">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <v>43987</v>
       </c>
@@ -6540,8 +6767,11 @@
       <c r="Z76" s="13">
         <v>155</v>
       </c>
-    </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA76" s="13">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
         <v>43988</v>
       </c>
@@ -6618,8 +6848,11 @@
       <c r="Z77" s="13">
         <v>158</v>
       </c>
-    </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="13">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A78" s="5">
         <v>43989</v>
       </c>
@@ -6686,7 +6919,7 @@
         <v>147</v>
       </c>
       <c r="X78" s="13">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Y78" s="13">
         <v>148</v>
@@ -6694,8 +6927,11 @@
       <c r="Z78" s="13">
         <v>148</v>
       </c>
-    </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA78" s="13">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A79" s="5">
         <v>43990</v>
       </c>
@@ -6768,8 +7004,11 @@
       <c r="Z79" s="13">
         <v>138</v>
       </c>
-    </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA79" s="13">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
         <v>43991</v>
       </c>
@@ -6840,8 +7079,11 @@
       <c r="Z80" s="13">
         <v>171</v>
       </c>
-    </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA80" s="13">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
         <v>43992</v>
       </c>
@@ -6902,16 +7144,19 @@
         <v>156</v>
       </c>
       <c r="X81" s="13">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Y81" s="13">
         <v>157</v>
       </c>
       <c r="Z81" s="13">
+        <v>157</v>
+      </c>
+      <c r="AA81" s="13">
         <v>158</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
         <v>43993</v>
       </c>
@@ -6970,7 +7215,7 @@
         <v>159</v>
       </c>
       <c r="X82" s="13">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="Y82" s="13">
         <v>161</v>
@@ -6978,8 +7223,11 @@
       <c r="Z82" s="13">
         <v>161</v>
       </c>
-    </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="13">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="83" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A83" s="5">
         <v>43994</v>
       </c>
@@ -7042,10 +7290,13 @@
         <v>160</v>
       </c>
       <c r="Z83" s="13">
+        <v>160</v>
+      </c>
+      <c r="AA83" s="13">
         <v>162</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
         <v>43995</v>
       </c>
@@ -7106,10 +7357,13 @@
         <v>169</v>
       </c>
       <c r="Z84" s="13">
+        <v>169</v>
+      </c>
+      <c r="AA84" s="13">
         <v>171</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A85" s="5">
         <v>43996</v>
       </c>
@@ -7153,7 +7407,7 @@
         <v>150</v>
       </c>
       <c r="X85" s="13">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Y85" s="13">
         <v>151</v>
@@ -7161,8 +7415,11 @@
       <c r="Z85" s="13">
         <v>151</v>
       </c>
-    </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="13">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="86" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A86" s="5">
         <v>43997</v>
       </c>
@@ -7210,10 +7467,13 @@
         <v>146</v>
       </c>
       <c r="Z86" s="13">
+        <v>146</v>
+      </c>
+      <c r="AA86" s="13">
         <v>147</v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A87" s="5">
         <v>43998</v>
       </c>
@@ -7251,7 +7511,7 @@
         <v>166</v>
       </c>
       <c r="X87" s="13">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Y87" s="13">
         <v>167</v>
@@ -7259,8 +7519,11 @@
       <c r="Z87" s="13">
         <v>167</v>
       </c>
-    </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="13">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="88" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A88" s="5">
         <v>43999</v>
       </c>
@@ -7303,8 +7566,11 @@
       <c r="Z88" s="13">
         <v>165</v>
       </c>
-    </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="13">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="89" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A89" s="5">
         <v>44000</v>
       </c>
@@ -7336,16 +7602,19 @@
         <v>120</v>
       </c>
       <c r="X89" s="13">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Y89" s="13">
         <v>121</v>
       </c>
       <c r="Z89" s="13">
+        <v>121</v>
+      </c>
+      <c r="AA89" s="13">
         <v>122</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A90" s="5">
         <v>44001</v>
       </c>
@@ -7374,16 +7643,19 @@
         <v>135</v>
       </c>
       <c r="X90" s="13">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="Y90" s="13">
         <v>138</v>
       </c>
       <c r="Z90" s="13">
+        <v>138</v>
+      </c>
+      <c r="AA90" s="13">
         <v>140</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A91" s="5">
         <v>44002</v>
       </c>
@@ -7415,10 +7687,13 @@
         <v>130</v>
       </c>
       <c r="Z91" s="13">
+        <v>130</v>
+      </c>
+      <c r="AA91" s="13">
         <v>133</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A92" s="5">
         <v>44003</v>
       </c>
@@ -7449,8 +7724,11 @@
       <c r="Z92" s="13">
         <v>124</v>
       </c>
-    </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="13">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="93" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A93" s="5">
         <v>44004</v>
       </c>
@@ -7478,8 +7756,11 @@
       <c r="Z93" s="13">
         <v>121</v>
       </c>
-    </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="13">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="94" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A94" s="5">
         <v>44005</v>
       </c>
@@ -7502,10 +7783,13 @@
         <v>113</v>
       </c>
       <c r="Z94" s="13">
+        <v>113</v>
+      </c>
+      <c r="AA94" s="13">
         <v>117</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A95" s="5">
         <v>44006</v>
       </c>
@@ -7516,7 +7800,7 @@
         <v>84</v>
       </c>
       <c r="W95" s="13">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="X95" s="13">
         <v>105</v>
@@ -7525,10 +7809,13 @@
         <v>105</v>
       </c>
       <c r="Z95" s="13">
+        <v>105</v>
+      </c>
+      <c r="AA95" s="13">
         <v>109</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A96" s="5">
         <v>44007</v>
       </c>
@@ -7536,82 +7823,88 @@
         <v>18</v>
       </c>
       <c r="W96" s="13">
+        <v>84</v>
+      </c>
+      <c r="X96" s="13">
         <v>97</v>
-      </c>
-      <c r="X96" s="13">
-        <v>102</v>
       </c>
       <c r="Y96" s="13">
         <v>102</v>
       </c>
       <c r="Z96" s="13">
+        <v>102</v>
+      </c>
+      <c r="AA96" s="13">
         <v>104</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A97" s="5">
         <v>44008</v>
       </c>
       <c r="W97" s="13">
+        <v>20</v>
+      </c>
+      <c r="X97" s="13">
         <v>65</v>
-      </c>
-      <c r="X97" s="13">
-        <v>91</v>
       </c>
       <c r="Y97" s="13">
         <v>91</v>
       </c>
       <c r="Z97" s="13">
+        <v>91</v>
+      </c>
+      <c r="AA97" s="13">
         <v>103</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A98" s="5">
         <v>44009</v>
       </c>
-      <c r="W98" s="13">
-        <v>7</v>
-      </c>
       <c r="X98" s="13">
+        <v>7</v>
+      </c>
+      <c r="Y98" s="13">
         <v>66</v>
       </c>
-      <c r="Y98" s="13">
+      <c r="Z98" s="13">
         <v>79</v>
       </c>
-      <c r="Z98" s="13">
+      <c r="AA98" s="13">
         <v>98</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A99" s="5">
         <v>44010</v>
       </c>
-      <c r="X99" s="13">
+      <c r="Y99" s="13">
         <v>13</v>
       </c>
-      <c r="Y99" s="13">
+      <c r="Z99" s="13">
         <v>58</v>
       </c>
-      <c r="Z99" s="13">
+      <c r="AA99" s="13">
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A100" s="5">
         <v>44011</v>
       </c>
-      <c r="Y100" s="13">
-        <v>7</v>
-      </c>
       <c r="Z100" s="13">
+        <v>7</v>
+      </c>
+      <c r="AA100" s="13">
         <v>66</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A101" s="5">
         <v>44012</v>
       </c>
-      <c r="Z101" s="13">
+      <c r="AA101" s="13">
         <v>15</v>
       </c>
     </row>

--- a/input/NuevaDefDefunciones/Fallecidos Min Ciencias acumulado.xlsx
+++ b/input/NuevaDefDefunciones/Fallecidos Min Ciencias acumulado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/faviola/covid-19/REPORTEDIARIO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0486D8F5-4826-D848-A325-015F08760C9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F768050F-7481-864B-B6C8-427091EA54F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="740" yWindow="760" windowWidth="28060" windowHeight="17240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -425,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA101"/>
+  <dimension ref="A1:AB102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="AB8" sqref="AB8"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -437,7 +437,7 @@
     <col min="23" max="23" width="10.83203125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -514,7 +514,7 @@
         <v>4731</v>
       </c>
       <c r="T1" s="11">
-        <f t="shared" ref="T1:AA1" si="2">SUM(T3:T999)</f>
+        <f t="shared" ref="T1:AB1" si="2">SUM(T3:T999)</f>
         <v>4903</v>
       </c>
       <c r="U1" s="11">
@@ -545,8 +545,12 @@
         <f t="shared" si="2"/>
         <v>5920</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB1" s="11">
+        <f t="shared" si="2"/>
+        <v>6051</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -628,8 +632,11 @@
       <c r="AA2" s="10">
         <v>44014</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB2" s="10">
+        <v>44015</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>43910</v>
       </c>
@@ -711,8 +718,11 @@
       <c r="AA3" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB3" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>43915</v>
       </c>
@@ -794,8 +804,11 @@
       <c r="AA4" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB4" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>43916</v>
       </c>
@@ -877,8 +890,11 @@
       <c r="AA5" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB5" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>43917</v>
       </c>
@@ -960,8 +976,11 @@
       <c r="AA6" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB6" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>43918</v>
       </c>
@@ -1043,8 +1062,11 @@
       <c r="AA7" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB7" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>43919</v>
       </c>
@@ -1126,8 +1148,11 @@
       <c r="AA8" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>43920</v>
       </c>
@@ -1209,8 +1234,11 @@
       <c r="AA9" s="13">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>43921</v>
       </c>
@@ -1292,8 +1320,11 @@
       <c r="AA10" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>43922</v>
       </c>
@@ -1375,8 +1406,11 @@
       <c r="AA11" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>43923</v>
       </c>
@@ -1458,8 +1492,11 @@
       <c r="AA12" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>43924</v>
       </c>
@@ -1541,8 +1578,11 @@
       <c r="AA13" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>43925</v>
       </c>
@@ -1624,8 +1664,11 @@
       <c r="AA14" s="13">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>43926</v>
       </c>
@@ -1707,8 +1750,11 @@
       <c r="AA15" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>43927</v>
       </c>
@@ -1790,8 +1836,11 @@
       <c r="AA16" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>43928</v>
       </c>
@@ -1873,8 +1922,11 @@
       <c r="AA17" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>43929</v>
       </c>
@@ -1956,8 +2008,11 @@
       <c r="AA18" s="13">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>43930</v>
       </c>
@@ -2039,8 +2094,11 @@
       <c r="AA19" s="13">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>43931</v>
       </c>
@@ -2122,8 +2180,11 @@
       <c r="AA20" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>43932</v>
       </c>
@@ -2205,8 +2266,11 @@
       <c r="AA21" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>43933</v>
       </c>
@@ -2288,8 +2352,11 @@
       <c r="AA22" s="13">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>43934</v>
       </c>
@@ -2371,8 +2438,11 @@
       <c r="AA23" s="13">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB23" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>43935</v>
       </c>
@@ -2454,8 +2524,11 @@
       <c r="AA24" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>43936</v>
       </c>
@@ -2537,8 +2610,11 @@
       <c r="AA25" s="13">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>43937</v>
       </c>
@@ -2620,8 +2696,11 @@
       <c r="AA26" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>43938</v>
       </c>
@@ -2703,8 +2782,11 @@
       <c r="AA27" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB27" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>43939</v>
       </c>
@@ -2786,8 +2868,11 @@
       <c r="AA28" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>43940</v>
       </c>
@@ -2869,8 +2954,11 @@
       <c r="AA29" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>43941</v>
       </c>
@@ -2952,8 +3040,11 @@
       <c r="AA30" s="13">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>43942</v>
       </c>
@@ -3035,8 +3126,11 @@
       <c r="AA31" s="13">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>43943</v>
       </c>
@@ -3118,8 +3212,11 @@
       <c r="AA32" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>43944</v>
       </c>
@@ -3201,8 +3298,11 @@
       <c r="AA33" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>43945</v>
       </c>
@@ -3284,8 +3384,11 @@
       <c r="AA34" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>43946</v>
       </c>
@@ -3367,8 +3470,11 @@
       <c r="AA35" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB35" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>43947</v>
       </c>
@@ -3450,8 +3556,11 @@
       <c r="AA36" s="13">
         <v>9</v>
       </c>
-    </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB36" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>43948</v>
       </c>
@@ -3533,8 +3642,11 @@
       <c r="AA37" s="13">
         <v>12</v>
       </c>
-    </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB37" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>43949</v>
       </c>
@@ -3616,8 +3728,11 @@
       <c r="AA38" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB38" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>43950</v>
       </c>
@@ -3699,8 +3814,11 @@
       <c r="AA39" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>43951</v>
       </c>
@@ -3782,8 +3900,11 @@
       <c r="AA40" s="13">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>43952</v>
       </c>
@@ -3865,8 +3986,11 @@
       <c r="AA41" s="13">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>43953</v>
       </c>
@@ -3948,8 +4072,11 @@
       <c r="AA42" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>43954</v>
       </c>
@@ -4031,8 +4158,11 @@
       <c r="AA43" s="13">
         <v>19</v>
       </c>
-    </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="13">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>43955</v>
       </c>
@@ -4114,8 +4244,11 @@
       <c r="AA44" s="13">
         <v>13</v>
       </c>
-    </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>43956</v>
       </c>
@@ -4197,8 +4330,11 @@
       <c r="AA45" s="13">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>43957</v>
       </c>
@@ -4280,8 +4416,11 @@
       <c r="AA46" s="13">
         <v>15</v>
       </c>
-    </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>43958</v>
       </c>
@@ -4363,8 +4502,11 @@
       <c r="AA47" s="13">
         <v>30</v>
       </c>
-    </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>43959</v>
       </c>
@@ -4446,8 +4588,11 @@
       <c r="AA48" s="13">
         <v>15</v>
       </c>
-    </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>43960</v>
       </c>
@@ -4529,8 +4674,11 @@
       <c r="AA49" s="13">
         <v>23</v>
       </c>
-    </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="13">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>43961</v>
       </c>
@@ -4612,8 +4760,11 @@
       <c r="AA50" s="13">
         <v>31</v>
       </c>
-    </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="13">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>43962</v>
       </c>
@@ -4695,8 +4846,11 @@
       <c r="AA51" s="13">
         <v>20</v>
       </c>
-    </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>43963</v>
       </c>
@@ -4778,8 +4932,11 @@
       <c r="AA52" s="13">
         <v>26</v>
       </c>
-    </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="13">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>43964</v>
       </c>
@@ -4861,8 +5018,11 @@
       <c r="AA53" s="13">
         <v>38</v>
       </c>
-    </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="13">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>43965</v>
       </c>
@@ -4944,8 +5104,11 @@
       <c r="AA54" s="13">
         <v>35</v>
       </c>
-    </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="13">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <v>43966</v>
       </c>
@@ -5027,8 +5190,11 @@
       <c r="AA55" s="13">
         <v>33</v>
       </c>
-    </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="13">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>43967</v>
       </c>
@@ -5110,8 +5276,11 @@
       <c r="AA56" s="13">
         <v>49</v>
       </c>
-    </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="13">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>43968</v>
       </c>
@@ -5193,8 +5362,11 @@
       <c r="AA57" s="13">
         <v>46</v>
       </c>
-    </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="13">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>43969</v>
       </c>
@@ -5276,8 +5448,11 @@
       <c r="AA58" s="13">
         <v>62</v>
       </c>
-    </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="13">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>43970</v>
       </c>
@@ -5359,8 +5534,11 @@
       <c r="AA59" s="13">
         <v>64</v>
       </c>
-    </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="13">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>43971</v>
       </c>
@@ -5442,8 +5620,11 @@
       <c r="AA60" s="13">
         <v>65</v>
       </c>
-    </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="13">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>43972</v>
       </c>
@@ -5525,8 +5706,11 @@
       <c r="AA61" s="13">
         <v>63</v>
       </c>
-    </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="13">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>43973</v>
       </c>
@@ -5608,8 +5792,11 @@
       <c r="AA62" s="13">
         <v>72</v>
       </c>
-    </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="13">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>43974</v>
       </c>
@@ -5691,8 +5878,11 @@
       <c r="AA63" s="13">
         <v>86</v>
       </c>
-    </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="13">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>43975</v>
       </c>
@@ -5774,8 +5964,11 @@
       <c r="AA64" s="13">
         <v>97</v>
       </c>
-    </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="13">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>43976</v>
       </c>
@@ -5857,8 +6050,11 @@
       <c r="AA65" s="13">
         <v>86</v>
       </c>
-    </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="13">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>43977</v>
       </c>
@@ -5940,8 +6136,11 @@
       <c r="AA66" s="13">
         <v>106</v>
       </c>
-    </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="13">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>43978</v>
       </c>
@@ -6023,8 +6222,11 @@
       <c r="AA67" s="13">
         <v>121</v>
       </c>
-    </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="13">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>43979</v>
       </c>
@@ -6106,8 +6308,11 @@
       <c r="AA68" s="13">
         <v>115</v>
       </c>
-    </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="13">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>43980</v>
       </c>
@@ -6189,8 +6394,11 @@
       <c r="AA69" s="13">
         <v>124</v>
       </c>
-    </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="13">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>43981</v>
       </c>
@@ -6272,8 +6480,11 @@
       <c r="AA70" s="13">
         <v>135</v>
       </c>
-    </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="13">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
         <v>43982</v>
       </c>
@@ -6355,8 +6566,11 @@
       <c r="AA71" s="13">
         <v>114</v>
       </c>
-    </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="13">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <v>43983</v>
       </c>
@@ -6438,8 +6652,11 @@
       <c r="AA72" s="13">
         <v>143</v>
       </c>
-    </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="13">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <v>43984</v>
       </c>
@@ -6521,8 +6738,11 @@
       <c r="AA73" s="13">
         <v>137</v>
       </c>
-    </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="13">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
         <v>43985</v>
       </c>
@@ -6604,8 +6824,11 @@
       <c r="AA74" s="13">
         <v>150</v>
       </c>
-    </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="13">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="75" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
         <v>43986</v>
       </c>
@@ -6687,8 +6910,11 @@
       <c r="AA75" s="13">
         <v>148</v>
       </c>
-    </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="13">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <v>43987</v>
       </c>
@@ -6770,8 +6996,11 @@
       <c r="AA76" s="13">
         <v>155</v>
       </c>
-    </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="13">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
         <v>43988</v>
       </c>
@@ -6851,8 +7080,11 @@
       <c r="AA77" s="13">
         <v>158</v>
       </c>
-    </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="13">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A78" s="5">
         <v>43989</v>
       </c>
@@ -6930,8 +7162,11 @@
       <c r="AA78" s="13">
         <v>148</v>
       </c>
-    </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB78" s="13">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A79" s="5">
         <v>43990</v>
       </c>
@@ -7007,8 +7242,11 @@
       <c r="AA79" s="13">
         <v>138</v>
       </c>
-    </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB79" s="13">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
         <v>43991</v>
       </c>
@@ -7082,8 +7320,11 @@
       <c r="AA80" s="13">
         <v>171</v>
       </c>
-    </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB80" s="13">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="81" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
         <v>43992</v>
       </c>
@@ -7155,8 +7396,11 @@
       <c r="AA81" s="13">
         <v>158</v>
       </c>
-    </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB81" s="13">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="82" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
         <v>43993</v>
       </c>
@@ -7226,8 +7470,11 @@
       <c r="AA82" s="13">
         <v>161</v>
       </c>
-    </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="13">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="83" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A83" s="5">
         <v>43994</v>
       </c>
@@ -7295,8 +7542,11 @@
       <c r="AA83" s="13">
         <v>162</v>
       </c>
-    </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="13">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="84" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
         <v>43995</v>
       </c>
@@ -7362,8 +7612,11 @@
       <c r="AA84" s="13">
         <v>171</v>
       </c>
-    </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="13">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="85" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A85" s="5">
         <v>43996</v>
       </c>
@@ -7418,8 +7671,11 @@
       <c r="AA85" s="13">
         <v>151</v>
       </c>
-    </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="13">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="86" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A86" s="5">
         <v>43997</v>
       </c>
@@ -7472,8 +7728,11 @@
       <c r="AA86" s="13">
         <v>147</v>
       </c>
-    </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="13">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="87" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A87" s="5">
         <v>43998</v>
       </c>
@@ -7522,8 +7781,11 @@
       <c r="AA87" s="13">
         <v>167</v>
       </c>
-    </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="13">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="88" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A88" s="5">
         <v>43999</v>
       </c>
@@ -7569,8 +7831,11 @@
       <c r="AA88" s="13">
         <v>165</v>
       </c>
-    </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="13">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="89" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A89" s="5">
         <v>44000</v>
       </c>
@@ -7613,8 +7878,11 @@
       <c r="AA89" s="13">
         <v>122</v>
       </c>
-    </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="13">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A90" s="5">
         <v>44001</v>
       </c>
@@ -7654,8 +7922,11 @@
       <c r="AA90" s="13">
         <v>140</v>
       </c>
-    </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="13">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="91" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A91" s="5">
         <v>44002</v>
       </c>
@@ -7692,8 +7963,11 @@
       <c r="AA91" s="13">
         <v>133</v>
       </c>
-    </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="13">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="92" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A92" s="5">
         <v>44003</v>
       </c>
@@ -7727,8 +8001,11 @@
       <c r="AA92" s="13">
         <v>124</v>
       </c>
-    </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="13">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="93" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A93" s="5">
         <v>44004</v>
       </c>
@@ -7759,8 +8036,11 @@
       <c r="AA93" s="13">
         <v>121</v>
       </c>
-    </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="13">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="94" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A94" s="5">
         <v>44005</v>
       </c>
@@ -7788,8 +8068,11 @@
       <c r="AA94" s="13">
         <v>117</v>
       </c>
-    </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="13">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="95" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A95" s="5">
         <v>44006</v>
       </c>
@@ -7814,8 +8097,11 @@
       <c r="AA95" s="13">
         <v>109</v>
       </c>
-    </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="13">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="96" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A96" s="5">
         <v>44007</v>
       </c>
@@ -7837,8 +8123,11 @@
       <c r="AA96" s="13">
         <v>104</v>
       </c>
-    </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="13">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="97" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A97" s="5">
         <v>44008</v>
       </c>
@@ -7857,8 +8146,11 @@
       <c r="AA97" s="13">
         <v>103</v>
       </c>
-    </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="13">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="98" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A98" s="5">
         <v>44009</v>
       </c>
@@ -7874,8 +8166,11 @@
       <c r="AA98" s="13">
         <v>98</v>
       </c>
-    </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="13">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="99" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A99" s="5">
         <v>44010</v>
       </c>
@@ -7888,8 +8183,11 @@
       <c r="AA99" s="13">
         <v>97</v>
       </c>
-    </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="13">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="100" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A100" s="5">
         <v>44011</v>
       </c>
@@ -7899,13 +8197,27 @@
       <c r="AA100" s="13">
         <v>66</v>
       </c>
-    </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="13">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="101" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A101" s="5">
         <v>44012</v>
       </c>
       <c r="AA101" s="13">
         <v>15</v>
+      </c>
+      <c r="AB101" s="13">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="102" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A102" s="5">
+        <v>44013</v>
+      </c>
+      <c r="AB102" s="13">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/input/NuevaDefDefunciones/Fallecidos Min Ciencias acumulado.xlsx
+++ b/input/NuevaDefDefunciones/Fallecidos Min Ciencias acumulado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/faviola/covid-19/REPORTEDIARIO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F768050F-7481-864B-B6C8-427091EA54F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F78CBB-0821-3549-99AB-AB44BEC4E1EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="740" yWindow="760" windowWidth="28060" windowHeight="17240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -425,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB102"/>
+  <dimension ref="A1:AC103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="AC2" sqref="AC2"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="AC103" sqref="AC103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -437,7 +437,7 @@
     <col min="23" max="23" width="10.83203125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -514,7 +514,7 @@
         <v>4731</v>
       </c>
       <c r="T1" s="11">
-        <f t="shared" ref="T1:AB1" si="2">SUM(T3:T999)</f>
+        <f t="shared" ref="T1:AC1" si="2">SUM(T3:T999)</f>
         <v>4903</v>
       </c>
       <c r="U1" s="11">
@@ -549,8 +549,12 @@
         <f t="shared" si="2"/>
         <v>6051</v>
       </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC1" s="11">
+        <f t="shared" si="2"/>
+        <v>6192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -635,8 +639,11 @@
       <c r="AB2" s="10">
         <v>44015</v>
       </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC2" s="10">
+        <v>44016</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>43910</v>
       </c>
@@ -721,8 +728,11 @@
       <c r="AB3" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC3" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>43915</v>
       </c>
@@ -807,8 +817,11 @@
       <c r="AB4" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC4" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>43916</v>
       </c>
@@ -893,8 +906,11 @@
       <c r="AB5" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC5" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>43917</v>
       </c>
@@ -979,8 +995,11 @@
       <c r="AB6" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC6" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>43918</v>
       </c>
@@ -1065,8 +1084,11 @@
       <c r="AB7" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC7" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>43919</v>
       </c>
@@ -1151,8 +1173,11 @@
       <c r="AB8" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>43920</v>
       </c>
@@ -1237,8 +1262,11 @@
       <c r="AB9" s="13">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>43921</v>
       </c>
@@ -1323,8 +1351,11 @@
       <c r="AB10" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>43922</v>
       </c>
@@ -1409,8 +1440,11 @@
       <c r="AB11" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>43923</v>
       </c>
@@ -1495,8 +1529,11 @@
       <c r="AB12" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>43924</v>
       </c>
@@ -1581,8 +1618,11 @@
       <c r="AB13" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>43925</v>
       </c>
@@ -1667,8 +1707,11 @@
       <c r="AB14" s="13">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>43926</v>
       </c>
@@ -1753,8 +1796,11 @@
       <c r="AB15" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>43927</v>
       </c>
@@ -1839,8 +1885,11 @@
       <c r="AB16" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>43928</v>
       </c>
@@ -1925,8 +1974,11 @@
       <c r="AB17" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC17" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>43929</v>
       </c>
@@ -2011,8 +2063,11 @@
       <c r="AB18" s="13">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC18" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>43930</v>
       </c>
@@ -2097,8 +2152,11 @@
       <c r="AB19" s="13">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>43931</v>
       </c>
@@ -2183,8 +2241,11 @@
       <c r="AB20" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>43932</v>
       </c>
@@ -2269,8 +2330,11 @@
       <c r="AB21" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>43933</v>
       </c>
@@ -2355,8 +2419,11 @@
       <c r="AB22" s="13">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>43934</v>
       </c>
@@ -2441,8 +2508,11 @@
       <c r="AB23" s="13">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC23" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>43935</v>
       </c>
@@ -2527,8 +2597,11 @@
       <c r="AB24" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>43936</v>
       </c>
@@ -2613,8 +2686,11 @@
       <c r="AB25" s="13">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>43937</v>
       </c>
@@ -2699,8 +2775,11 @@
       <c r="AB26" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC26" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>43938</v>
       </c>
@@ -2785,8 +2864,11 @@
       <c r="AB27" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC27" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>43939</v>
       </c>
@@ -2871,8 +2953,11 @@
       <c r="AB28" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>43940</v>
       </c>
@@ -2957,8 +3042,11 @@
       <c r="AB29" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>43941</v>
       </c>
@@ -3043,8 +3131,11 @@
       <c r="AB30" s="13">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>43942</v>
       </c>
@@ -3129,8 +3220,11 @@
       <c r="AB31" s="13">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>43943</v>
       </c>
@@ -3215,8 +3309,11 @@
       <c r="AB32" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>43944</v>
       </c>
@@ -3301,8 +3398,11 @@
       <c r="AB33" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC33" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>43945</v>
       </c>
@@ -3387,8 +3487,11 @@
       <c r="AB34" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>43946</v>
       </c>
@@ -3473,8 +3576,11 @@
       <c r="AB35" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC35" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>43947</v>
       </c>
@@ -3559,8 +3665,11 @@
       <c r="AB36" s="13">
         <v>9</v>
       </c>
-    </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC36" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>43948</v>
       </c>
@@ -3645,8 +3754,11 @@
       <c r="AB37" s="13">
         <v>12</v>
       </c>
-    </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC37" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>43949</v>
       </c>
@@ -3731,8 +3843,11 @@
       <c r="AB38" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC38" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>43950</v>
       </c>
@@ -3817,8 +3932,11 @@
       <c r="AB39" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>43951</v>
       </c>
@@ -3903,8 +4021,11 @@
       <c r="AB40" s="13">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>43952</v>
       </c>
@@ -3989,8 +4110,11 @@
       <c r="AB41" s="13">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>43953</v>
       </c>
@@ -4075,8 +4199,11 @@
       <c r="AB42" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>43954</v>
       </c>
@@ -4161,8 +4288,11 @@
       <c r="AB43" s="13">
         <v>19</v>
       </c>
-    </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="13">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>43955</v>
       </c>
@@ -4247,8 +4377,11 @@
       <c r="AB44" s="13">
         <v>13</v>
       </c>
-    </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>43956</v>
       </c>
@@ -4333,8 +4466,11 @@
       <c r="AB45" s="13">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>43957</v>
       </c>
@@ -4419,8 +4555,11 @@
       <c r="AB46" s="13">
         <v>15</v>
       </c>
-    </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>43958</v>
       </c>
@@ -4505,8 +4644,11 @@
       <c r="AB47" s="13">
         <v>30</v>
       </c>
-    </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>43959</v>
       </c>
@@ -4591,8 +4733,11 @@
       <c r="AB48" s="13">
         <v>15</v>
       </c>
-    </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>43960</v>
       </c>
@@ -4677,8 +4822,11 @@
       <c r="AB49" s="13">
         <v>23</v>
       </c>
-    </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="13">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>43961</v>
       </c>
@@ -4763,8 +4911,11 @@
       <c r="AB50" s="13">
         <v>31</v>
       </c>
-    </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="13">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>43962</v>
       </c>
@@ -4849,8 +5000,11 @@
       <c r="AB51" s="13">
         <v>20</v>
       </c>
-    </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>43963</v>
       </c>
@@ -4935,8 +5089,11 @@
       <c r="AB52" s="13">
         <v>26</v>
       </c>
-    </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="13">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>43964</v>
       </c>
@@ -5021,8 +5178,11 @@
       <c r="AB53" s="13">
         <v>38</v>
       </c>
-    </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="13">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>43965</v>
       </c>
@@ -5107,8 +5267,11 @@
       <c r="AB54" s="13">
         <v>35</v>
       </c>
-    </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC54" s="13">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <v>43966</v>
       </c>
@@ -5193,8 +5356,11 @@
       <c r="AB55" s="13">
         <v>33</v>
       </c>
-    </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="13">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>43967</v>
       </c>
@@ -5279,8 +5445,11 @@
       <c r="AB56" s="13">
         <v>49</v>
       </c>
-    </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="13">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>43968</v>
       </c>
@@ -5365,8 +5534,11 @@
       <c r="AB57" s="13">
         <v>46</v>
       </c>
-    </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="13">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>43969</v>
       </c>
@@ -5451,8 +5623,11 @@
       <c r="AB58" s="13">
         <v>62</v>
       </c>
-    </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="13">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>43970</v>
       </c>
@@ -5537,8 +5712,11 @@
       <c r="AB59" s="13">
         <v>64</v>
       </c>
-    </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="13">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>43971</v>
       </c>
@@ -5623,8 +5801,11 @@
       <c r="AB60" s="13">
         <v>65</v>
       </c>
-    </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="13">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>43972</v>
       </c>
@@ -5709,8 +5890,11 @@
       <c r="AB61" s="13">
         <v>63</v>
       </c>
-    </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="13">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>43973</v>
       </c>
@@ -5795,8 +5979,11 @@
       <c r="AB62" s="13">
         <v>72</v>
       </c>
-    </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="13">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>43974</v>
       </c>
@@ -5881,8 +6068,11 @@
       <c r="AB63" s="13">
         <v>86</v>
       </c>
-    </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="13">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>43975</v>
       </c>
@@ -5967,8 +6157,11 @@
       <c r="AB64" s="13">
         <v>97</v>
       </c>
-    </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="13">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>43976</v>
       </c>
@@ -6053,8 +6246,11 @@
       <c r="AB65" s="13">
         <v>86</v>
       </c>
-    </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="13">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>43977</v>
       </c>
@@ -6139,8 +6335,11 @@
       <c r="AB66" s="13">
         <v>106</v>
       </c>
-    </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC66" s="13">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="67" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>43978</v>
       </c>
@@ -6225,8 +6424,11 @@
       <c r="AB67" s="13">
         <v>121</v>
       </c>
-    </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="13">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="68" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>43979</v>
       </c>
@@ -6311,8 +6513,11 @@
       <c r="AB68" s="13">
         <v>115</v>
       </c>
-    </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="13">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="69" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>43980</v>
       </c>
@@ -6397,8 +6602,11 @@
       <c r="AB69" s="13">
         <v>124</v>
       </c>
-    </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="13">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="70" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>43981</v>
       </c>
@@ -6483,8 +6691,11 @@
       <c r="AB70" s="13">
         <v>135</v>
       </c>
-    </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="13">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="71" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
         <v>43982</v>
       </c>
@@ -6569,8 +6780,11 @@
       <c r="AB71" s="13">
         <v>114</v>
       </c>
-    </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="13">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="72" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <v>43983</v>
       </c>
@@ -6655,8 +6869,11 @@
       <c r="AB72" s="13">
         <v>143</v>
       </c>
-    </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC72" s="13">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <v>43984</v>
       </c>
@@ -6741,8 +6958,11 @@
       <c r="AB73" s="13">
         <v>138</v>
       </c>
-    </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="13">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="74" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
         <v>43985</v>
       </c>
@@ -6827,8 +7047,11 @@
       <c r="AB74" s="13">
         <v>150</v>
       </c>
-    </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="13">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="75" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
         <v>43986</v>
       </c>
@@ -6913,8 +7136,11 @@
       <c r="AB75" s="13">
         <v>148</v>
       </c>
-    </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="13">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="76" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <v>43987</v>
       </c>
@@ -6999,8 +7225,11 @@
       <c r="AB76" s="13">
         <v>155</v>
       </c>
-    </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC76" s="13">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="77" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
         <v>43988</v>
       </c>
@@ -7083,8 +7312,11 @@
       <c r="AB77" s="13">
         <v>158</v>
       </c>
-    </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="13">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="78" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A78" s="5">
         <v>43989</v>
       </c>
@@ -7165,8 +7397,11 @@
       <c r="AB78" s="13">
         <v>148</v>
       </c>
-    </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC78" s="13">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="79" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A79" s="5">
         <v>43990</v>
       </c>
@@ -7245,8 +7480,11 @@
       <c r="AB79" s="13">
         <v>139</v>
       </c>
-    </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC79" s="13">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="80" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
         <v>43991</v>
       </c>
@@ -7323,8 +7561,11 @@
       <c r="AB80" s="13">
         <v>171</v>
       </c>
-    </row>
-    <row r="81" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC80" s="13">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="81" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
         <v>43992</v>
       </c>
@@ -7399,8 +7640,11 @@
       <c r="AB81" s="13">
         <v>158</v>
       </c>
-    </row>
-    <row r="82" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC81" s="13">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="82" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
         <v>43993</v>
       </c>
@@ -7473,8 +7717,11 @@
       <c r="AB82" s="13">
         <v>161</v>
       </c>
-    </row>
-    <row r="83" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="13">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="83" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A83" s="5">
         <v>43994</v>
       </c>
@@ -7545,8 +7792,11 @@
       <c r="AB83" s="13">
         <v>162</v>
       </c>
-    </row>
-    <row r="84" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="13">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="84" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
         <v>43995</v>
       </c>
@@ -7615,8 +7865,11 @@
       <c r="AB84" s="13">
         <v>172</v>
       </c>
-    </row>
-    <row r="85" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="13">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="85" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A85" s="5">
         <v>43996</v>
       </c>
@@ -7674,8 +7927,11 @@
       <c r="AB85" s="13">
         <v>151</v>
       </c>
-    </row>
-    <row r="86" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="13">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="86" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A86" s="5">
         <v>43997</v>
       </c>
@@ -7731,8 +7987,11 @@
       <c r="AB86" s="13">
         <v>147</v>
       </c>
-    </row>
-    <row r="87" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="13">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="87" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A87" s="5">
         <v>43998</v>
       </c>
@@ -7784,8 +8043,11 @@
       <c r="AB87" s="13">
         <v>167</v>
       </c>
-    </row>
-    <row r="88" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="13">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="88" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A88" s="5">
         <v>43999</v>
       </c>
@@ -7834,8 +8096,11 @@
       <c r="AB88" s="13">
         <v>165</v>
       </c>
-    </row>
-    <row r="89" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="13">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="89" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A89" s="5">
         <v>44000</v>
       </c>
@@ -7881,8 +8146,11 @@
       <c r="AB89" s="13">
         <v>122</v>
       </c>
-    </row>
-    <row r="90" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="13">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="90" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A90" s="5">
         <v>44001</v>
       </c>
@@ -7925,8 +8193,11 @@
       <c r="AB90" s="13">
         <v>140</v>
       </c>
-    </row>
-    <row r="91" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="13">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="91" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A91" s="5">
         <v>44002</v>
       </c>
@@ -7966,8 +8237,11 @@
       <c r="AB91" s="13">
         <v>134</v>
       </c>
-    </row>
-    <row r="92" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="13">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="92" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A92" s="5">
         <v>44003</v>
       </c>
@@ -8004,8 +8278,11 @@
       <c r="AB92" s="13">
         <v>124</v>
       </c>
-    </row>
-    <row r="93" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="13">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="93" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A93" s="5">
         <v>44004</v>
       </c>
@@ -8039,8 +8316,11 @@
       <c r="AB93" s="13">
         <v>121</v>
       </c>
-    </row>
-    <row r="94" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="13">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="94" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A94" s="5">
         <v>44005</v>
       </c>
@@ -8071,8 +8351,11 @@
       <c r="AB94" s="13">
         <v>119</v>
       </c>
-    </row>
-    <row r="95" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="13">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="95" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A95" s="5">
         <v>44006</v>
       </c>
@@ -8100,8 +8383,11 @@
       <c r="AB95" s="13">
         <v>118</v>
       </c>
-    </row>
-    <row r="96" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="13">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="96" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A96" s="5">
         <v>44007</v>
       </c>
@@ -8126,8 +8412,11 @@
       <c r="AB96" s="13">
         <v>110</v>
       </c>
-    </row>
-    <row r="97" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="13">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="97" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A97" s="5">
         <v>44008</v>
       </c>
@@ -8149,8 +8438,11 @@
       <c r="AB97" s="13">
         <v>106</v>
       </c>
-    </row>
-    <row r="98" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="13">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="98" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A98" s="5">
         <v>44009</v>
       </c>
@@ -8169,8 +8461,11 @@
       <c r="AB98" s="13">
         <v>102</v>
       </c>
-    </row>
-    <row r="99" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="13">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="99" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A99" s="5">
         <v>44010</v>
       </c>
@@ -8186,8 +8481,11 @@
       <c r="AB99" s="13">
         <v>109</v>
       </c>
-    </row>
-    <row r="100" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="13">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="100" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A100" s="5">
         <v>44011</v>
       </c>
@@ -8200,8 +8498,11 @@
       <c r="AB100" s="13">
         <v>91</v>
       </c>
-    </row>
-    <row r="101" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A101" s="5">
         <v>44012</v>
       </c>
@@ -8211,13 +8512,27 @@
       <c r="AB101" s="13">
         <v>73</v>
       </c>
-    </row>
-    <row r="102" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="13">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="102" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A102" s="5">
         <v>44013</v>
       </c>
       <c r="AB102" s="13">
         <v>8</v>
+      </c>
+      <c r="AC102" s="13">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="103" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A103" s="5">
+        <v>44014</v>
+      </c>
+      <c r="AC103" s="13">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/input/NuevaDefDefunciones/Fallecidos Min Ciencias acumulado.xlsx
+++ b/input/NuevaDefDefunciones/Fallecidos Min Ciencias acumulado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/faviola/covid-19/REPORTEDIARIO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F78CBB-0821-3549-99AB-AB44BEC4E1EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE50AB8-8D87-8E43-BF60-0C1667A04E76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="740" yWindow="760" windowWidth="28060" windowHeight="17240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -425,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC103"/>
+  <dimension ref="A1:AD104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="AC103" sqref="AC103"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="AD104" sqref="AD104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -437,7 +437,7 @@
     <col min="23" max="23" width="10.83203125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -514,7 +514,7 @@
         <v>4731</v>
       </c>
       <c r="T1" s="11">
-        <f t="shared" ref="T1:AC1" si="2">SUM(T3:T999)</f>
+        <f t="shared" ref="T1:AD1" si="2">SUM(T3:T999)</f>
         <v>4903</v>
       </c>
       <c r="U1" s="11">
@@ -553,8 +553,12 @@
         <f t="shared" si="2"/>
         <v>6192</v>
       </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD1" s="11">
+        <f t="shared" si="2"/>
+        <v>6308</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -642,8 +646,11 @@
       <c r="AC2" s="10">
         <v>44016</v>
       </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD2" s="10">
+        <v>44017</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>43910</v>
       </c>
@@ -731,8 +738,11 @@
       <c r="AC3" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD3" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>43915</v>
       </c>
@@ -820,8 +830,11 @@
       <c r="AC4" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD4" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>43916</v>
       </c>
@@ -909,8 +922,11 @@
       <c r="AC5" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD5" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>43917</v>
       </c>
@@ -998,8 +1014,11 @@
       <c r="AC6" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD6" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>43918</v>
       </c>
@@ -1087,8 +1106,11 @@
       <c r="AC7" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD7" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>43919</v>
       </c>
@@ -1176,8 +1198,11 @@
       <c r="AC8" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD8" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>43920</v>
       </c>
@@ -1265,8 +1290,11 @@
       <c r="AC9" s="13">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>43921</v>
       </c>
@@ -1354,8 +1382,11 @@
       <c r="AC10" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>43922</v>
       </c>
@@ -1443,8 +1474,11 @@
       <c r="AC11" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>43923</v>
       </c>
@@ -1532,8 +1566,11 @@
       <c r="AC12" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>43924</v>
       </c>
@@ -1621,8 +1658,11 @@
       <c r="AC13" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>43925</v>
       </c>
@@ -1710,8 +1750,11 @@
       <c r="AC14" s="13">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>43926</v>
       </c>
@@ -1799,8 +1842,11 @@
       <c r="AC15" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>43927</v>
       </c>
@@ -1888,8 +1934,11 @@
       <c r="AC16" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>43928</v>
       </c>
@@ -1977,8 +2026,11 @@
       <c r="AC17" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD17" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>43929</v>
       </c>
@@ -2066,8 +2118,11 @@
       <c r="AC18" s="13">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD18" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>43930</v>
       </c>
@@ -2155,8 +2210,11 @@
       <c r="AC19" s="13">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>43931</v>
       </c>
@@ -2244,8 +2302,11 @@
       <c r="AC20" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>43932</v>
       </c>
@@ -2333,8 +2394,11 @@
       <c r="AC21" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD21" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>43933</v>
       </c>
@@ -2422,8 +2486,11 @@
       <c r="AC22" s="13">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>43934</v>
       </c>
@@ -2511,8 +2578,11 @@
       <c r="AC23" s="13">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD23" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>43935</v>
       </c>
@@ -2600,8 +2670,11 @@
       <c r="AC24" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>43936</v>
       </c>
@@ -2689,8 +2762,11 @@
       <c r="AC25" s="13">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>43937</v>
       </c>
@@ -2778,8 +2854,11 @@
       <c r="AC26" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD26" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>43938</v>
       </c>
@@ -2867,8 +2946,11 @@
       <c r="AC27" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD27" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>43939</v>
       </c>
@@ -2956,8 +3038,11 @@
       <c r="AC28" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>43940</v>
       </c>
@@ -3045,8 +3130,11 @@
       <c r="AC29" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>43941</v>
       </c>
@@ -3134,8 +3222,11 @@
       <c r="AC30" s="13">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>43942</v>
       </c>
@@ -3223,8 +3314,11 @@
       <c r="AC31" s="13">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>43943</v>
       </c>
@@ -3312,8 +3406,11 @@
       <c r="AC32" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>43944</v>
       </c>
@@ -3401,8 +3498,11 @@
       <c r="AC33" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD33" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>43945</v>
       </c>
@@ -3490,8 +3590,11 @@
       <c r="AC34" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>43946</v>
       </c>
@@ -3579,8 +3682,11 @@
       <c r="AC35" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD35" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>43947</v>
       </c>
@@ -3668,8 +3774,11 @@
       <c r="AC36" s="13">
         <v>9</v>
       </c>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD36" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>43948</v>
       </c>
@@ -3757,8 +3866,11 @@
       <c r="AC37" s="13">
         <v>12</v>
       </c>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD37" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>43949</v>
       </c>
@@ -3846,8 +3958,11 @@
       <c r="AC38" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD38" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>43950</v>
       </c>
@@ -3935,8 +4050,11 @@
       <c r="AC39" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>43951</v>
       </c>
@@ -4024,8 +4142,11 @@
       <c r="AC40" s="13">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>43952</v>
       </c>
@@ -4113,8 +4234,11 @@
       <c r="AC41" s="13">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD41" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>43953</v>
       </c>
@@ -4202,8 +4326,11 @@
       <c r="AC42" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>43954</v>
       </c>
@@ -4291,8 +4418,11 @@
       <c r="AC43" s="13">
         <v>19</v>
       </c>
-    </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="13">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>43955</v>
       </c>
@@ -4380,8 +4510,11 @@
       <c r="AC44" s="13">
         <v>13</v>
       </c>
-    </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>43956</v>
       </c>
@@ -4469,8 +4602,11 @@
       <c r="AC45" s="13">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>43957</v>
       </c>
@@ -4558,8 +4694,11 @@
       <c r="AC46" s="13">
         <v>15</v>
       </c>
-    </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>43958</v>
       </c>
@@ -4647,8 +4786,11 @@
       <c r="AC47" s="13">
         <v>30</v>
       </c>
-    </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>43959</v>
       </c>
@@ -4736,8 +4878,11 @@
       <c r="AC48" s="13">
         <v>15</v>
       </c>
-    </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>43960</v>
       </c>
@@ -4825,8 +4970,11 @@
       <c r="AC49" s="13">
         <v>23</v>
       </c>
-    </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="13">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>43961</v>
       </c>
@@ -4914,8 +5062,11 @@
       <c r="AC50" s="13">
         <v>31</v>
       </c>
-    </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="13">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>43962</v>
       </c>
@@ -5003,8 +5154,11 @@
       <c r="AC51" s="13">
         <v>20</v>
       </c>
-    </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>43963</v>
       </c>
@@ -5092,8 +5246,11 @@
       <c r="AC52" s="13">
         <v>26</v>
       </c>
-    </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="13">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>43964</v>
       </c>
@@ -5181,8 +5338,11 @@
       <c r="AC53" s="13">
         <v>38</v>
       </c>
-    </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="13">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>43965</v>
       </c>
@@ -5270,8 +5430,11 @@
       <c r="AC54" s="13">
         <v>35</v>
       </c>
-    </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD54" s="13">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <v>43966</v>
       </c>
@@ -5359,8 +5522,11 @@
       <c r="AC55" s="13">
         <v>33</v>
       </c>
-    </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="13">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>43967</v>
       </c>
@@ -5448,8 +5614,11 @@
       <c r="AC56" s="13">
         <v>49</v>
       </c>
-    </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="13">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>43968</v>
       </c>
@@ -5537,8 +5706,11 @@
       <c r="AC57" s="13">
         <v>46</v>
       </c>
-    </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="13">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>43969</v>
       </c>
@@ -5626,8 +5798,11 @@
       <c r="AC58" s="13">
         <v>62</v>
       </c>
-    </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="13">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>43970</v>
       </c>
@@ -5715,8 +5890,11 @@
       <c r="AC59" s="13">
         <v>64</v>
       </c>
-    </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="13">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>43971</v>
       </c>
@@ -5804,8 +5982,11 @@
       <c r="AC60" s="13">
         <v>65</v>
       </c>
-    </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="13">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>43972</v>
       </c>
@@ -5893,8 +6074,11 @@
       <c r="AC61" s="13">
         <v>63</v>
       </c>
-    </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="13">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>43973</v>
       </c>
@@ -5982,8 +6166,11 @@
       <c r="AC62" s="13">
         <v>72</v>
       </c>
-    </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="13">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>43974</v>
       </c>
@@ -6071,8 +6258,11 @@
       <c r="AC63" s="13">
         <v>86</v>
       </c>
-    </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="13">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>43975</v>
       </c>
@@ -6160,8 +6350,11 @@
       <c r="AC64" s="13">
         <v>97</v>
       </c>
-    </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="13">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>43976</v>
       </c>
@@ -6249,8 +6442,11 @@
       <c r="AC65" s="13">
         <v>86</v>
       </c>
-    </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="13">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>43977</v>
       </c>
@@ -6338,8 +6534,11 @@
       <c r="AC66" s="13">
         <v>106</v>
       </c>
-    </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD66" s="13">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="67" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>43978</v>
       </c>
@@ -6427,8 +6626,11 @@
       <c r="AC67" s="13">
         <v>121</v>
       </c>
-    </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="13">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="68" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>43979</v>
       </c>
@@ -6516,8 +6718,11 @@
       <c r="AC68" s="13">
         <v>115</v>
       </c>
-    </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="13">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="69" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>43980</v>
       </c>
@@ -6605,8 +6810,11 @@
       <c r="AC69" s="13">
         <v>124</v>
       </c>
-    </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="13">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="70" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>43981</v>
       </c>
@@ -6694,8 +6902,11 @@
       <c r="AC70" s="13">
         <v>135</v>
       </c>
-    </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="13">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="71" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
         <v>43982</v>
       </c>
@@ -6783,8 +6994,11 @@
       <c r="AC71" s="13">
         <v>115</v>
       </c>
-    </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="13">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="72" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <v>43983</v>
       </c>
@@ -6872,8 +7086,11 @@
       <c r="AC72" s="13">
         <v>143</v>
       </c>
-    </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD72" s="13">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <v>43984</v>
       </c>
@@ -6961,8 +7178,11 @@
       <c r="AC73" s="13">
         <v>138</v>
       </c>
-    </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="13">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="74" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
         <v>43985</v>
       </c>
@@ -7050,8 +7270,11 @@
       <c r="AC74" s="13">
         <v>150</v>
       </c>
-    </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="13">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="75" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
         <v>43986</v>
       </c>
@@ -7139,8 +7362,11 @@
       <c r="AC75" s="13">
         <v>148</v>
       </c>
-    </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="13">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="76" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <v>43987</v>
       </c>
@@ -7228,8 +7454,11 @@
       <c r="AC76" s="13">
         <v>155</v>
       </c>
-    </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD76" s="13">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="77" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
         <v>43988</v>
       </c>
@@ -7315,8 +7544,11 @@
       <c r="AC77" s="13">
         <v>159</v>
       </c>
-    </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="13">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="78" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A78" s="5">
         <v>43989</v>
       </c>
@@ -7400,8 +7632,11 @@
       <c r="AC78" s="13">
         <v>148</v>
       </c>
-    </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD78" s="13">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="79" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A79" s="5">
         <v>43990</v>
       </c>
@@ -7483,8 +7718,11 @@
       <c r="AC79" s="13">
         <v>139</v>
       </c>
-    </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD79" s="13">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="80" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
         <v>43991</v>
       </c>
@@ -7564,8 +7802,11 @@
       <c r="AC80" s="13">
         <v>171</v>
       </c>
-    </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD80" s="13">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="81" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
         <v>43992</v>
       </c>
@@ -7643,8 +7884,11 @@
       <c r="AC81" s="13">
         <v>158</v>
       </c>
-    </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD81" s="13">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="82" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
         <v>43993</v>
       </c>
@@ -7720,8 +7964,11 @@
       <c r="AC82" s="13">
         <v>161</v>
       </c>
-    </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="13">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="83" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A83" s="5">
         <v>43994</v>
       </c>
@@ -7795,8 +8042,11 @@
       <c r="AC83" s="13">
         <v>162</v>
       </c>
-    </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="13">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="84" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
         <v>43995</v>
       </c>
@@ -7868,8 +8118,11 @@
       <c r="AC84" s="13">
         <v>173</v>
       </c>
-    </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="13">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="85" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A85" s="5">
         <v>43996</v>
       </c>
@@ -7930,8 +8183,11 @@
       <c r="AC85" s="13">
         <v>151</v>
       </c>
-    </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="13">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="86" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A86" s="5">
         <v>43997</v>
       </c>
@@ -7990,8 +8246,11 @@
       <c r="AC86" s="13">
         <v>147</v>
       </c>
-    </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="13">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="87" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A87" s="5">
         <v>43998</v>
       </c>
@@ -8046,8 +8305,11 @@
       <c r="AC87" s="13">
         <v>167</v>
       </c>
-    </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="13">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="88" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A88" s="5">
         <v>43999</v>
       </c>
@@ -8099,8 +8361,11 @@
       <c r="AC88" s="13">
         <v>167</v>
       </c>
-    </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="13">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="89" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A89" s="5">
         <v>44000</v>
       </c>
@@ -8149,8 +8414,11 @@
       <c r="AC89" s="13">
         <v>124</v>
       </c>
-    </row>
-    <row r="90" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD89" s="13">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="90" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A90" s="5">
         <v>44001</v>
       </c>
@@ -8196,8 +8464,11 @@
       <c r="AC90" s="13">
         <v>140</v>
       </c>
-    </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="13">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="91" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A91" s="5">
         <v>44002</v>
       </c>
@@ -8240,8 +8511,11 @@
       <c r="AC91" s="13">
         <v>134</v>
       </c>
-    </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="13">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="92" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A92" s="5">
         <v>44003</v>
       </c>
@@ -8281,8 +8555,11 @@
       <c r="AC92" s="13">
         <v>124</v>
       </c>
-    </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="13">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="93" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A93" s="5">
         <v>44004</v>
       </c>
@@ -8319,8 +8596,11 @@
       <c r="AC93" s="13">
         <v>122</v>
       </c>
-    </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="13">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="94" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A94" s="5">
         <v>44005</v>
       </c>
@@ -8354,8 +8634,11 @@
       <c r="AC94" s="13">
         <v>119</v>
       </c>
-    </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="13">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="95" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A95" s="5">
         <v>44006</v>
       </c>
@@ -8386,8 +8669,11 @@
       <c r="AC95" s="13">
         <v>121</v>
       </c>
-    </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="13">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="96" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A96" s="5">
         <v>44007</v>
       </c>
@@ -8415,8 +8701,11 @@
       <c r="AC96" s="13">
         <v>118</v>
       </c>
-    </row>
-    <row r="97" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="13">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="97" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A97" s="5">
         <v>44008</v>
       </c>
@@ -8441,8 +8730,11 @@
       <c r="AC97" s="13">
         <v>111</v>
       </c>
-    </row>
-    <row r="98" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="13">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="98" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A98" s="5">
         <v>44009</v>
       </c>
@@ -8464,8 +8756,11 @@
       <c r="AC98" s="13">
         <v>106</v>
       </c>
-    </row>
-    <row r="99" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="13">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="99" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A99" s="5">
         <v>44010</v>
       </c>
@@ -8484,8 +8779,11 @@
       <c r="AC99" s="13">
         <v>116</v>
       </c>
-    </row>
-    <row r="100" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="13">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="100" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A100" s="5">
         <v>44011</v>
       </c>
@@ -8501,8 +8799,11 @@
       <c r="AC100" s="13">
         <v>100</v>
       </c>
-    </row>
-    <row r="101" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="13">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="101" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A101" s="5">
         <v>44012</v>
       </c>
@@ -8515,8 +8816,11 @@
       <c r="AC101" s="13">
         <v>93</v>
       </c>
-    </row>
-    <row r="102" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A102" s="5">
         <v>44013</v>
       </c>
@@ -8526,13 +8830,27 @@
       <c r="AC102" s="13">
         <v>68</v>
       </c>
-    </row>
-    <row r="103" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD102" s="13">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="103" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A103" s="5">
         <v>44014</v>
       </c>
       <c r="AC103" s="13">
         <v>17</v>
+      </c>
+      <c r="AD103" s="13">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="104" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A104" s="5">
+        <v>44015</v>
+      </c>
+      <c r="AD104" s="13">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/input/NuevaDefDefunciones/Fallecidos Min Ciencias acumulado.xlsx
+++ b/input/NuevaDefDefunciones/Fallecidos Min Ciencias acumulado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/faviola/covid-19/REPORTEDIARIO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE50AB8-8D87-8E43-BF60-0C1667A04E76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68739F31-929B-6547-9882-6210CFAF896E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="740" yWindow="760" windowWidth="28060" windowHeight="17240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -425,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD104"/>
+  <dimension ref="A1:AE105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="AD104" sqref="AD104"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -437,7 +437,7 @@
     <col min="23" max="23" width="10.83203125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -514,7 +514,7 @@
         <v>4731</v>
       </c>
       <c r="T1" s="11">
-        <f t="shared" ref="T1:AD1" si="2">SUM(T3:T999)</f>
+        <f t="shared" ref="T1:AE1" si="2">SUM(T3:T999)</f>
         <v>4903</v>
       </c>
       <c r="U1" s="11">
@@ -557,8 +557,12 @@
         <f t="shared" si="2"/>
         <v>6308</v>
       </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE1" s="11">
+        <f t="shared" si="2"/>
+        <v>6384</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -649,8 +653,11 @@
       <c r="AD2" s="10">
         <v>44017</v>
       </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE2" s="10">
+        <v>44018</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>43910</v>
       </c>
@@ -741,8 +748,11 @@
       <c r="AD3" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE3" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>43915</v>
       </c>
@@ -833,8 +843,11 @@
       <c r="AD4" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE4" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>43916</v>
       </c>
@@ -925,8 +938,11 @@
       <c r="AD5" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE5" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>43917</v>
       </c>
@@ -1017,8 +1033,11 @@
       <c r="AD6" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE6" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>43918</v>
       </c>
@@ -1109,8 +1128,11 @@
       <c r="AD7" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE7" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>43919</v>
       </c>
@@ -1201,8 +1223,11 @@
       <c r="AD8" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE8" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>43920</v>
       </c>
@@ -1293,8 +1318,11 @@
       <c r="AD9" s="13">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>43921</v>
       </c>
@@ -1385,8 +1413,11 @@
       <c r="AD10" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>43922</v>
       </c>
@@ -1477,8 +1508,11 @@
       <c r="AD11" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>43923</v>
       </c>
@@ -1569,8 +1603,11 @@
       <c r="AD12" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>43924</v>
       </c>
@@ -1661,8 +1698,11 @@
       <c r="AD13" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>43925</v>
       </c>
@@ -1753,8 +1793,11 @@
       <c r="AD14" s="13">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>43926</v>
       </c>
@@ -1845,8 +1888,11 @@
       <c r="AD15" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>43927</v>
       </c>
@@ -1937,8 +1983,11 @@
       <c r="AD16" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>43928</v>
       </c>
@@ -2029,8 +2078,11 @@
       <c r="AD17" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE17" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>43929</v>
       </c>
@@ -2121,8 +2173,11 @@
       <c r="AD18" s="13">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE18" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>43930</v>
       </c>
@@ -2213,8 +2268,11 @@
       <c r="AD19" s="13">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>43931</v>
       </c>
@@ -2305,8 +2363,11 @@
       <c r="AD20" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>43932</v>
       </c>
@@ -2397,8 +2458,11 @@
       <c r="AD21" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE21" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>43933</v>
       </c>
@@ -2489,8 +2553,11 @@
       <c r="AD22" s="13">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>43934</v>
       </c>
@@ -2581,8 +2648,11 @@
       <c r="AD23" s="13">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE23" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>43935</v>
       </c>
@@ -2673,8 +2743,11 @@
       <c r="AD24" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>43936</v>
       </c>
@@ -2765,8 +2838,11 @@
       <c r="AD25" s="13">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>43937</v>
       </c>
@@ -2857,8 +2933,11 @@
       <c r="AD26" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE26" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>43938</v>
       </c>
@@ -2949,8 +3028,11 @@
       <c r="AD27" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE27" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>43939</v>
       </c>
@@ -3041,8 +3123,11 @@
       <c r="AD28" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>43940</v>
       </c>
@@ -3133,8 +3218,11 @@
       <c r="AD29" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>43941</v>
       </c>
@@ -3225,8 +3313,11 @@
       <c r="AD30" s="13">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>43942</v>
       </c>
@@ -3317,8 +3408,11 @@
       <c r="AD31" s="13">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>43943</v>
       </c>
@@ -3409,8 +3503,11 @@
       <c r="AD32" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>43944</v>
       </c>
@@ -3501,8 +3598,11 @@
       <c r="AD33" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE33" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>43945</v>
       </c>
@@ -3593,8 +3693,11 @@
       <c r="AD34" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>43946</v>
       </c>
@@ -3685,8 +3788,11 @@
       <c r="AD35" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE35" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>43947</v>
       </c>
@@ -3777,8 +3883,11 @@
       <c r="AD36" s="13">
         <v>9</v>
       </c>
-    </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE36" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>43948</v>
       </c>
@@ -3869,8 +3978,11 @@
       <c r="AD37" s="13">
         <v>12</v>
       </c>
-    </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE37" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>43949</v>
       </c>
@@ -3961,8 +4073,11 @@
       <c r="AD38" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE38" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>43950</v>
       </c>
@@ -4053,8 +4168,11 @@
       <c r="AD39" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>43951</v>
       </c>
@@ -4145,8 +4263,11 @@
       <c r="AD40" s="13">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>43952</v>
       </c>
@@ -4237,8 +4358,11 @@
       <c r="AD41" s="13">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE41" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>43953</v>
       </c>
@@ -4329,8 +4453,11 @@
       <c r="AD42" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>43954</v>
       </c>
@@ -4421,8 +4548,11 @@
       <c r="AD43" s="13">
         <v>19</v>
       </c>
-    </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="13">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>43955</v>
       </c>
@@ -4513,8 +4643,11 @@
       <c r="AD44" s="13">
         <v>13</v>
       </c>
-    </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>43956</v>
       </c>
@@ -4605,8 +4738,11 @@
       <c r="AD45" s="13">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>43957</v>
       </c>
@@ -4697,8 +4833,11 @@
       <c r="AD46" s="13">
         <v>15</v>
       </c>
-    </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>43958</v>
       </c>
@@ -4789,8 +4928,11 @@
       <c r="AD47" s="13">
         <v>30</v>
       </c>
-    </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>43959</v>
       </c>
@@ -4881,8 +5023,11 @@
       <c r="AD48" s="13">
         <v>15</v>
       </c>
-    </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>43960</v>
       </c>
@@ -4973,8 +5118,11 @@
       <c r="AD49" s="13">
         <v>23</v>
       </c>
-    </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="13">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>43961</v>
       </c>
@@ -5065,8 +5213,11 @@
       <c r="AD50" s="13">
         <v>31</v>
       </c>
-    </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="13">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>43962</v>
       </c>
@@ -5157,8 +5308,11 @@
       <c r="AD51" s="13">
         <v>20</v>
       </c>
-    </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>43963</v>
       </c>
@@ -5249,8 +5403,11 @@
       <c r="AD52" s="13">
         <v>26</v>
       </c>
-    </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="13">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>43964</v>
       </c>
@@ -5341,8 +5498,11 @@
       <c r="AD53" s="13">
         <v>38</v>
       </c>
-    </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="13">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>43965</v>
       </c>
@@ -5433,8 +5593,11 @@
       <c r="AD54" s="13">
         <v>35</v>
       </c>
-    </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE54" s="13">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <v>43966</v>
       </c>
@@ -5525,8 +5688,11 @@
       <c r="AD55" s="13">
         <v>33</v>
       </c>
-    </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="13">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>43967</v>
       </c>
@@ -5617,8 +5783,11 @@
       <c r="AD56" s="13">
         <v>49</v>
       </c>
-    </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="13">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>43968</v>
       </c>
@@ -5709,8 +5878,11 @@
       <c r="AD57" s="13">
         <v>46</v>
       </c>
-    </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="13">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>43969</v>
       </c>
@@ -5801,8 +5973,11 @@
       <c r="AD58" s="13">
         <v>62</v>
       </c>
-    </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="13">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>43970</v>
       </c>
@@ -5893,8 +6068,11 @@
       <c r="AD59" s="13">
         <v>64</v>
       </c>
-    </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="13">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>43971</v>
       </c>
@@ -5985,8 +6163,11 @@
       <c r="AD60" s="13">
         <v>65</v>
       </c>
-    </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="13">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>43972</v>
       </c>
@@ -6077,8 +6258,11 @@
       <c r="AD61" s="13">
         <v>63</v>
       </c>
-    </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="13">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>43973</v>
       </c>
@@ -6169,8 +6353,11 @@
       <c r="AD62" s="13">
         <v>72</v>
       </c>
-    </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="13">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>43974</v>
       </c>
@@ -6261,8 +6448,11 @@
       <c r="AD63" s="13">
         <v>86</v>
       </c>
-    </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="13">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>43975</v>
       </c>
@@ -6353,8 +6543,11 @@
       <c r="AD64" s="13">
         <v>97</v>
       </c>
-    </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="13">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>43976</v>
       </c>
@@ -6445,8 +6638,11 @@
       <c r="AD65" s="13">
         <v>86</v>
       </c>
-    </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="13">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>43977</v>
       </c>
@@ -6537,8 +6733,11 @@
       <c r="AD66" s="13">
         <v>106</v>
       </c>
-    </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE66" s="13">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="67" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>43978</v>
       </c>
@@ -6629,8 +6828,11 @@
       <c r="AD67" s="13">
         <v>121</v>
       </c>
-    </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="13">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="68" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>43979</v>
       </c>
@@ -6721,8 +6923,11 @@
       <c r="AD68" s="13">
         <v>115</v>
       </c>
-    </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="13">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="69" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>43980</v>
       </c>
@@ -6813,8 +7018,11 @@
       <c r="AD69" s="13">
         <v>124</v>
       </c>
-    </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="13">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="70" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>43981</v>
       </c>
@@ -6905,8 +7113,11 @@
       <c r="AD70" s="13">
         <v>135</v>
       </c>
-    </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="13">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="71" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
         <v>43982</v>
       </c>
@@ -6997,8 +7208,11 @@
       <c r="AD71" s="13">
         <v>115</v>
       </c>
-    </row>
-    <row r="72" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="13">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="72" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <v>43983</v>
       </c>
@@ -7089,8 +7303,11 @@
       <c r="AD72" s="13">
         <v>143</v>
       </c>
-    </row>
-    <row r="73" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE72" s="13">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <v>43984</v>
       </c>
@@ -7181,8 +7398,11 @@
       <c r="AD73" s="13">
         <v>138</v>
       </c>
-    </row>
-    <row r="74" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="13">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="74" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
         <v>43985</v>
       </c>
@@ -7273,8 +7493,11 @@
       <c r="AD74" s="13">
         <v>151</v>
       </c>
-    </row>
-    <row r="75" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="13">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="75" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
         <v>43986</v>
       </c>
@@ -7365,8 +7588,11 @@
       <c r="AD75" s="13">
         <v>148</v>
       </c>
-    </row>
-    <row r="76" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="13">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="76" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <v>43987</v>
       </c>
@@ -7457,8 +7683,11 @@
       <c r="AD76" s="13">
         <v>155</v>
       </c>
-    </row>
-    <row r="77" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE76" s="13">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="77" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
         <v>43988</v>
       </c>
@@ -7547,8 +7776,11 @@
       <c r="AD77" s="13">
         <v>159</v>
       </c>
-    </row>
-    <row r="78" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="13">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="78" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A78" s="5">
         <v>43989</v>
       </c>
@@ -7635,8 +7867,11 @@
       <c r="AD78" s="13">
         <v>148</v>
       </c>
-    </row>
-    <row r="79" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE78" s="13">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="79" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A79" s="5">
         <v>43990</v>
       </c>
@@ -7721,8 +7956,11 @@
       <c r="AD79" s="13">
         <v>139</v>
       </c>
-    </row>
-    <row r="80" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE79" s="13">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="80" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
         <v>43991</v>
       </c>
@@ -7805,8 +8043,11 @@
       <c r="AD80" s="13">
         <v>171</v>
       </c>
-    </row>
-    <row r="81" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE80" s="13">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="81" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
         <v>43992</v>
       </c>
@@ -7887,8 +8128,11 @@
       <c r="AD81" s="13">
         <v>158</v>
       </c>
-    </row>
-    <row r="82" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE81" s="13">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="82" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
         <v>43993</v>
       </c>
@@ -7967,8 +8211,11 @@
       <c r="AD82" s="13">
         <v>161</v>
       </c>
-    </row>
-    <row r="83" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="13">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="83" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A83" s="5">
         <v>43994</v>
       </c>
@@ -8045,8 +8292,11 @@
       <c r="AD83" s="13">
         <v>162</v>
       </c>
-    </row>
-    <row r="84" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="13">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="84" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
         <v>43995</v>
       </c>
@@ -8121,8 +8371,11 @@
       <c r="AD84" s="13">
         <v>173</v>
       </c>
-    </row>
-    <row r="85" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="13">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="85" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A85" s="5">
         <v>43996</v>
       </c>
@@ -8186,8 +8439,11 @@
       <c r="AD85" s="13">
         <v>151</v>
       </c>
-    </row>
-    <row r="86" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="13">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="86" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A86" s="5">
         <v>43997</v>
       </c>
@@ -8249,8 +8505,11 @@
       <c r="AD86" s="13">
         <v>147</v>
       </c>
-    </row>
-    <row r="87" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="13">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="87" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A87" s="5">
         <v>43998</v>
       </c>
@@ -8308,8 +8567,11 @@
       <c r="AD87" s="13">
         <v>167</v>
       </c>
-    </row>
-    <row r="88" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="13">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="88" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A88" s="5">
         <v>43999</v>
       </c>
@@ -8364,8 +8626,11 @@
       <c r="AD88" s="13">
         <v>167</v>
       </c>
-    </row>
-    <row r="89" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="13">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="89" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A89" s="5">
         <v>44000</v>
       </c>
@@ -8417,8 +8682,11 @@
       <c r="AD89" s="13">
         <v>126</v>
       </c>
-    </row>
-    <row r="90" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE89" s="13">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="90" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A90" s="5">
         <v>44001</v>
       </c>
@@ -8467,8 +8735,11 @@
       <c r="AD90" s="13">
         <v>140</v>
       </c>
-    </row>
-    <row r="91" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="13">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="91" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A91" s="5">
         <v>44002</v>
       </c>
@@ -8514,8 +8785,11 @@
       <c r="AD91" s="13">
         <v>134</v>
       </c>
-    </row>
-    <row r="92" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="13">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="92" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A92" s="5">
         <v>44003</v>
       </c>
@@ -8558,8 +8832,11 @@
       <c r="AD92" s="13">
         <v>125</v>
       </c>
-    </row>
-    <row r="93" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="13">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="93" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A93" s="5">
         <v>44004</v>
       </c>
@@ -8599,8 +8876,11 @@
       <c r="AD93" s="13">
         <v>122</v>
       </c>
-    </row>
-    <row r="94" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="13">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="94" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A94" s="5">
         <v>44005</v>
       </c>
@@ -8637,8 +8917,11 @@
       <c r="AD94" s="13">
         <v>120</v>
       </c>
-    </row>
-    <row r="95" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="13">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="95" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A95" s="5">
         <v>44006</v>
       </c>
@@ -8672,8 +8955,11 @@
       <c r="AD95" s="13">
         <v>121</v>
       </c>
-    </row>
-    <row r="96" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="13">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="96" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A96" s="5">
         <v>44007</v>
       </c>
@@ -8704,8 +8990,11 @@
       <c r="AD96" s="13">
         <v>119</v>
       </c>
-    </row>
-    <row r="97" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="13">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="97" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A97" s="5">
         <v>44008</v>
       </c>
@@ -8733,8 +9022,11 @@
       <c r="AD97" s="13">
         <v>113</v>
       </c>
-    </row>
-    <row r="98" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="13">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="98" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A98" s="5">
         <v>44009</v>
       </c>
@@ -8759,8 +9051,11 @@
       <c r="AD98" s="13">
         <v>107</v>
       </c>
-    </row>
-    <row r="99" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="13">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="99" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A99" s="5">
         <v>44010</v>
       </c>
@@ -8782,8 +9077,11 @@
       <c r="AD99" s="13">
         <v>120</v>
       </c>
-    </row>
-    <row r="100" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="13">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="100" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A100" s="5">
         <v>44011</v>
       </c>
@@ -8802,8 +9100,11 @@
       <c r="AD100" s="13">
         <v>103</v>
       </c>
-    </row>
-    <row r="101" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE100" s="13">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="101" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A101" s="5">
         <v>44012</v>
       </c>
@@ -8819,8 +9120,11 @@
       <c r="AD101" s="13">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A102" s="5">
         <v>44013</v>
       </c>
@@ -8833,8 +9137,11 @@
       <c r="AD102" s="13">
         <v>80</v>
       </c>
-    </row>
-    <row r="103" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE102" s="13">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="103" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A103" s="5">
         <v>44014</v>
       </c>
@@ -8844,13 +9151,27 @@
       <c r="AD103" s="13">
         <v>84</v>
       </c>
-    </row>
-    <row r="104" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE103" s="13">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="104" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A104" s="5">
         <v>44015</v>
       </c>
       <c r="AD104" s="13">
         <v>14</v>
+      </c>
+      <c r="AE104" s="13">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="105" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A105" s="5">
+        <v>44016</v>
+      </c>
+      <c r="AE105" s="13">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/input/NuevaDefDefunciones/Fallecidos Min Ciencias acumulado.xlsx
+++ b/input/NuevaDefDefunciones/Fallecidos Min Ciencias acumulado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/faviola/covid-19/REPORTEDIARIO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68739F31-929B-6547-9882-6210CFAF896E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{142C696B-08C6-A64E-B4CD-2F0DE2721DB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="740" yWindow="760" windowWidth="28060" windowHeight="17240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -425,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE105"/>
+  <dimension ref="A1:AF106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="AF106" sqref="AF106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -437,7 +437,7 @@
     <col min="23" max="23" width="10.83203125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -514,7 +514,7 @@
         <v>4731</v>
       </c>
       <c r="T1" s="11">
-        <f t="shared" ref="T1:AE1" si="2">SUM(T3:T999)</f>
+        <f t="shared" ref="T1:AF1" si="2">SUM(T3:T999)</f>
         <v>4903</v>
       </c>
       <c r="U1" s="11">
@@ -561,8 +561,12 @@
         <f t="shared" si="2"/>
         <v>6384</v>
       </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF1" s="11">
+        <f t="shared" si="2"/>
+        <v>6434</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -656,8 +660,11 @@
       <c r="AE2" s="10">
         <v>44018</v>
       </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF2" s="10">
+        <v>44019</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>43910</v>
       </c>
@@ -751,8 +758,11 @@
       <c r="AE3" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF3" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>43915</v>
       </c>
@@ -846,8 +856,11 @@
       <c r="AE4" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF4" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>43916</v>
       </c>
@@ -941,8 +954,11 @@
       <c r="AE5" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF5" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>43917</v>
       </c>
@@ -1036,8 +1052,11 @@
       <c r="AE6" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF6" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>43918</v>
       </c>
@@ -1131,8 +1150,11 @@
       <c r="AE7" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF7" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>43919</v>
       </c>
@@ -1226,8 +1248,11 @@
       <c r="AE8" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF8" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>43920</v>
       </c>
@@ -1321,8 +1346,11 @@
       <c r="AE9" s="13">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>43921</v>
       </c>
@@ -1416,8 +1444,11 @@
       <c r="AE10" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>43922</v>
       </c>
@@ -1511,8 +1542,11 @@
       <c r="AE11" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>43923</v>
       </c>
@@ -1606,8 +1640,11 @@
       <c r="AE12" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>43924</v>
       </c>
@@ -1701,8 +1738,11 @@
       <c r="AE13" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>43925</v>
       </c>
@@ -1796,8 +1836,11 @@
       <c r="AE14" s="13">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>43926</v>
       </c>
@@ -1891,8 +1934,11 @@
       <c r="AE15" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>43927</v>
       </c>
@@ -1986,8 +2032,11 @@
       <c r="AE16" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>43928</v>
       </c>
@@ -2081,8 +2130,11 @@
       <c r="AE17" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF17" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>43929</v>
       </c>
@@ -2176,8 +2228,11 @@
       <c r="AE18" s="13">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF18" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>43930</v>
       </c>
@@ -2271,8 +2326,11 @@
       <c r="AE19" s="13">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>43931</v>
       </c>
@@ -2366,8 +2424,11 @@
       <c r="AE20" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>43932</v>
       </c>
@@ -2461,8 +2522,11 @@
       <c r="AE21" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF21" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>43933</v>
       </c>
@@ -2556,8 +2620,11 @@
       <c r="AE22" s="13">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>43934</v>
       </c>
@@ -2651,8 +2718,11 @@
       <c r="AE23" s="13">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF23" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>43935</v>
       </c>
@@ -2746,8 +2816,11 @@
       <c r="AE24" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>43936</v>
       </c>
@@ -2841,8 +2914,11 @@
       <c r="AE25" s="13">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>43937</v>
       </c>
@@ -2936,8 +3012,11 @@
       <c r="AE26" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF26" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>43938</v>
       </c>
@@ -3031,8 +3110,11 @@
       <c r="AE27" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF27" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>43939</v>
       </c>
@@ -3126,8 +3208,11 @@
       <c r="AE28" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>43940</v>
       </c>
@@ -3221,8 +3306,11 @@
       <c r="AE29" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>43941</v>
       </c>
@@ -3316,8 +3404,11 @@
       <c r="AE30" s="13">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>43942</v>
       </c>
@@ -3411,8 +3502,11 @@
       <c r="AE31" s="13">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>43943</v>
       </c>
@@ -3506,8 +3600,11 @@
       <c r="AE32" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF32" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>43944</v>
       </c>
@@ -3601,8 +3698,11 @@
       <c r="AE33" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF33" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>43945</v>
       </c>
@@ -3696,8 +3796,11 @@
       <c r="AE34" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>43946</v>
       </c>
@@ -3791,8 +3894,11 @@
       <c r="AE35" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF35" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>43947</v>
       </c>
@@ -3886,8 +3992,11 @@
       <c r="AE36" s="13">
         <v>9</v>
       </c>
-    </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF36" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>43948</v>
       </c>
@@ -3981,8 +4090,11 @@
       <c r="AE37" s="13">
         <v>12</v>
       </c>
-    </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF37" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>43949</v>
       </c>
@@ -4076,8 +4188,11 @@
       <c r="AE38" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF38" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>43950</v>
       </c>
@@ -4171,8 +4286,11 @@
       <c r="AE39" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>43951</v>
       </c>
@@ -4266,8 +4384,11 @@
       <c r="AE40" s="13">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>43952</v>
       </c>
@@ -4361,8 +4482,11 @@
       <c r="AE41" s="13">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF41" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>43953</v>
       </c>
@@ -4456,8 +4580,11 @@
       <c r="AE42" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>43954</v>
       </c>
@@ -4551,8 +4678,11 @@
       <c r="AE43" s="13">
         <v>19</v>
       </c>
-    </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF43" s="13">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>43955</v>
       </c>
@@ -4646,8 +4776,11 @@
       <c r="AE44" s="13">
         <v>13</v>
       </c>
-    </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>43956</v>
       </c>
@@ -4741,8 +4874,11 @@
       <c r="AE45" s="13">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>43957</v>
       </c>
@@ -4836,8 +4972,11 @@
       <c r="AE46" s="13">
         <v>15</v>
       </c>
-    </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF46" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>43958</v>
       </c>
@@ -4931,8 +5070,11 @@
       <c r="AE47" s="13">
         <v>30</v>
       </c>
-    </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>43959</v>
       </c>
@@ -5026,8 +5168,11 @@
       <c r="AE48" s="13">
         <v>15</v>
       </c>
-    </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF48" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>43960</v>
       </c>
@@ -5121,8 +5266,11 @@
       <c r="AE49" s="13">
         <v>23</v>
       </c>
-    </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="13">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>43961</v>
       </c>
@@ -5216,8 +5364,11 @@
       <c r="AE50" s="13">
         <v>31</v>
       </c>
-    </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="13">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>43962</v>
       </c>
@@ -5311,8 +5462,11 @@
       <c r="AE51" s="13">
         <v>20</v>
       </c>
-    </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>43963</v>
       </c>
@@ -5406,8 +5560,11 @@
       <c r="AE52" s="13">
         <v>26</v>
       </c>
-    </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="13">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>43964</v>
       </c>
@@ -5501,8 +5658,11 @@
       <c r="AE53" s="13">
         <v>38</v>
       </c>
-    </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="13">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>43965</v>
       </c>
@@ -5596,8 +5756,11 @@
       <c r="AE54" s="13">
         <v>35</v>
       </c>
-    </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF54" s="13">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <v>43966</v>
       </c>
@@ -5691,8 +5854,11 @@
       <c r="AE55" s="13">
         <v>33</v>
       </c>
-    </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="13">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>43967</v>
       </c>
@@ -5786,8 +5952,11 @@
       <c r="AE56" s="13">
         <v>49</v>
       </c>
-    </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="13">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>43968</v>
       </c>
@@ -5881,8 +6050,11 @@
       <c r="AE57" s="13">
         <v>46</v>
       </c>
-    </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF57" s="13">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>43969</v>
       </c>
@@ -5976,8 +6148,11 @@
       <c r="AE58" s="13">
         <v>62</v>
       </c>
-    </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="13">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>43970</v>
       </c>
@@ -6071,8 +6246,11 @@
       <c r="AE59" s="13">
         <v>64</v>
       </c>
-    </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF59" s="13">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>43971</v>
       </c>
@@ -6166,8 +6344,11 @@
       <c r="AE60" s="13">
         <v>65</v>
       </c>
-    </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF60" s="13">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>43972</v>
       </c>
@@ -6261,8 +6442,11 @@
       <c r="AE61" s="13">
         <v>63</v>
       </c>
-    </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="13">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>43973</v>
       </c>
@@ -6356,8 +6540,11 @@
       <c r="AE62" s="13">
         <v>72</v>
       </c>
-    </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="13">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>43974</v>
       </c>
@@ -6451,8 +6638,11 @@
       <c r="AE63" s="13">
         <v>86</v>
       </c>
-    </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="13">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>43975</v>
       </c>
@@ -6546,8 +6736,11 @@
       <c r="AE64" s="13">
         <v>97</v>
       </c>
-    </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="13">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>43976</v>
       </c>
@@ -6641,8 +6834,11 @@
       <c r="AE65" s="13">
         <v>86</v>
       </c>
-    </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="13">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>43977</v>
       </c>
@@ -6736,8 +6932,11 @@
       <c r="AE66" s="13">
         <v>106</v>
       </c>
-    </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF66" s="13">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="67" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>43978</v>
       </c>
@@ -6831,8 +7030,11 @@
       <c r="AE67" s="13">
         <v>121</v>
       </c>
-    </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="13">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="68" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>43979</v>
       </c>
@@ -6926,8 +7128,11 @@
       <c r="AE68" s="13">
         <v>115</v>
       </c>
-    </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="13">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="69" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>43980</v>
       </c>
@@ -7021,8 +7226,11 @@
       <c r="AE69" s="13">
         <v>124</v>
       </c>
-    </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="13">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="70" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>43981</v>
       </c>
@@ -7116,8 +7324,11 @@
       <c r="AE70" s="13">
         <v>135</v>
       </c>
-    </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="13">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="71" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
         <v>43982</v>
       </c>
@@ -7211,8 +7422,11 @@
       <c r="AE71" s="13">
         <v>115</v>
       </c>
-    </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="13">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="72" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <v>43983</v>
       </c>
@@ -7306,8 +7520,11 @@
       <c r="AE72" s="13">
         <v>143</v>
       </c>
-    </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF72" s="13">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <v>43984</v>
       </c>
@@ -7401,8 +7618,11 @@
       <c r="AE73" s="13">
         <v>138</v>
       </c>
-    </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="13">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="74" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
         <v>43985</v>
       </c>
@@ -7496,8 +7716,11 @@
       <c r="AE74" s="13">
         <v>151</v>
       </c>
-    </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="13">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="75" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
         <v>43986</v>
       </c>
@@ -7591,8 +7814,11 @@
       <c r="AE75" s="13">
         <v>148</v>
       </c>
-    </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="13">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="76" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <v>43987</v>
       </c>
@@ -7686,8 +7912,11 @@
       <c r="AE76" s="13">
         <v>155</v>
       </c>
-    </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF76" s="13">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="77" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
         <v>43988</v>
       </c>
@@ -7779,8 +8008,11 @@
       <c r="AE77" s="13">
         <v>159</v>
       </c>
-    </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="13">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="78" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A78" s="5">
         <v>43989</v>
       </c>
@@ -7870,8 +8102,11 @@
       <c r="AE78" s="13">
         <v>148</v>
       </c>
-    </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF78" s="13">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="79" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A79" s="5">
         <v>43990</v>
       </c>
@@ -7959,8 +8194,11 @@
       <c r="AE79" s="13">
         <v>139</v>
       </c>
-    </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF79" s="13">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="80" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
         <v>43991</v>
       </c>
@@ -8046,8 +8284,11 @@
       <c r="AE80" s="13">
         <v>171</v>
       </c>
-    </row>
-    <row r="81" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF80" s="13">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="81" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
         <v>43992</v>
       </c>
@@ -8131,8 +8372,11 @@
       <c r="AE81" s="13">
         <v>158</v>
       </c>
-    </row>
-    <row r="82" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF81" s="13">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="82" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
         <v>43993</v>
       </c>
@@ -8214,8 +8458,11 @@
       <c r="AE82" s="13">
         <v>161</v>
       </c>
-    </row>
-    <row r="83" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="13">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="83" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A83" s="5">
         <v>43994</v>
       </c>
@@ -8295,8 +8542,11 @@
       <c r="AE83" s="13">
         <v>162</v>
       </c>
-    </row>
-    <row r="84" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="13">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="84" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
         <v>43995</v>
       </c>
@@ -8374,8 +8624,11 @@
       <c r="AE84" s="13">
         <v>173</v>
       </c>
-    </row>
-    <row r="85" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="13">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="85" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A85" s="5">
         <v>43996</v>
       </c>
@@ -8442,8 +8695,11 @@
       <c r="AE85" s="13">
         <v>151</v>
       </c>
-    </row>
-    <row r="86" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="13">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="86" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A86" s="5">
         <v>43997</v>
       </c>
@@ -8508,8 +8764,11 @@
       <c r="AE86" s="13">
         <v>147</v>
       </c>
-    </row>
-    <row r="87" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="13">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="87" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A87" s="5">
         <v>43998</v>
       </c>
@@ -8570,8 +8829,11 @@
       <c r="AE87" s="13">
         <v>167</v>
       </c>
-    </row>
-    <row r="88" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="13">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="88" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A88" s="5">
         <v>43999</v>
       </c>
@@ -8629,8 +8891,11 @@
       <c r="AE88" s="13">
         <v>167</v>
       </c>
-    </row>
-    <row r="89" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="13">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="89" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A89" s="5">
         <v>44000</v>
       </c>
@@ -8685,8 +8950,11 @@
       <c r="AE89" s="13">
         <v>126</v>
       </c>
-    </row>
-    <row r="90" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF89" s="13">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="90" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A90" s="5">
         <v>44001</v>
       </c>
@@ -8738,8 +9006,11 @@
       <c r="AE90" s="13">
         <v>140</v>
       </c>
-    </row>
-    <row r="91" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="13">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="91" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A91" s="5">
         <v>44002</v>
       </c>
@@ -8788,8 +9059,11 @@
       <c r="AE91" s="13">
         <v>134</v>
       </c>
-    </row>
-    <row r="92" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="13">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="92" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A92" s="5">
         <v>44003</v>
       </c>
@@ -8835,8 +9109,11 @@
       <c r="AE92" s="13">
         <v>125</v>
       </c>
-    </row>
-    <row r="93" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="13">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="93" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A93" s="5">
         <v>44004</v>
       </c>
@@ -8879,8 +9156,11 @@
       <c r="AE93" s="13">
         <v>122</v>
       </c>
-    </row>
-    <row r="94" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="13">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="94" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A94" s="5">
         <v>44005</v>
       </c>
@@ -8920,8 +9200,11 @@
       <c r="AE94" s="13">
         <v>120</v>
       </c>
-    </row>
-    <row r="95" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF94" s="13">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="95" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A95" s="5">
         <v>44006</v>
       </c>
@@ -8958,8 +9241,11 @@
       <c r="AE95" s="13">
         <v>121</v>
       </c>
-    </row>
-    <row r="96" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="13">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="96" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A96" s="5">
         <v>44007</v>
       </c>
@@ -8993,8 +9279,11 @@
       <c r="AE96" s="13">
         <v>119</v>
       </c>
-    </row>
-    <row r="97" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="13">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="97" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A97" s="5">
         <v>44008</v>
       </c>
@@ -9025,8 +9314,11 @@
       <c r="AE97" s="13">
         <v>113</v>
       </c>
-    </row>
-    <row r="98" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="13">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="98" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A98" s="5">
         <v>44009</v>
       </c>
@@ -9054,8 +9346,11 @@
       <c r="AE98" s="13">
         <v>107</v>
       </c>
-    </row>
-    <row r="99" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="13">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="99" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A99" s="5">
         <v>44010</v>
       </c>
@@ -9080,8 +9375,11 @@
       <c r="AE99" s="13">
         <v>120</v>
       </c>
-    </row>
-    <row r="100" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="13">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="100" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A100" s="5">
         <v>44011</v>
       </c>
@@ -9103,8 +9401,11 @@
       <c r="AE100" s="13">
         <v>106</v>
       </c>
-    </row>
-    <row r="101" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF100" s="13">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="101" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A101" s="5">
         <v>44012</v>
       </c>
@@ -9123,8 +9424,11 @@
       <c r="AE101" s="13">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A102" s="5">
         <v>44013</v>
       </c>
@@ -9140,8 +9444,11 @@
       <c r="AE102" s="13">
         <v>80</v>
       </c>
-    </row>
-    <row r="103" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF102" s="13">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="103" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A103" s="5">
         <v>44014</v>
       </c>
@@ -9154,8 +9461,11 @@
       <c r="AE103" s="13">
         <v>96</v>
       </c>
-    </row>
-    <row r="104" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF103" s="13">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="104" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A104" s="5">
         <v>44015</v>
       </c>
@@ -9165,13 +9475,27 @@
       <c r="AE104" s="13">
         <v>65</v>
       </c>
-    </row>
-    <row r="105" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF104" s="13">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="105" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A105" s="5">
         <v>44016</v>
       </c>
       <c r="AE105" s="13">
         <v>10</v>
+      </c>
+      <c r="AF105" s="13">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="106" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A106" s="5">
+        <v>44017</v>
+      </c>
+      <c r="AF106" s="13">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/input/NuevaDefDefunciones/Fallecidos Min Ciencias acumulado.xlsx
+++ b/input/NuevaDefDefunciones/Fallecidos Min Ciencias acumulado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/faviola/covid-19/REPORTEDIARIO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{142C696B-08C6-A64E-B4CD-2F0DE2721DB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB9F8D6-6E54-9144-8EB9-8E92166B4042}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="740" yWindow="760" windowWidth="28060" windowHeight="17240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -425,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF106"/>
+  <dimension ref="A1:AG107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="AF106" sqref="AF106"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="AH17" sqref="AH17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -437,7 +437,7 @@
     <col min="23" max="23" width="10.83203125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -514,7 +514,7 @@
         <v>4731</v>
       </c>
       <c r="T1" s="11">
-        <f t="shared" ref="T1:AF1" si="2">SUM(T3:T999)</f>
+        <f t="shared" ref="T1:AG1" si="2">SUM(T3:T999)</f>
         <v>4903</v>
       </c>
       <c r="U1" s="11">
@@ -565,8 +565,12 @@
         <f t="shared" si="2"/>
         <v>6434</v>
       </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG1" s="11">
+        <f t="shared" si="2"/>
+        <v>6573</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -663,8 +667,11 @@
       <c r="AF2" s="10">
         <v>44019</v>
       </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG2" s="10">
+        <v>44020</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>43910</v>
       </c>
@@ -761,8 +768,11 @@
       <c r="AF3" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG3" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>43915</v>
       </c>
@@ -859,8 +869,11 @@
       <c r="AF4" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG4" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>43916</v>
       </c>
@@ -957,8 +970,11 @@
       <c r="AF5" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG5" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>43917</v>
       </c>
@@ -1055,8 +1071,11 @@
       <c r="AF6" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG6" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>43918</v>
       </c>
@@ -1153,8 +1172,11 @@
       <c r="AF7" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG7" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>43919</v>
       </c>
@@ -1251,8 +1273,11 @@
       <c r="AF8" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG8" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>43920</v>
       </c>
@@ -1349,8 +1374,11 @@
       <c r="AF9" s="13">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG9" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>43921</v>
       </c>
@@ -1447,8 +1475,11 @@
       <c r="AF10" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG10" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>43922</v>
       </c>
@@ -1545,8 +1576,11 @@
       <c r="AF11" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG11" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>43923</v>
       </c>
@@ -1643,8 +1677,11 @@
       <c r="AF12" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG12" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>43924</v>
       </c>
@@ -1741,8 +1778,11 @@
       <c r="AF13" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG13" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>43925</v>
       </c>
@@ -1839,8 +1879,11 @@
       <c r="AF14" s="13">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG14" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>43926</v>
       </c>
@@ -1937,8 +1980,11 @@
       <c r="AF15" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG15" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>43927</v>
       </c>
@@ -2035,8 +2081,11 @@
       <c r="AF16" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG16" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>43928</v>
       </c>
@@ -2133,8 +2182,11 @@
       <c r="AF17" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG17" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>43929</v>
       </c>
@@ -2231,8 +2283,11 @@
       <c r="AF18" s="13">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG18" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>43930</v>
       </c>
@@ -2329,8 +2384,11 @@
       <c r="AF19" s="13">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG19" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>43931</v>
       </c>
@@ -2427,8 +2485,11 @@
       <c r="AF20" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG20" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>43932</v>
       </c>
@@ -2525,8 +2586,11 @@
       <c r="AF21" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG21" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>43933</v>
       </c>
@@ -2623,8 +2687,11 @@
       <c r="AF22" s="13">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG22" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>43934</v>
       </c>
@@ -2721,8 +2788,11 @@
       <c r="AF23" s="13">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG23" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>43935</v>
       </c>
@@ -2819,8 +2889,11 @@
       <c r="AF24" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG24" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>43936</v>
       </c>
@@ -2917,8 +2990,11 @@
       <c r="AF25" s="13">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG25" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>43937</v>
       </c>
@@ -3015,8 +3091,11 @@
       <c r="AF26" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG26" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>43938</v>
       </c>
@@ -3113,8 +3192,11 @@
       <c r="AF27" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG27" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>43939</v>
       </c>
@@ -3211,8 +3293,11 @@
       <c r="AF28" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG28" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>43940</v>
       </c>
@@ -3309,8 +3394,11 @@
       <c r="AF29" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG29" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>43941</v>
       </c>
@@ -3407,8 +3495,11 @@
       <c r="AF30" s="13">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG30" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>43942</v>
       </c>
@@ -3505,8 +3596,11 @@
       <c r="AF31" s="13">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG31" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>43943</v>
       </c>
@@ -3603,8 +3697,11 @@
       <c r="AF32" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG32" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>43944</v>
       </c>
@@ -3701,8 +3798,11 @@
       <c r="AF33" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG33" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>43945</v>
       </c>
@@ -3799,8 +3899,11 @@
       <c r="AF34" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG34" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>43946</v>
       </c>
@@ -3897,8 +4000,11 @@
       <c r="AF35" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG35" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>43947</v>
       </c>
@@ -3995,8 +4101,11 @@
       <c r="AF36" s="13">
         <v>9</v>
       </c>
-    </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG36" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>43948</v>
       </c>
@@ -4093,8 +4202,11 @@
       <c r="AF37" s="13">
         <v>12</v>
       </c>
-    </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG37" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>43949</v>
       </c>
@@ -4191,8 +4303,11 @@
       <c r="AF38" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG38" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>43950</v>
       </c>
@@ -4289,8 +4404,11 @@
       <c r="AF39" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG39" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>43951</v>
       </c>
@@ -4387,8 +4505,11 @@
       <c r="AF40" s="13">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG40" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>43952</v>
       </c>
@@ -4485,8 +4606,11 @@
       <c r="AF41" s="13">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG41" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>43953</v>
       </c>
@@ -4583,8 +4707,11 @@
       <c r="AF42" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG42" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>43954</v>
       </c>
@@ -4681,8 +4808,11 @@
       <c r="AF43" s="13">
         <v>19</v>
       </c>
-    </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG43" s="13">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>43955</v>
       </c>
@@ -4779,8 +4909,11 @@
       <c r="AF44" s="13">
         <v>13</v>
       </c>
-    </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG44" s="13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>43956</v>
       </c>
@@ -4877,8 +5010,11 @@
       <c r="AF45" s="13">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG45" s="13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>43957</v>
       </c>
@@ -4975,8 +5111,11 @@
       <c r="AF46" s="13">
         <v>15</v>
       </c>
-    </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG46" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>43958</v>
       </c>
@@ -5073,8 +5212,11 @@
       <c r="AF47" s="13">
         <v>30</v>
       </c>
-    </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG47" s="13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>43959</v>
       </c>
@@ -5171,8 +5313,11 @@
       <c r="AF48" s="13">
         <v>15</v>
       </c>
-    </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG48" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>43960</v>
       </c>
@@ -5269,8 +5414,11 @@
       <c r="AF49" s="13">
         <v>23</v>
       </c>
-    </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG49" s="13">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>43961</v>
       </c>
@@ -5367,8 +5515,11 @@
       <c r="AF50" s="13">
         <v>31</v>
       </c>
-    </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG50" s="13">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>43962</v>
       </c>
@@ -5465,8 +5616,11 @@
       <c r="AF51" s="13">
         <v>20</v>
       </c>
-    </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG51" s="13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>43963</v>
       </c>
@@ -5563,8 +5717,11 @@
       <c r="AF52" s="13">
         <v>26</v>
       </c>
-    </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG52" s="13">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>43964</v>
       </c>
@@ -5661,8 +5818,11 @@
       <c r="AF53" s="13">
         <v>38</v>
       </c>
-    </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG53" s="13">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>43965</v>
       </c>
@@ -5759,8 +5919,11 @@
       <c r="AF54" s="13">
         <v>35</v>
       </c>
-    </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG54" s="13">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <v>43966</v>
       </c>
@@ -5857,8 +6020,11 @@
       <c r="AF55" s="13">
         <v>33</v>
       </c>
-    </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG55" s="13">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>43967</v>
       </c>
@@ -5955,8 +6121,11 @@
       <c r="AF56" s="13">
         <v>49</v>
       </c>
-    </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG56" s="13">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>43968</v>
       </c>
@@ -6053,8 +6222,11 @@
       <c r="AF57" s="13">
         <v>46</v>
       </c>
-    </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG57" s="13">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>43969</v>
       </c>
@@ -6151,8 +6323,11 @@
       <c r="AF58" s="13">
         <v>62</v>
       </c>
-    </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG58" s="13">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>43970</v>
       </c>
@@ -6249,8 +6424,11 @@
       <c r="AF59" s="13">
         <v>64</v>
       </c>
-    </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG59" s="13">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>43971</v>
       </c>
@@ -6347,8 +6525,11 @@
       <c r="AF60" s="13">
         <v>65</v>
       </c>
-    </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG60" s="13">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>43972</v>
       </c>
@@ -6445,8 +6626,11 @@
       <c r="AF61" s="13">
         <v>63</v>
       </c>
-    </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG61" s="13">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>43973</v>
       </c>
@@ -6543,8 +6727,11 @@
       <c r="AF62" s="13">
         <v>72</v>
       </c>
-    </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG62" s="13">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>43974</v>
       </c>
@@ -6641,8 +6828,11 @@
       <c r="AF63" s="13">
         <v>86</v>
       </c>
-    </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG63" s="13">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>43975</v>
       </c>
@@ -6739,8 +6929,11 @@
       <c r="AF64" s="13">
         <v>97</v>
       </c>
-    </row>
-    <row r="65" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG64" s="13">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>43976</v>
       </c>
@@ -6837,8 +7030,11 @@
       <c r="AF65" s="13">
         <v>86</v>
       </c>
-    </row>
-    <row r="66" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG65" s="13">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="66" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>43977</v>
       </c>
@@ -6935,8 +7131,11 @@
       <c r="AF66" s="13">
         <v>106</v>
       </c>
-    </row>
-    <row r="67" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG66" s="13">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="67" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>43978</v>
       </c>
@@ -7033,8 +7232,11 @@
       <c r="AF67" s="13">
         <v>121</v>
       </c>
-    </row>
-    <row r="68" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG67" s="13">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="68" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>43979</v>
       </c>
@@ -7131,8 +7333,11 @@
       <c r="AF68" s="13">
         <v>115</v>
       </c>
-    </row>
-    <row r="69" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG68" s="13">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="69" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>43980</v>
       </c>
@@ -7229,8 +7434,11 @@
       <c r="AF69" s="13">
         <v>124</v>
       </c>
-    </row>
-    <row r="70" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG69" s="13">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="70" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>43981</v>
       </c>
@@ -7327,8 +7535,11 @@
       <c r="AF70" s="13">
         <v>135</v>
       </c>
-    </row>
-    <row r="71" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG70" s="13">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="71" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
         <v>43982</v>
       </c>
@@ -7425,8 +7636,11 @@
       <c r="AF71" s="13">
         <v>115</v>
       </c>
-    </row>
-    <row r="72" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG71" s="13">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="72" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <v>43983</v>
       </c>
@@ -7523,8 +7737,11 @@
       <c r="AF72" s="13">
         <v>143</v>
       </c>
-    </row>
-    <row r="73" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG72" s="13">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <v>43984</v>
       </c>
@@ -7621,8 +7838,11 @@
       <c r="AF73" s="13">
         <v>138</v>
       </c>
-    </row>
-    <row r="74" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG73" s="13">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="74" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
         <v>43985</v>
       </c>
@@ -7719,8 +7939,11 @@
       <c r="AF74" s="13">
         <v>151</v>
       </c>
-    </row>
-    <row r="75" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG74" s="13">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="75" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
         <v>43986</v>
       </c>
@@ -7817,8 +8040,11 @@
       <c r="AF75" s="13">
         <v>148</v>
       </c>
-    </row>
-    <row r="76" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG75" s="13">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="76" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <v>43987</v>
       </c>
@@ -7915,8 +8141,11 @@
       <c r="AF76" s="13">
         <v>155</v>
       </c>
-    </row>
-    <row r="77" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG76" s="13">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="77" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
         <v>43988</v>
       </c>
@@ -8011,8 +8240,11 @@
       <c r="AF77" s="13">
         <v>159</v>
       </c>
-    </row>
-    <row r="78" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG77" s="13">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="78" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A78" s="5">
         <v>43989</v>
       </c>
@@ -8105,8 +8337,11 @@
       <c r="AF78" s="13">
         <v>148</v>
       </c>
-    </row>
-    <row r="79" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG78" s="13">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="79" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A79" s="5">
         <v>43990</v>
       </c>
@@ -8197,8 +8432,11 @@
       <c r="AF79" s="13">
         <v>139</v>
       </c>
-    </row>
-    <row r="80" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG79" s="13">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="80" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
         <v>43991</v>
       </c>
@@ -8287,8 +8525,11 @@
       <c r="AF80" s="13">
         <v>171</v>
       </c>
-    </row>
-    <row r="81" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG80" s="13">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="81" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
         <v>43992</v>
       </c>
@@ -8375,8 +8616,11 @@
       <c r="AF81" s="13">
         <v>158</v>
       </c>
-    </row>
-    <row r="82" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG81" s="13">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="82" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
         <v>43993</v>
       </c>
@@ -8461,8 +8705,11 @@
       <c r="AF82" s="13">
         <v>161</v>
       </c>
-    </row>
-    <row r="83" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG82" s="13">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="83" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A83" s="5">
         <v>43994</v>
       </c>
@@ -8545,8 +8792,11 @@
       <c r="AF83" s="13">
         <v>162</v>
       </c>
-    </row>
-    <row r="84" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG83" s="13">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="84" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
         <v>43995</v>
       </c>
@@ -8627,8 +8877,11 @@
       <c r="AF84" s="13">
         <v>173</v>
       </c>
-    </row>
-    <row r="85" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG84" s="13">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="85" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A85" s="5">
         <v>43996</v>
       </c>
@@ -8698,8 +8951,11 @@
       <c r="AF85" s="13">
         <v>151</v>
       </c>
-    </row>
-    <row r="86" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG85" s="13">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="86" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A86" s="5">
         <v>43997</v>
       </c>
@@ -8767,8 +9023,11 @@
       <c r="AF86" s="13">
         <v>147</v>
       </c>
-    </row>
-    <row r="87" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG86" s="13">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="87" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A87" s="5">
         <v>43998</v>
       </c>
@@ -8832,8 +9091,11 @@
       <c r="AF87" s="13">
         <v>167</v>
       </c>
-    </row>
-    <row r="88" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG87" s="13">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="88" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A88" s="5">
         <v>43999</v>
       </c>
@@ -8894,8 +9156,11 @@
       <c r="AF88" s="13">
         <v>167</v>
       </c>
-    </row>
-    <row r="89" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG88" s="13">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="89" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A89" s="5">
         <v>44000</v>
       </c>
@@ -8953,8 +9218,11 @@
       <c r="AF89" s="13">
         <v>126</v>
       </c>
-    </row>
-    <row r="90" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG89" s="13">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="90" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A90" s="5">
         <v>44001</v>
       </c>
@@ -9009,8 +9277,11 @@
       <c r="AF90" s="13">
         <v>140</v>
       </c>
-    </row>
-    <row r="91" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG90" s="13">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="91" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A91" s="5">
         <v>44002</v>
       </c>
@@ -9062,8 +9333,11 @@
       <c r="AF91" s="13">
         <v>134</v>
       </c>
-    </row>
-    <row r="92" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG91" s="13">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="92" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A92" s="5">
         <v>44003</v>
       </c>
@@ -9112,8 +9386,11 @@
       <c r="AF92" s="13">
         <v>125</v>
       </c>
-    </row>
-    <row r="93" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG92" s="13">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="93" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A93" s="5">
         <v>44004</v>
       </c>
@@ -9159,8 +9436,11 @@
       <c r="AF93" s="13">
         <v>122</v>
       </c>
-    </row>
-    <row r="94" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG93" s="13">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="94" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A94" s="5">
         <v>44005</v>
       </c>
@@ -9203,8 +9483,11 @@
       <c r="AF94" s="13">
         <v>120</v>
       </c>
-    </row>
-    <row r="95" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG94" s="13">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="95" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A95" s="5">
         <v>44006</v>
       </c>
@@ -9244,8 +9527,11 @@
       <c r="AF95" s="13">
         <v>121</v>
       </c>
-    </row>
-    <row r="96" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG95" s="13">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="96" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A96" s="5">
         <v>44007</v>
       </c>
@@ -9282,8 +9568,11 @@
       <c r="AF96" s="13">
         <v>119</v>
       </c>
-    </row>
-    <row r="97" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG96" s="13">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A97" s="5">
         <v>44008</v>
       </c>
@@ -9317,8 +9606,11 @@
       <c r="AF97" s="13">
         <v>113</v>
       </c>
-    </row>
-    <row r="98" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG97" s="13">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A98" s="5">
         <v>44009</v>
       </c>
@@ -9349,8 +9641,11 @@
       <c r="AF98" s="13">
         <v>107</v>
       </c>
-    </row>
-    <row r="99" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG98" s="13">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A99" s="5">
         <v>44010</v>
       </c>
@@ -9378,8 +9673,11 @@
       <c r="AF99" s="13">
         <v>120</v>
       </c>
-    </row>
-    <row r="100" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG99" s="13">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A100" s="5">
         <v>44011</v>
       </c>
@@ -9404,8 +9702,11 @@
       <c r="AF100" s="13">
         <v>106</v>
       </c>
-    </row>
-    <row r="101" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG100" s="13">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A101" s="5">
         <v>44012</v>
       </c>
@@ -9427,8 +9728,11 @@
       <c r="AF101" s="13">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG101" s="13">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A102" s="5">
         <v>44013</v>
       </c>
@@ -9447,8 +9751,11 @@
       <c r="AF102" s="13">
         <v>80</v>
       </c>
-    </row>
-    <row r="103" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG102" s="13">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A103" s="5">
         <v>44014</v>
       </c>
@@ -9464,8 +9771,11 @@
       <c r="AF103" s="13">
         <v>98</v>
       </c>
-    </row>
-    <row r="104" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG103" s="13">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A104" s="5">
         <v>44015</v>
       </c>
@@ -9478,8 +9788,11 @@
       <c r="AF104" s="13">
         <v>74</v>
       </c>
-    </row>
-    <row r="105" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG104" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A105" s="5">
         <v>44016</v>
       </c>
@@ -9489,13 +9802,27 @@
       <c r="AF105" s="13">
         <v>42</v>
       </c>
-    </row>
-    <row r="106" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG105" s="13">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A106" s="5">
         <v>44017</v>
       </c>
       <c r="AF106" s="13">
         <v>7</v>
+      </c>
+      <c r="AG106" s="13">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A107" s="5">
+        <v>44018</v>
+      </c>
+      <c r="AG107" s="13">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/input/NuevaDefDefunciones/Fallecidos Min Ciencias acumulado.xlsx
+++ b/input/NuevaDefDefunciones/Fallecidos Min Ciencias acumulado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/faviola/covid-19/REPORTEDIARIO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB9F8D6-6E54-9144-8EB9-8E92166B4042}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA098B1B-9D29-2F47-BE76-74591D3CD2E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="740" yWindow="760" windowWidth="28060" windowHeight="17240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -425,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG107"/>
+  <dimension ref="A1:AH108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="AH17" sqref="AH17"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="AH108" sqref="AH108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -437,7 +437,7 @@
     <col min="23" max="23" width="10.83203125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -514,7 +514,7 @@
         <v>4731</v>
       </c>
       <c r="T1" s="11">
-        <f t="shared" ref="T1:AG1" si="2">SUM(T3:T999)</f>
+        <f t="shared" ref="T1:AH1" si="2">SUM(T3:T999)</f>
         <v>4903</v>
       </c>
       <c r="U1" s="11">
@@ -569,8 +569,12 @@
         <f t="shared" si="2"/>
         <v>6573</v>
       </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH1" s="11">
+        <f t="shared" si="2"/>
+        <v>6682</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -670,8 +674,11 @@
       <c r="AG2" s="10">
         <v>44020</v>
       </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH2" s="10">
+        <v>44021</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>43910</v>
       </c>
@@ -771,8 +778,11 @@
       <c r="AG3" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH3" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>43915</v>
       </c>
@@ -872,8 +882,11 @@
       <c r="AG4" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH4" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>43916</v>
       </c>
@@ -973,8 +986,11 @@
       <c r="AG5" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH5" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>43917</v>
       </c>
@@ -1074,8 +1090,11 @@
       <c r="AG6" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH6" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>43918</v>
       </c>
@@ -1175,8 +1194,11 @@
       <c r="AG7" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH7" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>43919</v>
       </c>
@@ -1276,8 +1298,11 @@
       <c r="AG8" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH8" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>43920</v>
       </c>
@@ -1377,8 +1402,11 @@
       <c r="AG9" s="13">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH9" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>43921</v>
       </c>
@@ -1478,8 +1506,11 @@
       <c r="AG10" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH10" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>43922</v>
       </c>
@@ -1579,8 +1610,11 @@
       <c r="AG11" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH11" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>43923</v>
       </c>
@@ -1680,8 +1714,11 @@
       <c r="AG12" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH12" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>43924</v>
       </c>
@@ -1781,8 +1818,11 @@
       <c r="AG13" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH13" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>43925</v>
       </c>
@@ -1882,8 +1922,11 @@
       <c r="AG14" s="13">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH14" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>43926</v>
       </c>
@@ -1983,8 +2026,11 @@
       <c r="AG15" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH15" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>43927</v>
       </c>
@@ -2084,8 +2130,11 @@
       <c r="AG16" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH16" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>43928</v>
       </c>
@@ -2185,8 +2234,11 @@
       <c r="AG17" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH17" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>43929</v>
       </c>
@@ -2286,8 +2338,11 @@
       <c r="AG18" s="13">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH18" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>43930</v>
       </c>
@@ -2387,8 +2442,11 @@
       <c r="AG19" s="13">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH19" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>43931</v>
       </c>
@@ -2488,8 +2546,11 @@
       <c r="AG20" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH20" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>43932</v>
       </c>
@@ -2589,8 +2650,11 @@
       <c r="AG21" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH21" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>43933</v>
       </c>
@@ -2690,8 +2754,11 @@
       <c r="AG22" s="13">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH22" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>43934</v>
       </c>
@@ -2791,8 +2858,11 @@
       <c r="AG23" s="13">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH23" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>43935</v>
       </c>
@@ -2892,8 +2962,11 @@
       <c r="AG24" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH24" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>43936</v>
       </c>
@@ -2993,8 +3066,11 @@
       <c r="AG25" s="13">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH25" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>43937</v>
       </c>
@@ -3094,8 +3170,11 @@
       <c r="AG26" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH26" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>43938</v>
       </c>
@@ -3195,8 +3274,11 @@
       <c r="AG27" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH27" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>43939</v>
       </c>
@@ -3296,8 +3378,11 @@
       <c r="AG28" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH28" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>43940</v>
       </c>
@@ -3397,8 +3482,11 @@
       <c r="AG29" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH29" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>43941</v>
       </c>
@@ -3498,8 +3586,11 @@
       <c r="AG30" s="13">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH30" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>43942</v>
       </c>
@@ -3599,8 +3690,11 @@
       <c r="AG31" s="13">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH31" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>43943</v>
       </c>
@@ -3700,8 +3794,11 @@
       <c r="AG32" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH32" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>43944</v>
       </c>
@@ -3801,8 +3898,11 @@
       <c r="AG33" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH33" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>43945</v>
       </c>
@@ -3902,8 +4002,11 @@
       <c r="AG34" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH34" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>43946</v>
       </c>
@@ -4003,8 +4106,11 @@
       <c r="AG35" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH35" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>43947</v>
       </c>
@@ -4104,8 +4210,11 @@
       <c r="AG36" s="13">
         <v>9</v>
       </c>
-    </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH36" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>43948</v>
       </c>
@@ -4205,8 +4314,11 @@
       <c r="AG37" s="13">
         <v>12</v>
       </c>
-    </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH37" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>43949</v>
       </c>
@@ -4306,8 +4418,11 @@
       <c r="AG38" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH38" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>43950</v>
       </c>
@@ -4407,8 +4522,11 @@
       <c r="AG39" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH39" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>43951</v>
       </c>
@@ -4508,8 +4626,11 @@
       <c r="AG40" s="13">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH40" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>43952</v>
       </c>
@@ -4609,8 +4730,11 @@
       <c r="AG41" s="13">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH41" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>43953</v>
       </c>
@@ -4710,8 +4834,11 @@
       <c r="AG42" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH42" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>43954</v>
       </c>
@@ -4811,8 +4938,11 @@
       <c r="AG43" s="13">
         <v>19</v>
       </c>
-    </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH43" s="13">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>43955</v>
       </c>
@@ -4912,8 +5042,11 @@
       <c r="AG44" s="13">
         <v>13</v>
       </c>
-    </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH44" s="13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>43956</v>
       </c>
@@ -5013,8 +5146,11 @@
       <c r="AG45" s="13">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH45" s="13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>43957</v>
       </c>
@@ -5114,8 +5250,11 @@
       <c r="AG46" s="13">
         <v>15</v>
       </c>
-    </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH46" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>43958</v>
       </c>
@@ -5215,8 +5354,11 @@
       <c r="AG47" s="13">
         <v>30</v>
       </c>
-    </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH47" s="13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>43959</v>
       </c>
@@ -5316,8 +5458,11 @@
       <c r="AG48" s="13">
         <v>15</v>
       </c>
-    </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH48" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>43960</v>
       </c>
@@ -5417,8 +5562,11 @@
       <c r="AG49" s="13">
         <v>23</v>
       </c>
-    </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH49" s="13">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>43961</v>
       </c>
@@ -5518,8 +5666,11 @@
       <c r="AG50" s="13">
         <v>31</v>
       </c>
-    </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH50" s="13">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>43962</v>
       </c>
@@ -5619,8 +5770,11 @@
       <c r="AG51" s="13">
         <v>20</v>
       </c>
-    </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH51" s="13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>43963</v>
       </c>
@@ -5720,8 +5874,11 @@
       <c r="AG52" s="13">
         <v>26</v>
       </c>
-    </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH52" s="13">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>43964</v>
       </c>
@@ -5821,8 +5978,11 @@
       <c r="AG53" s="13">
         <v>38</v>
       </c>
-    </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH53" s="13">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>43965</v>
       </c>
@@ -5922,8 +6082,11 @@
       <c r="AG54" s="13">
         <v>35</v>
       </c>
-    </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH54" s="13">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <v>43966</v>
       </c>
@@ -6023,8 +6186,11 @@
       <c r="AG55" s="13">
         <v>33</v>
       </c>
-    </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH55" s="13">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>43967</v>
       </c>
@@ -6124,8 +6290,11 @@
       <c r="AG56" s="13">
         <v>49</v>
       </c>
-    </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH56" s="13">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>43968</v>
       </c>
@@ -6225,8 +6394,11 @@
       <c r="AG57" s="13">
         <v>46</v>
       </c>
-    </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH57" s="13">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>43969</v>
       </c>
@@ -6326,8 +6498,11 @@
       <c r="AG58" s="13">
         <v>62</v>
       </c>
-    </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH58" s="13">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>43970</v>
       </c>
@@ -6427,8 +6602,11 @@
       <c r="AG59" s="13">
         <v>64</v>
       </c>
-    </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH59" s="13">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>43971</v>
       </c>
@@ -6528,8 +6706,11 @@
       <c r="AG60" s="13">
         <v>66</v>
       </c>
-    </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH60" s="13">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>43972</v>
       </c>
@@ -6629,8 +6810,11 @@
       <c r="AG61" s="13">
         <v>63</v>
       </c>
-    </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH61" s="13">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>43973</v>
       </c>
@@ -6730,8 +6914,11 @@
       <c r="AG62" s="13">
         <v>72</v>
       </c>
-    </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH62" s="13">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>43974</v>
       </c>
@@ -6831,8 +7018,11 @@
       <c r="AG63" s="13">
         <v>86</v>
       </c>
-    </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH63" s="13">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>43975</v>
       </c>
@@ -6932,8 +7122,11 @@
       <c r="AG64" s="13">
         <v>97</v>
       </c>
-    </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH64" s="13">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>43976</v>
       </c>
@@ -7033,8 +7226,11 @@
       <c r="AG65" s="13">
         <v>87</v>
       </c>
-    </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH65" s="13">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="66" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>43977</v>
       </c>
@@ -7134,8 +7330,11 @@
       <c r="AG66" s="13">
         <v>106</v>
       </c>
-    </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH66" s="13">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="67" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>43978</v>
       </c>
@@ -7235,8 +7434,11 @@
       <c r="AG67" s="13">
         <v>121</v>
       </c>
-    </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH67" s="13">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="68" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>43979</v>
       </c>
@@ -7336,8 +7538,11 @@
       <c r="AG68" s="13">
         <v>115</v>
       </c>
-    </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH68" s="13">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="69" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>43980</v>
       </c>
@@ -7437,8 +7642,11 @@
       <c r="AG69" s="13">
         <v>124</v>
       </c>
-    </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH69" s="13">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="70" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>43981</v>
       </c>
@@ -7538,8 +7746,11 @@
       <c r="AG70" s="13">
         <v>135</v>
       </c>
-    </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH70" s="13">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="71" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
         <v>43982</v>
       </c>
@@ -7639,8 +7850,11 @@
       <c r="AG71" s="13">
         <v>115</v>
       </c>
-    </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH71" s="13">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="72" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <v>43983</v>
       </c>
@@ -7740,8 +7954,11 @@
       <c r="AG72" s="13">
         <v>143</v>
       </c>
-    </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH72" s="13">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <v>43984</v>
       </c>
@@ -7841,8 +8058,11 @@
       <c r="AG73" s="13">
         <v>138</v>
       </c>
-    </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH73" s="13">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="74" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
         <v>43985</v>
       </c>
@@ -7942,8 +8162,11 @@
       <c r="AG74" s="13">
         <v>151</v>
       </c>
-    </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH74" s="13">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="75" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
         <v>43986</v>
       </c>
@@ -8043,8 +8266,11 @@
       <c r="AG75" s="13">
         <v>148</v>
       </c>
-    </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH75" s="13">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="76" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <v>43987</v>
       </c>
@@ -8144,8 +8370,11 @@
       <c r="AG76" s="13">
         <v>155</v>
       </c>
-    </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH76" s="13">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="77" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
         <v>43988</v>
       </c>
@@ -8243,8 +8472,11 @@
       <c r="AG77" s="13">
         <v>160</v>
       </c>
-    </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH77" s="13">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="78" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A78" s="5">
         <v>43989</v>
       </c>
@@ -8340,8 +8572,11 @@
       <c r="AG78" s="13">
         <v>148</v>
       </c>
-    </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH78" s="13">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="79" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A79" s="5">
         <v>43990</v>
       </c>
@@ -8435,8 +8670,11 @@
       <c r="AG79" s="13">
         <v>139</v>
       </c>
-    </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH79" s="13">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="80" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
         <v>43991</v>
       </c>
@@ -8528,8 +8766,11 @@
       <c r="AG80" s="13">
         <v>171</v>
       </c>
-    </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH80" s="13">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="81" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
         <v>43992</v>
       </c>
@@ -8619,8 +8860,11 @@
       <c r="AG81" s="13">
         <v>158</v>
       </c>
-    </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH81" s="13">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="82" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
         <v>43993</v>
       </c>
@@ -8708,8 +8952,11 @@
       <c r="AG82" s="13">
         <v>161</v>
       </c>
-    </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH82" s="13">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="83" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A83" s="5">
         <v>43994</v>
       </c>
@@ -8795,8 +9042,11 @@
       <c r="AG83" s="13">
         <v>162</v>
       </c>
-    </row>
-    <row r="84" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH83" s="13">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="84" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
         <v>43995</v>
       </c>
@@ -8880,8 +9130,11 @@
       <c r="AG84" s="13">
         <v>173</v>
       </c>
-    </row>
-    <row r="85" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH84" s="13">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="85" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A85" s="5">
         <v>43996</v>
       </c>
@@ -8954,8 +9207,11 @@
       <c r="AG85" s="13">
         <v>151</v>
       </c>
-    </row>
-    <row r="86" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH85" s="13">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="86" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A86" s="5">
         <v>43997</v>
       </c>
@@ -9026,8 +9282,11 @@
       <c r="AG86" s="13">
         <v>147</v>
       </c>
-    </row>
-    <row r="87" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH86" s="13">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="87" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A87" s="5">
         <v>43998</v>
       </c>
@@ -9094,8 +9353,11 @@
       <c r="AG87" s="13">
         <v>167</v>
       </c>
-    </row>
-    <row r="88" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH87" s="13">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="88" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A88" s="5">
         <v>43999</v>
       </c>
@@ -9159,8 +9421,11 @@
       <c r="AG88" s="13">
         <v>169</v>
       </c>
-    </row>
-    <row r="89" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH88" s="13">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="89" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A89" s="5">
         <v>44000</v>
       </c>
@@ -9221,8 +9486,11 @@
       <c r="AG89" s="13">
         <v>126</v>
       </c>
-    </row>
-    <row r="90" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH89" s="13">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="90" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A90" s="5">
         <v>44001</v>
       </c>
@@ -9280,8 +9548,11 @@
       <c r="AG90" s="13">
         <v>141</v>
       </c>
-    </row>
-    <row r="91" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH90" s="13">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="91" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A91" s="5">
         <v>44002</v>
       </c>
@@ -9336,8 +9607,11 @@
       <c r="AG91" s="13">
         <v>134</v>
       </c>
-    </row>
-    <row r="92" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH91" s="13">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="92" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A92" s="5">
         <v>44003</v>
       </c>
@@ -9389,8 +9663,11 @@
       <c r="AG92" s="13">
         <v>125</v>
       </c>
-    </row>
-    <row r="93" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH92" s="13">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="93" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A93" s="5">
         <v>44004</v>
       </c>
@@ -9439,8 +9716,11 @@
       <c r="AG93" s="13">
         <v>123</v>
       </c>
-    </row>
-    <row r="94" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH93" s="13">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="94" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A94" s="5">
         <v>44005</v>
       </c>
@@ -9486,8 +9766,11 @@
       <c r="AG94" s="13">
         <v>120</v>
       </c>
-    </row>
-    <row r="95" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH94" s="13">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="95" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A95" s="5">
         <v>44006</v>
       </c>
@@ -9530,8 +9813,11 @@
       <c r="AG95" s="13">
         <v>121</v>
       </c>
-    </row>
-    <row r="96" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH95" s="13">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="96" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A96" s="5">
         <v>44007</v>
       </c>
@@ -9571,8 +9857,11 @@
       <c r="AG96" s="13">
         <v>121</v>
       </c>
-    </row>
-    <row r="97" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH96" s="13">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="97" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A97" s="5">
         <v>44008</v>
       </c>
@@ -9609,8 +9898,11 @@
       <c r="AG97" s="13">
         <v>115</v>
       </c>
-    </row>
-    <row r="98" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH97" s="13">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="98" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A98" s="5">
         <v>44009</v>
       </c>
@@ -9644,8 +9936,11 @@
       <c r="AG98" s="13">
         <v>108</v>
       </c>
-    </row>
-    <row r="99" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH98" s="13">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="99" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A99" s="5">
         <v>44010</v>
       </c>
@@ -9676,8 +9971,11 @@
       <c r="AG99" s="13">
         <v>120</v>
       </c>
-    </row>
-    <row r="100" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH99" s="13">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="100" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A100" s="5">
         <v>44011</v>
       </c>
@@ -9705,8 +10003,11 @@
       <c r="AG100" s="13">
         <v>107</v>
       </c>
-    </row>
-    <row r="101" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH100" s="13">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="101" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A101" s="5">
         <v>44012</v>
       </c>
@@ -9731,8 +10032,11 @@
       <c r="AG101" s="13">
         <v>105</v>
       </c>
-    </row>
-    <row r="102" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH101" s="13">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="102" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A102" s="5">
         <v>44013</v>
       </c>
@@ -9754,8 +10058,11 @@
       <c r="AG102" s="13">
         <v>87</v>
       </c>
-    </row>
-    <row r="103" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH102" s="13">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="103" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A103" s="5">
         <v>44014</v>
       </c>
@@ -9774,8 +10081,11 @@
       <c r="AG103" s="13">
         <v>102</v>
       </c>
-    </row>
-    <row r="104" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH103" s="13">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="104" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A104" s="5">
         <v>44015</v>
       </c>
@@ -9791,8 +10101,11 @@
       <c r="AG104" s="13">
         <v>100</v>
       </c>
-    </row>
-    <row r="105" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH104" s="13">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="105" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A105" s="5">
         <v>44016</v>
       </c>
@@ -9805,8 +10118,11 @@
       <c r="AG105" s="13">
         <v>70</v>
       </c>
-    </row>
-    <row r="106" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH105" s="13">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="106" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A106" s="5">
         <v>44017</v>
       </c>
@@ -9816,13 +10132,27 @@
       <c r="AG106" s="13">
         <v>52</v>
       </c>
-    </row>
-    <row r="107" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH106" s="13">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="107" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A107" s="5">
         <v>44018</v>
       </c>
       <c r="AG107" s="13">
         <v>11</v>
+      </c>
+      <c r="AH107" s="13">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="108" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A108" s="5">
+        <v>44019</v>
+      </c>
+      <c r="AH108" s="13">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/input/NuevaDefDefunciones/Fallecidos Min Ciencias acumulado.xlsx
+++ b/input/NuevaDefDefunciones/Fallecidos Min Ciencias acumulado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/faviola/covid-19/REPORTEDIARIO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA098B1B-9D29-2F47-BE76-74591D3CD2E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47785E38-9302-3046-84AA-255FF3B54766}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="740" yWindow="760" windowWidth="28060" windowHeight="17240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -425,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH108"/>
+  <dimension ref="A1:AI109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="AH108" sqref="AH108"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="AI13" sqref="AI13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -437,7 +437,7 @@
     <col min="23" max="23" width="10.83203125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -514,7 +514,7 @@
         <v>4731</v>
       </c>
       <c r="T1" s="11">
-        <f t="shared" ref="T1:AH1" si="2">SUM(T3:T999)</f>
+        <f t="shared" ref="T1:AI1" si="2">SUM(T3:T999)</f>
         <v>4903</v>
       </c>
       <c r="U1" s="11">
@@ -573,8 +573,12 @@
         <f t="shared" si="2"/>
         <v>6682</v>
       </c>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI1" s="11">
+        <f t="shared" si="2"/>
+        <v>6781</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -677,8 +681,11 @@
       <c r="AH2" s="10">
         <v>44021</v>
       </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI2" s="10">
+        <v>44022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>43910</v>
       </c>
@@ -781,8 +788,11 @@
       <c r="AH3" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI3" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>43915</v>
       </c>
@@ -885,8 +895,11 @@
       <c r="AH4" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI4" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>43916</v>
       </c>
@@ -989,8 +1002,11 @@
       <c r="AH5" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI5" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>43917</v>
       </c>
@@ -1093,8 +1109,11 @@
       <c r="AH6" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI6" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>43918</v>
       </c>
@@ -1197,8 +1216,11 @@
       <c r="AH7" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI7" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>43919</v>
       </c>
@@ -1301,8 +1323,11 @@
       <c r="AH8" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI8" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>43920</v>
       </c>
@@ -1405,8 +1430,11 @@
       <c r="AH9" s="13">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI9" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>43921</v>
       </c>
@@ -1509,8 +1537,11 @@
       <c r="AH10" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI10" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>43922</v>
       </c>
@@ -1613,8 +1644,11 @@
       <c r="AH11" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI11" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>43923</v>
       </c>
@@ -1717,8 +1751,11 @@
       <c r="AH12" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI12" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>43924</v>
       </c>
@@ -1821,8 +1858,11 @@
       <c r="AH13" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI13" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>43925</v>
       </c>
@@ -1925,8 +1965,11 @@
       <c r="AH14" s="13">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI14" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>43926</v>
       </c>
@@ -2029,8 +2072,11 @@
       <c r="AH15" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI15" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>43927</v>
       </c>
@@ -2133,8 +2179,11 @@
       <c r="AH16" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI16" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>43928</v>
       </c>
@@ -2237,8 +2286,11 @@
       <c r="AH17" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI17" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>43929</v>
       </c>
@@ -2341,8 +2393,11 @@
       <c r="AH18" s="13">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI18" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>43930</v>
       </c>
@@ -2445,8 +2500,11 @@
       <c r="AH19" s="13">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI19" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>43931</v>
       </c>
@@ -2549,8 +2607,11 @@
       <c r="AH20" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI20" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>43932</v>
       </c>
@@ -2653,8 +2714,11 @@
       <c r="AH21" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI21" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>43933</v>
       </c>
@@ -2757,8 +2821,11 @@
       <c r="AH22" s="13">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI22" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>43934</v>
       </c>
@@ -2861,8 +2928,11 @@
       <c r="AH23" s="13">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI23" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>43935</v>
       </c>
@@ -2965,8 +3035,11 @@
       <c r="AH24" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI24" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>43936</v>
       </c>
@@ -3069,8 +3142,11 @@
       <c r="AH25" s="13">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI25" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>43937</v>
       </c>
@@ -3173,8 +3249,11 @@
       <c r="AH26" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI26" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>43938</v>
       </c>
@@ -3277,8 +3356,11 @@
       <c r="AH27" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI27" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>43939</v>
       </c>
@@ -3381,8 +3463,11 @@
       <c r="AH28" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI28" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>43940</v>
       </c>
@@ -3485,8 +3570,11 @@
       <c r="AH29" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI29" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>43941</v>
       </c>
@@ -3589,8 +3677,11 @@
       <c r="AH30" s="13">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI30" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>43942</v>
       </c>
@@ -3693,8 +3784,11 @@
       <c r="AH31" s="13">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI31" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>43943</v>
       </c>
@@ -3797,8 +3891,11 @@
       <c r="AH32" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI32" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>43944</v>
       </c>
@@ -3901,8 +3998,11 @@
       <c r="AH33" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI33" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>43945</v>
       </c>
@@ -4005,8 +4105,11 @@
       <c r="AH34" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI34" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>43946</v>
       </c>
@@ -4109,8 +4212,11 @@
       <c r="AH35" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI35" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>43947</v>
       </c>
@@ -4213,8 +4319,11 @@
       <c r="AH36" s="13">
         <v>9</v>
       </c>
-    </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI36" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>43948</v>
       </c>
@@ -4317,8 +4426,11 @@
       <c r="AH37" s="13">
         <v>12</v>
       </c>
-    </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI37" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>43949</v>
       </c>
@@ -4421,8 +4533,11 @@
       <c r="AH38" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI38" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>43950</v>
       </c>
@@ -4525,8 +4640,11 @@
       <c r="AH39" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI39" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>43951</v>
       </c>
@@ -4629,8 +4747,11 @@
       <c r="AH40" s="13">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI40" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>43952</v>
       </c>
@@ -4733,8 +4854,11 @@
       <c r="AH41" s="13">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI41" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>43953</v>
       </c>
@@ -4837,8 +4961,11 @@
       <c r="AH42" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI42" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>43954</v>
       </c>
@@ -4941,8 +5068,11 @@
       <c r="AH43" s="13">
         <v>19</v>
       </c>
-    </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI43" s="13">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>43955</v>
       </c>
@@ -5045,8 +5175,11 @@
       <c r="AH44" s="13">
         <v>13</v>
       </c>
-    </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI44" s="13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>43956</v>
       </c>
@@ -5149,8 +5282,11 @@
       <c r="AH45" s="13">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI45" s="13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>43957</v>
       </c>
@@ -5253,8 +5389,11 @@
       <c r="AH46" s="13">
         <v>15</v>
       </c>
-    </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI46" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>43958</v>
       </c>
@@ -5357,8 +5496,11 @@
       <c r="AH47" s="13">
         <v>30</v>
       </c>
-    </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI47" s="13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>43959</v>
       </c>
@@ -5461,8 +5603,11 @@
       <c r="AH48" s="13">
         <v>15</v>
       </c>
-    </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI48" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>43960</v>
       </c>
@@ -5565,8 +5710,11 @@
       <c r="AH49" s="13">
         <v>23</v>
       </c>
-    </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI49" s="13">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>43961</v>
       </c>
@@ -5669,8 +5817,11 @@
       <c r="AH50" s="13">
         <v>31</v>
       </c>
-    </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI50" s="13">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>43962</v>
       </c>
@@ -5773,8 +5924,11 @@
       <c r="AH51" s="13">
         <v>20</v>
       </c>
-    </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI51" s="13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>43963</v>
       </c>
@@ -5877,8 +6031,11 @@
       <c r="AH52" s="13">
         <v>26</v>
       </c>
-    </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI52" s="13">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>43964</v>
       </c>
@@ -5981,8 +6138,11 @@
       <c r="AH53" s="13">
         <v>38</v>
       </c>
-    </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI53" s="13">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>43965</v>
       </c>
@@ -6085,8 +6245,11 @@
       <c r="AH54" s="13">
         <v>35</v>
       </c>
-    </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI54" s="13">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <v>43966</v>
       </c>
@@ -6189,8 +6352,11 @@
       <c r="AH55" s="13">
         <v>33</v>
       </c>
-    </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI55" s="13">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>43967</v>
       </c>
@@ -6293,8 +6459,11 @@
       <c r="AH56" s="13">
         <v>49</v>
       </c>
-    </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI56" s="13">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>43968</v>
       </c>
@@ -6397,8 +6566,11 @@
       <c r="AH57" s="13">
         <v>46</v>
       </c>
-    </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI57" s="13">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>43969</v>
       </c>
@@ -6501,8 +6673,11 @@
       <c r="AH58" s="13">
         <v>62</v>
       </c>
-    </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI58" s="13">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>43970</v>
       </c>
@@ -6605,8 +6780,11 @@
       <c r="AH59" s="13">
         <v>64</v>
       </c>
-    </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI59" s="13">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>43971</v>
       </c>
@@ -6709,8 +6887,11 @@
       <c r="AH60" s="13">
         <v>66</v>
       </c>
-    </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI60" s="13">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>43972</v>
       </c>
@@ -6813,8 +6994,11 @@
       <c r="AH61" s="13">
         <v>63</v>
       </c>
-    </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI61" s="13">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>43973</v>
       </c>
@@ -6917,8 +7101,11 @@
       <c r="AH62" s="13">
         <v>72</v>
       </c>
-    </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI62" s="13">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>43974</v>
       </c>
@@ -7021,8 +7208,11 @@
       <c r="AH63" s="13">
         <v>86</v>
       </c>
-    </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI63" s="13">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>43975</v>
       </c>
@@ -7125,8 +7315,11 @@
       <c r="AH64" s="13">
         <v>97</v>
       </c>
-    </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI64" s="13">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>43976</v>
       </c>
@@ -7229,8 +7422,11 @@
       <c r="AH65" s="13">
         <v>87</v>
       </c>
-    </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI65" s="13">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="66" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>43977</v>
       </c>
@@ -7333,8 +7529,11 @@
       <c r="AH66" s="13">
         <v>106</v>
       </c>
-    </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI66" s="13">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="67" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>43978</v>
       </c>
@@ -7437,8 +7636,11 @@
       <c r="AH67" s="13">
         <v>121</v>
       </c>
-    </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI67" s="13">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="68" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>43979</v>
       </c>
@@ -7541,8 +7743,11 @@
       <c r="AH68" s="13">
         <v>115</v>
       </c>
-    </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI68" s="13">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="69" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>43980</v>
       </c>
@@ -7645,8 +7850,11 @@
       <c r="AH69" s="13">
         <v>124</v>
       </c>
-    </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI69" s="13">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="70" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>43981</v>
       </c>
@@ -7749,8 +7957,11 @@
       <c r="AH70" s="13">
         <v>135</v>
       </c>
-    </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI70" s="13">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="71" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
         <v>43982</v>
       </c>
@@ -7853,8 +8064,11 @@
       <c r="AH71" s="13">
         <v>116</v>
       </c>
-    </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI71" s="13">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="72" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <v>43983</v>
       </c>
@@ -7957,8 +8171,11 @@
       <c r="AH72" s="13">
         <v>143</v>
       </c>
-    </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI72" s="13">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <v>43984</v>
       </c>
@@ -8061,8 +8278,11 @@
       <c r="AH73" s="13">
         <v>138</v>
       </c>
-    </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI73" s="13">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="74" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
         <v>43985</v>
       </c>
@@ -8165,8 +8385,11 @@
       <c r="AH74" s="13">
         <v>151</v>
       </c>
-    </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI74" s="13">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="75" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
         <v>43986</v>
       </c>
@@ -8269,8 +8492,11 @@
       <c r="AH75" s="13">
         <v>148</v>
       </c>
-    </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI75" s="13">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="76" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <v>43987</v>
       </c>
@@ -8373,8 +8599,11 @@
       <c r="AH76" s="13">
         <v>155</v>
       </c>
-    </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI76" s="13">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="77" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
         <v>43988</v>
       </c>
@@ -8475,8 +8704,11 @@
       <c r="AH77" s="13">
         <v>160</v>
       </c>
-    </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI77" s="13">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="78" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A78" s="5">
         <v>43989</v>
       </c>
@@ -8575,8 +8807,11 @@
       <c r="AH78" s="13">
         <v>148</v>
       </c>
-    </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI78" s="13">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="79" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A79" s="5">
         <v>43990</v>
       </c>
@@ -8673,8 +8908,11 @@
       <c r="AH79" s="13">
         <v>139</v>
       </c>
-    </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI79" s="13">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="80" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
         <v>43991</v>
       </c>
@@ -8769,8 +9007,11 @@
       <c r="AH80" s="13">
         <v>171</v>
       </c>
-    </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI80" s="13">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="81" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
         <v>43992</v>
       </c>
@@ -8863,8 +9104,11 @@
       <c r="AH81" s="13">
         <v>158</v>
       </c>
-    </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI81" s="13">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="82" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
         <v>43993</v>
       </c>
@@ -8955,8 +9199,11 @@
       <c r="AH82" s="13">
         <v>161</v>
       </c>
-    </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI82" s="13">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="83" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A83" s="5">
         <v>43994</v>
       </c>
@@ -9045,8 +9292,11 @@
       <c r="AH83" s="13">
         <v>162</v>
       </c>
-    </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI83" s="13">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="84" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
         <v>43995</v>
       </c>
@@ -9133,8 +9383,11 @@
       <c r="AH84" s="13">
         <v>173</v>
       </c>
-    </row>
-    <row r="85" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI84" s="13">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="85" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A85" s="5">
         <v>43996</v>
       </c>
@@ -9210,8 +9463,11 @@
       <c r="AH85" s="13">
         <v>151</v>
       </c>
-    </row>
-    <row r="86" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI85" s="13">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="86" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A86" s="5">
         <v>43997</v>
       </c>
@@ -9285,8 +9541,11 @@
       <c r="AH86" s="13">
         <v>147</v>
       </c>
-    </row>
-    <row r="87" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI86" s="13">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="87" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A87" s="5">
         <v>43998</v>
       </c>
@@ -9356,8 +9615,11 @@
       <c r="AH87" s="13">
         <v>167</v>
       </c>
-    </row>
-    <row r="88" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI87" s="13">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="88" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A88" s="5">
         <v>43999</v>
       </c>
@@ -9424,8 +9686,11 @@
       <c r="AH88" s="13">
         <v>169</v>
       </c>
-    </row>
-    <row r="89" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI88" s="13">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="89" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A89" s="5">
         <v>44000</v>
       </c>
@@ -9489,8 +9754,11 @@
       <c r="AH89" s="13">
         <v>126</v>
       </c>
-    </row>
-    <row r="90" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI89" s="13">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="90" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A90" s="5">
         <v>44001</v>
       </c>
@@ -9551,8 +9819,11 @@
       <c r="AH90" s="13">
         <v>141</v>
       </c>
-    </row>
-    <row r="91" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI90" s="13">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="91" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A91" s="5">
         <v>44002</v>
       </c>
@@ -9610,8 +9881,11 @@
       <c r="AH91" s="13">
         <v>134</v>
       </c>
-    </row>
-    <row r="92" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI91" s="13">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="92" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A92" s="5">
         <v>44003</v>
       </c>
@@ -9666,8 +9940,11 @@
       <c r="AH92" s="13">
         <v>126</v>
       </c>
-    </row>
-    <row r="93" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI92" s="13">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="93" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A93" s="5">
         <v>44004</v>
       </c>
@@ -9719,8 +9996,11 @@
       <c r="AH93" s="13">
         <v>123</v>
       </c>
-    </row>
-    <row r="94" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI93" s="13">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="94" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A94" s="5">
         <v>44005</v>
       </c>
@@ -9769,8 +10049,11 @@
       <c r="AH94" s="13">
         <v>120</v>
       </c>
-    </row>
-    <row r="95" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI94" s="13">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="95" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A95" s="5">
         <v>44006</v>
       </c>
@@ -9816,8 +10099,11 @@
       <c r="AH95" s="13">
         <v>121</v>
       </c>
-    </row>
-    <row r="96" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI95" s="13">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="96" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A96" s="5">
         <v>44007</v>
       </c>
@@ -9860,8 +10146,11 @@
       <c r="AH96" s="13">
         <v>122</v>
       </c>
-    </row>
-    <row r="97" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI96" s="13">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="97" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A97" s="5">
         <v>44008</v>
       </c>
@@ -9901,8 +10190,11 @@
       <c r="AH97" s="13">
         <v>115</v>
       </c>
-    </row>
-    <row r="98" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI97" s="13">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="98" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A98" s="5">
         <v>44009</v>
       </c>
@@ -9939,8 +10231,11 @@
       <c r="AH98" s="13">
         <v>108</v>
       </c>
-    </row>
-    <row r="99" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI98" s="13">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="99" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A99" s="5">
         <v>44010</v>
       </c>
@@ -9974,8 +10269,11 @@
       <c r="AH99" s="13">
         <v>120</v>
       </c>
-    </row>
-    <row r="100" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI99" s="13">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="100" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A100" s="5">
         <v>44011</v>
       </c>
@@ -10006,8 +10304,11 @@
       <c r="AH100" s="13">
         <v>109</v>
       </c>
-    </row>
-    <row r="101" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI100" s="13">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="101" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A101" s="5">
         <v>44012</v>
       </c>
@@ -10035,8 +10336,11 @@
       <c r="AH101" s="13">
         <v>105</v>
       </c>
-    </row>
-    <row r="102" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI101" s="13">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="102" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A102" s="5">
         <v>44013</v>
       </c>
@@ -10061,8 +10365,11 @@
       <c r="AH102" s="13">
         <v>91</v>
       </c>
-    </row>
-    <row r="103" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI102" s="13">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="103" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A103" s="5">
         <v>44014</v>
       </c>
@@ -10084,8 +10391,11 @@
       <c r="AH103" s="13">
         <v>112</v>
       </c>
-    </row>
-    <row r="104" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI103" s="13">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="104" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A104" s="5">
         <v>44015</v>
       </c>
@@ -10104,8 +10414,11 @@
       <c r="AH104" s="13">
         <v>101</v>
       </c>
-    </row>
-    <row r="105" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI104" s="13">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A105" s="5">
         <v>44016</v>
       </c>
@@ -10121,8 +10434,11 @@
       <c r="AH105" s="13">
         <v>77</v>
       </c>
-    </row>
-    <row r="106" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI105" s="13">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="106" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A106" s="5">
         <v>44017</v>
       </c>
@@ -10135,8 +10451,11 @@
       <c r="AH106" s="13">
         <v>64</v>
       </c>
-    </row>
-    <row r="107" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI106" s="13">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="107" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A107" s="5">
         <v>44018</v>
       </c>
@@ -10146,13 +10465,27 @@
       <c r="AH107" s="13">
         <v>65</v>
       </c>
-    </row>
-    <row r="108" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI107" s="13">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="108" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A108" s="5">
         <v>44019</v>
       </c>
       <c r="AH108" s="13">
         <v>16</v>
+      </c>
+      <c r="AI108" s="13">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="109" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A109" s="5">
+        <v>44020</v>
+      </c>
+      <c r="AI109" s="13">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/input/NuevaDefDefunciones/Fallecidos Min Ciencias acumulado.xlsx
+++ b/input/NuevaDefDefunciones/Fallecidos Min Ciencias acumulado.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/faviola/covid-19/REPORTEDIARIO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47785E38-9302-3046-84AA-255FF3B54766}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F81FD0-CBF4-1647-9BF9-E46D302A56E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="760" windowWidth="28060" windowHeight="17240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="740" yWindow="760" windowWidth="28060" windowHeight="14120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -425,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI109"/>
+  <dimension ref="A1:AJ110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="AI13" sqref="AI13"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="AK7" sqref="AK7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -437,7 +437,7 @@
     <col min="23" max="23" width="10.83203125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -514,7 +514,7 @@
         <v>4731</v>
       </c>
       <c r="T1" s="11">
-        <f t="shared" ref="T1:AI1" si="2">SUM(T3:T999)</f>
+        <f t="shared" ref="T1:AJ1" si="2">SUM(T3:T999)</f>
         <v>4903</v>
       </c>
       <c r="U1" s="11">
@@ -574,11 +574,15 @@
         <v>6682</v>
       </c>
       <c r="AI1" s="11">
-        <f t="shared" si="2"/>
+        <f>SUM(AI3:AI999)</f>
         <v>6781</v>
       </c>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ1" s="11">
+        <f>SUM(AJ3:AJ999)</f>
+        <v>6881</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -684,8 +688,11 @@
       <c r="AI2" s="10">
         <v>44022</v>
       </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ2" s="10">
+        <v>44023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>43910</v>
       </c>
@@ -791,8 +798,11 @@
       <c r="AI3" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ3" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>43915</v>
       </c>
@@ -898,8 +908,11 @@
       <c r="AI4" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ4" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>43916</v>
       </c>
@@ -1005,8 +1018,11 @@
       <c r="AI5" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ5" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>43917</v>
       </c>
@@ -1112,8 +1128,11 @@
       <c r="AI6" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ6" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>43918</v>
       </c>
@@ -1219,8 +1238,11 @@
       <c r="AI7" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ7" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>43919</v>
       </c>
@@ -1326,8 +1348,11 @@
       <c r="AI8" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ8" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>43920</v>
       </c>
@@ -1433,8 +1458,11 @@
       <c r="AI9" s="13">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ9" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>43921</v>
       </c>
@@ -1540,8 +1568,11 @@
       <c r="AI10" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ10" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>43922</v>
       </c>
@@ -1647,8 +1678,11 @@
       <c r="AI11" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ11" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>43923</v>
       </c>
@@ -1754,8 +1788,11 @@
       <c r="AI12" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ12" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>43924</v>
       </c>
@@ -1861,8 +1898,11 @@
       <c r="AI13" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ13" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>43925</v>
       </c>
@@ -1968,8 +2008,11 @@
       <c r="AI14" s="13">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ14" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>43926</v>
       </c>
@@ -2075,8 +2118,11 @@
       <c r="AI15" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ15" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>43927</v>
       </c>
@@ -2182,8 +2228,11 @@
       <c r="AI16" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ16" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>43928</v>
       </c>
@@ -2289,8 +2338,11 @@
       <c r="AI17" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ17" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>43929</v>
       </c>
@@ -2396,8 +2448,11 @@
       <c r="AI18" s="13">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ18" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>43930</v>
       </c>
@@ -2503,8 +2558,11 @@
       <c r="AI19" s="13">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ19" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>43931</v>
       </c>
@@ -2610,8 +2668,11 @@
       <c r="AI20" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ20" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>43932</v>
       </c>
@@ -2717,8 +2778,11 @@
       <c r="AI21" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ21" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>43933</v>
       </c>
@@ -2824,8 +2888,11 @@
       <c r="AI22" s="13">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ22" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>43934</v>
       </c>
@@ -2931,8 +2998,11 @@
       <c r="AI23" s="13">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ23" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>43935</v>
       </c>
@@ -3038,8 +3108,11 @@
       <c r="AI24" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ24" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>43936</v>
       </c>
@@ -3145,8 +3218,11 @@
       <c r="AI25" s="13">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ25" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>43937</v>
       </c>
@@ -3252,8 +3328,11 @@
       <c r="AI26" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ26" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>43938</v>
       </c>
@@ -3359,8 +3438,11 @@
       <c r="AI27" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ27" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>43939</v>
       </c>
@@ -3466,8 +3548,11 @@
       <c r="AI28" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ28" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>43940</v>
       </c>
@@ -3573,8 +3658,11 @@
       <c r="AI29" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ29" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>43941</v>
       </c>
@@ -3680,8 +3768,11 @@
       <c r="AI30" s="13">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ30" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>43942</v>
       </c>
@@ -3787,8 +3878,11 @@
       <c r="AI31" s="13">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ31" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>43943</v>
       </c>
@@ -3894,8 +3988,11 @@
       <c r="AI32" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ32" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>43944</v>
       </c>
@@ -4001,8 +4098,11 @@
       <c r="AI33" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ33" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>43945</v>
       </c>
@@ -4108,8 +4208,11 @@
       <c r="AI34" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ34" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>43946</v>
       </c>
@@ -4215,8 +4318,11 @@
       <c r="AI35" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ35" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>43947</v>
       </c>
@@ -4322,8 +4428,11 @@
       <c r="AI36" s="13">
         <v>9</v>
       </c>
-    </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ36" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>43948</v>
       </c>
@@ -4429,8 +4538,11 @@
       <c r="AI37" s="13">
         <v>12</v>
       </c>
-    </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ37" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>43949</v>
       </c>
@@ -4536,8 +4648,11 @@
       <c r="AI38" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ38" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>43950</v>
       </c>
@@ -4643,8 +4758,11 @@
       <c r="AI39" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ39" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>43951</v>
       </c>
@@ -4750,8 +4868,11 @@
       <c r="AI40" s="13">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ40" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>43952</v>
       </c>
@@ -4857,8 +4978,11 @@
       <c r="AI41" s="13">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ41" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>43953</v>
       </c>
@@ -4964,8 +5088,11 @@
       <c r="AI42" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ42" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>43954</v>
       </c>
@@ -5071,8 +5198,11 @@
       <c r="AI43" s="13">
         <v>19</v>
       </c>
-    </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ43" s="13">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>43955</v>
       </c>
@@ -5178,8 +5308,11 @@
       <c r="AI44" s="13">
         <v>13</v>
       </c>
-    </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ44" s="13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>43956</v>
       </c>
@@ -5285,8 +5418,11 @@
       <c r="AI45" s="13">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ45" s="13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>43957</v>
       </c>
@@ -5392,8 +5528,11 @@
       <c r="AI46" s="13">
         <v>15</v>
       </c>
-    </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ46" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>43958</v>
       </c>
@@ -5499,8 +5638,11 @@
       <c r="AI47" s="13">
         <v>30</v>
       </c>
-    </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ47" s="13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>43959</v>
       </c>
@@ -5606,8 +5748,11 @@
       <c r="AI48" s="13">
         <v>15</v>
       </c>
-    </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ48" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>43960</v>
       </c>
@@ -5713,8 +5858,11 @@
       <c r="AI49" s="13">
         <v>23</v>
       </c>
-    </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ49" s="13">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>43961</v>
       </c>
@@ -5820,8 +5968,11 @@
       <c r="AI50" s="13">
         <v>31</v>
       </c>
-    </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ50" s="13">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>43962</v>
       </c>
@@ -5927,8 +6078,11 @@
       <c r="AI51" s="13">
         <v>20</v>
       </c>
-    </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ51" s="13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>43963</v>
       </c>
@@ -6034,8 +6188,11 @@
       <c r="AI52" s="13">
         <v>26</v>
       </c>
-    </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ52" s="13">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>43964</v>
       </c>
@@ -6141,8 +6298,11 @@
       <c r="AI53" s="13">
         <v>38</v>
       </c>
-    </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ53" s="13">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>43965</v>
       </c>
@@ -6248,8 +6408,11 @@
       <c r="AI54" s="13">
         <v>35</v>
       </c>
-    </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ54" s="13">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <v>43966</v>
       </c>
@@ -6355,8 +6518,11 @@
       <c r="AI55" s="13">
         <v>33</v>
       </c>
-    </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ55" s="13">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>43967</v>
       </c>
@@ -6462,8 +6628,11 @@
       <c r="AI56" s="13">
         <v>49</v>
       </c>
-    </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ56" s="13">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>43968</v>
       </c>
@@ -6569,8 +6738,11 @@
       <c r="AI57" s="13">
         <v>46</v>
       </c>
-    </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ57" s="13">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>43969</v>
       </c>
@@ -6676,8 +6848,11 @@
       <c r="AI58" s="13">
         <v>62</v>
       </c>
-    </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ58" s="13">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>43970</v>
       </c>
@@ -6783,8 +6958,11 @@
       <c r="AI59" s="13">
         <v>64</v>
       </c>
-    </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ59" s="13">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>43971</v>
       </c>
@@ -6890,8 +7068,11 @@
       <c r="AI60" s="13">
         <v>66</v>
       </c>
-    </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ60" s="13">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>43972</v>
       </c>
@@ -6997,8 +7178,11 @@
       <c r="AI61" s="13">
         <v>63</v>
       </c>
-    </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ61" s="13">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>43973</v>
       </c>
@@ -7104,8 +7288,11 @@
       <c r="AI62" s="13">
         <v>72</v>
       </c>
-    </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ62" s="13">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>43974</v>
       </c>
@@ -7211,8 +7398,11 @@
       <c r="AI63" s="13">
         <v>86</v>
       </c>
-    </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ63" s="13">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>43975</v>
       </c>
@@ -7318,8 +7508,11 @@
       <c r="AI64" s="13">
         <v>97</v>
       </c>
-    </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ64" s="13">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>43976</v>
       </c>
@@ -7425,8 +7618,11 @@
       <c r="AI65" s="13">
         <v>87</v>
       </c>
-    </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ65" s="13">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="66" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>43977</v>
       </c>
@@ -7532,8 +7728,11 @@
       <c r="AI66" s="13">
         <v>106</v>
       </c>
-    </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ66" s="13">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="67" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>43978</v>
       </c>
@@ -7639,8 +7838,11 @@
       <c r="AI67" s="13">
         <v>121</v>
       </c>
-    </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ67" s="13">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="68" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>43979</v>
       </c>
@@ -7746,8 +7948,11 @@
       <c r="AI68" s="13">
         <v>115</v>
       </c>
-    </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ68" s="13">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="69" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>43980</v>
       </c>
@@ -7853,8 +8058,11 @@
       <c r="AI69" s="13">
         <v>124</v>
       </c>
-    </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ69" s="13">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="70" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>43981</v>
       </c>
@@ -7960,8 +8168,11 @@
       <c r="AI70" s="13">
         <v>135</v>
       </c>
-    </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ70" s="13">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="71" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
         <v>43982</v>
       </c>
@@ -8067,8 +8278,11 @@
       <c r="AI71" s="13">
         <v>117</v>
       </c>
-    </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ71" s="13">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="72" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <v>43983</v>
       </c>
@@ -8174,8 +8388,11 @@
       <c r="AI72" s="13">
         <v>143</v>
       </c>
-    </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ72" s="13">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <v>43984</v>
       </c>
@@ -8281,8 +8498,11 @@
       <c r="AI73" s="13">
         <v>138</v>
       </c>
-    </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ73" s="13">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="74" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
         <v>43985</v>
       </c>
@@ -8388,8 +8608,11 @@
       <c r="AI74" s="13">
         <v>151</v>
       </c>
-    </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ74" s="13">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="75" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
         <v>43986</v>
       </c>
@@ -8495,8 +8718,11 @@
       <c r="AI75" s="13">
         <v>148</v>
       </c>
-    </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ75" s="13">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="76" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <v>43987</v>
       </c>
@@ -8602,8 +8828,11 @@
       <c r="AI76" s="13">
         <v>156</v>
       </c>
-    </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ76" s="13">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="77" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
         <v>43988</v>
       </c>
@@ -8707,8 +8936,11 @@
       <c r="AI77" s="13">
         <v>160</v>
       </c>
-    </row>
-    <row r="78" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ77" s="13">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="78" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A78" s="5">
         <v>43989</v>
       </c>
@@ -8810,8 +9042,11 @@
       <c r="AI78" s="13">
         <v>148</v>
       </c>
-    </row>
-    <row r="79" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ78" s="13">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="79" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A79" s="5">
         <v>43990</v>
       </c>
@@ -8911,8 +9146,11 @@
       <c r="AI79" s="13">
         <v>139</v>
       </c>
-    </row>
-    <row r="80" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ79" s="13">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="80" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
         <v>43991</v>
       </c>
@@ -9010,8 +9248,11 @@
       <c r="AI80" s="13">
         <v>172</v>
       </c>
-    </row>
-    <row r="81" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ80" s="13">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="81" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
         <v>43992</v>
       </c>
@@ -9107,8 +9348,11 @@
       <c r="AI81" s="13">
         <v>158</v>
       </c>
-    </row>
-    <row r="82" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ81" s="13">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="82" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
         <v>43993</v>
       </c>
@@ -9202,8 +9446,11 @@
       <c r="AI82" s="13">
         <v>161</v>
       </c>
-    </row>
-    <row r="83" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ82" s="13">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="83" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A83" s="5">
         <v>43994</v>
       </c>
@@ -9295,8 +9542,11 @@
       <c r="AI83" s="13">
         <v>162</v>
       </c>
-    </row>
-    <row r="84" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ83" s="13">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="84" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
         <v>43995</v>
       </c>
@@ -9386,8 +9636,11 @@
       <c r="AI84" s="13">
         <v>173</v>
       </c>
-    </row>
-    <row r="85" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ84" s="13">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="85" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A85" s="5">
         <v>43996</v>
       </c>
@@ -9466,8 +9719,11 @@
       <c r="AI85" s="13">
         <v>151</v>
       </c>
-    </row>
-    <row r="86" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ85" s="13">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="86" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A86" s="5">
         <v>43997</v>
       </c>
@@ -9544,8 +9800,11 @@
       <c r="AI86" s="13">
         <v>147</v>
       </c>
-    </row>
-    <row r="87" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ86" s="13">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="87" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A87" s="5">
         <v>43998</v>
       </c>
@@ -9618,8 +9877,11 @@
       <c r="AI87" s="13">
         <v>167</v>
       </c>
-    </row>
-    <row r="88" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ87" s="13">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="88" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A88" s="5">
         <v>43999</v>
       </c>
@@ -9689,8 +9951,11 @@
       <c r="AI88" s="13">
         <v>169</v>
       </c>
-    </row>
-    <row r="89" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ88" s="13">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="89" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A89" s="5">
         <v>44000</v>
       </c>
@@ -9757,8 +10022,11 @@
       <c r="AI89" s="13">
         <v>126</v>
       </c>
-    </row>
-    <row r="90" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ89" s="13">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="90" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A90" s="5">
         <v>44001</v>
       </c>
@@ -9822,8 +10090,11 @@
       <c r="AI90" s="13">
         <v>142</v>
       </c>
-    </row>
-    <row r="91" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ90" s="13">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="91" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A91" s="5">
         <v>44002</v>
       </c>
@@ -9884,8 +10155,11 @@
       <c r="AI91" s="13">
         <v>135</v>
       </c>
-    </row>
-    <row r="92" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ91" s="13">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="92" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A92" s="5">
         <v>44003</v>
       </c>
@@ -9943,8 +10217,11 @@
       <c r="AI92" s="13">
         <v>126</v>
       </c>
-    </row>
-    <row r="93" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ92" s="13">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="93" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A93" s="5">
         <v>44004</v>
       </c>
@@ -9999,8 +10276,11 @@
       <c r="AI93" s="13">
         <v>123</v>
       </c>
-    </row>
-    <row r="94" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ93" s="13">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="94" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A94" s="5">
         <v>44005</v>
       </c>
@@ -10052,8 +10332,11 @@
       <c r="AI94" s="13">
         <v>120</v>
       </c>
-    </row>
-    <row r="95" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ94" s="13">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="95" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A95" s="5">
         <v>44006</v>
       </c>
@@ -10102,8 +10385,11 @@
       <c r="AI95" s="13">
         <v>121</v>
       </c>
-    </row>
-    <row r="96" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ95" s="13">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="96" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A96" s="5">
         <v>44007</v>
       </c>
@@ -10149,8 +10435,11 @@
       <c r="AI96" s="13">
         <v>122</v>
       </c>
-    </row>
-    <row r="97" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ96" s="13">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="97" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A97" s="5">
         <v>44008</v>
       </c>
@@ -10193,8 +10482,11 @@
       <c r="AI97" s="13">
         <v>116</v>
       </c>
-    </row>
-    <row r="98" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ97" s="13">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="98" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A98" s="5">
         <v>44009</v>
       </c>
@@ -10234,8 +10526,11 @@
       <c r="AI98" s="13">
         <v>108</v>
       </c>
-    </row>
-    <row r="99" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ98" s="13">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="99" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A99" s="5">
         <v>44010</v>
       </c>
@@ -10272,8 +10567,11 @@
       <c r="AI99" s="13">
         <v>120</v>
       </c>
-    </row>
-    <row r="100" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ99" s="13">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="100" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A100" s="5">
         <v>44011</v>
       </c>
@@ -10307,8 +10605,11 @@
       <c r="AI100" s="13">
         <v>109</v>
       </c>
-    </row>
-    <row r="101" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ100" s="13">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="101" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A101" s="5">
         <v>44012</v>
       </c>
@@ -10339,8 +10640,11 @@
       <c r="AI101" s="13">
         <v>105</v>
       </c>
-    </row>
-    <row r="102" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ101" s="13">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="102" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A102" s="5">
         <v>44013</v>
       </c>
@@ -10368,8 +10672,11 @@
       <c r="AI102" s="13">
         <v>97</v>
       </c>
-    </row>
-    <row r="103" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ102" s="13">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="103" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A103" s="5">
         <v>44014</v>
       </c>
@@ -10394,8 +10701,11 @@
       <c r="AI103" s="13">
         <v>115</v>
       </c>
-    </row>
-    <row r="104" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ103" s="13">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="104" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A104" s="5">
         <v>44015</v>
       </c>
@@ -10417,8 +10727,11 @@
       <c r="AI104" s="13">
         <v>103</v>
       </c>
-    </row>
-    <row r="105" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ104" s="13">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="105" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A105" s="5">
         <v>44016</v>
       </c>
@@ -10437,8 +10750,11 @@
       <c r="AI105" s="13">
         <v>80</v>
       </c>
-    </row>
-    <row r="106" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ105" s="13">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="106" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A106" s="5">
         <v>44017</v>
       </c>
@@ -10454,8 +10770,11 @@
       <c r="AI106" s="13">
         <v>73</v>
       </c>
-    </row>
-    <row r="107" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ106" s="13">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="107" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A107" s="5">
         <v>44018</v>
       </c>
@@ -10468,8 +10787,11 @@
       <c r="AI107" s="13">
         <v>79</v>
       </c>
-    </row>
-    <row r="108" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ107" s="13">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="108" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A108" s="5">
         <v>44019</v>
       </c>
@@ -10479,13 +10801,27 @@
       <c r="AI108" s="13">
         <v>58</v>
       </c>
-    </row>
-    <row r="109" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ108" s="13">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="109" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A109" s="5">
         <v>44020</v>
       </c>
       <c r="AI109" s="13">
         <v>14</v>
+      </c>
+      <c r="AJ109" s="13">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="110" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A110" s="5">
+        <v>44021</v>
+      </c>
+      <c r="AJ110" s="13">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/input/NuevaDefDefunciones/Fallecidos Min Ciencias acumulado.xlsx
+++ b/input/NuevaDefDefunciones/Fallecidos Min Ciencias acumulado.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/faviola/covid-19/REPORTEDIARIO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F81FD0-CBF4-1647-9BF9-E46D302A56E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C384424-5EBD-294F-90BD-35ADF5B0C4DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="740" yWindow="760" windowWidth="28060" windowHeight="14120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -425,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ110"/>
+  <dimension ref="A1:AK111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="AK7" sqref="AK7"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="AK111" sqref="AK111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -437,7 +437,7 @@
     <col min="23" max="23" width="10.83203125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -514,7 +514,7 @@
         <v>4731</v>
       </c>
       <c r="T1" s="11">
-        <f t="shared" ref="T1:AJ1" si="2">SUM(T3:T999)</f>
+        <f t="shared" ref="T1:AH1" si="2">SUM(T3:T999)</f>
         <v>4903</v>
       </c>
       <c r="U1" s="11">
@@ -581,8 +581,12 @@
         <f>SUM(AJ3:AJ999)</f>
         <v>6881</v>
       </c>
+      <c r="AK1" s="11">
+        <f>SUM(AK3:AK999)</f>
+        <v>6979</v>
+      </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -691,8 +695,11 @@
       <c r="AJ2" s="10">
         <v>44023</v>
       </c>
+      <c r="AK2" s="10">
+        <v>44024</v>
+      </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>43910</v>
       </c>
@@ -801,8 +808,11 @@
       <c r="AJ3" s="13">
         <v>1</v>
       </c>
+      <c r="AK3" s="13">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>43915</v>
       </c>
@@ -911,8 +921,11 @@
       <c r="AJ4" s="13">
         <v>1</v>
       </c>
+      <c r="AK4" s="13">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>43916</v>
       </c>
@@ -1021,8 +1034,11 @@
       <c r="AJ5" s="13">
         <v>1</v>
       </c>
+      <c r="AK5" s="13">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>43917</v>
       </c>
@@ -1131,8 +1147,11 @@
       <c r="AJ6" s="13">
         <v>1</v>
       </c>
+      <c r="AK6" s="13">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>43918</v>
       </c>
@@ -1241,8 +1260,11 @@
       <c r="AJ7" s="13">
         <v>1</v>
       </c>
+      <c r="AK7" s="13">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>43919</v>
       </c>
@@ -1351,8 +1373,11 @@
       <c r="AJ8" s="13">
         <v>1</v>
       </c>
+      <c r="AK8" s="13">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>43920</v>
       </c>
@@ -1461,8 +1486,11 @@
       <c r="AJ9" s="13">
         <v>3</v>
       </c>
+      <c r="AK9" s="13">
+        <v>3</v>
+      </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>43921</v>
       </c>
@@ -1571,8 +1599,11 @@
       <c r="AJ10" s="13">
         <v>4</v>
       </c>
+      <c r="AK10" s="13">
+        <v>4</v>
+      </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>43922</v>
       </c>
@@ -1681,8 +1712,11 @@
       <c r="AJ11" s="13">
         <v>1</v>
       </c>
+      <c r="AK11" s="13">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>43923</v>
       </c>
@@ -1791,8 +1825,11 @@
       <c r="AJ12" s="13">
         <v>4</v>
       </c>
+      <c r="AK12" s="13">
+        <v>4</v>
+      </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>43924</v>
       </c>
@@ -1901,8 +1938,11 @@
       <c r="AJ13" s="13">
         <v>6</v>
       </c>
+      <c r="AK13" s="13">
+        <v>6</v>
+      </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>43925</v>
       </c>
@@ -2011,8 +2051,11 @@
       <c r="AJ14" s="13">
         <v>8</v>
       </c>
+      <c r="AK14" s="13">
+        <v>8</v>
+      </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>43926</v>
       </c>
@@ -2121,8 +2164,11 @@
       <c r="AJ15" s="13">
         <v>1</v>
       </c>
+      <c r="AK15" s="13">
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>43927</v>
       </c>
@@ -2231,8 +2277,11 @@
       <c r="AJ16" s="13">
         <v>6</v>
       </c>
+      <c r="AK16" s="13">
+        <v>6</v>
+      </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>43928</v>
       </c>
@@ -2341,8 +2390,11 @@
       <c r="AJ17" s="13">
         <v>4</v>
       </c>
+      <c r="AK17" s="13">
+        <v>4</v>
+      </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>43929</v>
       </c>
@@ -2451,8 +2503,11 @@
       <c r="AJ18" s="13">
         <v>10</v>
       </c>
+      <c r="AK18" s="13">
+        <v>10</v>
+      </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>43930</v>
       </c>
@@ -2561,8 +2616,11 @@
       <c r="AJ19" s="13">
         <v>9</v>
       </c>
+      <c r="AK19" s="13">
+        <v>9</v>
+      </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>43931</v>
       </c>
@@ -2671,8 +2729,11 @@
       <c r="AJ20" s="13">
         <v>6</v>
       </c>
+      <c r="AK20" s="13">
+        <v>6</v>
+      </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>43932</v>
       </c>
@@ -2781,8 +2842,11 @@
       <c r="AJ21" s="13">
         <v>7</v>
       </c>
+      <c r="AK21" s="13">
+        <v>7</v>
+      </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>43933</v>
       </c>
@@ -2891,8 +2955,11 @@
       <c r="AJ22" s="13">
         <v>3</v>
       </c>
+      <c r="AK22" s="13">
+        <v>3</v>
+      </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>43934</v>
       </c>
@@ -3001,8 +3068,11 @@
       <c r="AJ23" s="13">
         <v>9</v>
       </c>
+      <c r="AK23" s="13">
+        <v>9</v>
+      </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>43935</v>
       </c>
@@ -3111,8 +3181,11 @@
       <c r="AJ24" s="13">
         <v>4</v>
       </c>
+      <c r="AK24" s="13">
+        <v>4</v>
+      </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>43936</v>
       </c>
@@ -3221,8 +3294,11 @@
       <c r="AJ25" s="13">
         <v>9</v>
       </c>
+      <c r="AK25" s="13">
+        <v>9</v>
+      </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>43937</v>
       </c>
@@ -3331,8 +3407,11 @@
       <c r="AJ26" s="13">
         <v>6</v>
       </c>
+      <c r="AK26" s="13">
+        <v>6</v>
+      </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>43938</v>
       </c>
@@ -3441,8 +3520,11 @@
       <c r="AJ27" s="13">
         <v>5</v>
       </c>
+      <c r="AK27" s="13">
+        <v>5</v>
+      </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>43939</v>
       </c>
@@ -3551,8 +3633,11 @@
       <c r="AJ28" s="13">
         <v>7</v>
       </c>
+      <c r="AK28" s="13">
+        <v>7</v>
+      </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>43940</v>
       </c>
@@ -3661,8 +3746,11 @@
       <c r="AJ29" s="13">
         <v>6</v>
       </c>
+      <c r="AK29" s="13">
+        <v>6</v>
+      </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>43941</v>
       </c>
@@ -3771,8 +3859,11 @@
       <c r="AJ30" s="13">
         <v>10</v>
       </c>
+      <c r="AK30" s="13">
+        <v>10</v>
+      </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>43942</v>
       </c>
@@ -3881,8 +3972,11 @@
       <c r="AJ31" s="13">
         <v>8</v>
       </c>
+      <c r="AK31" s="13">
+        <v>8</v>
+      </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>43943</v>
       </c>
@@ -3991,8 +4085,11 @@
       <c r="AJ32" s="13">
         <v>5</v>
       </c>
+      <c r="AK32" s="13">
+        <v>5</v>
+      </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>43944</v>
       </c>
@@ -4101,8 +4198,11 @@
       <c r="AJ33" s="13">
         <v>7</v>
       </c>
+      <c r="AK33" s="13">
+        <v>7</v>
+      </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>43945</v>
       </c>
@@ -4211,8 +4311,11 @@
       <c r="AJ34" s="13">
         <v>6</v>
       </c>
+      <c r="AK34" s="13">
+        <v>6</v>
+      </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>43946</v>
       </c>
@@ -4321,8 +4424,11 @@
       <c r="AJ35" s="13">
         <v>7</v>
       </c>
+      <c r="AK35" s="13">
+        <v>7</v>
+      </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>43947</v>
       </c>
@@ -4431,8 +4537,11 @@
       <c r="AJ36" s="13">
         <v>9</v>
       </c>
+      <c r="AK36" s="13">
+        <v>9</v>
+      </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>43948</v>
       </c>
@@ -4541,8 +4650,11 @@
       <c r="AJ37" s="13">
         <v>12</v>
       </c>
+      <c r="AK37" s="13">
+        <v>12</v>
+      </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>43949</v>
       </c>
@@ -4651,8 +4763,11 @@
       <c r="AJ38" s="13">
         <v>7</v>
       </c>
+      <c r="AK38" s="13">
+        <v>7</v>
+      </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>43950</v>
       </c>
@@ -4761,8 +4876,11 @@
       <c r="AJ39" s="13">
         <v>7</v>
       </c>
+      <c r="AK39" s="13">
+        <v>7</v>
+      </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>43951</v>
       </c>
@@ -4871,8 +4989,11 @@
       <c r="AJ40" s="13">
         <v>8</v>
       </c>
+      <c r="AK40" s="13">
+        <v>8</v>
+      </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>43952</v>
       </c>
@@ -4981,8 +5102,11 @@
       <c r="AJ41" s="13">
         <v>10</v>
       </c>
+      <c r="AK41" s="13">
+        <v>10</v>
+      </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>43953</v>
       </c>
@@ -5091,8 +5215,11 @@
       <c r="AJ42" s="13">
         <v>7</v>
       </c>
+      <c r="AK42" s="13">
+        <v>7</v>
+      </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>43954</v>
       </c>
@@ -5201,8 +5328,11 @@
       <c r="AJ43" s="13">
         <v>19</v>
       </c>
+      <c r="AK43" s="13">
+        <v>19</v>
+      </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>43955</v>
       </c>
@@ -5311,8 +5441,11 @@
       <c r="AJ44" s="13">
         <v>13</v>
       </c>
+      <c r="AK44" s="13">
+        <v>13</v>
+      </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>43956</v>
       </c>
@@ -5421,8 +5554,11 @@
       <c r="AJ45" s="13">
         <v>11</v>
       </c>
+      <c r="AK45" s="13">
+        <v>11</v>
+      </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>43957</v>
       </c>
@@ -5531,8 +5667,11 @@
       <c r="AJ46" s="13">
         <v>15</v>
       </c>
+      <c r="AK46" s="13">
+        <v>15</v>
+      </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>43958</v>
       </c>
@@ -5641,8 +5780,11 @@
       <c r="AJ47" s="13">
         <v>30</v>
       </c>
+      <c r="AK47" s="13">
+        <v>30</v>
+      </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>43959</v>
       </c>
@@ -5751,8 +5893,11 @@
       <c r="AJ48" s="13">
         <v>15</v>
       </c>
+      <c r="AK48" s="13">
+        <v>15</v>
+      </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>43960</v>
       </c>
@@ -5861,8 +6006,11 @@
       <c r="AJ49" s="13">
         <v>23</v>
       </c>
+      <c r="AK49" s="13">
+        <v>23</v>
+      </c>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>43961</v>
       </c>
@@ -5971,8 +6119,11 @@
       <c r="AJ50" s="13">
         <v>31</v>
       </c>
+      <c r="AK50" s="13">
+        <v>31</v>
+      </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>43962</v>
       </c>
@@ -6081,8 +6232,11 @@
       <c r="AJ51" s="13">
         <v>20</v>
       </c>
+      <c r="AK51" s="13">
+        <v>20</v>
+      </c>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>43963</v>
       </c>
@@ -6191,8 +6345,11 @@
       <c r="AJ52" s="13">
         <v>26</v>
       </c>
+      <c r="AK52" s="13">
+        <v>26</v>
+      </c>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>43964</v>
       </c>
@@ -6301,8 +6458,11 @@
       <c r="AJ53" s="13">
         <v>38</v>
       </c>
+      <c r="AK53" s="13">
+        <v>38</v>
+      </c>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>43965</v>
       </c>
@@ -6411,8 +6571,11 @@
       <c r="AJ54" s="13">
         <v>35</v>
       </c>
+      <c r="AK54" s="13">
+        <v>35</v>
+      </c>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <v>43966</v>
       </c>
@@ -6521,8 +6684,11 @@
       <c r="AJ55" s="13">
         <v>33</v>
       </c>
+      <c r="AK55" s="13">
+        <v>33</v>
+      </c>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>43967</v>
       </c>
@@ -6631,8 +6797,11 @@
       <c r="AJ56" s="13">
         <v>49</v>
       </c>
+      <c r="AK56" s="13">
+        <v>49</v>
+      </c>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>43968</v>
       </c>
@@ -6741,8 +6910,11 @@
       <c r="AJ57" s="13">
         <v>46</v>
       </c>
+      <c r="AK57" s="13">
+        <v>46</v>
+      </c>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>43969</v>
       </c>
@@ -6851,8 +7023,11 @@
       <c r="AJ58" s="13">
         <v>62</v>
       </c>
+      <c r="AK58" s="13">
+        <v>62</v>
+      </c>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>43970</v>
       </c>
@@ -6961,8 +7136,11 @@
       <c r="AJ59" s="13">
         <v>64</v>
       </c>
+      <c r="AK59" s="13">
+        <v>64</v>
+      </c>
     </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>43971</v>
       </c>
@@ -7071,8 +7249,11 @@
       <c r="AJ60" s="13">
         <v>66</v>
       </c>
+      <c r="AK60" s="13">
+        <v>66</v>
+      </c>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>43972</v>
       </c>
@@ -7181,8 +7362,11 @@
       <c r="AJ61" s="13">
         <v>63</v>
       </c>
+      <c r="AK61" s="13">
+        <v>63</v>
+      </c>
     </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>43973</v>
       </c>
@@ -7291,8 +7475,11 @@
       <c r="AJ62" s="13">
         <v>72</v>
       </c>
+      <c r="AK62" s="13">
+        <v>72</v>
+      </c>
     </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>43974</v>
       </c>
@@ -7401,8 +7588,11 @@
       <c r="AJ63" s="13">
         <v>86</v>
       </c>
+      <c r="AK63" s="13">
+        <v>86</v>
+      </c>
     </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>43975</v>
       </c>
@@ -7511,8 +7701,11 @@
       <c r="AJ64" s="13">
         <v>97</v>
       </c>
+      <c r="AK64" s="13">
+        <v>97</v>
+      </c>
     </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>43976</v>
       </c>
@@ -7621,8 +7814,11 @@
       <c r="AJ65" s="13">
         <v>87</v>
       </c>
+      <c r="AK65" s="13">
+        <v>87</v>
+      </c>
     </row>
-    <row r="66" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>43977</v>
       </c>
@@ -7731,8 +7927,11 @@
       <c r="AJ66" s="13">
         <v>106</v>
       </c>
+      <c r="AK66" s="13">
+        <v>106</v>
+      </c>
     </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>43978</v>
       </c>
@@ -7841,8 +8040,11 @@
       <c r="AJ67" s="13">
         <v>121</v>
       </c>
+      <c r="AK67" s="13">
+        <v>121</v>
+      </c>
     </row>
-    <row r="68" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>43979</v>
       </c>
@@ -7951,8 +8153,11 @@
       <c r="AJ68" s="13">
         <v>115</v>
       </c>
+      <c r="AK68" s="13">
+        <v>115</v>
+      </c>
     </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>43980</v>
       </c>
@@ -8061,8 +8266,11 @@
       <c r="AJ69" s="13">
         <v>125</v>
       </c>
+      <c r="AK69" s="13">
+        <v>125</v>
+      </c>
     </row>
-    <row r="70" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>43981</v>
       </c>
@@ -8171,8 +8379,11 @@
       <c r="AJ70" s="13">
         <v>135</v>
       </c>
+      <c r="AK70" s="13">
+        <v>135</v>
+      </c>
     </row>
-    <row r="71" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
         <v>43982</v>
       </c>
@@ -8281,8 +8492,11 @@
       <c r="AJ71" s="13">
         <v>117</v>
       </c>
+      <c r="AK71" s="13">
+        <v>117</v>
+      </c>
     </row>
-    <row r="72" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <v>43983</v>
       </c>
@@ -8391,8 +8605,11 @@
       <c r="AJ72" s="13">
         <v>143</v>
       </c>
+      <c r="AK72" s="13">
+        <v>143</v>
+      </c>
     </row>
-    <row r="73" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <v>43984</v>
       </c>
@@ -8501,8 +8718,11 @@
       <c r="AJ73" s="13">
         <v>138</v>
       </c>
+      <c r="AK73" s="13">
+        <v>138</v>
+      </c>
     </row>
-    <row r="74" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
         <v>43985</v>
       </c>
@@ -8611,8 +8831,11 @@
       <c r="AJ74" s="13">
         <v>151</v>
       </c>
+      <c r="AK74" s="13">
+        <v>151</v>
+      </c>
     </row>
-    <row r="75" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
         <v>43986</v>
       </c>
@@ -8721,8 +8944,11 @@
       <c r="AJ75" s="13">
         <v>148</v>
       </c>
+      <c r="AK75" s="13">
+        <v>148</v>
+      </c>
     </row>
-    <row r="76" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <v>43987</v>
       </c>
@@ -8831,8 +9057,11 @@
       <c r="AJ76" s="13">
         <v>156</v>
       </c>
+      <c r="AK76" s="13">
+        <v>156</v>
+      </c>
     </row>
-    <row r="77" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
         <v>43988</v>
       </c>
@@ -8939,8 +9168,11 @@
       <c r="AJ77" s="13">
         <v>160</v>
       </c>
+      <c r="AK77" s="13">
+        <v>160</v>
+      </c>
     </row>
-    <row r="78" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A78" s="5">
         <v>43989</v>
       </c>
@@ -9045,8 +9277,11 @@
       <c r="AJ78" s="13">
         <v>148</v>
       </c>
+      <c r="AK78" s="13">
+        <v>148</v>
+      </c>
     </row>
-    <row r="79" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A79" s="5">
         <v>43990</v>
       </c>
@@ -9149,8 +9384,11 @@
       <c r="AJ79" s="13">
         <v>139</v>
       </c>
+      <c r="AK79" s="13">
+        <v>139</v>
+      </c>
     </row>
-    <row r="80" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
         <v>43991</v>
       </c>
@@ -9251,8 +9489,11 @@
       <c r="AJ80" s="13">
         <v>172</v>
       </c>
+      <c r="AK80" s="13">
+        <v>172</v>
+      </c>
     </row>
-    <row r="81" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
         <v>43992</v>
       </c>
@@ -9351,8 +9592,11 @@
       <c r="AJ81" s="13">
         <v>158</v>
       </c>
+      <c r="AK81" s="13">
+        <v>158</v>
+      </c>
     </row>
-    <row r="82" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
         <v>43993</v>
       </c>
@@ -9449,8 +9693,11 @@
       <c r="AJ82" s="13">
         <v>161</v>
       </c>
+      <c r="AK82" s="13">
+        <v>161</v>
+      </c>
     </row>
-    <row r="83" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A83" s="5">
         <v>43994</v>
       </c>
@@ -9545,8 +9792,11 @@
       <c r="AJ83" s="13">
         <v>162</v>
       </c>
+      <c r="AK83" s="13">
+        <v>163</v>
+      </c>
     </row>
-    <row r="84" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
         <v>43995</v>
       </c>
@@ -9639,8 +9889,11 @@
       <c r="AJ84" s="13">
         <v>173</v>
       </c>
+      <c r="AK84" s="13">
+        <v>173</v>
+      </c>
     </row>
-    <row r="85" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A85" s="5">
         <v>43996</v>
       </c>
@@ -9722,8 +9975,11 @@
       <c r="AJ85" s="13">
         <v>151</v>
       </c>
+      <c r="AK85" s="13">
+        <v>151</v>
+      </c>
     </row>
-    <row r="86" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A86" s="5">
         <v>43997</v>
       </c>
@@ -9803,8 +10059,11 @@
       <c r="AJ86" s="13">
         <v>148</v>
       </c>
+      <c r="AK86" s="13">
+        <v>148</v>
+      </c>
     </row>
-    <row r="87" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A87" s="5">
         <v>43998</v>
       </c>
@@ -9880,8 +10139,11 @@
       <c r="AJ87" s="13">
         <v>167</v>
       </c>
+      <c r="AK87" s="13">
+        <v>167</v>
+      </c>
     </row>
-    <row r="88" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A88" s="5">
         <v>43999</v>
       </c>
@@ -9954,8 +10216,11 @@
       <c r="AJ88" s="13">
         <v>169</v>
       </c>
+      <c r="AK88" s="13">
+        <v>169</v>
+      </c>
     </row>
-    <row r="89" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A89" s="5">
         <v>44000</v>
       </c>
@@ -10025,8 +10290,11 @@
       <c r="AJ89" s="13">
         <v>126</v>
       </c>
+      <c r="AK89" s="13">
+        <v>126</v>
+      </c>
     </row>
-    <row r="90" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A90" s="5">
         <v>44001</v>
       </c>
@@ -10093,8 +10361,11 @@
       <c r="AJ90" s="13">
         <v>142</v>
       </c>
+      <c r="AK90" s="13">
+        <v>142</v>
+      </c>
     </row>
-    <row r="91" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A91" s="5">
         <v>44002</v>
       </c>
@@ -10158,8 +10429,11 @@
       <c r="AJ91" s="13">
         <v>135</v>
       </c>
+      <c r="AK91" s="13">
+        <v>135</v>
+      </c>
     </row>
-    <row r="92" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A92" s="5">
         <v>44003</v>
       </c>
@@ -10220,8 +10494,11 @@
       <c r="AJ92" s="13">
         <v>126</v>
       </c>
+      <c r="AK92" s="13">
+        <v>126</v>
+      </c>
     </row>
-    <row r="93" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A93" s="5">
         <v>44004</v>
       </c>
@@ -10279,8 +10556,11 @@
       <c r="AJ93" s="13">
         <v>123</v>
       </c>
+      <c r="AK93" s="13">
+        <v>123</v>
+      </c>
     </row>
-    <row r="94" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A94" s="5">
         <v>44005</v>
       </c>
@@ -10335,8 +10615,11 @@
       <c r="AJ94" s="13">
         <v>120</v>
       </c>
+      <c r="AK94" s="13">
+        <v>120</v>
+      </c>
     </row>
-    <row r="95" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A95" s="5">
         <v>44006</v>
       </c>
@@ -10388,8 +10671,11 @@
       <c r="AJ95" s="13">
         <v>122</v>
       </c>
+      <c r="AK95" s="13">
+        <v>122</v>
+      </c>
     </row>
-    <row r="96" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A96" s="5">
         <v>44007</v>
       </c>
@@ -10438,8 +10724,11 @@
       <c r="AJ96" s="13">
         <v>123</v>
       </c>
+      <c r="AK96" s="13">
+        <v>123</v>
+      </c>
     </row>
-    <row r="97" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A97" s="5">
         <v>44008</v>
       </c>
@@ -10485,8 +10774,11 @@
       <c r="AJ97" s="13">
         <v>117</v>
       </c>
+      <c r="AK97" s="13">
+        <v>119</v>
+      </c>
     </row>
-    <row r="98" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A98" s="5">
         <v>44009</v>
       </c>
@@ -10529,8 +10821,11 @@
       <c r="AJ98" s="13">
         <v>109</v>
       </c>
+      <c r="AK98" s="13">
+        <v>109</v>
+      </c>
     </row>
-    <row r="99" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A99" s="5">
         <v>44010</v>
       </c>
@@ -10570,8 +10865,11 @@
       <c r="AJ99" s="13">
         <v>120</v>
       </c>
+      <c r="AK99" s="13">
+        <v>120</v>
+      </c>
     </row>
-    <row r="100" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A100" s="5">
         <v>44011</v>
       </c>
@@ -10608,8 +10906,11 @@
       <c r="AJ100" s="13">
         <v>110</v>
       </c>
+      <c r="AK100" s="13">
+        <v>110</v>
+      </c>
     </row>
-    <row r="101" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A101" s="5">
         <v>44012</v>
       </c>
@@ -10643,8 +10944,11 @@
       <c r="AJ101" s="13">
         <v>105</v>
       </c>
+      <c r="AK101" s="13">
+        <v>105</v>
+      </c>
     </row>
-    <row r="102" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A102" s="5">
         <v>44013</v>
       </c>
@@ -10675,8 +10979,11 @@
       <c r="AJ102" s="13">
         <v>97</v>
       </c>
+      <c r="AK102" s="13">
+        <v>97</v>
+      </c>
     </row>
-    <row r="103" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A103" s="5">
         <v>44014</v>
       </c>
@@ -10704,8 +11011,11 @@
       <c r="AJ103" s="13">
         <v>115</v>
       </c>
+      <c r="AK103" s="13">
+        <v>115</v>
+      </c>
     </row>
-    <row r="104" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A104" s="5">
         <v>44015</v>
       </c>
@@ -10730,8 +11040,11 @@
       <c r="AJ104" s="13">
         <v>105</v>
       </c>
+      <c r="AK104" s="13">
+        <v>105</v>
+      </c>
     </row>
-    <row r="105" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A105" s="5">
         <v>44016</v>
       </c>
@@ -10753,8 +11066,11 @@
       <c r="AJ105" s="13">
         <v>81</v>
       </c>
+      <c r="AK105" s="13">
+        <v>83</v>
+      </c>
     </row>
-    <row r="106" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A106" s="5">
         <v>44017</v>
       </c>
@@ -10773,8 +11089,11 @@
       <c r="AJ106" s="13">
         <v>78</v>
       </c>
+      <c r="AK106" s="13">
+        <v>81</v>
+      </c>
     </row>
-    <row r="107" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A107" s="5">
         <v>44018</v>
       </c>
@@ -10790,8 +11109,11 @@
       <c r="AJ107" s="13">
         <v>86</v>
       </c>
+      <c r="AK107" s="13">
+        <v>93</v>
+      </c>
     </row>
-    <row r="108" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A108" s="5">
         <v>44019</v>
       </c>
@@ -10804,8 +11126,11 @@
       <c r="AJ108" s="13">
         <v>69</v>
       </c>
+      <c r="AK108" s="13">
+        <v>80</v>
+      </c>
     </row>
-    <row r="109" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A109" s="5">
         <v>44020</v>
       </c>
@@ -10815,13 +11140,27 @@
       <c r="AJ109" s="13">
         <v>61</v>
       </c>
+      <c r="AK109" s="13">
+        <v>75</v>
+      </c>
     </row>
-    <row r="110" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A110" s="5">
         <v>44021</v>
       </c>
       <c r="AJ110" s="13">
         <v>20</v>
+      </c>
+      <c r="AK110" s="13">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="111" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A111" s="5">
+        <v>44022</v>
+      </c>
+      <c r="AK111" s="13">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/input/NuevaDefDefunciones/Fallecidos Min Ciencias acumulado.xlsx
+++ b/input/NuevaDefDefunciones/Fallecidos Min Ciencias acumulado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/faviola/covid-19/REPORTEDIARIO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C384424-5EBD-294F-90BD-35ADF5B0C4DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CBB8A9E-F502-7740-A211-5E4E74A5C91E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="740" yWindow="760" windowWidth="28060" windowHeight="14120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -425,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK111"/>
+  <dimension ref="A1:AL112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="AK111" sqref="AK111"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="AL112" sqref="AL112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -437,7 +437,7 @@
     <col min="23" max="23" width="10.83203125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -585,8 +585,12 @@
         <f>SUM(AK3:AK999)</f>
         <v>6979</v>
       </c>
+      <c r="AL1" s="11">
+        <f>SUM(AL3:AL999)</f>
+        <v>7024</v>
+      </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -698,8 +702,11 @@
       <c r="AK2" s="10">
         <v>44024</v>
       </c>
+      <c r="AL2" s="10">
+        <v>44025</v>
+      </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>43910</v>
       </c>
@@ -811,8 +818,11 @@
       <c r="AK3" s="13">
         <v>1</v>
       </c>
+      <c r="AL3" s="13">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>43915</v>
       </c>
@@ -924,8 +934,11 @@
       <c r="AK4" s="13">
         <v>1</v>
       </c>
+      <c r="AL4" s="13">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>43916</v>
       </c>
@@ -1037,8 +1050,11 @@
       <c r="AK5" s="13">
         <v>1</v>
       </c>
+      <c r="AL5" s="13">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>43917</v>
       </c>
@@ -1150,8 +1166,11 @@
       <c r="AK6" s="13">
         <v>1</v>
       </c>
+      <c r="AL6" s="13">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>43918</v>
       </c>
@@ -1263,8 +1282,11 @@
       <c r="AK7" s="13">
         <v>1</v>
       </c>
+      <c r="AL7" s="13">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>43919</v>
       </c>
@@ -1376,8 +1398,11 @@
       <c r="AK8" s="13">
         <v>1</v>
       </c>
+      <c r="AL8" s="13">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>43920</v>
       </c>
@@ -1489,8 +1514,11 @@
       <c r="AK9" s="13">
         <v>3</v>
       </c>
+      <c r="AL9" s="13">
+        <v>3</v>
+      </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>43921</v>
       </c>
@@ -1602,8 +1630,11 @@
       <c r="AK10" s="13">
         <v>4</v>
       </c>
+      <c r="AL10" s="13">
+        <v>4</v>
+      </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>43922</v>
       </c>
@@ -1715,8 +1746,11 @@
       <c r="AK11" s="13">
         <v>1</v>
       </c>
+      <c r="AL11" s="13">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>43923</v>
       </c>
@@ -1828,8 +1862,11 @@
       <c r="AK12" s="13">
         <v>4</v>
       </c>
+      <c r="AL12" s="13">
+        <v>4</v>
+      </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>43924</v>
       </c>
@@ -1941,8 +1978,11 @@
       <c r="AK13" s="13">
         <v>6</v>
       </c>
+      <c r="AL13" s="13">
+        <v>6</v>
+      </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>43925</v>
       </c>
@@ -2054,8 +2094,11 @@
       <c r="AK14" s="13">
         <v>8</v>
       </c>
+      <c r="AL14" s="13">
+        <v>8</v>
+      </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>43926</v>
       </c>
@@ -2167,8 +2210,11 @@
       <c r="AK15" s="13">
         <v>1</v>
       </c>
+      <c r="AL15" s="13">
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>43927</v>
       </c>
@@ -2280,8 +2326,11 @@
       <c r="AK16" s="13">
         <v>6</v>
       </c>
+      <c r="AL16" s="13">
+        <v>6</v>
+      </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>43928</v>
       </c>
@@ -2393,8 +2442,11 @@
       <c r="AK17" s="13">
         <v>4</v>
       </c>
+      <c r="AL17" s="13">
+        <v>4</v>
+      </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>43929</v>
       </c>
@@ -2506,8 +2558,11 @@
       <c r="AK18" s="13">
         <v>10</v>
       </c>
+      <c r="AL18" s="13">
+        <v>10</v>
+      </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>43930</v>
       </c>
@@ -2619,8 +2674,11 @@
       <c r="AK19" s="13">
         <v>9</v>
       </c>
+      <c r="AL19" s="13">
+        <v>9</v>
+      </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>43931</v>
       </c>
@@ -2732,8 +2790,11 @@
       <c r="AK20" s="13">
         <v>6</v>
       </c>
+      <c r="AL20" s="13">
+        <v>6</v>
+      </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>43932</v>
       </c>
@@ -2845,8 +2906,11 @@
       <c r="AK21" s="13">
         <v>7</v>
       </c>
+      <c r="AL21" s="13">
+        <v>7</v>
+      </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>43933</v>
       </c>
@@ -2958,8 +3022,11 @@
       <c r="AK22" s="13">
         <v>3</v>
       </c>
+      <c r="AL22" s="13">
+        <v>3</v>
+      </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>43934</v>
       </c>
@@ -3071,8 +3138,11 @@
       <c r="AK23" s="13">
         <v>9</v>
       </c>
+      <c r="AL23" s="13">
+        <v>9</v>
+      </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>43935</v>
       </c>
@@ -3184,8 +3254,11 @@
       <c r="AK24" s="13">
         <v>4</v>
       </c>
+      <c r="AL24" s="13">
+        <v>4</v>
+      </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>43936</v>
       </c>
@@ -3297,8 +3370,11 @@
       <c r="AK25" s="13">
         <v>9</v>
       </c>
+      <c r="AL25" s="13">
+        <v>9</v>
+      </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>43937</v>
       </c>
@@ -3410,8 +3486,11 @@
       <c r="AK26" s="13">
         <v>6</v>
       </c>
+      <c r="AL26" s="13">
+        <v>6</v>
+      </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>43938</v>
       </c>
@@ -3523,8 +3602,11 @@
       <c r="AK27" s="13">
         <v>5</v>
       </c>
+      <c r="AL27" s="13">
+        <v>5</v>
+      </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>43939</v>
       </c>
@@ -3636,8 +3718,11 @@
       <c r="AK28" s="13">
         <v>7</v>
       </c>
+      <c r="AL28" s="13">
+        <v>7</v>
+      </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>43940</v>
       </c>
@@ -3749,8 +3834,11 @@
       <c r="AK29" s="13">
         <v>6</v>
       </c>
+      <c r="AL29" s="13">
+        <v>6</v>
+      </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>43941</v>
       </c>
@@ -3862,8 +3950,11 @@
       <c r="AK30" s="13">
         <v>10</v>
       </c>
+      <c r="AL30" s="13">
+        <v>10</v>
+      </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>43942</v>
       </c>
@@ -3975,8 +4066,11 @@
       <c r="AK31" s="13">
         <v>8</v>
       </c>
+      <c r="AL31" s="13">
+        <v>8</v>
+      </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>43943</v>
       </c>
@@ -4088,8 +4182,11 @@
       <c r="AK32" s="13">
         <v>5</v>
       </c>
+      <c r="AL32" s="13">
+        <v>5</v>
+      </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>43944</v>
       </c>
@@ -4201,8 +4298,11 @@
       <c r="AK33" s="13">
         <v>7</v>
       </c>
+      <c r="AL33" s="13">
+        <v>7</v>
+      </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>43945</v>
       </c>
@@ -4314,8 +4414,11 @@
       <c r="AK34" s="13">
         <v>6</v>
       </c>
+      <c r="AL34" s="13">
+        <v>6</v>
+      </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>43946</v>
       </c>
@@ -4427,8 +4530,11 @@
       <c r="AK35" s="13">
         <v>7</v>
       </c>
+      <c r="AL35" s="13">
+        <v>7</v>
+      </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>43947</v>
       </c>
@@ -4540,8 +4646,11 @@
       <c r="AK36" s="13">
         <v>9</v>
       </c>
+      <c r="AL36" s="13">
+        <v>9</v>
+      </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>43948</v>
       </c>
@@ -4653,8 +4762,11 @@
       <c r="AK37" s="13">
         <v>12</v>
       </c>
+      <c r="AL37" s="13">
+        <v>12</v>
+      </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>43949</v>
       </c>
@@ -4766,8 +4878,11 @@
       <c r="AK38" s="13">
         <v>7</v>
       </c>
+      <c r="AL38" s="13">
+        <v>7</v>
+      </c>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>43950</v>
       </c>
@@ -4879,8 +4994,11 @@
       <c r="AK39" s="13">
         <v>7</v>
       </c>
+      <c r="AL39" s="13">
+        <v>7</v>
+      </c>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>43951</v>
       </c>
@@ -4992,8 +5110,11 @@
       <c r="AK40" s="13">
         <v>8</v>
       </c>
+      <c r="AL40" s="13">
+        <v>8</v>
+      </c>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>43952</v>
       </c>
@@ -5105,8 +5226,11 @@
       <c r="AK41" s="13">
         <v>10</v>
       </c>
+      <c r="AL41" s="13">
+        <v>10</v>
+      </c>
     </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>43953</v>
       </c>
@@ -5218,8 +5342,11 @@
       <c r="AK42" s="13">
         <v>7</v>
       </c>
+      <c r="AL42" s="13">
+        <v>7</v>
+      </c>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>43954</v>
       </c>
@@ -5331,8 +5458,11 @@
       <c r="AK43" s="13">
         <v>19</v>
       </c>
+      <c r="AL43" s="13">
+        <v>19</v>
+      </c>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>43955</v>
       </c>
@@ -5444,8 +5574,11 @@
       <c r="AK44" s="13">
         <v>13</v>
       </c>
+      <c r="AL44" s="13">
+        <v>13</v>
+      </c>
     </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>43956</v>
       </c>
@@ -5557,8 +5690,11 @@
       <c r="AK45" s="13">
         <v>11</v>
       </c>
+      <c r="AL45" s="13">
+        <v>11</v>
+      </c>
     </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>43957</v>
       </c>
@@ -5670,8 +5806,11 @@
       <c r="AK46" s="13">
         <v>15</v>
       </c>
+      <c r="AL46" s="13">
+        <v>15</v>
+      </c>
     </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>43958</v>
       </c>
@@ -5783,8 +5922,11 @@
       <c r="AK47" s="13">
         <v>30</v>
       </c>
+      <c r="AL47" s="13">
+        <v>30</v>
+      </c>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>43959</v>
       </c>
@@ -5896,8 +6038,11 @@
       <c r="AK48" s="13">
         <v>15</v>
       </c>
+      <c r="AL48" s="13">
+        <v>15</v>
+      </c>
     </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>43960</v>
       </c>
@@ -6009,8 +6154,11 @@
       <c r="AK49" s="13">
         <v>23</v>
       </c>
+      <c r="AL49" s="13">
+        <v>23</v>
+      </c>
     </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>43961</v>
       </c>
@@ -6122,8 +6270,11 @@
       <c r="AK50" s="13">
         <v>31</v>
       </c>
+      <c r="AL50" s="13">
+        <v>31</v>
+      </c>
     </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>43962</v>
       </c>
@@ -6235,8 +6386,11 @@
       <c r="AK51" s="13">
         <v>20</v>
       </c>
+      <c r="AL51" s="13">
+        <v>20</v>
+      </c>
     </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>43963</v>
       </c>
@@ -6348,8 +6502,11 @@
       <c r="AK52" s="13">
         <v>26</v>
       </c>
+      <c r="AL52" s="13">
+        <v>26</v>
+      </c>
     </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>43964</v>
       </c>
@@ -6461,8 +6618,11 @@
       <c r="AK53" s="13">
         <v>38</v>
       </c>
+      <c r="AL53" s="13">
+        <v>38</v>
+      </c>
     </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>43965</v>
       </c>
@@ -6574,8 +6734,11 @@
       <c r="AK54" s="13">
         <v>35</v>
       </c>
+      <c r="AL54" s="13">
+        <v>35</v>
+      </c>
     </row>
-    <row r="55" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <v>43966</v>
       </c>
@@ -6687,8 +6850,11 @@
       <c r="AK55" s="13">
         <v>33</v>
       </c>
+      <c r="AL55" s="13">
+        <v>33</v>
+      </c>
     </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>43967</v>
       </c>
@@ -6800,8 +6966,11 @@
       <c r="AK56" s="13">
         <v>49</v>
       </c>
+      <c r="AL56" s="13">
+        <v>49</v>
+      </c>
     </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>43968</v>
       </c>
@@ -6913,8 +7082,11 @@
       <c r="AK57" s="13">
         <v>46</v>
       </c>
+      <c r="AL57" s="13">
+        <v>46</v>
+      </c>
     </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>43969</v>
       </c>
@@ -7026,8 +7198,11 @@
       <c r="AK58" s="13">
         <v>62</v>
       </c>
+      <c r="AL58" s="13">
+        <v>62</v>
+      </c>
     </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>43970</v>
       </c>
@@ -7139,8 +7314,11 @@
       <c r="AK59" s="13">
         <v>64</v>
       </c>
+      <c r="AL59" s="13">
+        <v>64</v>
+      </c>
     </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>43971</v>
       </c>
@@ -7252,8 +7430,11 @@
       <c r="AK60" s="13">
         <v>66</v>
       </c>
+      <c r="AL60" s="13">
+        <v>66</v>
+      </c>
     </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>43972</v>
       </c>
@@ -7365,8 +7546,11 @@
       <c r="AK61" s="13">
         <v>63</v>
       </c>
+      <c r="AL61" s="13">
+        <v>63</v>
+      </c>
     </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>43973</v>
       </c>
@@ -7478,8 +7662,11 @@
       <c r="AK62" s="13">
         <v>72</v>
       </c>
+      <c r="AL62" s="13">
+        <v>72</v>
+      </c>
     </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>43974</v>
       </c>
@@ -7591,8 +7778,11 @@
       <c r="AK63" s="13">
         <v>86</v>
       </c>
+      <c r="AL63" s="13">
+        <v>86</v>
+      </c>
     </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>43975</v>
       </c>
@@ -7704,8 +7894,11 @@
       <c r="AK64" s="13">
         <v>97</v>
       </c>
+      <c r="AL64" s="13">
+        <v>97</v>
+      </c>
     </row>
-    <row r="65" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>43976</v>
       </c>
@@ -7817,8 +8010,11 @@
       <c r="AK65" s="13">
         <v>87</v>
       </c>
+      <c r="AL65" s="13">
+        <v>87</v>
+      </c>
     </row>
-    <row r="66" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>43977</v>
       </c>
@@ -7930,8 +8126,11 @@
       <c r="AK66" s="13">
         <v>106</v>
       </c>
+      <c r="AL66" s="13">
+        <v>106</v>
+      </c>
     </row>
-    <row r="67" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>43978</v>
       </c>
@@ -8043,8 +8242,11 @@
       <c r="AK67" s="13">
         <v>121</v>
       </c>
+      <c r="AL67" s="13">
+        <v>121</v>
+      </c>
     </row>
-    <row r="68" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>43979</v>
       </c>
@@ -8156,8 +8358,11 @@
       <c r="AK68" s="13">
         <v>115</v>
       </c>
+      <c r="AL68" s="13">
+        <v>115</v>
+      </c>
     </row>
-    <row r="69" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>43980</v>
       </c>
@@ -8269,8 +8474,11 @@
       <c r="AK69" s="13">
         <v>125</v>
       </c>
+      <c r="AL69" s="13">
+        <v>125</v>
+      </c>
     </row>
-    <row r="70" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>43981</v>
       </c>
@@ -8382,8 +8590,11 @@
       <c r="AK70" s="13">
         <v>135</v>
       </c>
+      <c r="AL70" s="13">
+        <v>135</v>
+      </c>
     </row>
-    <row r="71" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
         <v>43982</v>
       </c>
@@ -8495,8 +8706,11 @@
       <c r="AK71" s="13">
         <v>117</v>
       </c>
+      <c r="AL71" s="13">
+        <v>117</v>
+      </c>
     </row>
-    <row r="72" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <v>43983</v>
       </c>
@@ -8608,8 +8822,11 @@
       <c r="AK72" s="13">
         <v>143</v>
       </c>
+      <c r="AL72" s="13">
+        <v>143</v>
+      </c>
     </row>
-    <row r="73" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <v>43984</v>
       </c>
@@ -8721,8 +8938,11 @@
       <c r="AK73" s="13">
         <v>138</v>
       </c>
+      <c r="AL73" s="13">
+        <v>138</v>
+      </c>
     </row>
-    <row r="74" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
         <v>43985</v>
       </c>
@@ -8834,8 +9054,11 @@
       <c r="AK74" s="13">
         <v>151</v>
       </c>
+      <c r="AL74" s="13">
+        <v>151</v>
+      </c>
     </row>
-    <row r="75" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
         <v>43986</v>
       </c>
@@ -8947,8 +9170,11 @@
       <c r="AK75" s="13">
         <v>148</v>
       </c>
+      <c r="AL75" s="13">
+        <v>148</v>
+      </c>
     </row>
-    <row r="76" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <v>43987</v>
       </c>
@@ -9060,8 +9286,11 @@
       <c r="AK76" s="13">
         <v>156</v>
       </c>
+      <c r="AL76" s="13">
+        <v>156</v>
+      </c>
     </row>
-    <row r="77" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
         <v>43988</v>
       </c>
@@ -9171,8 +9400,11 @@
       <c r="AK77" s="13">
         <v>160</v>
       </c>
+      <c r="AL77" s="13">
+        <v>160</v>
+      </c>
     </row>
-    <row r="78" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A78" s="5">
         <v>43989</v>
       </c>
@@ -9280,8 +9512,11 @@
       <c r="AK78" s="13">
         <v>148</v>
       </c>
+      <c r="AL78" s="13">
+        <v>148</v>
+      </c>
     </row>
-    <row r="79" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A79" s="5">
         <v>43990</v>
       </c>
@@ -9387,8 +9622,11 @@
       <c r="AK79" s="13">
         <v>139</v>
       </c>
+      <c r="AL79" s="13">
+        <v>139</v>
+      </c>
     </row>
-    <row r="80" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
         <v>43991</v>
       </c>
@@ -9492,8 +9730,11 @@
       <c r="AK80" s="13">
         <v>172</v>
       </c>
+      <c r="AL80" s="13">
+        <v>172</v>
+      </c>
     </row>
-    <row r="81" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
         <v>43992</v>
       </c>
@@ -9595,8 +9836,11 @@
       <c r="AK81" s="13">
         <v>158</v>
       </c>
+      <c r="AL81" s="13">
+        <v>158</v>
+      </c>
     </row>
-    <row r="82" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
         <v>43993</v>
       </c>
@@ -9696,8 +9940,11 @@
       <c r="AK82" s="13">
         <v>161</v>
       </c>
+      <c r="AL82" s="13">
+        <v>161</v>
+      </c>
     </row>
-    <row r="83" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A83" s="5">
         <v>43994</v>
       </c>
@@ -9795,8 +10042,11 @@
       <c r="AK83" s="13">
         <v>163</v>
       </c>
+      <c r="AL83" s="13">
+        <v>163</v>
+      </c>
     </row>
-    <row r="84" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
         <v>43995</v>
       </c>
@@ -9892,8 +10142,11 @@
       <c r="AK84" s="13">
         <v>173</v>
       </c>
+      <c r="AL84" s="13">
+        <v>173</v>
+      </c>
     </row>
-    <row r="85" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A85" s="5">
         <v>43996</v>
       </c>
@@ -9978,8 +10231,11 @@
       <c r="AK85" s="13">
         <v>151</v>
       </c>
+      <c r="AL85" s="13">
+        <v>151</v>
+      </c>
     </row>
-    <row r="86" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A86" s="5">
         <v>43997</v>
       </c>
@@ -10062,8 +10318,11 @@
       <c r="AK86" s="13">
         <v>148</v>
       </c>
+      <c r="AL86" s="13">
+        <v>148</v>
+      </c>
     </row>
-    <row r="87" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A87" s="5">
         <v>43998</v>
       </c>
@@ -10142,8 +10401,11 @@
       <c r="AK87" s="13">
         <v>167</v>
       </c>
+      <c r="AL87" s="13">
+        <v>167</v>
+      </c>
     </row>
-    <row r="88" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A88" s="5">
         <v>43999</v>
       </c>
@@ -10219,8 +10481,11 @@
       <c r="AK88" s="13">
         <v>169</v>
       </c>
+      <c r="AL88" s="13">
+        <v>169</v>
+      </c>
     </row>
-    <row r="89" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A89" s="5">
         <v>44000</v>
       </c>
@@ -10293,8 +10558,11 @@
       <c r="AK89" s="13">
         <v>126</v>
       </c>
+      <c r="AL89" s="13">
+        <v>126</v>
+      </c>
     </row>
-    <row r="90" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A90" s="5">
         <v>44001</v>
       </c>
@@ -10364,8 +10632,11 @@
       <c r="AK90" s="13">
         <v>142</v>
       </c>
+      <c r="AL90" s="13">
+        <v>142</v>
+      </c>
     </row>
-    <row r="91" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A91" s="5">
         <v>44002</v>
       </c>
@@ -10432,8 +10703,11 @@
       <c r="AK91" s="13">
         <v>135</v>
       </c>
+      <c r="AL91" s="13">
+        <v>135</v>
+      </c>
     </row>
-    <row r="92" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A92" s="5">
         <v>44003</v>
       </c>
@@ -10497,8 +10771,11 @@
       <c r="AK92" s="13">
         <v>126</v>
       </c>
+      <c r="AL92" s="13">
+        <v>126</v>
+      </c>
     </row>
-    <row r="93" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A93" s="5">
         <v>44004</v>
       </c>
@@ -10559,8 +10836,11 @@
       <c r="AK93" s="13">
         <v>123</v>
       </c>
+      <c r="AL93" s="13">
+        <v>123</v>
+      </c>
     </row>
-    <row r="94" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A94" s="5">
         <v>44005</v>
       </c>
@@ -10618,8 +10898,11 @@
       <c r="AK94" s="13">
         <v>120</v>
       </c>
+      <c r="AL94" s="13">
+        <v>120</v>
+      </c>
     </row>
-    <row r="95" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A95" s="5">
         <v>44006</v>
       </c>
@@ -10674,8 +10957,11 @@
       <c r="AK95" s="13">
         <v>122</v>
       </c>
+      <c r="AL95" s="13">
+        <v>122</v>
+      </c>
     </row>
-    <row r="96" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A96" s="5">
         <v>44007</v>
       </c>
@@ -10727,8 +11013,11 @@
       <c r="AK96" s="13">
         <v>123</v>
       </c>
+      <c r="AL96" s="13">
+        <v>123</v>
+      </c>
     </row>
-    <row r="97" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A97" s="5">
         <v>44008</v>
       </c>
@@ -10777,8 +11066,11 @@
       <c r="AK97" s="13">
         <v>119</v>
       </c>
+      <c r="AL97" s="13">
+        <v>119</v>
+      </c>
     </row>
-    <row r="98" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A98" s="5">
         <v>44009</v>
       </c>
@@ -10824,8 +11116,11 @@
       <c r="AK98" s="13">
         <v>109</v>
       </c>
+      <c r="AL98" s="13">
+        <v>109</v>
+      </c>
     </row>
-    <row r="99" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A99" s="5">
         <v>44010</v>
       </c>
@@ -10868,8 +11163,11 @@
       <c r="AK99" s="13">
         <v>120</v>
       </c>
+      <c r="AL99" s="13">
+        <v>120</v>
+      </c>
     </row>
-    <row r="100" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A100" s="5">
         <v>44011</v>
       </c>
@@ -10909,8 +11207,11 @@
       <c r="AK100" s="13">
         <v>110</v>
       </c>
+      <c r="AL100" s="13">
+        <v>110</v>
+      </c>
     </row>
-    <row r="101" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A101" s="5">
         <v>44012</v>
       </c>
@@ -10947,8 +11248,11 @@
       <c r="AK101" s="13">
         <v>105</v>
       </c>
+      <c r="AL101" s="13">
+        <v>105</v>
+      </c>
     </row>
-    <row r="102" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A102" s="5">
         <v>44013</v>
       </c>
@@ -10982,8 +11286,11 @@
       <c r="AK102" s="13">
         <v>97</v>
       </c>
+      <c r="AL102" s="13">
+        <v>97</v>
+      </c>
     </row>
-    <row r="103" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A103" s="5">
         <v>44014</v>
       </c>
@@ -11014,8 +11321,11 @@
       <c r="AK103" s="13">
         <v>115</v>
       </c>
+      <c r="AL103" s="13">
+        <v>115</v>
+      </c>
     </row>
-    <row r="104" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A104" s="5">
         <v>44015</v>
       </c>
@@ -11043,8 +11353,11 @@
       <c r="AK104" s="13">
         <v>105</v>
       </c>
+      <c r="AL104" s="13">
+        <v>105</v>
+      </c>
     </row>
-    <row r="105" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A105" s="5">
         <v>44016</v>
       </c>
@@ -11069,8 +11382,11 @@
       <c r="AK105" s="13">
         <v>83</v>
       </c>
+      <c r="AL105" s="13">
+        <v>83</v>
+      </c>
     </row>
-    <row r="106" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A106" s="5">
         <v>44017</v>
       </c>
@@ -11092,8 +11408,11 @@
       <c r="AK106" s="13">
         <v>81</v>
       </c>
+      <c r="AL106" s="13">
+        <v>81</v>
+      </c>
     </row>
-    <row r="107" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A107" s="5">
         <v>44018</v>
       </c>
@@ -11112,8 +11431,11 @@
       <c r="AK107" s="13">
         <v>93</v>
       </c>
+      <c r="AL107" s="13">
+        <v>93</v>
+      </c>
     </row>
-    <row r="108" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A108" s="5">
         <v>44019</v>
       </c>
@@ -11129,8 +11451,11 @@
       <c r="AK108" s="13">
         <v>80</v>
       </c>
+      <c r="AL108" s="13">
+        <v>80</v>
+      </c>
     </row>
-    <row r="109" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A109" s="5">
         <v>44020</v>
       </c>
@@ -11143,8 +11468,11 @@
       <c r="AK109" s="13">
         <v>75</v>
       </c>
+      <c r="AL109" s="13">
+        <v>75</v>
+      </c>
     </row>
-    <row r="110" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A110" s="5">
         <v>44021</v>
       </c>
@@ -11154,13 +11482,27 @@
       <c r="AK110" s="13">
         <v>66</v>
       </c>
+      <c r="AL110" s="13">
+        <v>80</v>
+      </c>
     </row>
-    <row r="111" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A111" s="5">
         <v>44022</v>
       </c>
       <c r="AK111" s="13">
         <v>12</v>
+      </c>
+      <c r="AL111" s="13">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="112" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A112" s="5">
+        <v>44023</v>
+      </c>
+      <c r="AL112" s="13">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/input/NuevaDefDefunciones/Fallecidos Min Ciencias acumulado.xlsx
+++ b/input/NuevaDefDefunciones/Fallecidos Min Ciencias acumulado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/faviola/covid-19/REPORTEDIARIO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CBB8A9E-F502-7740-A211-5E4E74A5C91E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7F654F-A7C7-664E-99E2-5C2F7E0FA03C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="740" yWindow="760" windowWidth="28060" windowHeight="14120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -425,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL112"/>
+  <dimension ref="A1:AM113"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="AL112" sqref="AL112"/>
+      <selection activeCell="AM113" sqref="AM113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -437,7 +437,7 @@
     <col min="23" max="23" width="10.83203125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -589,8 +589,12 @@
         <f>SUM(AL3:AL999)</f>
         <v>7024</v>
       </c>
+      <c r="AM1" s="11">
+        <f>SUM(AM3:AM999)</f>
+        <v>7069</v>
+      </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -705,8 +709,11 @@
       <c r="AL2" s="10">
         <v>44025</v>
       </c>
+      <c r="AM2" s="10">
+        <v>44026</v>
+      </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>43910</v>
       </c>
@@ -821,8 +828,11 @@
       <c r="AL3" s="13">
         <v>1</v>
       </c>
+      <c r="AM3" s="13">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>43915</v>
       </c>
@@ -937,8 +947,11 @@
       <c r="AL4" s="13">
         <v>1</v>
       </c>
+      <c r="AM4" s="13">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>43916</v>
       </c>
@@ -1053,8 +1066,11 @@
       <c r="AL5" s="13">
         <v>1</v>
       </c>
+      <c r="AM5" s="13">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>43917</v>
       </c>
@@ -1169,8 +1185,11 @@
       <c r="AL6" s="13">
         <v>1</v>
       </c>
+      <c r="AM6" s="13">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>43918</v>
       </c>
@@ -1285,8 +1304,11 @@
       <c r="AL7" s="13">
         <v>1</v>
       </c>
+      <c r="AM7" s="13">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>43919</v>
       </c>
@@ -1401,8 +1423,11 @@
       <c r="AL8" s="13">
         <v>1</v>
       </c>
+      <c r="AM8" s="13">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>43920</v>
       </c>
@@ -1517,8 +1542,11 @@
       <c r="AL9" s="13">
         <v>3</v>
       </c>
+      <c r="AM9" s="13">
+        <v>3</v>
+      </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>43921</v>
       </c>
@@ -1633,8 +1661,11 @@
       <c r="AL10" s="13">
         <v>4</v>
       </c>
+      <c r="AM10" s="13">
+        <v>4</v>
+      </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>43922</v>
       </c>
@@ -1749,8 +1780,11 @@
       <c r="AL11" s="13">
         <v>1</v>
       </c>
+      <c r="AM11" s="13">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>43923</v>
       </c>
@@ -1865,8 +1899,11 @@
       <c r="AL12" s="13">
         <v>4</v>
       </c>
+      <c r="AM12" s="13">
+        <v>4</v>
+      </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>43924</v>
       </c>
@@ -1981,8 +2018,11 @@
       <c r="AL13" s="13">
         <v>6</v>
       </c>
+      <c r="AM13" s="13">
+        <v>6</v>
+      </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>43925</v>
       </c>
@@ -2097,8 +2137,11 @@
       <c r="AL14" s="13">
         <v>8</v>
       </c>
+      <c r="AM14" s="13">
+        <v>8</v>
+      </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>43926</v>
       </c>
@@ -2213,8 +2256,11 @@
       <c r="AL15" s="13">
         <v>1</v>
       </c>
+      <c r="AM15" s="13">
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>43927</v>
       </c>
@@ -2329,8 +2375,11 @@
       <c r="AL16" s="13">
         <v>6</v>
       </c>
+      <c r="AM16" s="13">
+        <v>6</v>
+      </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>43928</v>
       </c>
@@ -2445,8 +2494,11 @@
       <c r="AL17" s="13">
         <v>4</v>
       </c>
+      <c r="AM17" s="13">
+        <v>4</v>
+      </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>43929</v>
       </c>
@@ -2561,8 +2613,11 @@
       <c r="AL18" s="13">
         <v>10</v>
       </c>
+      <c r="AM18" s="13">
+        <v>10</v>
+      </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>43930</v>
       </c>
@@ -2677,8 +2732,11 @@
       <c r="AL19" s="13">
         <v>9</v>
       </c>
+      <c r="AM19" s="13">
+        <v>9</v>
+      </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>43931</v>
       </c>
@@ -2793,8 +2851,11 @@
       <c r="AL20" s="13">
         <v>6</v>
       </c>
+      <c r="AM20" s="13">
+        <v>6</v>
+      </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>43932</v>
       </c>
@@ -2909,8 +2970,11 @@
       <c r="AL21" s="13">
         <v>7</v>
       </c>
+      <c r="AM21" s="13">
+        <v>7</v>
+      </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>43933</v>
       </c>
@@ -3025,8 +3089,11 @@
       <c r="AL22" s="13">
         <v>3</v>
       </c>
+      <c r="AM22" s="13">
+        <v>3</v>
+      </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>43934</v>
       </c>
@@ -3141,8 +3208,11 @@
       <c r="AL23" s="13">
         <v>9</v>
       </c>
+      <c r="AM23" s="13">
+        <v>9</v>
+      </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>43935</v>
       </c>
@@ -3257,8 +3327,11 @@
       <c r="AL24" s="13">
         <v>4</v>
       </c>
+      <c r="AM24" s="13">
+        <v>4</v>
+      </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>43936</v>
       </c>
@@ -3373,8 +3446,11 @@
       <c r="AL25" s="13">
         <v>9</v>
       </c>
+      <c r="AM25" s="13">
+        <v>9</v>
+      </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>43937</v>
       </c>
@@ -3489,8 +3565,11 @@
       <c r="AL26" s="13">
         <v>6</v>
       </c>
+      <c r="AM26" s="13">
+        <v>6</v>
+      </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>43938</v>
       </c>
@@ -3605,8 +3684,11 @@
       <c r="AL27" s="13">
         <v>5</v>
       </c>
+      <c r="AM27" s="13">
+        <v>5</v>
+      </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>43939</v>
       </c>
@@ -3721,8 +3803,11 @@
       <c r="AL28" s="13">
         <v>7</v>
       </c>
+      <c r="AM28" s="13">
+        <v>7</v>
+      </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>43940</v>
       </c>
@@ -3837,8 +3922,11 @@
       <c r="AL29" s="13">
         <v>6</v>
       </c>
+      <c r="AM29" s="13">
+        <v>6</v>
+      </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>43941</v>
       </c>
@@ -3953,8 +4041,11 @@
       <c r="AL30" s="13">
         <v>10</v>
       </c>
+      <c r="AM30" s="13">
+        <v>10</v>
+      </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>43942</v>
       </c>
@@ -4069,8 +4160,11 @@
       <c r="AL31" s="13">
         <v>8</v>
       </c>
+      <c r="AM31" s="13">
+        <v>8</v>
+      </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>43943</v>
       </c>
@@ -4185,8 +4279,11 @@
       <c r="AL32" s="13">
         <v>5</v>
       </c>
+      <c r="AM32" s="13">
+        <v>5</v>
+      </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>43944</v>
       </c>
@@ -4301,8 +4398,11 @@
       <c r="AL33" s="13">
         <v>7</v>
       </c>
+      <c r="AM33" s="13">
+        <v>7</v>
+      </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>43945</v>
       </c>
@@ -4417,8 +4517,11 @@
       <c r="AL34" s="13">
         <v>6</v>
       </c>
+      <c r="AM34" s="13">
+        <v>6</v>
+      </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>43946</v>
       </c>
@@ -4533,8 +4636,11 @@
       <c r="AL35" s="13">
         <v>7</v>
       </c>
+      <c r="AM35" s="13">
+        <v>7</v>
+      </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>43947</v>
       </c>
@@ -4649,8 +4755,11 @@
       <c r="AL36" s="13">
         <v>9</v>
       </c>
+      <c r="AM36" s="13">
+        <v>9</v>
+      </c>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>43948</v>
       </c>
@@ -4765,8 +4874,11 @@
       <c r="AL37" s="13">
         <v>12</v>
       </c>
+      <c r="AM37" s="13">
+        <v>12</v>
+      </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>43949</v>
       </c>
@@ -4881,8 +4993,11 @@
       <c r="AL38" s="13">
         <v>7</v>
       </c>
+      <c r="AM38" s="13">
+        <v>7</v>
+      </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>43950</v>
       </c>
@@ -4997,8 +5112,11 @@
       <c r="AL39" s="13">
         <v>7</v>
       </c>
+      <c r="AM39" s="13">
+        <v>7</v>
+      </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>43951</v>
       </c>
@@ -5113,8 +5231,11 @@
       <c r="AL40" s="13">
         <v>8</v>
       </c>
+      <c r="AM40" s="13">
+        <v>8</v>
+      </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>43952</v>
       </c>
@@ -5229,8 +5350,11 @@
       <c r="AL41" s="13">
         <v>10</v>
       </c>
+      <c r="AM41" s="13">
+        <v>10</v>
+      </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>43953</v>
       </c>
@@ -5345,8 +5469,11 @@
       <c r="AL42" s="13">
         <v>7</v>
       </c>
+      <c r="AM42" s="13">
+        <v>7</v>
+      </c>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>43954</v>
       </c>
@@ -5461,8 +5588,11 @@
       <c r="AL43" s="13">
         <v>19</v>
       </c>
+      <c r="AM43" s="13">
+        <v>19</v>
+      </c>
     </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>43955</v>
       </c>
@@ -5577,8 +5707,11 @@
       <c r="AL44" s="13">
         <v>13</v>
       </c>
+      <c r="AM44" s="13">
+        <v>13</v>
+      </c>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>43956</v>
       </c>
@@ -5693,8 +5826,11 @@
       <c r="AL45" s="13">
         <v>11</v>
       </c>
+      <c r="AM45" s="13">
+        <v>11</v>
+      </c>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>43957</v>
       </c>
@@ -5809,8 +5945,11 @@
       <c r="AL46" s="13">
         <v>15</v>
       </c>
+      <c r="AM46" s="13">
+        <v>15</v>
+      </c>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>43958</v>
       </c>
@@ -5925,8 +6064,11 @@
       <c r="AL47" s="13">
         <v>30</v>
       </c>
+      <c r="AM47" s="13">
+        <v>30</v>
+      </c>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>43959</v>
       </c>
@@ -6041,8 +6183,11 @@
       <c r="AL48" s="13">
         <v>15</v>
       </c>
+      <c r="AM48" s="13">
+        <v>15</v>
+      </c>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>43960</v>
       </c>
@@ -6157,8 +6302,11 @@
       <c r="AL49" s="13">
         <v>23</v>
       </c>
+      <c r="AM49" s="13">
+        <v>23</v>
+      </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>43961</v>
       </c>
@@ -6273,8 +6421,11 @@
       <c r="AL50" s="13">
         <v>31</v>
       </c>
+      <c r="AM50" s="13">
+        <v>31</v>
+      </c>
     </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>43962</v>
       </c>
@@ -6389,8 +6540,11 @@
       <c r="AL51" s="13">
         <v>20</v>
       </c>
+      <c r="AM51" s="13">
+        <v>20</v>
+      </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>43963</v>
       </c>
@@ -6505,8 +6659,11 @@
       <c r="AL52" s="13">
         <v>26</v>
       </c>
+      <c r="AM52" s="13">
+        <v>26</v>
+      </c>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>43964</v>
       </c>
@@ -6621,8 +6778,11 @@
       <c r="AL53" s="13">
         <v>38</v>
       </c>
+      <c r="AM53" s="13">
+        <v>38</v>
+      </c>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>43965</v>
       </c>
@@ -6737,8 +6897,11 @@
       <c r="AL54" s="13">
         <v>35</v>
       </c>
+      <c r="AM54" s="13">
+        <v>35</v>
+      </c>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <v>43966</v>
       </c>
@@ -6853,8 +7016,11 @@
       <c r="AL55" s="13">
         <v>33</v>
       </c>
+      <c r="AM55" s="13">
+        <v>33</v>
+      </c>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>43967</v>
       </c>
@@ -6969,8 +7135,11 @@
       <c r="AL56" s="13">
         <v>49</v>
       </c>
+      <c r="AM56" s="13">
+        <v>49</v>
+      </c>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>43968</v>
       </c>
@@ -7085,8 +7254,11 @@
       <c r="AL57" s="13">
         <v>46</v>
       </c>
+      <c r="AM57" s="13">
+        <v>46</v>
+      </c>
     </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>43969</v>
       </c>
@@ -7201,8 +7373,11 @@
       <c r="AL58" s="13">
         <v>62</v>
       </c>
+      <c r="AM58" s="13">
+        <v>62</v>
+      </c>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>43970</v>
       </c>
@@ -7317,8 +7492,11 @@
       <c r="AL59" s="13">
         <v>64</v>
       </c>
+      <c r="AM59" s="13">
+        <v>64</v>
+      </c>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>43971</v>
       </c>
@@ -7433,8 +7611,11 @@
       <c r="AL60" s="13">
         <v>66</v>
       </c>
+      <c r="AM60" s="13">
+        <v>66</v>
+      </c>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>43972</v>
       </c>
@@ -7549,8 +7730,11 @@
       <c r="AL61" s="13">
         <v>63</v>
       </c>
+      <c r="AM61" s="13">
+        <v>63</v>
+      </c>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>43973</v>
       </c>
@@ -7665,8 +7849,11 @@
       <c r="AL62" s="13">
         <v>72</v>
       </c>
+      <c r="AM62" s="13">
+        <v>72</v>
+      </c>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>43974</v>
       </c>
@@ -7781,8 +7968,11 @@
       <c r="AL63" s="13">
         <v>86</v>
       </c>
+      <c r="AM63" s="13">
+        <v>86</v>
+      </c>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>43975</v>
       </c>
@@ -7897,8 +8087,11 @@
       <c r="AL64" s="13">
         <v>97</v>
       </c>
+      <c r="AM64" s="13">
+        <v>97</v>
+      </c>
     </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>43976</v>
       </c>
@@ -8013,8 +8206,11 @@
       <c r="AL65" s="13">
         <v>87</v>
       </c>
+      <c r="AM65" s="13">
+        <v>87</v>
+      </c>
     </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>43977</v>
       </c>
@@ -8129,8 +8325,11 @@
       <c r="AL66" s="13">
         <v>106</v>
       </c>
+      <c r="AM66" s="13">
+        <v>106</v>
+      </c>
     </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>43978</v>
       </c>
@@ -8245,8 +8444,11 @@
       <c r="AL67" s="13">
         <v>121</v>
       </c>
+      <c r="AM67" s="13">
+        <v>121</v>
+      </c>
     </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>43979</v>
       </c>
@@ -8361,8 +8563,11 @@
       <c r="AL68" s="13">
         <v>115</v>
       </c>
+      <c r="AM68" s="13">
+        <v>115</v>
+      </c>
     </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>43980</v>
       </c>
@@ -8477,8 +8682,11 @@
       <c r="AL69" s="13">
         <v>125</v>
       </c>
+      <c r="AM69" s="13">
+        <v>125</v>
+      </c>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>43981</v>
       </c>
@@ -8593,8 +8801,11 @@
       <c r="AL70" s="13">
         <v>135</v>
       </c>
+      <c r="AM70" s="13">
+        <v>135</v>
+      </c>
     </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
         <v>43982</v>
       </c>
@@ -8709,8 +8920,11 @@
       <c r="AL71" s="13">
         <v>117</v>
       </c>
+      <c r="AM71" s="13">
+        <v>117</v>
+      </c>
     </row>
-    <row r="72" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <v>43983</v>
       </c>
@@ -8825,8 +9039,11 @@
       <c r="AL72" s="13">
         <v>143</v>
       </c>
+      <c r="AM72" s="13">
+        <v>143</v>
+      </c>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <v>43984</v>
       </c>
@@ -8941,8 +9158,11 @@
       <c r="AL73" s="13">
         <v>138</v>
       </c>
+      <c r="AM73" s="13">
+        <v>138</v>
+      </c>
     </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
         <v>43985</v>
       </c>
@@ -9057,8 +9277,11 @@
       <c r="AL74" s="13">
         <v>151</v>
       </c>
+      <c r="AM74" s="13">
+        <v>151</v>
+      </c>
     </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
         <v>43986</v>
       </c>
@@ -9173,8 +9396,11 @@
       <c r="AL75" s="13">
         <v>148</v>
       </c>
+      <c r="AM75" s="13">
+        <v>148</v>
+      </c>
     </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <v>43987</v>
       </c>
@@ -9289,8 +9515,11 @@
       <c r="AL76" s="13">
         <v>156</v>
       </c>
+      <c r="AM76" s="13">
+        <v>156</v>
+      </c>
     </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
         <v>43988</v>
       </c>
@@ -9403,8 +9632,11 @@
       <c r="AL77" s="13">
         <v>160</v>
       </c>
+      <c r="AM77" s="13">
+        <v>160</v>
+      </c>
     </row>
-    <row r="78" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A78" s="5">
         <v>43989</v>
       </c>
@@ -9515,8 +9747,11 @@
       <c r="AL78" s="13">
         <v>148</v>
       </c>
+      <c r="AM78" s="13">
+        <v>148</v>
+      </c>
     </row>
-    <row r="79" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A79" s="5">
         <v>43990</v>
       </c>
@@ -9625,8 +9860,11 @@
       <c r="AL79" s="13">
         <v>139</v>
       </c>
+      <c r="AM79" s="13">
+        <v>139</v>
+      </c>
     </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
         <v>43991</v>
       </c>
@@ -9733,8 +9971,11 @@
       <c r="AL80" s="13">
         <v>172</v>
       </c>
+      <c r="AM80" s="13">
+        <v>172</v>
+      </c>
     </row>
-    <row r="81" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
         <v>43992</v>
       </c>
@@ -9839,8 +10080,11 @@
       <c r="AL81" s="13">
         <v>158</v>
       </c>
+      <c r="AM81" s="13">
+        <v>158</v>
+      </c>
     </row>
-    <row r="82" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
         <v>43993</v>
       </c>
@@ -9943,8 +10187,11 @@
       <c r="AL82" s="13">
         <v>161</v>
       </c>
+      <c r="AM82" s="13">
+        <v>161</v>
+      </c>
     </row>
-    <row r="83" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A83" s="5">
         <v>43994</v>
       </c>
@@ -10045,8 +10292,11 @@
       <c r="AL83" s="13">
         <v>163</v>
       </c>
+      <c r="AM83" s="13">
+        <v>163</v>
+      </c>
     </row>
-    <row r="84" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
         <v>43995</v>
       </c>
@@ -10145,8 +10395,11 @@
       <c r="AL84" s="13">
         <v>173</v>
       </c>
+      <c r="AM84" s="13">
+        <v>173</v>
+      </c>
     </row>
-    <row r="85" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A85" s="5">
         <v>43996</v>
       </c>
@@ -10234,8 +10487,11 @@
       <c r="AL85" s="13">
         <v>151</v>
       </c>
+      <c r="AM85" s="13">
+        <v>151</v>
+      </c>
     </row>
-    <row r="86" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A86" s="5">
         <v>43997</v>
       </c>
@@ -10321,8 +10577,11 @@
       <c r="AL86" s="13">
         <v>148</v>
       </c>
+      <c r="AM86" s="13">
+        <v>148</v>
+      </c>
     </row>
-    <row r="87" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A87" s="5">
         <v>43998</v>
       </c>
@@ -10404,8 +10663,11 @@
       <c r="AL87" s="13">
         <v>167</v>
       </c>
+      <c r="AM87" s="13">
+        <v>167</v>
+      </c>
     </row>
-    <row r="88" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A88" s="5">
         <v>43999</v>
       </c>
@@ -10484,8 +10746,11 @@
       <c r="AL88" s="13">
         <v>169</v>
       </c>
+      <c r="AM88" s="13">
+        <v>169</v>
+      </c>
     </row>
-    <row r="89" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A89" s="5">
         <v>44000</v>
       </c>
@@ -10561,8 +10826,11 @@
       <c r="AL89" s="13">
         <v>126</v>
       </c>
+      <c r="AM89" s="13">
+        <v>126</v>
+      </c>
     </row>
-    <row r="90" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A90" s="5">
         <v>44001</v>
       </c>
@@ -10635,8 +10903,11 @@
       <c r="AL90" s="13">
         <v>142</v>
       </c>
+      <c r="AM90" s="13">
+        <v>142</v>
+      </c>
     </row>
-    <row r="91" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A91" s="5">
         <v>44002</v>
       </c>
@@ -10706,8 +10977,11 @@
       <c r="AL91" s="13">
         <v>135</v>
       </c>
+      <c r="AM91" s="13">
+        <v>135</v>
+      </c>
     </row>
-    <row r="92" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A92" s="5">
         <v>44003</v>
       </c>
@@ -10774,8 +11048,11 @@
       <c r="AL92" s="13">
         <v>126</v>
       </c>
+      <c r="AM92" s="13">
+        <v>126</v>
+      </c>
     </row>
-    <row r="93" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A93" s="5">
         <v>44004</v>
       </c>
@@ -10839,8 +11116,11 @@
       <c r="AL93" s="13">
         <v>123</v>
       </c>
+      <c r="AM93" s="13">
+        <v>123</v>
+      </c>
     </row>
-    <row r="94" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A94" s="5">
         <v>44005</v>
       </c>
@@ -10901,8 +11181,11 @@
       <c r="AL94" s="13">
         <v>120</v>
       </c>
+      <c r="AM94" s="13">
+        <v>120</v>
+      </c>
     </row>
-    <row r="95" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A95" s="5">
         <v>44006</v>
       </c>
@@ -10960,8 +11243,11 @@
       <c r="AL95" s="13">
         <v>122</v>
       </c>
+      <c r="AM95" s="13">
+        <v>122</v>
+      </c>
     </row>
-    <row r="96" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A96" s="5">
         <v>44007</v>
       </c>
@@ -11016,8 +11302,11 @@
       <c r="AL96" s="13">
         <v>123</v>
       </c>
+      <c r="AM96" s="13">
+        <v>123</v>
+      </c>
     </row>
-    <row r="97" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A97" s="5">
         <v>44008</v>
       </c>
@@ -11069,8 +11358,11 @@
       <c r="AL97" s="13">
         <v>119</v>
       </c>
+      <c r="AM97" s="13">
+        <v>119</v>
+      </c>
     </row>
-    <row r="98" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A98" s="5">
         <v>44009</v>
       </c>
@@ -11119,8 +11411,11 @@
       <c r="AL98" s="13">
         <v>109</v>
       </c>
+      <c r="AM98" s="13">
+        <v>109</v>
+      </c>
     </row>
-    <row r="99" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A99" s="5">
         <v>44010</v>
       </c>
@@ -11166,8 +11461,11 @@
       <c r="AL99" s="13">
         <v>120</v>
       </c>
+      <c r="AM99" s="13">
+        <v>120</v>
+      </c>
     </row>
-    <row r="100" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A100" s="5">
         <v>44011</v>
       </c>
@@ -11210,8 +11508,11 @@
       <c r="AL100" s="13">
         <v>110</v>
       </c>
+      <c r="AM100" s="13">
+        <v>110</v>
+      </c>
     </row>
-    <row r="101" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A101" s="5">
         <v>44012</v>
       </c>
@@ -11251,8 +11552,11 @@
       <c r="AL101" s="13">
         <v>105</v>
       </c>
+      <c r="AM101" s="13">
+        <v>105</v>
+      </c>
     </row>
-    <row r="102" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A102" s="5">
         <v>44013</v>
       </c>
@@ -11289,8 +11593,11 @@
       <c r="AL102" s="13">
         <v>97</v>
       </c>
+      <c r="AM102" s="13">
+        <v>97</v>
+      </c>
     </row>
-    <row r="103" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A103" s="5">
         <v>44014</v>
       </c>
@@ -11324,8 +11631,11 @@
       <c r="AL103" s="13">
         <v>115</v>
       </c>
+      <c r="AM103" s="13">
+        <v>115</v>
+      </c>
     </row>
-    <row r="104" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A104" s="5">
         <v>44015</v>
       </c>
@@ -11356,8 +11666,11 @@
       <c r="AL104" s="13">
         <v>105</v>
       </c>
+      <c r="AM104" s="13">
+        <v>105</v>
+      </c>
     </row>
-    <row r="105" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A105" s="5">
         <v>44016</v>
       </c>
@@ -11385,8 +11698,11 @@
       <c r="AL105" s="13">
         <v>83</v>
       </c>
+      <c r="AM105" s="13">
+        <v>83</v>
+      </c>
     </row>
-    <row r="106" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A106" s="5">
         <v>44017</v>
       </c>
@@ -11411,8 +11727,11 @@
       <c r="AL106" s="13">
         <v>81</v>
       </c>
+      <c r="AM106" s="13">
+        <v>81</v>
+      </c>
     </row>
-    <row r="107" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A107" s="5">
         <v>44018</v>
       </c>
@@ -11434,8 +11753,11 @@
       <c r="AL107" s="13">
         <v>93</v>
       </c>
+      <c r="AM107" s="13">
+        <v>93</v>
+      </c>
     </row>
-    <row r="108" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A108" s="5">
         <v>44019</v>
       </c>
@@ -11454,8 +11776,11 @@
       <c r="AL108" s="13">
         <v>80</v>
       </c>
+      <c r="AM108" s="13">
+        <v>80</v>
+      </c>
     </row>
-    <row r="109" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A109" s="5">
         <v>44020</v>
       </c>
@@ -11471,8 +11796,11 @@
       <c r="AL109" s="13">
         <v>75</v>
       </c>
+      <c r="AM109" s="13">
+        <v>75</v>
+      </c>
     </row>
-    <row r="110" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A110" s="5">
         <v>44021</v>
       </c>
@@ -11485,8 +11813,11 @@
       <c r="AL110" s="13">
         <v>80</v>
       </c>
+      <c r="AM110" s="13">
+        <v>81</v>
+      </c>
     </row>
-    <row r="111" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A111" s="5">
         <v>44022</v>
       </c>
@@ -11496,13 +11827,27 @@
       <c r="AL111" s="13">
         <v>37</v>
       </c>
+      <c r="AM111" s="13">
+        <v>51</v>
+      </c>
     </row>
-    <row r="112" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A112" s="5">
         <v>44023</v>
       </c>
       <c r="AL112" s="13">
         <v>6</v>
+      </c>
+      <c r="AM112" s="13">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="113" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A113" s="5">
+        <v>44024</v>
+      </c>
+      <c r="AM113" s="13">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/input/NuevaDefDefunciones/Fallecidos Min Ciencias acumulado.xlsx
+++ b/input/NuevaDefDefunciones/Fallecidos Min Ciencias acumulado.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/faviola/covid-19/REPORTEDIARIO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7F654F-A7C7-664E-99E2-5C2F7E0FA03C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D421D2-7D52-B94C-A155-A4B81DE2A91D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="760" windowWidth="28060" windowHeight="14120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="28040" windowHeight="14120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -425,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AM113"/>
+  <dimension ref="A1:AN114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="AM113" sqref="AM113"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="AN114" sqref="AN114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -437,7 +437,7 @@
     <col min="23" max="23" width="10.83203125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -593,8 +593,12 @@
         <f>SUM(AM3:AM999)</f>
         <v>7069</v>
       </c>
+      <c r="AN1" s="11">
+        <f>SUM(AN3:AN999)</f>
+        <v>7186</v>
+      </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -712,8 +716,11 @@
       <c r="AM2" s="10">
         <v>44026</v>
       </c>
+      <c r="AN2" s="10">
+        <v>44027</v>
+      </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>43910</v>
       </c>
@@ -831,8 +838,11 @@
       <c r="AM3" s="13">
         <v>1</v>
       </c>
+      <c r="AN3" s="13">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>43915</v>
       </c>
@@ -950,8 +960,11 @@
       <c r="AM4" s="13">
         <v>1</v>
       </c>
+      <c r="AN4" s="13">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>43916</v>
       </c>
@@ -1069,8 +1082,11 @@
       <c r="AM5" s="13">
         <v>1</v>
       </c>
+      <c r="AN5" s="13">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>43917</v>
       </c>
@@ -1188,8 +1204,11 @@
       <c r="AM6" s="13">
         <v>1</v>
       </c>
+      <c r="AN6" s="13">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>43918</v>
       </c>
@@ -1307,8 +1326,11 @@
       <c r="AM7" s="13">
         <v>1</v>
       </c>
+      <c r="AN7" s="13">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>43919</v>
       </c>
@@ -1426,8 +1448,11 @@
       <c r="AM8" s="13">
         <v>1</v>
       </c>
+      <c r="AN8" s="13">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>43920</v>
       </c>
@@ -1545,8 +1570,11 @@
       <c r="AM9" s="13">
         <v>3</v>
       </c>
+      <c r="AN9" s="13">
+        <v>3</v>
+      </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>43921</v>
       </c>
@@ -1664,8 +1692,11 @@
       <c r="AM10" s="13">
         <v>4</v>
       </c>
+      <c r="AN10" s="13">
+        <v>4</v>
+      </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>43922</v>
       </c>
@@ -1783,8 +1814,11 @@
       <c r="AM11" s="13">
         <v>1</v>
       </c>
+      <c r="AN11" s="13">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>43923</v>
       </c>
@@ -1902,8 +1936,11 @@
       <c r="AM12" s="13">
         <v>4</v>
       </c>
+      <c r="AN12" s="13">
+        <v>4</v>
+      </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>43924</v>
       </c>
@@ -2021,8 +2058,11 @@
       <c r="AM13" s="13">
         <v>6</v>
       </c>
+      <c r="AN13" s="13">
+        <v>6</v>
+      </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>43925</v>
       </c>
@@ -2140,8 +2180,11 @@
       <c r="AM14" s="13">
         <v>8</v>
       </c>
+      <c r="AN14" s="13">
+        <v>8</v>
+      </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>43926</v>
       </c>
@@ -2259,8 +2302,11 @@
       <c r="AM15" s="13">
         <v>1</v>
       </c>
+      <c r="AN15" s="13">
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>43927</v>
       </c>
@@ -2378,8 +2424,11 @@
       <c r="AM16" s="13">
         <v>6</v>
       </c>
+      <c r="AN16" s="13">
+        <v>6</v>
+      </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>43928</v>
       </c>
@@ -2497,8 +2546,11 @@
       <c r="AM17" s="13">
         <v>4</v>
       </c>
+      <c r="AN17" s="13">
+        <v>4</v>
+      </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>43929</v>
       </c>
@@ -2616,8 +2668,11 @@
       <c r="AM18" s="13">
         <v>10</v>
       </c>
+      <c r="AN18" s="13">
+        <v>10</v>
+      </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>43930</v>
       </c>
@@ -2735,8 +2790,11 @@
       <c r="AM19" s="13">
         <v>9</v>
       </c>
+      <c r="AN19" s="13">
+        <v>9</v>
+      </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>43931</v>
       </c>
@@ -2854,8 +2912,11 @@
       <c r="AM20" s="13">
         <v>6</v>
       </c>
+      <c r="AN20" s="13">
+        <v>6</v>
+      </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>43932</v>
       </c>
@@ -2973,8 +3034,11 @@
       <c r="AM21" s="13">
         <v>7</v>
       </c>
+      <c r="AN21" s="13">
+        <v>7</v>
+      </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>43933</v>
       </c>
@@ -3092,8 +3156,11 @@
       <c r="AM22" s="13">
         <v>3</v>
       </c>
+      <c r="AN22" s="13">
+        <v>3</v>
+      </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>43934</v>
       </c>
@@ -3211,8 +3278,11 @@
       <c r="AM23" s="13">
         <v>9</v>
       </c>
+      <c r="AN23" s="13">
+        <v>9</v>
+      </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>43935</v>
       </c>
@@ -3330,8 +3400,11 @@
       <c r="AM24" s="13">
         <v>4</v>
       </c>
+      <c r="AN24" s="13">
+        <v>4</v>
+      </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>43936</v>
       </c>
@@ -3449,8 +3522,11 @@
       <c r="AM25" s="13">
         <v>9</v>
       </c>
+      <c r="AN25" s="13">
+        <v>9</v>
+      </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>43937</v>
       </c>
@@ -3568,8 +3644,11 @@
       <c r="AM26" s="13">
         <v>6</v>
       </c>
+      <c r="AN26" s="13">
+        <v>6</v>
+      </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>43938</v>
       </c>
@@ -3687,8 +3766,11 @@
       <c r="AM27" s="13">
         <v>5</v>
       </c>
+      <c r="AN27" s="13">
+        <v>5</v>
+      </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>43939</v>
       </c>
@@ -3806,8 +3888,11 @@
       <c r="AM28" s="13">
         <v>7</v>
       </c>
+      <c r="AN28" s="13">
+        <v>7</v>
+      </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>43940</v>
       </c>
@@ -3925,8 +4010,11 @@
       <c r="AM29" s="13">
         <v>6</v>
       </c>
+      <c r="AN29" s="13">
+        <v>6</v>
+      </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>43941</v>
       </c>
@@ -4044,8 +4132,11 @@
       <c r="AM30" s="13">
         <v>10</v>
       </c>
+      <c r="AN30" s="13">
+        <v>10</v>
+      </c>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>43942</v>
       </c>
@@ -4163,8 +4254,11 @@
       <c r="AM31" s="13">
         <v>8</v>
       </c>
+      <c r="AN31" s="13">
+        <v>8</v>
+      </c>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>43943</v>
       </c>
@@ -4282,8 +4376,11 @@
       <c r="AM32" s="13">
         <v>5</v>
       </c>
+      <c r="AN32" s="13">
+        <v>5</v>
+      </c>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>43944</v>
       </c>
@@ -4401,8 +4498,11 @@
       <c r="AM33" s="13">
         <v>7</v>
       </c>
+      <c r="AN33" s="13">
+        <v>7</v>
+      </c>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>43945</v>
       </c>
@@ -4520,8 +4620,11 @@
       <c r="AM34" s="13">
         <v>6</v>
       </c>
+      <c r="AN34" s="13">
+        <v>6</v>
+      </c>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>43946</v>
       </c>
@@ -4639,8 +4742,11 @@
       <c r="AM35" s="13">
         <v>7</v>
       </c>
+      <c r="AN35" s="13">
+        <v>7</v>
+      </c>
     </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>43947</v>
       </c>
@@ -4758,8 +4864,11 @@
       <c r="AM36" s="13">
         <v>9</v>
       </c>
+      <c r="AN36" s="13">
+        <v>9</v>
+      </c>
     </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>43948</v>
       </c>
@@ -4877,8 +4986,11 @@
       <c r="AM37" s="13">
         <v>12</v>
       </c>
+      <c r="AN37" s="13">
+        <v>12</v>
+      </c>
     </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>43949</v>
       </c>
@@ -4996,8 +5108,11 @@
       <c r="AM38" s="13">
         <v>7</v>
       </c>
+      <c r="AN38" s="13">
+        <v>7</v>
+      </c>
     </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>43950</v>
       </c>
@@ -5115,8 +5230,11 @@
       <c r="AM39" s="13">
         <v>7</v>
       </c>
+      <c r="AN39" s="13">
+        <v>7</v>
+      </c>
     </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>43951</v>
       </c>
@@ -5234,8 +5352,11 @@
       <c r="AM40" s="13">
         <v>8</v>
       </c>
+      <c r="AN40" s="13">
+        <v>8</v>
+      </c>
     </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>43952</v>
       </c>
@@ -5353,8 +5474,11 @@
       <c r="AM41" s="13">
         <v>10</v>
       </c>
+      <c r="AN41" s="13">
+        <v>10</v>
+      </c>
     </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>43953</v>
       </c>
@@ -5472,8 +5596,11 @@
       <c r="AM42" s="13">
         <v>7</v>
       </c>
+      <c r="AN42" s="13">
+        <v>7</v>
+      </c>
     </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>43954</v>
       </c>
@@ -5591,8 +5718,11 @@
       <c r="AM43" s="13">
         <v>19</v>
       </c>
+      <c r="AN43" s="13">
+        <v>19</v>
+      </c>
     </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>43955</v>
       </c>
@@ -5710,8 +5840,11 @@
       <c r="AM44" s="13">
         <v>13</v>
       </c>
+      <c r="AN44" s="13">
+        <v>13</v>
+      </c>
     </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>43956</v>
       </c>
@@ -5829,8 +5962,11 @@
       <c r="AM45" s="13">
         <v>11</v>
       </c>
+      <c r="AN45" s="13">
+        <v>12</v>
+      </c>
     </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>43957</v>
       </c>
@@ -5948,8 +6084,11 @@
       <c r="AM46" s="13">
         <v>15</v>
       </c>
+      <c r="AN46" s="13">
+        <v>15</v>
+      </c>
     </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>43958</v>
       </c>
@@ -6067,8 +6206,11 @@
       <c r="AM47" s="13">
         <v>30</v>
       </c>
+      <c r="AN47" s="13">
+        <v>30</v>
+      </c>
     </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>43959</v>
       </c>
@@ -6186,8 +6328,11 @@
       <c r="AM48" s="13">
         <v>15</v>
       </c>
+      <c r="AN48" s="13">
+        <v>15</v>
+      </c>
     </row>
-    <row r="49" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>43960</v>
       </c>
@@ -6305,8 +6450,11 @@
       <c r="AM49" s="13">
         <v>23</v>
       </c>
+      <c r="AN49" s="13">
+        <v>23</v>
+      </c>
     </row>
-    <row r="50" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>43961</v>
       </c>
@@ -6424,8 +6572,11 @@
       <c r="AM50" s="13">
         <v>31</v>
       </c>
+      <c r="AN50" s="13">
+        <v>31</v>
+      </c>
     </row>
-    <row r="51" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>43962</v>
       </c>
@@ -6543,8 +6694,11 @@
       <c r="AM51" s="13">
         <v>20</v>
       </c>
+      <c r="AN51" s="13">
+        <v>20</v>
+      </c>
     </row>
-    <row r="52" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>43963</v>
       </c>
@@ -6662,8 +6816,11 @@
       <c r="AM52" s="13">
         <v>26</v>
       </c>
+      <c r="AN52" s="13">
+        <v>26</v>
+      </c>
     </row>
-    <row r="53" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>43964</v>
       </c>
@@ -6781,8 +6938,11 @@
       <c r="AM53" s="13">
         <v>38</v>
       </c>
+      <c r="AN53" s="13">
+        <v>38</v>
+      </c>
     </row>
-    <row r="54" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>43965</v>
       </c>
@@ -6900,8 +7060,11 @@
       <c r="AM54" s="13">
         <v>35</v>
       </c>
+      <c r="AN54" s="13">
+        <v>35</v>
+      </c>
     </row>
-    <row r="55" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <v>43966</v>
       </c>
@@ -7019,8 +7182,11 @@
       <c r="AM55" s="13">
         <v>33</v>
       </c>
+      <c r="AN55" s="13">
+        <v>33</v>
+      </c>
     </row>
-    <row r="56" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>43967</v>
       </c>
@@ -7138,8 +7304,11 @@
       <c r="AM56" s="13">
         <v>49</v>
       </c>
+      <c r="AN56" s="13">
+        <v>50</v>
+      </c>
     </row>
-    <row r="57" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>43968</v>
       </c>
@@ -7257,8 +7426,11 @@
       <c r="AM57" s="13">
         <v>46</v>
       </c>
+      <c r="AN57" s="13">
+        <v>46</v>
+      </c>
     </row>
-    <row r="58" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>43969</v>
       </c>
@@ -7376,8 +7548,11 @@
       <c r="AM58" s="13">
         <v>62</v>
       </c>
+      <c r="AN58" s="13">
+        <v>62</v>
+      </c>
     </row>
-    <row r="59" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>43970</v>
       </c>
@@ -7495,8 +7670,11 @@
       <c r="AM59" s="13">
         <v>64</v>
       </c>
+      <c r="AN59" s="13">
+        <v>64</v>
+      </c>
     </row>
-    <row r="60" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>43971</v>
       </c>
@@ -7614,8 +7792,11 @@
       <c r="AM60" s="13">
         <v>66</v>
       </c>
+      <c r="AN60" s="13">
+        <v>66</v>
+      </c>
     </row>
-    <row r="61" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>43972</v>
       </c>
@@ -7733,8 +7914,11 @@
       <c r="AM61" s="13">
         <v>63</v>
       </c>
+      <c r="AN61" s="13">
+        <v>63</v>
+      </c>
     </row>
-    <row r="62" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>43973</v>
       </c>
@@ -7852,8 +8036,11 @@
       <c r="AM62" s="13">
         <v>72</v>
       </c>
+      <c r="AN62" s="13">
+        <v>72</v>
+      </c>
     </row>
-    <row r="63" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>43974</v>
       </c>
@@ -7971,8 +8158,11 @@
       <c r="AM63" s="13">
         <v>86</v>
       </c>
+      <c r="AN63" s="13">
+        <v>86</v>
+      </c>
     </row>
-    <row r="64" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>43975</v>
       </c>
@@ -8090,8 +8280,11 @@
       <c r="AM64" s="13">
         <v>97</v>
       </c>
+      <c r="AN64" s="13">
+        <v>97</v>
+      </c>
     </row>
-    <row r="65" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>43976</v>
       </c>
@@ -8209,8 +8402,11 @@
       <c r="AM65" s="13">
         <v>87</v>
       </c>
+      <c r="AN65" s="13">
+        <v>87</v>
+      </c>
     </row>
-    <row r="66" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>43977</v>
       </c>
@@ -8328,8 +8524,11 @@
       <c r="AM66" s="13">
         <v>106</v>
       </c>
+      <c r="AN66" s="13">
+        <v>106</v>
+      </c>
     </row>
-    <row r="67" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>43978</v>
       </c>
@@ -8447,8 +8646,11 @@
       <c r="AM67" s="13">
         <v>121</v>
       </c>
+      <c r="AN67" s="13">
+        <v>121</v>
+      </c>
     </row>
-    <row r="68" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>43979</v>
       </c>
@@ -8566,8 +8768,11 @@
       <c r="AM68" s="13">
         <v>115</v>
       </c>
+      <c r="AN68" s="13">
+        <v>115</v>
+      </c>
     </row>
-    <row r="69" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>43980</v>
       </c>
@@ -8685,8 +8890,11 @@
       <c r="AM69" s="13">
         <v>125</v>
       </c>
+      <c r="AN69" s="13">
+        <v>125</v>
+      </c>
     </row>
-    <row r="70" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>43981</v>
       </c>
@@ -8804,8 +9012,11 @@
       <c r="AM70" s="13">
         <v>135</v>
       </c>
+      <c r="AN70" s="13">
+        <v>135</v>
+      </c>
     </row>
-    <row r="71" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
         <v>43982</v>
       </c>
@@ -8923,8 +9134,11 @@
       <c r="AM71" s="13">
         <v>117</v>
       </c>
+      <c r="AN71" s="13">
+        <v>117</v>
+      </c>
     </row>
-    <row r="72" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <v>43983</v>
       </c>
@@ -9042,8 +9256,11 @@
       <c r="AM72" s="13">
         <v>143</v>
       </c>
+      <c r="AN72" s="13">
+        <v>143</v>
+      </c>
     </row>
-    <row r="73" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <v>43984</v>
       </c>
@@ -9161,8 +9378,11 @@
       <c r="AM73" s="13">
         <v>138</v>
       </c>
+      <c r="AN73" s="13">
+        <v>138</v>
+      </c>
     </row>
-    <row r="74" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
         <v>43985</v>
       </c>
@@ -9280,8 +9500,11 @@
       <c r="AM74" s="13">
         <v>151</v>
       </c>
+      <c r="AN74" s="13">
+        <v>151</v>
+      </c>
     </row>
-    <row r="75" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
         <v>43986</v>
       </c>
@@ -9399,8 +9622,11 @@
       <c r="AM75" s="13">
         <v>148</v>
       </c>
+      <c r="AN75" s="13">
+        <v>148</v>
+      </c>
     </row>
-    <row r="76" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <v>43987</v>
       </c>
@@ -9518,8 +9744,11 @@
       <c r="AM76" s="13">
         <v>156</v>
       </c>
+      <c r="AN76" s="13">
+        <v>156</v>
+      </c>
     </row>
-    <row r="77" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
         <v>43988</v>
       </c>
@@ -9635,8 +9864,11 @@
       <c r="AM77" s="13">
         <v>160</v>
       </c>
+      <c r="AN77" s="13">
+        <v>160</v>
+      </c>
     </row>
-    <row r="78" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A78" s="5">
         <v>43989</v>
       </c>
@@ -9750,8 +9982,11 @@
       <c r="AM78" s="13">
         <v>148</v>
       </c>
+      <c r="AN78" s="13">
+        <v>148</v>
+      </c>
     </row>
-    <row r="79" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A79" s="5">
         <v>43990</v>
       </c>
@@ -9863,8 +10098,11 @@
       <c r="AM79" s="13">
         <v>139</v>
       </c>
+      <c r="AN79" s="13">
+        <v>139</v>
+      </c>
     </row>
-    <row r="80" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
         <v>43991</v>
       </c>
@@ -9974,8 +10212,11 @@
       <c r="AM80" s="13">
         <v>172</v>
       </c>
+      <c r="AN80" s="13">
+        <v>172</v>
+      </c>
     </row>
-    <row r="81" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
         <v>43992</v>
       </c>
@@ -10083,8 +10324,11 @@
       <c r="AM81" s="13">
         <v>158</v>
       </c>
+      <c r="AN81" s="13">
+        <v>158</v>
+      </c>
     </row>
-    <row r="82" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
         <v>43993</v>
       </c>
@@ -10190,8 +10434,11 @@
       <c r="AM82" s="13">
         <v>161</v>
       </c>
+      <c r="AN82" s="13">
+        <v>161</v>
+      </c>
     </row>
-    <row r="83" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A83" s="5">
         <v>43994</v>
       </c>
@@ -10295,8 +10542,11 @@
       <c r="AM83" s="13">
         <v>163</v>
       </c>
+      <c r="AN83" s="13">
+        <v>163</v>
+      </c>
     </row>
-    <row r="84" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
         <v>43995</v>
       </c>
@@ -10398,8 +10648,11 @@
       <c r="AM84" s="13">
         <v>173</v>
       </c>
+      <c r="AN84" s="13">
+        <v>173</v>
+      </c>
     </row>
-    <row r="85" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A85" s="5">
         <v>43996</v>
       </c>
@@ -10490,8 +10743,11 @@
       <c r="AM85" s="13">
         <v>151</v>
       </c>
+      <c r="AN85" s="13">
+        <v>151</v>
+      </c>
     </row>
-    <row r="86" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A86" s="5">
         <v>43997</v>
       </c>
@@ -10580,8 +10836,11 @@
       <c r="AM86" s="13">
         <v>148</v>
       </c>
+      <c r="AN86" s="13">
+        <v>148</v>
+      </c>
     </row>
-    <row r="87" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A87" s="5">
         <v>43998</v>
       </c>
@@ -10666,8 +10925,11 @@
       <c r="AM87" s="13">
         <v>167</v>
       </c>
+      <c r="AN87" s="13">
+        <v>167</v>
+      </c>
     </row>
-    <row r="88" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A88" s="5">
         <v>43999</v>
       </c>
@@ -10749,8 +11011,11 @@
       <c r="AM88" s="13">
         <v>169</v>
       </c>
+      <c r="AN88" s="13">
+        <v>169</v>
+      </c>
     </row>
-    <row r="89" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A89" s="5">
         <v>44000</v>
       </c>
@@ -10829,8 +11094,11 @@
       <c r="AM89" s="13">
         <v>126</v>
       </c>
+      <c r="AN89" s="13">
+        <v>127</v>
+      </c>
     </row>
-    <row r="90" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A90" s="5">
         <v>44001</v>
       </c>
@@ -10906,8 +11174,11 @@
       <c r="AM90" s="13">
         <v>142</v>
       </c>
+      <c r="AN90" s="13">
+        <v>142</v>
+      </c>
     </row>
-    <row r="91" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A91" s="5">
         <v>44002</v>
       </c>
@@ -10980,8 +11251,11 @@
       <c r="AM91" s="13">
         <v>135</v>
       </c>
+      <c r="AN91" s="13">
+        <v>135</v>
+      </c>
     </row>
-    <row r="92" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A92" s="5">
         <v>44003</v>
       </c>
@@ -11051,8 +11325,11 @@
       <c r="AM92" s="13">
         <v>126</v>
       </c>
+      <c r="AN92" s="13">
+        <v>126</v>
+      </c>
     </row>
-    <row r="93" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A93" s="5">
         <v>44004</v>
       </c>
@@ -11119,8 +11396,11 @@
       <c r="AM93" s="13">
         <v>123</v>
       </c>
+      <c r="AN93" s="13">
+        <v>123</v>
+      </c>
     </row>
-    <row r="94" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A94" s="5">
         <v>44005</v>
       </c>
@@ -11184,8 +11464,11 @@
       <c r="AM94" s="13">
         <v>120</v>
       </c>
+      <c r="AN94" s="13">
+        <v>120</v>
+      </c>
     </row>
-    <row r="95" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A95" s="5">
         <v>44006</v>
       </c>
@@ -11246,8 +11529,11 @@
       <c r="AM95" s="13">
         <v>122</v>
       </c>
+      <c r="AN95" s="13">
+        <v>122</v>
+      </c>
     </row>
-    <row r="96" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A96" s="5">
         <v>44007</v>
       </c>
@@ -11305,8 +11591,11 @@
       <c r="AM96" s="13">
         <v>123</v>
       </c>
+      <c r="AN96" s="13">
+        <v>123</v>
+      </c>
     </row>
-    <row r="97" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A97" s="5">
         <v>44008</v>
       </c>
@@ -11361,8 +11650,11 @@
       <c r="AM97" s="13">
         <v>119</v>
       </c>
+      <c r="AN97" s="13">
+        <v>120</v>
+      </c>
     </row>
-    <row r="98" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A98" s="5">
         <v>44009</v>
       </c>
@@ -11414,8 +11706,11 @@
       <c r="AM98" s="13">
         <v>109</v>
       </c>
+      <c r="AN98" s="13">
+        <v>109</v>
+      </c>
     </row>
-    <row r="99" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A99" s="5">
         <v>44010</v>
       </c>
@@ -11464,8 +11759,11 @@
       <c r="AM99" s="13">
         <v>120</v>
       </c>
+      <c r="AN99" s="13">
+        <v>120</v>
+      </c>
     </row>
-    <row r="100" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A100" s="5">
         <v>44011</v>
       </c>
@@ -11511,8 +11809,11 @@
       <c r="AM100" s="13">
         <v>110</v>
       </c>
+      <c r="AN100" s="13">
+        <v>110</v>
+      </c>
     </row>
-    <row r="101" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A101" s="5">
         <v>44012</v>
       </c>
@@ -11555,8 +11856,11 @@
       <c r="AM101" s="13">
         <v>105</v>
       </c>
+      <c r="AN101" s="13">
+        <v>105</v>
+      </c>
     </row>
-    <row r="102" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A102" s="5">
         <v>44013</v>
       </c>
@@ -11596,8 +11900,11 @@
       <c r="AM102" s="13">
         <v>97</v>
       </c>
+      <c r="AN102" s="13">
+        <v>97</v>
+      </c>
     </row>
-    <row r="103" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A103" s="5">
         <v>44014</v>
       </c>
@@ -11634,8 +11941,11 @@
       <c r="AM103" s="13">
         <v>115</v>
       </c>
+      <c r="AN103" s="13">
+        <v>117</v>
+      </c>
     </row>
-    <row r="104" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A104" s="5">
         <v>44015</v>
       </c>
@@ -11669,8 +11979,11 @@
       <c r="AM104" s="13">
         <v>105</v>
       </c>
+      <c r="AN104" s="13">
+        <v>106</v>
+      </c>
     </row>
-    <row r="105" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A105" s="5">
         <v>44016</v>
       </c>
@@ -11701,8 +12014,11 @@
       <c r="AM105" s="13">
         <v>83</v>
       </c>
+      <c r="AN105" s="13">
+        <v>84</v>
+      </c>
     </row>
-    <row r="106" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A106" s="5">
         <v>44017</v>
       </c>
@@ -11730,8 +12046,11 @@
       <c r="AM106" s="13">
         <v>81</v>
       </c>
+      <c r="AN106" s="13">
+        <v>84</v>
+      </c>
     </row>
-    <row r="107" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A107" s="5">
         <v>44018</v>
       </c>
@@ -11756,8 +12075,11 @@
       <c r="AM107" s="13">
         <v>93</v>
       </c>
+      <c r="AN107" s="13">
+        <v>93</v>
+      </c>
     </row>
-    <row r="108" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A108" s="5">
         <v>44019</v>
       </c>
@@ -11779,8 +12101,11 @@
       <c r="AM108" s="13">
         <v>80</v>
       </c>
+      <c r="AN108" s="13">
+        <v>84</v>
+      </c>
     </row>
-    <row r="109" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A109" s="5">
         <v>44020</v>
       </c>
@@ -11799,8 +12124,11 @@
       <c r="AM109" s="13">
         <v>75</v>
       </c>
+      <c r="AN109" s="13">
+        <v>78</v>
+      </c>
     </row>
-    <row r="110" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A110" s="5">
         <v>44021</v>
       </c>
@@ -11816,8 +12144,11 @@
       <c r="AM110" s="13">
         <v>81</v>
       </c>
+      <c r="AN110" s="13">
+        <v>86</v>
+      </c>
     </row>
-    <row r="111" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A111" s="5">
         <v>44022</v>
       </c>
@@ -11830,8 +12161,11 @@
       <c r="AM111" s="13">
         <v>51</v>
       </c>
+      <c r="AN111" s="13">
+        <v>67</v>
+      </c>
     </row>
-    <row r="112" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A112" s="5">
         <v>44023</v>
       </c>
@@ -11841,13 +12175,27 @@
       <c r="AM112" s="13">
         <v>35</v>
       </c>
+      <c r="AN112" s="13">
+        <v>66</v>
+      </c>
     </row>
-    <row r="113" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A113" s="5">
         <v>44024</v>
       </c>
       <c r="AM113" s="13">
         <v>1</v>
+      </c>
+      <c r="AN113" s="13">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="114" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A114" s="5">
+        <v>44025</v>
+      </c>
+      <c r="AN114" s="13">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/input/NuevaDefDefunciones/Fallecidos Min Ciencias acumulado.xlsx
+++ b/input/NuevaDefDefunciones/Fallecidos Min Ciencias acumulado.xlsx
@@ -208,11 +208,11 @@
   </sheetPr>
   <dimension ref="A1:AN114"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V60" colorId="64" zoomScale="71" zoomScaleNormal="71" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AN114" activeCellId="0" sqref="AN114"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V66" colorId="64" zoomScale="71" zoomScaleNormal="71" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AO114" activeCellId="0" sqref="AO114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="10.83"/>

--- a/input/NuevaDefDefunciones/Fallecidos Min Ciencias acumulado.xlsx
+++ b/input/NuevaDefDefunciones/Fallecidos Min Ciencias acumulado.xlsx
@@ -208,8 +208,8 @@
   </sheetPr>
   <dimension ref="A1:AN114"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V66" colorId="64" zoomScale="71" zoomScaleNormal="71" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AO114" activeCellId="0" sqref="AO114"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V1" colorId="64" zoomScale="71" zoomScaleNormal="71" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AO5" activeCellId="0" sqref="AO5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
